--- a/Relax.xlsx
+++ b/Relax.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA0909D-2942-4544-AB5F-A51A169387AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CB627B-E557-4E00-A643-11ADB7CA3945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KeHoach" sheetId="5" r:id="rId1"/>
@@ -2195,7 +2195,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{60425335-6940-403D-B8F3-6473296745D6}">
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{60425335-6940-403D-B8F3-6473296745D6}">
       <text>
         <r>
           <rPr>
@@ -2219,7 +2219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O40" authorId="0" shapeId="0" xr:uid="{88562B5A-603C-4241-8AA9-1FF39AB36375}">
+    <comment ref="L36" authorId="0" shapeId="0" xr:uid="{88562B5A-603C-4241-8AA9-1FF39AB36375}">
       <text>
         <r>
           <rPr>
@@ -2243,7 +2243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="0" shapeId="0" xr:uid="{E5D9037A-9360-4BEF-8244-9B21DD73F0FE}">
+    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{E5D9037A-9360-4BEF-8244-9B21DD73F0FE}">
       <text>
         <r>
           <rPr>
@@ -2267,7 +2267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{74FED9E6-FC08-4B4D-8474-931C77F01427}">
+    <comment ref="B44" authorId="0" shapeId="0" xr:uid="{74FED9E6-FC08-4B4D-8474-931C77F01427}">
       <text>
         <r>
           <rPr>
@@ -2291,7 +2291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{EA9D82F6-2C52-4359-8880-D8E049D3AE84}">
+    <comment ref="B45" authorId="0" shapeId="0" xr:uid="{EA9D82F6-2C52-4359-8880-D8E049D3AE84}">
       <text>
         <r>
           <rPr>
@@ -2315,7 +2315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B52" authorId="0" shapeId="0" xr:uid="{B92270FA-8899-44F7-8D2C-A4A390393354}">
+    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{B92270FA-8899-44F7-8D2C-A4A390393354}">
       <text>
         <r>
           <rPr>
@@ -2344,7 +2344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="1295">
   <si>
     <t>https://www.youtube.com/watch?v=T77wtm-2exE</t>
   </si>
@@ -5777,31 +5777,7 @@
     <t xml:space="preserve">Chiến thuật lướt sóng PS đối vs thị trường sideway </t>
   </si>
   <si>
-    <t>Thống kê Phái sinh phục vụ cho việc giao dịch</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Phái sinh</t>
-  </si>
-  <si>
-    <t>Chênh lệch</t>
-  </si>
-  <si>
     <t>H-L PS</t>
-  </si>
-  <si>
-    <t>Kết quả</t>
   </si>
   <si>
     <t>Tổng nhận 70k cho 667,2M; Phong tỏa 395,468M (Thực tế nhận 41k; dự kiến nhận đc 51k - có sẵn 555đ) + 271,8M (thực tế nhận 29k; dự kiến nhận đc 31k - có sẵn 23k)</t>
@@ -6407,38 +6383,6 @@
     <t>Tổng KL SSI</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">H-L </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C-O </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CS</t>
-    </r>
-  </si>
-  <si>
     <t>Ngày 9-5-22</t>
   </si>
   <si>
@@ -6760,12 +6704,6 @@
     <t>Hơi máu với nhận định tt tăng giá mạnh trong phiên hôm nay, dù ATO mở gap khá lớn nhưng vẫn vào mua ATO và còn mua thêm 5 HĐ khi giá mới vừa giảm nhẹ, để rồi sau đó giá giảm mạnh, tiếp tục bơm máu vào và mua 5HĐ ở giá 1325,2, TBG xuống còn 28 từ đỉnh 29,7 ATO =&gt; tới đây là đã khô máu với TT và sẽ không có bước leo thang nào nữa =&gt; có thể là 1 ngày giết SHORT và chấp nhận giữ lệnh tới hết phiên, lỗ tối đa trong đầu là 30 giá &lt;=&gt; 45tr, 1328 xuống còn 1300 =&gt; tiếp tục khô máu với tt khi mua vào thêm 5HĐ khi giá test không thủng 1320 và bật lên 1322,2 =&gt; chốt phiên sáng 1323,7; chốt ngày tại 1325,6 lỗ 2M tính cả phí và thuế; và còn giữ lệnh qua đêm vì Cơ sở VN30 chốt giá cao nhất ngày tại 1342,87, hy vọng tối nay thành viên FOMC phát biểu không tác động xấu tới thị trường Mỹ, cơ sở và ps đang cách nhau 17 giá</t>
   </si>
   <si>
-    <t>Cách biệt  Đóng cửa CS-PS</t>
-  </si>
-  <si>
-    <t>Trade (Giá)</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 lệnh L 1328, sai vì tăng khối lượng, có cơ hội thoát lệnh mà vẫn kỳ vọng, chấp nhận lỗ ~17 giá và chấp nhận làm lại; vẫn giữ lệnh tới hôm sau và đang lỗ 1,39M; tham nên không chốt hoặc dời lệnh về huề vốn khi TT tăng giá; ôm rủi ro sang ngày hôm sau với khối lượng quá lớn khi còn đang âm =&gt; 1 ngày phá vỡ hơi nhiều nguyên tắc =&gt; vẫn còn tính chất hên xui và nhận định chủ quan duy ý chí trong đầu tư </t>
   </si>
   <si>
@@ -7187,6 +7125,60 @@
   </si>
   <si>
     <t>KL_CS(M)</t>
+  </si>
+  <si>
+    <t>3 lệnh L S lẫn lộn =&gt; cần thay đổi để tiếp tục</t>
+  </si>
+  <si>
+    <t>Ngày 7-7-22</t>
+  </si>
+  <si>
+    <t>Tham lam và sợ hãi xuất hiện theo 1 cách ko mong muốn, cái cần tham thì ko tham, cái cần sợ thì ko sợ =&gt; mất mát ko đáng có</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS - PS </t>
+  </si>
+  <si>
+    <t>CS C-O</t>
+  </si>
+  <si>
+    <t>CS H-L</t>
+  </si>
+  <si>
+    <t>Kết quả Trade (Giá)</t>
+  </si>
+  <si>
+    <t>CS(C)-PS(C)</t>
+  </si>
+  <si>
+    <t>PS H-L</t>
+  </si>
+  <si>
+    <t>PS-Open</t>
+  </si>
+  <si>
+    <t>PS-High</t>
+  </si>
+  <si>
+    <t>PS-Low</t>
+  </si>
+  <si>
+    <t>PS-Close</t>
+  </si>
+  <si>
+    <t>CS-Open</t>
+  </si>
+  <si>
+    <t>CS-High</t>
+  </si>
+  <si>
+    <t>CS-Low</t>
+  </si>
+  <si>
+    <t>CS-Close</t>
   </si>
 </sst>
 </file>
@@ -7420,7 +7412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7454,6 +7446,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7666,7 +7664,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -7949,6 +7947,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9501,17 +9501,17 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -11680,8 +11680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6293297E-B88A-45D7-A63B-B3F6BFB51BF0}">
   <dimension ref="A1:AB284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:Q9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11707,7 +11707,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="158" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="N1">
         <v>2022</v>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="N2" s="15">
         <f>PS!M2+SUM(D:D)-SUM(O2:Q2)</f>
-        <v>53525.942279999988</v>
+        <v>54425.942279999988</v>
       </c>
       <c r="O2" s="15">
         <v>62924</v>
@@ -11814,7 +11814,7 @@
         <v>48.399999999999991</v>
       </c>
       <c r="S3" s="28" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>281</v>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="N6" s="21">
         <f ca="1">-N9+0*J86+PS!M6*0+N12+J77+J73+J75+5080+J71+J69+J67+J65+J63+J61+J59+J56+J54+J48+J50+J52+J46+J44+J42+J40+J38+8230+J36+J35+J33+J34+J27+J32+J31+J30+J29+J26+J24+J22+1000+J20+J10+J16+J14+J12</f>
-        <v>-55504.154916666084</v>
+        <v>-55412.600749999423</v>
       </c>
       <c r="O6" s="21">
         <f>-O9+1*J86+29000-16000-800-22000-500-2200+7900+9200+4700+1000+500+7900+J135+J133+J131+11000+J127+J129+J125+J123+J121+J119+J117+J115+J113+J111+274+J110-5000+J108+J106+J102+J104+I105+1850+J100+J98+J96+J94+J93+J91+J89+J88+J84</f>
@@ -11950,7 +11950,7 @@
       </c>
       <c r="N7" s="36">
         <f ca="1">SUM(N4:N6)</f>
-        <v>239242.64830448222</v>
+        <v>239334.20247114889</v>
       </c>
       <c r="O7" s="36">
         <f>SUM(O4:O6)</f>
@@ -12018,7 +12018,7 @@
       <c r="I9" s="67"/>
       <c r="J9" s="161"/>
       <c r="K9" s="49" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="L9" t="s">
         <v>756</v>
@@ -12049,7 +12049,7 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="43">
         <f ca="1">TODAY()</f>
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>90</v>
@@ -12070,18 +12070,18 @@
       <c r="G10" s="14"/>
       <c r="H10" s="97">
         <f ca="1">Table1[[#This Row],[Result]]/(E11*F11)</f>
-        <v>-0.1620758547008547</v>
+        <v>-0.16150328330206379</v>
       </c>
       <c r="I10" s="69">
         <f ca="1">Table1[[#This Row],[Date]]-A11</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10" s="162">
         <f ca="1">-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E11*F11-Table1[[#This Row],[Commission]]-D11+I11</f>
-        <v>-25915.929166666665</v>
+        <v>-25824.375</v>
       </c>
       <c r="K10" s="121" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="L10" t="s">
         <v>756</v>
@@ -12130,7 +12130,7 @@
       <c r="H11" s="97"/>
       <c r="I11" s="67">
         <f ca="1">-105/360*(I10+1)*Table1[[#This Row],[Notes]]</f>
-        <v>1556.4208333333333</v>
+        <v>1647.9749999999999</v>
       </c>
       <c r="J11" s="98">
         <f>Table1[[#This Row],[Volume]]*Table1[[#This Row],[Price]]</f>
@@ -12197,13 +12197,13 @@
         <v>-65546.75</v>
       </c>
       <c r="K12" s="121" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="L12" t="s">
         <v>756</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="N12" s="13">
         <f>4000</f>
@@ -12305,7 +12305,7 @@
         <v>1708</v>
       </c>
       <c r="K14" s="121" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="L14" t="s">
         <v>756</v>
@@ -12421,7 +12421,7 @@
         <v>4000.9549999999999</v>
       </c>
       <c r="K16" s="121" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="L16" t="s">
         <v>756</v>
@@ -12476,10 +12476,10 @@
         <v>756</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="N17" s="31" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
@@ -12511,16 +12511,16 @@
       <c r="I18" s="67"/>
       <c r="J18" s="98"/>
       <c r="K18" s="45" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="L18" t="s">
         <v>756</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="N18" s="31" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
@@ -12544,7 +12544,7 @@
       <c r="I19" s="67"/>
       <c r="J19" s="98"/>
       <c r="K19" s="45" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
       <c r="L19" t="s">
         <v>756</v>
@@ -12590,7 +12590,7 @@
         <v>-592.6</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="L20" t="s">
         <v>756</v>
@@ -12678,7 +12678,7 @@
         <v>13997.647083333333</v>
       </c>
       <c r="K22" s="121" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="L22" t="s">
         <v>756</v>
@@ -12729,10 +12729,10 @@
         <v>756</v>
       </c>
       <c r="M23" s="33" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="N23" s="31" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
       <c r="O23" s="31"/>
       <c r="P23" s="31"/>
@@ -12773,16 +12773,16 @@
         <v>889.875</v>
       </c>
       <c r="K24" s="121" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="L24" t="s">
         <v>756</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="N24" s="31" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="O24" s="31"/>
       <c r="P24" s="31"/>
@@ -12824,10 +12824,10 @@
         <v>756</v>
       </c>
       <c r="M25" s="33" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="N25" s="31" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="O25" s="31"/>
       <c r="P25" s="31"/>
@@ -12862,16 +12862,16 @@
         <v>213</v>
       </c>
       <c r="K26" s="45" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="L26" t="s">
         <v>756</v>
       </c>
       <c r="M26" s="33" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="N26" s="31" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="O26" s="31"/>
       <c r="P26" s="31"/>
@@ -12912,16 +12912,16 @@
         <v>-131288.40033333332</v>
       </c>
       <c r="K27" s="121" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="L27" t="s">
         <v>756</v>
       </c>
       <c r="M27" s="33" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="N27" s="31" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="O27" s="31"/>
       <c r="P27" s="31"/>
@@ -12966,10 +12966,10 @@
         <v>756</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="N28" s="31" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="O28" s="31"/>
       <c r="P28" s="31"/>
@@ -13009,10 +13009,10 @@
         <v>756</v>
       </c>
       <c r="M29" s="33" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="N29" s="31" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="O29" s="31"/>
       <c r="P29" s="31"/>
@@ -13053,10 +13053,10 @@
         <v>756</v>
       </c>
       <c r="M30" s="33" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="N30" s="134" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="O30" s="31"/>
       <c r="P30" s="31"/>
@@ -13095,10 +13095,10 @@
         <v>756</v>
       </c>
       <c r="M31" s="33" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="O31" s="31"/>
       <c r="P31" s="31"/>
@@ -13137,10 +13137,10 @@
         <v>756</v>
       </c>
       <c r="M32" s="33" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="N32" s="31" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="O32" s="31"/>
       <c r="P32" s="31"/>
@@ -13179,10 +13179,10 @@
         <v>756</v>
       </c>
       <c r="M33" s="33" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="N33" s="31" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="O33" s="31"/>
       <c r="P33" s="31"/>
@@ -13222,10 +13222,10 @@
         <v>756</v>
       </c>
       <c r="M34" s="33" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="N34" s="31" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="O34" s="31"/>
       <c r="P34" s="31"/>
@@ -13265,10 +13265,10 @@
         <v>756</v>
       </c>
       <c r="M35" s="33" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="N35" s="31" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="O35" s="31"/>
       <c r="P35" s="31"/>
@@ -13308,10 +13308,10 @@
         <v>756</v>
       </c>
       <c r="M36" s="33" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
       <c r="N36" s="31" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="O36" s="31"/>
       <c r="P36" s="31"/>
@@ -13332,16 +13332,16 @@
       <c r="I37" s="67"/>
       <c r="J37" s="98"/>
       <c r="K37" s="45" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="L37" t="s">
         <v>756</v>
       </c>
       <c r="M37" s="33" t="s">
-        <v>1191</v>
+        <v>1179</v>
       </c>
       <c r="N37" s="31" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
       <c r="O37" s="31"/>
       <c r="P37" s="31"/>
@@ -13388,10 +13388,10 @@
         <v>756</v>
       </c>
       <c r="M38" s="33" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="N38" s="31" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
       <c r="O38" s="31"/>
       <c r="P38" s="31"/>
@@ -13435,10 +13435,10 @@
         <v>756</v>
       </c>
       <c r="M39" s="33" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="N39" s="31" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="O39" s="31"/>
       <c r="P39" s="31"/>
@@ -13484,10 +13484,10 @@
         <v>756</v>
       </c>
       <c r="M40" s="33" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="N40" s="31" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="O40" s="31"/>
       <c r="P40" s="31"/>
@@ -13530,10 +13530,10 @@
         <v>756</v>
       </c>
       <c r="M41" s="33" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="N41" s="31" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="O41" s="31"/>
       <c r="P41" s="31"/>
@@ -13579,10 +13579,10 @@
         <v>756</v>
       </c>
       <c r="M42" s="33" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="N42" s="31" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="O42" s="31"/>
       <c r="P42" s="31"/>
@@ -13626,10 +13626,10 @@
         <v>756</v>
       </c>
       <c r="M43" s="33" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="N43" s="31" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="O43" s="31"/>
       <c r="P43" s="31"/>
@@ -13676,10 +13676,10 @@
         <v>756</v>
       </c>
       <c r="M44" s="33" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="N44" s="31" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="O44" s="31"/>
       <c r="P44" s="31"/>
@@ -13723,10 +13723,10 @@
         <v>756</v>
       </c>
       <c r="M45" s="33" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="N45" s="31" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="O45" s="31"/>
       <c r="P45" s="31"/>
@@ -13772,10 +13772,10 @@
         <v>756</v>
       </c>
       <c r="M46" s="33" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="N46" s="31" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="O46" s="31"/>
       <c r="P46" s="31"/>
@@ -13818,10 +13818,10 @@
         <v>756</v>
       </c>
       <c r="M47" s="33" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="N47" s="31" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="O47" s="31"/>
       <c r="P47" s="31"/>
@@ -13867,10 +13867,10 @@
         <v>756</v>
       </c>
       <c r="M48" s="33" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="N48" s="31" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="O48" s="31"/>
       <c r="P48" s="31"/>
@@ -13911,10 +13911,10 @@
         <v>756</v>
       </c>
       <c r="M49" s="33" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="N49" s="31" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="O49" s="31"/>
       <c r="P49" s="31"/>
@@ -13960,10 +13960,10 @@
         <v>756</v>
       </c>
       <c r="M50" s="33" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="N50" s="31" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="O50" s="31"/>
       <c r="P50" s="31"/>
@@ -14004,10 +14004,10 @@
         <v>756</v>
       </c>
       <c r="M51" s="33" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="N51" s="31" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="O51" s="31"/>
       <c r="P51" s="31"/>
@@ -14053,10 +14053,10 @@
         <v>756</v>
       </c>
       <c r="M52" s="33" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="N52" s="31" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="O52" s="31"/>
       <c r="P52" s="31"/>
@@ -14099,10 +14099,10 @@
         <v>756</v>
       </c>
       <c r="M53" s="33" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="N53" s="31" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="O53" s="31"/>
       <c r="P53" s="31"/>
@@ -14149,10 +14149,10 @@
         <v>756</v>
       </c>
       <c r="M54" s="33" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="N54" s="31" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="O54" s="31"/>
       <c r="P54" s="31"/>
@@ -14196,10 +14196,10 @@
         <v>756</v>
       </c>
       <c r="M55" s="33" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="N55" s="31" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="O55" s="31"/>
       <c r="P55" s="31"/>
@@ -14245,10 +14245,10 @@
         <v>756</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="N56" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="Q56" s="134"/>
       <c r="S56" s="133"/>
@@ -14288,10 +14288,10 @@
         <v>756</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="N57" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="S57" s="133"/>
     </row>
@@ -14319,10 +14319,10 @@
         <v>756</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="N58" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="S58" s="133"/>
     </row>
@@ -14366,10 +14366,10 @@
         <v>756</v>
       </c>
       <c r="M59" s="29" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="N59" s="31" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="O59" s="31"/>
       <c r="P59" s="135"/>
@@ -14412,10 +14412,10 @@
         <v>756</v>
       </c>
       <c r="M60" s="29" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="N60" s="31" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="O60" s="31"/>
       <c r="P60" s="135"/>
@@ -14461,10 +14461,10 @@
         <v>756</v>
       </c>
       <c r="M61" s="29" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="N61" s="31" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="O61" s="31"/>
       <c r="P61" s="135"/>
@@ -14507,10 +14507,10 @@
         <v>756</v>
       </c>
       <c r="M62" s="29" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="N62" s="31" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="O62" s="31"/>
       <c r="P62" s="135"/>
@@ -14556,10 +14556,10 @@
         <v>756</v>
       </c>
       <c r="M63" s="33" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="N63" s="31" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="P63" s="141"/>
       <c r="S63" s="133"/>
@@ -14599,10 +14599,10 @@
         <v>756</v>
       </c>
       <c r="M64" s="29" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="N64" s="31" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="O64" s="31"/>
       <c r="P64" s="135"/>
@@ -14648,10 +14648,10 @@
         <v>756</v>
       </c>
       <c r="M65" s="29" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="N65" s="31" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="O65" s="31"/>
       <c r="P65" s="135"/>
@@ -14697,7 +14697,7 @@
         <v>984</v>
       </c>
       <c r="N66" s="31" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="O66" s="31"/>
       <c r="P66" s="135"/>
@@ -23366,8 +23366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CE18B9-1E5D-4C51-9D03-C69B0DC41E11}">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23392,31 +23392,31 @@
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="M1">
         <v>2022</v>
       </c>
       <c r="O1" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="T1" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="AA1" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="AB1" t="s">
         <v>657</v>
       </c>
       <c r="AC1" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="AD1" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="AE1" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -23436,16 +23436,16 @@
         <v>79</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="G2" s="53" t="s">
         <v>144</v>
       </c>
       <c r="H2" s="155" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="J2" s="54" t="s">
         <v>89</v>
@@ -23458,13 +23458,13 @@
       </c>
       <c r="M2" s="15">
         <f>SUM(Table6[[#All],[Commission]])</f>
-        <v>17318.300000000003</v>
+        <v>18218.300000000003</v>
       </c>
       <c r="P2" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="AA2" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="AB2" t="s">
         <v>495</v>
@@ -23473,7 +23473,7 @@
         <v>495</v>
       </c>
       <c r="AD2" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -23501,10 +23501,10 @@
         <v>159.5</v>
       </c>
       <c r="P3" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="U3" s="12">
         <f>M4/5+U4</f>
@@ -23515,7 +23515,7 @@
         <v>5</v>
       </c>
       <c r="AA3" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="AB3" t="s">
         <v>454</v>
@@ -23524,7 +23524,7 @@
         <v>454</v>
       </c>
       <c r="AD3" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -23545,17 +23545,17 @@
         <v>756</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="M4" s="21">
         <f>125000*M9</f>
         <v>625000</v>
       </c>
       <c r="P4" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="U4" s="12">
         <f>U5-V5</f>
@@ -23563,7 +23563,7 @@
       </c>
       <c r="V4" s="12"/>
       <c r="AA4" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="AB4" t="s">
         <v>514</v>
@@ -23572,7 +23572,7 @@
         <v>197</v>
       </c>
       <c r="AD4" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -23593,14 +23593,14 @@
         <v>756</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="M5" s="21">
         <f>SUM(G:G)-M3-U5</f>
-        <v>-3883.7999999996464</v>
+        <v>-8083.7999999996464</v>
       </c>
       <c r="T5" s="160" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="U5" s="160">
         <f>SUM(U7:U14)</f>
@@ -23611,7 +23611,7 @@
         <v>33500</v>
       </c>
       <c r="AA5" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="AB5" t="s">
         <v>197</v>
@@ -23620,7 +23620,7 @@
         <v>200</v>
       </c>
       <c r="AD5" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -23645,7 +23645,7 @@
       </c>
       <c r="M6" s="21">
         <f>-M3-M2+SUM(Table6[[#All],[Vị thế đóng]])-M7</f>
-        <v>33842.200000000354</v>
+        <v>29642.200000000354</v>
       </c>
       <c r="O6" s="134" t="s">
         <v>987</v>
@@ -23655,22 +23655,22 @@
         <v>144</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="X6" s="136" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="Y6" s="136" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="AA6" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="AB6" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="AC6" t="s">
         <v>367</v>
@@ -23694,14 +23694,14 @@
         <v>756</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="M7" s="21"/>
       <c r="O7" s="140" t="s">
         <v>975</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
@@ -23709,10 +23709,10 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="AA7" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="AB7" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="AC7" t="s">
         <v>198</v>
@@ -23742,13 +23742,13 @@
       </c>
       <c r="M8" s="65">
         <f>ROUNDDOWN((M6/(M4)),3)</f>
-        <v>5.3999999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="O8" s="140" t="s">
         <v>976</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
@@ -23756,10 +23756,10 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
       <c r="AA8" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="AB8" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="AC8" t="s">
         <v>481</v>
@@ -23794,7 +23794,7 @@
         <v>977</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
@@ -23802,7 +23802,7 @@
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
       <c r="AA9" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="AB9" t="s">
         <v>200</v>
@@ -23836,7 +23836,7 @@
         <v>979</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
@@ -23844,10 +23844,10 @@
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
       <c r="AA10" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="AB10" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="AC10" t="s">
         <v>451</v>
@@ -23876,7 +23876,7 @@
         <v>980</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
@@ -23884,10 +23884,10 @@
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="AA11" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="AB11" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="AC11" s="157" t="s">
         <v>196</v>
@@ -23913,7 +23913,7 @@
         <v>756</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
@@ -23923,7 +23923,7 @@
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
       <c r="AA12" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="AB12" t="s">
         <v>367</v>
@@ -23952,7 +23952,7 @@
         <v>988</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="U13" s="12">
         <v>40838</v>
@@ -23973,10 +23973,10 @@
         <v>-72.349999999999909</v>
       </c>
       <c r="AA13" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="AB13" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="AC13" t="s">
         <v>514</v>
@@ -24001,17 +24001,11 @@
       <c r="K14" t="s">
         <v>756</v>
       </c>
-      <c r="L14" t="s">
-        <v>1281</v>
-      </c>
-      <c r="M14" t="s">
-        <v>1286</v>
-      </c>
       <c r="O14" s="140" t="s">
         <v>975</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="U14" s="12">
         <v>-3112</v>
@@ -24031,10 +24025,10 @@
         <v>-82.840000000000146</v>
       </c>
       <c r="AA14" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="AB14" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="AC14" t="s">
         <v>266</v>
@@ -24056,20 +24050,14 @@
       <c r="H15" s="24"/>
       <c r="I15" s="152"/>
       <c r="J15" s="45"/>
-      <c r="L15" t="s">
-        <v>1276</v>
-      </c>
-      <c r="M15" t="s">
-        <v>1280</v>
-      </c>
       <c r="O15" s="140" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="AA15" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="AB15" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -24088,17 +24076,11 @@
       <c r="H16" s="24"/>
       <c r="I16" s="152"/>
       <c r="J16" s="45"/>
-      <c r="L16" t="s">
-        <v>1272</v>
-      </c>
-      <c r="M16" t="s">
-        <v>1273</v>
-      </c>
       <c r="AA16" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="AB16" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -24117,17 +24099,11 @@
       <c r="H17" s="24"/>
       <c r="I17" s="152"/>
       <c r="J17" s="45"/>
-      <c r="L17" t="s">
-        <v>1268</v>
-      </c>
-      <c r="M17" t="s">
-        <v>1270</v>
-      </c>
       <c r="AA17" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="AB17" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -24147,16 +24123,16 @@
       <c r="I18" s="152"/>
       <c r="J18" s="45"/>
       <c r="L18" t="s">
-        <v>1264</v>
+        <v>1278</v>
       </c>
       <c r="M18" t="s">
-        <v>1265</v>
+        <v>1279</v>
       </c>
       <c r="AA18" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="AB18" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -24176,10 +24152,10 @@
       <c r="I19" s="152"/>
       <c r="J19" s="45"/>
       <c r="L19" t="s">
-        <v>1259</v>
+        <v>1269</v>
       </c>
       <c r="M19" t="s">
-        <v>1263</v>
+        <v>1274</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="12" t="s">
@@ -24192,10 +24168,10 @@
         <v>956</v>
       </c>
       <c r="AA19" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="AB19" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -24215,10 +24191,10 @@
       <c r="I20" s="152"/>
       <c r="J20" s="45"/>
       <c r="L20" t="s">
-        <v>1255</v>
+        <v>1264</v>
       </c>
       <c r="M20" t="s">
-        <v>1256</v>
+        <v>1268</v>
       </c>
       <c r="P20" s="13" t="s">
         <v>954</v>
@@ -24234,10 +24210,10 @@
         <v>-0.21691406250000003</v>
       </c>
       <c r="AA20" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="AB20" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -24257,10 +24233,10 @@
       <c r="I21" s="152"/>
       <c r="J21" s="45"/>
       <c r="L21" t="s">
-        <v>1249</v>
+        <v>1260</v>
       </c>
       <c r="M21" t="s">
-        <v>1250</v>
+        <v>1261</v>
       </c>
       <c r="P21" s="137" t="s">
         <v>957</v>
@@ -24276,7 +24252,7 @@
         <v>-0.20814744801512283</v>
       </c>
       <c r="AA21" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="AB21" t="s">
         <v>266</v>
@@ -24299,13 +24275,13 @@
       <c r="I22" s="152"/>
       <c r="J22" s="45"/>
       <c r="L22" t="s">
-        <v>1243</v>
+        <v>1256</v>
       </c>
       <c r="M22" t="s">
-        <v>1244</v>
+        <v>1258</v>
       </c>
       <c r="AA22" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="AB22" t="s">
         <v>198</v>
@@ -24315,7 +24291,9 @@
       <c r="A23" s="43">
         <v>44750</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="14" t="s">
+        <v>1280</v>
+      </c>
       <c r="C23" s="16"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -24328,13 +24306,13 @@
       <c r="I23" s="152"/>
       <c r="J23" s="45"/>
       <c r="L23" t="s">
-        <v>1238</v>
+        <v>1252</v>
       </c>
       <c r="M23" t="s">
-        <v>1242</v>
+        <v>1253</v>
       </c>
       <c r="AA23" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="AB23" t="s">
         <v>481</v>
@@ -24344,26 +24322,42 @@
       <c r="A24" s="43">
         <v>44749</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="98"/>
+      <c r="B24" s="14" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C24" s="16">
+        <v>900</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1220</v>
+      </c>
+      <c r="E24" s="14">
+        <v>10</v>
+      </c>
+      <c r="F24" s="98">
+        <v>-3300</v>
+      </c>
       <c r="G24" s="153">
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="45"/>
+        <v>-4200</v>
+      </c>
+      <c r="H24" s="24">
+        <v>13.2</v>
+      </c>
+      <c r="I24" s="152">
+        <v>10000</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>1277</v>
+      </c>
       <c r="L24" t="s">
-        <v>1224</v>
+        <v>1247</v>
       </c>
       <c r="M24" t="s">
-        <v>1225</v>
+        <v>1251</v>
       </c>
       <c r="AA24" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="AB24" t="s">
         <v>529</v>
@@ -24392,18 +24386,20 @@
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
         <v>-1400</v>
       </c>
-      <c r="H25" s="24"/>
+      <c r="H25" s="24">
+        <v>21.4</v>
+      </c>
       <c r="I25" s="152">
         <v>25000</v>
       </c>
       <c r="J25" s="45" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="L25" t="s">
-        <v>1221</v>
+        <v>1243</v>
       </c>
       <c r="M25" t="s">
-        <v>1222</v>
+        <v>1244</v>
       </c>
       <c r="P25" s="114" t="s">
         <v>872</v>
@@ -24419,7 +24415,7 @@
         <v>44584</v>
       </c>
       <c r="AA25" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="AB25" t="s">
         <v>451</v>
@@ -24455,16 +24451,16 @@
         <v>5000</v>
       </c>
       <c r="J26" s="45" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="L26" t="s">
-        <v>1136</v>
+        <v>1237</v>
       </c>
       <c r="M26" t="s">
-        <v>1217</v>
+        <v>1238</v>
       </c>
       <c r="Q26" s="113" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="R26" s="113">
         <v>20500</v>
@@ -24476,10 +24472,10 @@
         <v>27000</v>
       </c>
       <c r="AA26" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="AB26" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -24512,13 +24508,13 @@
         <v>5000</v>
       </c>
       <c r="J27" s="45" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="L27" t="s">
-        <v>1209</v>
+        <v>1231</v>
       </c>
       <c r="M27" t="s">
-        <v>1210</v>
+        <v>1232</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>194</v>
@@ -24533,10 +24529,10 @@
         <v>54.69</v>
       </c>
       <c r="AA27" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="AB27" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -24569,13 +24565,13 @@
         <v>3000</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="L28" t="s">
-        <v>1137</v>
+        <v>1226</v>
       </c>
       <c r="M28" t="s">
-        <v>1202</v>
+        <v>1230</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>195</v>
@@ -24596,10 +24592,10 @@
       <c r="Y28" s="145"/>
       <c r="Z28" s="146"/>
       <c r="AA28" s="146" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="AB28" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
@@ -24632,13 +24628,13 @@
         <v>5000</v>
       </c>
       <c r="J29" s="45" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="L29" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="M29" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>873</v>
@@ -24657,10 +24653,10 @@
       <c r="Y29" s="145"/>
       <c r="Z29" s="146"/>
       <c r="AA29" s="146" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="AB29" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -24681,13 +24677,13 @@
       </c>
       <c r="I30" s="152"/>
       <c r="J30" s="45" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="L30" t="s">
-        <v>1195</v>
+        <v>1209</v>
       </c>
       <c r="M30" t="s">
-        <v>1196</v>
+        <v>1210</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>874</v>
@@ -24707,7 +24703,7 @@
       <c r="Y30" s="145"/>
       <c r="Z30" s="146"/>
       <c r="AA30" s="146" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="AB30" s="157" t="s">
         <v>196</v>
@@ -24731,13 +24727,13 @@
       </c>
       <c r="I31" s="152"/>
       <c r="J31" s="45" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="L31" t="s">
-        <v>1191</v>
+        <v>1126</v>
       </c>
       <c r="M31" t="s">
-        <v>1194</v>
+        <v>1205</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>878</v>
@@ -24757,10 +24753,10 @@
       <c r="Y31" s="145"/>
       <c r="Z31" s="146"/>
       <c r="AA31" s="146" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="AB31" s="157" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -24794,13 +24790,13 @@
         <v>5000</v>
       </c>
       <c r="J32" s="45" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="L32" t="s">
-        <v>1186</v>
+        <v>1197</v>
       </c>
       <c r="M32" t="s">
-        <v>1187</v>
+        <v>1198</v>
       </c>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
@@ -24844,13 +24840,13 @@
         <v>10000</v>
       </c>
       <c r="J33" s="45" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="L33" t="s">
-        <v>1181</v>
+        <v>1127</v>
       </c>
       <c r="M33" t="s">
-        <v>1183</v>
+        <v>1190</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>875</v>
@@ -24903,13 +24899,13 @@
         <v>10000</v>
       </c>
       <c r="J34" s="45" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="L34" t="s">
-        <v>1175</v>
+        <v>1188</v>
       </c>
       <c r="M34" t="s">
-        <v>1179</v>
+        <v>1189</v>
       </c>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
@@ -24948,13 +24944,13 @@
         <v>10000</v>
       </c>
       <c r="J35" s="45" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="L35" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="M35" t="s">
-        <v>1174</v>
+        <v>1184</v>
       </c>
       <c r="P35" s="119" t="s">
         <v>876</v>
@@ -25001,13 +24997,13 @@
         <v>5000</v>
       </c>
       <c r="J36" s="45" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="L36" t="s">
-        <v>1168</v>
+        <v>1179</v>
       </c>
       <c r="M36" t="s">
-        <v>1170</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -25040,16 +25036,16 @@
         <v>5000</v>
       </c>
       <c r="J37" s="45" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="L37" t="s">
-        <v>1164</v>
+        <v>1174</v>
       </c>
       <c r="M37" t="s">
-        <v>1166</v>
+        <v>1175</v>
       </c>
       <c r="P37" s="147" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
@@ -25082,19 +25078,19 @@
         <v>20000</v>
       </c>
       <c r="J38" s="45" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="L38" t="s">
-        <v>1156</v>
+        <v>1169</v>
       </c>
       <c r="M38" t="s">
-        <v>1158</v>
+        <v>1171</v>
       </c>
       <c r="P38" s="147" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="U38" s="147" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
@@ -25102,7 +25098,7 @@
         <v>44728</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="C39" s="16">
         <v>90</v>
@@ -25127,16 +25123,16 @@
         <v>5000</v>
       </c>
       <c r="J39" s="45" t="s">
-        <v>1203</v>
-      </c>
-      <c r="L39" s="106" t="s">
-        <v>1152</v>
+        <v>1191</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1163</v>
       </c>
       <c r="M39" t="s">
-        <v>1153</v>
+        <v>1167</v>
       </c>
       <c r="P39" s="143" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -25169,19 +25165,19 @@
         <v>10000</v>
       </c>
       <c r="J40" s="45" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="L40" t="s">
-        <v>1142</v>
+        <v>1159</v>
       </c>
       <c r="M40" t="s">
-        <v>1145</v>
+        <v>1162</v>
       </c>
       <c r="P40" s="144" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="U40" s="144" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -25215,19 +25211,19 @@
         <v>20000</v>
       </c>
       <c r="J41" s="45" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="L41" t="s">
-        <v>1133</v>
+        <v>1156</v>
       </c>
       <c r="M41" t="s">
-        <v>1139</v>
+        <v>1158</v>
       </c>
       <c r="P41" s="143" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="U41" s="143" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -25261,17 +25257,17 @@
         <v>10000</v>
       </c>
       <c r="J42" s="45" t="s">
-        <v>1192</v>
+        <v>1180</v>
       </c>
       <c r="L42" t="s">
-        <v>1127</v>
+        <v>1152</v>
       </c>
       <c r="M42" t="s">
-        <v>1128</v>
+        <v>1154</v>
       </c>
       <c r="P42" s="143"/>
       <c r="U42" s="143" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
@@ -25304,17 +25300,17 @@
         <v>20000</v>
       </c>
       <c r="J43" s="45" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="L43" t="s">
-        <v>1059</v>
+        <v>1144</v>
       </c>
       <c r="M43" t="s">
-        <v>1060</v>
+        <v>1146</v>
       </c>
       <c r="P43" s="143"/>
       <c r="U43" s="143" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -25322,7 +25318,7 @@
         <v>44721</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="C44" s="16">
         <f>338</f>
@@ -25349,13 +25345,19 @@
         <v>10000</v>
       </c>
       <c r="J44" s="45" t="s">
-        <v>1184</v>
+        <v>1172</v>
+      </c>
+      <c r="L44" s="106" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1141</v>
       </c>
       <c r="P44" s="143" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="U44" s="143" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -25388,11 +25390,17 @@
         <v>5000</v>
       </c>
       <c r="J45" s="45" t="s">
-        <v>1178</v>
+        <v>1166</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M45" t="s">
+        <v>1135</v>
       </c>
       <c r="P45" s="143"/>
       <c r="U45" s="143" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -25400,7 +25408,7 @@
         <v>44719</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="C46" s="16">
         <v>91</v>
@@ -25426,11 +25434,17 @@
         <v>1000</v>
       </c>
       <c r="J46" s="45" t="s">
-        <v>1173</v>
+        <v>1161</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M46" t="s">
+        <v>1129</v>
       </c>
       <c r="P46" s="143"/>
       <c r="U46" s="143" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -25463,13 +25477,19 @@
         <v>10000</v>
       </c>
       <c r="J47" s="45" t="s">
-        <v>1169</v>
+        <v>1157</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M47" t="s">
+        <v>1118</v>
       </c>
       <c r="P47" s="143" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="U47" s="143" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -25502,10 +25522,16 @@
         <v>10000</v>
       </c>
       <c r="J48" s="45" t="s">
-        <v>1165</v>
+        <v>1153</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M48" t="s">
+        <v>1050</v>
       </c>
       <c r="P48" s="143" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -25538,13 +25564,13 @@
         <v>5000</v>
       </c>
       <c r="J49" s="45" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="P49" s="143" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="U49" s="143" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -25578,13 +25604,13 @@
         <v>5000</v>
       </c>
       <c r="J50" s="45" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="P50" s="143" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="U50" s="143" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -25602,13 +25628,13 @@
       </c>
       <c r="I51" s="152"/>
       <c r="J51" s="45" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="P51" s="143" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="U51" s="143" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -25644,10 +25670,10 @@
         <v>-33199.999999999818</v>
       </c>
       <c r="J52" s="45" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="P52" s="143" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="U52" s="143"/>
     </row>
@@ -25684,10 +25710,10 @@
         <v>10000</v>
       </c>
       <c r="J53" s="45" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="P53" s="143" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="U53" s="143"/>
     </row>
@@ -25724,11 +25750,11 @@
         <v>10000</v>
       </c>
       <c r="J54" s="45" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="P54" s="143"/>
       <c r="U54" s="143" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
@@ -25762,10 +25788,10 @@
         <v>10000</v>
       </c>
       <c r="J55" s="45" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="P55" s="143" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
@@ -25801,7 +25827,7 @@
         <v>10000</v>
       </c>
       <c r="J56" s="45" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
@@ -25837,7 +25863,7 @@
         <v>10000</v>
       </c>
       <c r="J57" s="45" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
@@ -25871,7 +25897,7 @@
         <v>10000</v>
       </c>
       <c r="J58" s="45" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
@@ -25905,7 +25931,7 @@
         <v>20000</v>
       </c>
       <c r="J59" s="150" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>
@@ -25921,314 +25947,474 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568958D5-2C8A-40B9-B12B-4E5C3AD6BE19}">
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>994</v>
-      </c>
-      <c r="F3" t="s">
-        <v>657</v>
-      </c>
-      <c r="M3" t="s">
-        <v>995</v>
-      </c>
-      <c r="O3" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>192</v>
       </c>
-      <c r="B4" t="s">
-        <v>990</v>
-      </c>
-      <c r="C4" t="s">
-        <v>992</v>
-      </c>
-      <c r="D4" t="s">
-        <v>993</v>
-      </c>
-      <c r="E4" t="s">
-        <v>991</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>990</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>992</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>993</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>991</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>996</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>1038</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1147</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="B1" t="s">
         <v>1287</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="C1" t="s">
         <v>1288</v>
       </c>
-      <c r="R4" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="D1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="165">
+        <v>44757</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="M2">
+        <f>C2-D2</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>G2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>I2-F2</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>M2-N2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q5" si="0">I2-E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>44756</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="M3">
+        <f>C3-D3</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>G3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>I3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>M3-N3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="165">
+        <v>44755</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="M4">
+        <f>C4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>G4-H4</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>I4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>M4-N4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>44754</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>44750</v>
+      <c r="M5">
+        <f>C5-D5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>G5-H5</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>I5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>M5-N5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="164">
+        <v>44753</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6">
+      <c r="M6">
         <f>C6-D6</f>
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <f>G6-H6</f>
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <f>I6-F6</f>
         <v>0</v>
       </c>
-      <c r="M6">
-        <f>J6-K6</f>
+      <c r="P6">
+        <f>M6-N6</f>
         <v>0</v>
       </c>
-      <c r="R6">
-        <f t="shared" ref="R6:R9" si="0">I6-E6</f>
+      <c r="Q6">
+        <f>I6-E6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7">
+      <c r="M7">
         <f>C7-D7</f>
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <f>G7-H7</f>
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <f>I7-F7</f>
         <v>0</v>
       </c>
-      <c r="M7">
-        <f>J7-K7</f>
+      <c r="P7">
+        <f>M7-N7</f>
         <v>0</v>
       </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q10" si="1">I7-E7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
+        <v>44749</v>
+      </c>
+      <c r="B8">
+        <v>1215.7</v>
+      </c>
+      <c r="C8">
+        <v>1226.2</v>
+      </c>
+      <c r="D8">
+        <v>1213</v>
+      </c>
+      <c r="E8">
+        <v>1225</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1212.3599999999999</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1229.23</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1209.97</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1229.23</v>
+      </c>
+      <c r="J8">
+        <v>319.33600000000001</v>
+      </c>
+      <c r="K8">
+        <v>98.638999999999996</v>
+      </c>
+      <c r="L8">
+        <v>-4.2</v>
+      </c>
+      <c r="M8">
+        <f>C8-D8</f>
+        <v>13.200000000000045</v>
+      </c>
+      <c r="N8">
+        <f>G8-H8</f>
+        <v>19.259999999999991</v>
+      </c>
+      <c r="O8">
+        <f>I8-F8</f>
+        <v>16.870000000000118</v>
+      </c>
+      <c r="P8">
+        <f>M8-N8</f>
+        <v>-6.0599999999999454</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>4.2300000000000182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
         <v>44748</v>
       </c>
-      <c r="F8" s="11">
+      <c r="B9">
+        <v>1234.8</v>
+      </c>
+      <c r="C9">
+        <v>1234.8</v>
+      </c>
+      <c r="D9">
+        <v>1213.4000000000001</v>
+      </c>
+      <c r="E9">
+        <v>1218</v>
+      </c>
+      <c r="F9" s="11">
         <v>1241.19</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="11">
         <v>1241.19</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H9" s="11">
         <v>1211.94</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I9" s="11">
         <v>1211.94</v>
       </c>
-      <c r="J8">
-        <f>C8-D8</f>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f>G8-H8</f>
+      <c r="J9">
+        <v>399.286</v>
+      </c>
+      <c r="K9">
+        <v>131.18</v>
+      </c>
+      <c r="L9">
+        <v>-2</v>
+      </c>
+      <c r="M9">
+        <f>C9-D9</f>
+        <v>21.399999999999864</v>
+      </c>
+      <c r="N9">
+        <f>G9-H9</f>
         <v>29.25</v>
       </c>
-      <c r="L8">
-        <f>I8-F8</f>
+      <c r="O9">
+        <f>I9-F9</f>
         <v>-29.25</v>
       </c>
-      <c r="M8">
-        <f>J8-K8</f>
-        <v>-29.25</v>
-      </c>
-      <c r="O8">
-        <v>-2</v>
-      </c>
-      <c r="Q8">
-        <v>131.18</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="0"/>
-        <v>1211.94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="P9">
+        <f>M9-N9</f>
+        <v>-7.8500000000001364</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>-6.0599999999999454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
         <v>44747</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>1248.3</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1251.9000000000001</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1234</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>1234.9000000000001</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>1252.48</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="11">
         <v>1256.47</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H10" s="11">
         <v>1239.8</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I10" s="11">
         <v>1242.05</v>
       </c>
-      <c r="J9">
-        <f>C9-D9</f>
+      <c r="J10">
+        <v>332.00200000000001</v>
+      </c>
+      <c r="K10">
+        <v>162.03100000000001</v>
+      </c>
+      <c r="L10">
+        <v>-5</v>
+      </c>
+      <c r="M10">
+        <f>C10-D10</f>
         <v>17.900000000000091</v>
       </c>
-      <c r="K9">
-        <f>G9-H9</f>
+      <c r="N10">
+        <f>G10-H10</f>
         <v>16.670000000000073</v>
       </c>
-      <c r="L9">
-        <f>I9-F9</f>
+      <c r="O10">
+        <f>I10-F10</f>
         <v>-10.430000000000064</v>
       </c>
-      <c r="M9">
-        <f>J9-K9</f>
+      <c r="P10">
+        <f>M10-N10</f>
         <v>1.2300000000000182</v>
       </c>
-      <c r="O9">
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>7.1499999999998636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="164">
+        <v>44746</v>
+      </c>
+      <c r="B11">
+        <v>1247</v>
+      </c>
+      <c r="C11">
+        <v>1252.0999999999999</v>
+      </c>
+      <c r="D11">
+        <v>1238.0999999999999</v>
+      </c>
+      <c r="E11">
+        <v>1242</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1256.2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1260.72</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1244.5</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1248.3699999999999</v>
+      </c>
+      <c r="J11">
+        <v>245.64400000000001</v>
+      </c>
+      <c r="K11">
+        <v>112.84</v>
+      </c>
+      <c r="L11">
         <v>-5</v>
       </c>
-      <c r="P9">
-        <v>332.00200000000001</v>
-      </c>
-      <c r="Q9">
-        <v>162.03100000000001</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>7.1499999999998636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>44746</v>
-      </c>
-      <c r="B10">
-        <v>1247</v>
-      </c>
-      <c r="C10">
-        <v>1252.0999999999999</v>
-      </c>
-      <c r="D10">
-        <v>1238.0999999999999</v>
-      </c>
-      <c r="E10">
-        <v>1242</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1256.2</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1260.72</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1244.5</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1248.3699999999999</v>
-      </c>
-      <c r="J10">
-        <f>C10-D10</f>
+      <c r="M11">
+        <f>C11-D11</f>
         <v>14</v>
       </c>
-      <c r="K10">
-        <f>G10-H10</f>
+      <c r="N11">
+        <f>G11-H11</f>
         <v>16.220000000000027</v>
       </c>
-      <c r="L10">
-        <f>I10-F10</f>
+      <c r="O11">
+        <f>I11-F11</f>
         <v>-7.8300000000001546</v>
       </c>
-      <c r="M10">
-        <f>J10-K10</f>
+      <c r="P11">
+        <f>M11-N11</f>
         <v>-2.2200000000000273</v>
       </c>
-      <c r="O10">
-        <v>-5</v>
-      </c>
-      <c r="P10">
-        <v>245.64400000000001</v>
-      </c>
-      <c r="Q10">
-        <v>112.84</v>
-      </c>
-      <c r="R10">
-        <f>I10-E10</f>
+      <c r="Q11">
+        <f>I11-E11</f>
         <v>6.3699999999998909</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>44743</v>
       </c>
@@ -26257,36 +26443,36 @@
         <v>1252.24</v>
       </c>
       <c r="J12">
+        <v>330.35199999999998</v>
+      </c>
+      <c r="K12">
+        <v>118.89100000000001</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
         <f>C12-D12</f>
         <v>22</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <f>G12-H12</f>
         <v>30.029999999999973</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <f>I12-F12</f>
         <v>4.5399999999999636</v>
       </c>
-      <c r="M12">
-        <f>J12-K12</f>
+      <c r="P12">
+        <f>M12-N12</f>
         <v>-8.0299999999999727</v>
       </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>330.35199999999998</v>
-      </c>
       <c r="Q12">
-        <v>118.89100000000001</v>
-      </c>
-      <c r="R12">
-        <f t="shared" ref="R12:R15" si="1">I12-E12</f>
+        <f t="shared" ref="Q12:Q15" si="2">I12-E12</f>
         <v>10.240000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>44742</v>
       </c>
@@ -26315,36 +26501,36 @@
         <v>1248.92</v>
       </c>
       <c r="J13">
+        <v>256.95100000000002</v>
+      </c>
+      <c r="K13">
+        <v>118.014</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <f>C13-D13</f>
         <v>24.700000000000045</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <f>G13-H13</f>
         <v>27.309999999999945</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <f>I13-F13</f>
         <v>-25.069999999999936</v>
       </c>
-      <c r="M13">
-        <f>J13-K13</f>
+      <c r="P13">
+        <f>M13-N13</f>
         <v>-2.6099999999999</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>256.95100000000002</v>
-      </c>
       <c r="Q13">
-        <v>118.014</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.8200000000001637</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>44741</v>
       </c>
@@ -26373,36 +26559,36 @@
         <v>1273.4000000000001</v>
       </c>
       <c r="J14">
+        <v>289.58300000000003</v>
+      </c>
+      <c r="K14">
+        <v>113.29600000000001</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <f>C14-D14</f>
         <v>11.800000000000182</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <f>G14-H14</f>
         <v>15.319999999999936</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <f>I14-F14</f>
         <v>13.570000000000164</v>
       </c>
-      <c r="M14">
-        <f>J14-K14</f>
+      <c r="P14">
+        <f>M14-N14</f>
         <v>-3.5199999999997544</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>289.58300000000003</v>
-      </c>
       <c r="Q14">
-        <v>113.29600000000001</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.900000000000091</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>44740</v>
       </c>
@@ -26431,37 +26617,37 @@
         <v>1273.4100000000001</v>
       </c>
       <c r="J15">
+        <v>258.19400000000002</v>
+      </c>
+      <c r="K15">
+        <v>151.571</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <f>C15-D15</f>
         <v>23.799999999999955</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <f>G15-H15</f>
         <v>26.6400000000001</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <f>I15-F15</f>
         <v>19.060000000000173</v>
       </c>
-      <c r="M15">
-        <f>J15-K15</f>
+      <c r="P15">
+        <f>M15-N15</f>
         <v>-2.8400000000001455</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>258.19400000000002</v>
-      </c>
       <c r="Q15">
-        <v>151.571</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.410000000000082</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="164">
         <v>44739</v>
       </c>
       <c r="B16">
@@ -26489,2679 +26675,2763 @@
         <v>1256.67</v>
       </c>
       <c r="J16">
+        <v>218.952</v>
+      </c>
+      <c r="K16">
+        <v>110.59699999999999</v>
+      </c>
+      <c r="L16">
+        <v>13</v>
+      </c>
+      <c r="M16">
         <f>C16-D16</f>
         <v>13.900000000000091</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <f>G16-H16</f>
         <v>18.880000000000109</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <f>I16-F16</f>
         <v>18.440000000000055</v>
       </c>
-      <c r="M16">
-        <f>J16-K16</f>
+      <c r="P16">
+        <f>M16-N16</f>
         <v>-4.9800000000000182</v>
       </c>
-      <c r="O16">
-        <v>13</v>
-      </c>
-      <c r="P16">
-        <v>218.952</v>
-      </c>
       <c r="Q16">
-        <v>110.59699999999999</v>
-      </c>
-      <c r="R16">
         <f>I16-E16</f>
         <v>8.7699999999999818</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>44736</v>
+      </c>
+      <c r="B17">
+        <v>1236</v>
+      </c>
+      <c r="C17">
+        <v>1237.9000000000001</v>
+      </c>
+      <c r="D17">
+        <v>1226</v>
+      </c>
+      <c r="E17">
+        <v>1227</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1239.54</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1246.22</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1234.72</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1235.47</v>
+      </c>
+      <c r="J17">
+        <v>243.816</v>
+      </c>
+      <c r="K17">
+        <v>90.436999999999998</v>
+      </c>
+      <c r="L17">
+        <v>-10</v>
+      </c>
+      <c r="M17">
+        <f>C17-D17</f>
+        <v>11.900000000000091</v>
+      </c>
+      <c r="N17">
+        <f>G17-H17</f>
+        <v>11.5</v>
+      </c>
+      <c r="O17">
+        <f>I17-F17</f>
+        <v>-4.0699999999999363</v>
+      </c>
+      <c r="P17">
+        <f>M17-N17</f>
+        <v>0.40000000000009095</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ref="Q17:Q20" si="3">I17-E17</f>
+        <v>8.4700000000000273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
-        <v>44736</v>
+        <v>44735</v>
       </c>
       <c r="B18">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="C18">
-        <v>1237.9000000000001</v>
+        <v>1230.3</v>
       </c>
       <c r="D18">
-        <v>1226</v>
+        <v>1216.3</v>
       </c>
       <c r="E18">
-        <v>1227</v>
+        <v>1227.8</v>
       </c>
       <c r="F18" s="11">
-        <v>1239.54</v>
+        <v>1219.67</v>
       </c>
       <c r="G18" s="11">
-        <v>1246.22</v>
+        <v>1240.58</v>
       </c>
       <c r="H18" s="11">
-        <v>1234.72</v>
+        <v>1219.08</v>
       </c>
       <c r="I18" s="11">
-        <v>1235.47</v>
+        <v>1240.58</v>
       </c>
       <c r="J18">
+        <v>336.90800000000002</v>
+      </c>
+      <c r="K18">
+        <v>105.24</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
         <f>C18-D18</f>
-        <v>11.900000000000091</v>
-      </c>
-      <c r="K18">
+        <v>14</v>
+      </c>
+      <c r="N18">
         <f>G18-H18</f>
-        <v>11.5</v>
-      </c>
-      <c r="L18">
+        <v>21.5</v>
+      </c>
+      <c r="O18">
         <f>I18-F18</f>
-        <v>-4.0699999999999363</v>
-      </c>
-      <c r="M18">
-        <f>J18-K18</f>
-        <v>0.40000000000009095</v>
-      </c>
-      <c r="O18">
-        <v>-10</v>
+        <v>20.909999999999854</v>
       </c>
       <c r="P18">
-        <v>243.816</v>
-      </c>
-      <c r="R18">
-        <f t="shared" ref="R18:R21" si="2">I18-E18</f>
-        <v>8.4700000000000273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <f>M18-N18</f>
+        <v>-7.5</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>12.779999999999973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="B19">
-        <v>1222</v>
+        <v>1233.7</v>
       </c>
       <c r="C19">
-        <v>1230.3</v>
+        <v>1240.9000000000001</v>
       </c>
       <c r="D19">
-        <v>1216.3</v>
+        <v>1216</v>
       </c>
       <c r="E19">
-        <v>1227.8</v>
+        <v>1216</v>
       </c>
       <c r="F19" s="11">
-        <v>1219.67</v>
+        <v>1233.28</v>
       </c>
       <c r="G19" s="11">
-        <v>1240.58</v>
+        <v>1242.06</v>
       </c>
       <c r="H19" s="11">
-        <v>1219.08</v>
+        <v>1222.8599999999999</v>
       </c>
       <c r="I19" s="11">
-        <v>1240.58</v>
+        <v>1227.18</v>
       </c>
       <c r="J19">
+        <v>404.68</v>
+      </c>
+      <c r="K19">
+        <v>142.69499999999999</v>
+      </c>
+      <c r="L19">
+        <v>22</v>
+      </c>
+      <c r="M19">
         <f>C19-D19</f>
-        <v>14</v>
-      </c>
-      <c r="K19">
+        <v>24.900000000000091</v>
+      </c>
+      <c r="N19">
         <f>G19-H19</f>
-        <v>21.5</v>
-      </c>
-      <c r="L19">
+        <v>19.200000000000045</v>
+      </c>
+      <c r="O19">
         <f>I19-F19</f>
-        <v>20.909999999999854</v>
-      </c>
-      <c r="M19">
-        <f>J19-K19</f>
-        <v>-7.5</v>
-      </c>
-      <c r="O19">
+        <v>-6.0999999999999091</v>
+      </c>
+      <c r="P19">
+        <f>M19-N19</f>
+        <v>5.7000000000000455</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>11.180000000000064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>44733</v>
+      </c>
+      <c r="B20">
+        <v>1216.8</v>
+      </c>
+      <c r="C20">
+        <v>1240</v>
+      </c>
+      <c r="D20">
+        <v>1210.5</v>
+      </c>
+      <c r="E20">
+        <v>1228</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1220.76</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1240.8</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1212.69</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1224.54</v>
+      </c>
+      <c r="J20">
+        <v>504.51600000000002</v>
+      </c>
+      <c r="K20">
+        <v>172.80199999999999</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <f>C20-D20</f>
+        <v>29.5</v>
+      </c>
+      <c r="N20">
+        <f>G20-H20</f>
+        <v>28.1099999999999</v>
+      </c>
+      <c r="O20">
+        <f>I20-F20</f>
+        <v>3.7799999999999727</v>
+      </c>
+      <c r="P20">
+        <f>M20-N20</f>
+        <v>1.3900000000001</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="3"/>
+        <v>-3.4600000000000364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="164">
+        <v>44732</v>
+      </c>
+      <c r="B21">
+        <v>1244.8</v>
+      </c>
+      <c r="C21">
+        <v>1249.4000000000001</v>
+      </c>
+      <c r="D21">
+        <v>1212</v>
+      </c>
+      <c r="E21">
+        <v>1212</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1258.3</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1262.83</v>
+      </c>
+      <c r="H21" s="11">
+        <v>1223.03</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1225.56</v>
+      </c>
+      <c r="J21">
+        <v>405.214</v>
+      </c>
+      <c r="K21">
+        <v>168.768</v>
+      </c>
+      <c r="L21">
         <v>7</v>
       </c>
-      <c r="P19">
-        <v>336.90800000000002</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="2"/>
-        <v>12.779999999999973</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <v>44734</v>
-      </c>
-      <c r="B20">
-        <v>1233.7</v>
-      </c>
-      <c r="C20">
-        <v>1240.9000000000001</v>
-      </c>
-      <c r="D20">
-        <v>1216</v>
-      </c>
-      <c r="E20">
-        <v>1216</v>
-      </c>
-      <c r="F20" s="11">
-        <v>1233.28</v>
-      </c>
-      <c r="G20" s="11">
-        <v>1242.06</v>
-      </c>
-      <c r="H20" s="11">
-        <v>1222.8599999999999</v>
-      </c>
-      <c r="I20" s="11">
-        <v>1227.18</v>
-      </c>
-      <c r="J20">
-        <f>C20-D20</f>
-        <v>24.900000000000091</v>
-      </c>
-      <c r="K20">
-        <f>G20-H20</f>
-        <v>19.200000000000045</v>
-      </c>
-      <c r="L20">
-        <f>I20-F20</f>
-        <v>-6.0999999999999091</v>
-      </c>
-      <c r="M20">
-        <f>J20-K20</f>
-        <v>5.7000000000000455</v>
-      </c>
-      <c r="O20">
-        <v>22</v>
-      </c>
-      <c r="P20">
-        <v>404.68</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="2"/>
-        <v>11.180000000000064</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
-        <v>44733</v>
-      </c>
-      <c r="B21">
-        <v>1216.8</v>
-      </c>
-      <c r="C21">
-        <v>1240</v>
-      </c>
-      <c r="D21">
-        <v>1210.5</v>
-      </c>
-      <c r="E21">
-        <v>1228</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1220.76</v>
-      </c>
-      <c r="G21" s="11">
-        <v>1240.8</v>
-      </c>
-      <c r="H21" s="11">
-        <v>1212.69</v>
-      </c>
-      <c r="I21" s="11">
-        <v>1224.54</v>
-      </c>
-      <c r="J21">
+      <c r="M21">
         <f>C21-D21</f>
-        <v>29.5</v>
-      </c>
-      <c r="K21">
+        <v>37.400000000000091</v>
+      </c>
+      <c r="N21">
         <f>G21-H21</f>
-        <v>28.1099999999999</v>
-      </c>
-      <c r="L21">
+        <v>39.799999999999955</v>
+      </c>
+      <c r="O21">
         <f>I21-F21</f>
-        <v>3.7799999999999727</v>
-      </c>
-      <c r="M21">
-        <f>J21-K21</f>
-        <v>1.3900000000001</v>
-      </c>
-      <c r="O21">
-        <v>5</v>
+        <v>-32.740000000000009</v>
       </c>
       <c r="P21">
-        <v>504.51600000000002</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="2"/>
-        <v>-3.4600000000000364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <f>M21-N21</f>
+        <v>-2.3999999999998636</v>
+      </c>
+      <c r="Q21">
+        <f>I21-E21</f>
+        <v>13.559999999999945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
-        <v>44732</v>
+        <v>44729</v>
       </c>
       <c r="B22">
-        <v>1244.8</v>
+        <v>1247.5</v>
       </c>
       <c r="C22">
-        <v>1249.4000000000001</v>
+        <v>1249</v>
       </c>
       <c r="D22">
-        <v>1212</v>
+        <v>1215.2</v>
       </c>
       <c r="E22">
-        <v>1212</v>
+        <v>1245.2</v>
       </c>
       <c r="F22" s="11">
-        <v>1258.3</v>
+        <v>1254.05</v>
       </c>
       <c r="G22" s="11">
-        <v>1262.83</v>
+        <v>1259.3900000000001</v>
       </c>
       <c r="H22" s="11">
-        <v>1223.03</v>
+        <v>1229.74</v>
       </c>
       <c r="I22" s="11">
-        <v>1225.56</v>
+        <v>1258.03</v>
       </c>
       <c r="J22">
+        <v>455.23399999999998</v>
+      </c>
+      <c r="K22">
+        <v>187.3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
         <f>C22-D22</f>
-        <v>37.400000000000091</v>
-      </c>
-      <c r="K22">
+        <v>33.799999999999955</v>
+      </c>
+      <c r="N22">
         <f>G22-H22</f>
-        <v>39.799999999999955</v>
-      </c>
-      <c r="L22">
+        <v>29.650000000000091</v>
+      </c>
+      <c r="O22">
         <f>I22-F22</f>
-        <v>-32.740000000000009</v>
-      </c>
-      <c r="M22">
-        <f>J22-K22</f>
-        <v>-2.3999999999998636</v>
-      </c>
-      <c r="O22">
-        <v>7</v>
+        <v>3.9800000000000182</v>
       </c>
       <c r="P22">
-        <v>405.214</v>
-      </c>
-      <c r="R22">
-        <f>I22-E22</f>
-        <v>13.559999999999945</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <f>M22-N22</f>
+        <v>4.1499999999998636</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ref="Q22:Q25" si="4">I22-E22</f>
+        <v>12.829999999999927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="159">
+        <v>44728</v>
+      </c>
+      <c r="B23">
+        <v>1261</v>
+      </c>
+      <c r="C23">
+        <v>1286.5</v>
+      </c>
+      <c r="D23">
+        <v>1260.7</v>
+      </c>
+      <c r="E23">
+        <v>1286</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1266.8699999999999</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1292.02</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1263.56</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1280.3699999999999</v>
+      </c>
+      <c r="J23">
+        <v>284.86799999999999</v>
+      </c>
+      <c r="K23">
+        <v>156.45500000000001</v>
+      </c>
+      <c r="L23">
+        <v>-4</v>
+      </c>
+      <c r="M23">
+        <f>C23-D23</f>
+        <v>25.799999999999955</v>
+      </c>
+      <c r="N23">
+        <f>G23-H23</f>
+        <v>28.460000000000036</v>
+      </c>
+      <c r="O23">
+        <f>I23-F23</f>
+        <v>13.5</v>
+      </c>
+      <c r="P23">
+        <f>M23-N23</f>
+        <v>-2.6600000000000819</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>-5.6300000000001091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
-        <v>44729</v>
+        <v>44727</v>
       </c>
       <c r="B24">
-        <v>1247.5</v>
+        <v>1268</v>
       </c>
       <c r="C24">
-        <v>1249</v>
+        <v>1270.5</v>
       </c>
       <c r="D24">
-        <v>1215.2</v>
+        <v>1235.3</v>
       </c>
       <c r="E24">
-        <v>1245.2</v>
+        <v>1251.3</v>
       </c>
       <c r="F24" s="11">
-        <v>1254.05</v>
+        <v>1263.96</v>
       </c>
       <c r="G24" s="11">
-        <v>1259.3900000000001</v>
+        <v>1268.33</v>
       </c>
       <c r="H24" s="11">
-        <v>1229.74</v>
+        <v>1231.1199999999999</v>
       </c>
       <c r="I24" s="11">
-        <v>1258.03</v>
+        <v>1253.0899999999999</v>
       </c>
       <c r="J24">
+        <v>356.99299999999999</v>
+      </c>
+      <c r="K24">
+        <v>167.43100000000001</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
         <f>C24-D24</f>
-        <v>33.799999999999955</v>
-      </c>
-      <c r="K24">
+        <v>35.200000000000045</v>
+      </c>
+      <c r="N24">
         <f>G24-H24</f>
-        <v>29.650000000000091</v>
-      </c>
-      <c r="L24">
+        <v>37.210000000000036</v>
+      </c>
+      <c r="O24">
         <f>I24-F24</f>
-        <v>3.9800000000000182</v>
-      </c>
-      <c r="M24">
-        <f>J24-K24</f>
-        <v>4.1499999999998636</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
+        <v>-10.870000000000118</v>
       </c>
       <c r="P24">
-        <v>455.23399999999998</v>
-      </c>
-      <c r="R24">
-        <f t="shared" ref="R24:R27" si="3">I24-E24</f>
-        <v>12.829999999999927</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="159">
-        <v>44728</v>
+        <f>M24-N24</f>
+        <v>-2.0099999999999909</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>1.7899999999999636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>44726</v>
       </c>
       <c r="B25">
-        <v>1261</v>
+        <v>1254.8</v>
       </c>
       <c r="C25">
-        <v>1286.5</v>
+        <v>1272.5</v>
       </c>
       <c r="D25">
-        <v>1260.7</v>
+        <v>1250</v>
       </c>
       <c r="E25">
-        <v>1286</v>
+        <v>1268.3</v>
       </c>
       <c r="F25" s="11">
-        <v>1266.8699999999999</v>
+        <v>1247.3900000000001</v>
       </c>
       <c r="G25" s="11">
-        <v>1292.02</v>
+        <v>1271.28</v>
       </c>
       <c r="H25" s="11">
-        <v>1263.56</v>
+        <v>1245.26</v>
       </c>
       <c r="I25" s="11">
-        <v>1280.3699999999999</v>
+        <v>1261.1600000000001</v>
       </c>
       <c r="J25">
+        <v>353.74700000000001</v>
+      </c>
+      <c r="K25">
+        <v>145.64099999999999</v>
+      </c>
+      <c r="L25">
+        <v>-1</v>
+      </c>
+      <c r="M25">
         <f>C25-D25</f>
-        <v>25.799999999999955</v>
-      </c>
-      <c r="K25">
+        <v>22.5</v>
+      </c>
+      <c r="N25">
         <f>G25-H25</f>
-        <v>28.460000000000036</v>
-      </c>
-      <c r="L25">
+        <v>26.019999999999982</v>
+      </c>
+      <c r="O25">
         <f>I25-F25</f>
-        <v>13.5</v>
-      </c>
-      <c r="M25">
-        <f>J25-K25</f>
-        <v>-2.6600000000000819</v>
-      </c>
-      <c r="O25">
-        <v>-4</v>
+        <v>13.769999999999982</v>
       </c>
       <c r="P25">
-        <v>284.86799999999999</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="3"/>
-        <v>-5.6300000000001091</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
-        <v>44727</v>
+        <f>M25-N25</f>
+        <v>-3.5199999999999818</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>-7.1399999999998727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="164">
+        <v>44725</v>
       </c>
       <c r="B26">
-        <v>1268</v>
+        <v>1295.26</v>
       </c>
       <c r="C26">
-        <v>1270.5</v>
+        <v>1300.45</v>
       </c>
       <c r="D26">
-        <v>1235.3</v>
+        <v>1260.8499999999999</v>
       </c>
       <c r="E26">
-        <v>1251.3</v>
+        <v>1260.8499999999999</v>
       </c>
       <c r="F26" s="11">
-        <v>1263.96</v>
+        <v>1284</v>
       </c>
       <c r="G26" s="11">
-        <v>1268.33</v>
+        <v>1289.9000000000001</v>
       </c>
       <c r="H26" s="11">
-        <v>1231.1199999999999</v>
+        <v>1257.4000000000001</v>
       </c>
       <c r="I26" s="11">
-        <v>1253.0899999999999</v>
+        <v>1260.2</v>
       </c>
       <c r="J26">
-        <f>C26-D26</f>
-        <v>35.200000000000045</v>
+        <v>332.82900000000001</v>
       </c>
       <c r="K26">
-        <f>G26-H26</f>
-        <v>37.210000000000036</v>
+        <v>199.02</v>
       </c>
       <c r="L26">
-        <f>I26-F26</f>
-        <v>-10.870000000000118</v>
-      </c>
-      <c r="M26">
-        <f>J26-K26</f>
-        <v>-2.0099999999999909</v>
-      </c>
-      <c r="O26">
-        <v>4</v>
-      </c>
-      <c r="P26">
-        <v>356.99299999999999</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="3"/>
-        <v>1.7899999999999636</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <v>44726</v>
-      </c>
-      <c r="B27">
-        <v>1254.8</v>
-      </c>
-      <c r="C27">
-        <v>1272.5</v>
-      </c>
-      <c r="D27">
-        <v>1250</v>
-      </c>
-      <c r="E27">
-        <v>1268.3</v>
-      </c>
-      <c r="F27" s="11">
-        <v>1247.3900000000001</v>
-      </c>
-      <c r="G27" s="11">
-        <v>1271.28</v>
-      </c>
-      <c r="H27" s="11">
-        <v>1245.26</v>
-      </c>
-      <c r="I27" s="11">
-        <v>1261.1600000000001</v>
-      </c>
-      <c r="J27">
-        <f>C27-D27</f>
-        <v>22.5</v>
-      </c>
-      <c r="K27">
-        <f>G27-H27</f>
-        <v>26.019999999999982</v>
-      </c>
-      <c r="L27">
-        <f>I27-F27</f>
-        <v>13.769999999999982</v>
-      </c>
-      <c r="M27">
-        <f>J27-K27</f>
-        <v>-3.5199999999999818</v>
-      </c>
-      <c r="O27">
-        <v>-1</v>
-      </c>
-      <c r="P27">
-        <v>353.74700000000001</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="3"/>
-        <v>-7.1399999999998727</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
-        <v>44725</v>
-      </c>
-      <c r="B28">
-        <v>1295.26</v>
-      </c>
-      <c r="C28">
-        <v>1300.45</v>
-      </c>
-      <c r="D28">
-        <v>1260.8499999999999</v>
-      </c>
-      <c r="E28">
-        <v>1260.8499999999999</v>
-      </c>
-      <c r="F28" s="11">
-        <v>1284</v>
-      </c>
-      <c r="G28" s="11">
-        <v>1289.9000000000001</v>
-      </c>
-      <c r="H28" s="11">
-        <v>1257.4000000000001</v>
-      </c>
-      <c r="I28" s="11">
-        <v>1260.2</v>
-      </c>
-      <c r="J28">
-        <f>C28-D28</f>
-        <v>39.600000000000136</v>
-      </c>
-      <c r="K28">
-        <f>G28-H28</f>
-        <v>32.5</v>
-      </c>
-      <c r="L28">
-        <f>I28-F28</f>
-        <v>-23.799999999999955</v>
-      </c>
-      <c r="M28">
-        <f>J28-K28</f>
-        <v>7.1000000000001364</v>
-      </c>
-      <c r="O28">
         <f>7270/1000</f>
         <v>7.27</v>
       </c>
-      <c r="P28">
-        <v>332.82900000000001</v>
-      </c>
-      <c r="R28">
-        <f>I28-E28</f>
+      <c r="M26">
+        <f>C26-D26</f>
+        <v>39.600000000000136</v>
+      </c>
+      <c r="N26">
+        <f>G26-H26</f>
+        <v>32.5</v>
+      </c>
+      <c r="O26">
+        <f>I26-F26</f>
+        <v>-23.799999999999955</v>
+      </c>
+      <c r="P26">
+        <f>M26-N26</f>
+        <v>7.1000000000001364</v>
+      </c>
+      <c r="Q26">
+        <f>I26-E26</f>
         <v>-0.64999999999986358</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
         <v>44722</v>
       </c>
-      <c r="B30">
+      <c r="B27">
         <v>1328</v>
       </c>
-      <c r="C30">
+      <c r="C27">
         <v>1333.8</v>
       </c>
-      <c r="D30">
+      <c r="D27">
         <v>1311.1</v>
       </c>
-      <c r="E30">
+      <c r="E27">
         <v>1311.1</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F27" s="11">
         <v>1332.93</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G27" s="11">
         <v>1344.85</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H27" s="11">
         <v>1325.69</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I27" s="11">
         <v>1325.69</v>
       </c>
-      <c r="J30">
-        <f>C30-D30</f>
+      <c r="J27">
+        <v>232.69300000000001</v>
+      </c>
+      <c r="K27">
+        <v>136.58500000000001</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f>C27-D27</f>
         <v>22.700000000000045</v>
       </c>
-      <c r="K30">
-        <f>G30-H30</f>
+      <c r="N27">
+        <f>G27-H27</f>
         <v>19.159999999999854</v>
       </c>
-      <c r="L30">
-        <f>I30-F30</f>
+      <c r="O27">
+        <f>I27-F27</f>
         <v>-7.2400000000000091</v>
       </c>
-      <c r="M30">
-        <f>J30-K30</f>
+      <c r="P27">
+        <f>M27-N27</f>
         <v>3.540000000000191</v>
       </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>232.69300000000001</v>
-      </c>
-      <c r="R30">
-        <f t="shared" ref="R30:R33" si="4">I30-E30</f>
+      <c r="Q27">
+        <f t="shared" ref="Q27:Q30" si="5">I27-E27</f>
         <v>14.590000000000146</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
         <v>44721</v>
       </c>
-      <c r="B31">
+      <c r="B28">
         <v>1332.4</v>
       </c>
-      <c r="C31">
+      <c r="C28">
         <v>1339</v>
       </c>
-      <c r="D31">
+      <c r="D28">
         <v>1327</v>
       </c>
-      <c r="E31">
+      <c r="E28">
         <v>1335.3</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F28" s="11">
         <v>1344.56</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G28" s="11">
         <v>1346.13</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H28" s="11">
         <v>1335.28</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I28" s="11">
         <v>1342.92</v>
       </c>
-      <c r="J31">
-        <f>C31-D31</f>
-        <v>12</v>
-      </c>
-      <c r="K31">
-        <f>G31-H31</f>
-        <v>10.850000000000136</v>
-      </c>
-      <c r="L31">
-        <f>I31-F31</f>
-        <v>-1.6399999999998727</v>
-      </c>
-      <c r="M31">
-        <f>J31-K31</f>
-        <v>1.1499999999998636</v>
-      </c>
-      <c r="O31">
+      <c r="J28">
+        <v>264.55900000000003</v>
+      </c>
+      <c r="K28">
+        <v>126.6</v>
+      </c>
+      <c r="L28">
         <f>1852/500</f>
         <v>3.7040000000000002</v>
       </c>
-      <c r="P31">
-        <v>264.55900000000003</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="4"/>
+      <c r="M28">
+        <f>C28-D28</f>
+        <v>12</v>
+      </c>
+      <c r="N28">
+        <f>G28-H28</f>
+        <v>10.850000000000136</v>
+      </c>
+      <c r="O28">
+        <f>I28-F28</f>
+        <v>-1.6399999999998727</v>
+      </c>
+      <c r="P28">
+        <f>M28-N28</f>
+        <v>1.1499999999998636</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="5"/>
         <v>7.6200000000001182</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
         <v>44720</v>
       </c>
-      <c r="B32">
+      <c r="B29">
         <v>1321</v>
       </c>
-      <c r="C32">
+      <c r="C29">
         <v>1342</v>
       </c>
-      <c r="D32">
+      <c r="D29">
         <v>1319.8</v>
       </c>
-      <c r="E32">
+      <c r="E29">
         <v>1333</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F29" s="11">
         <v>1328.95</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G29" s="11">
         <v>1348.4</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H29" s="11">
         <v>1325.65</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I29" s="11">
         <v>1342.03</v>
       </c>
-      <c r="J32">
-        <f>C32-D32</f>
-        <v>22.200000000000045</v>
-      </c>
-      <c r="K32">
-        <f>G32-H32</f>
-        <v>22.75</v>
-      </c>
-      <c r="L32">
-        <f>I32-F32</f>
-        <v>13.079999999999927</v>
-      </c>
-      <c r="M32">
-        <f>J32-K32</f>
-        <v>-0.54999999999995453</v>
-      </c>
-      <c r="O32">
+      <c r="J29">
+        <v>267.43</v>
+      </c>
+      <c r="K29">
+        <v>163.072</v>
+      </c>
+      <c r="L29">
         <f>1123/500</f>
         <v>2.246</v>
       </c>
+      <c r="M29">
+        <f>C29-D29</f>
+        <v>22.200000000000045</v>
+      </c>
+      <c r="N29">
+        <f>G29-H29</f>
+        <v>22.75</v>
+      </c>
+      <c r="O29">
+        <f>I29-F29</f>
+        <v>13.079999999999927</v>
+      </c>
+      <c r="P29">
+        <f>M29-N29</f>
+        <v>-0.54999999999995453</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="5"/>
+        <v>9.0299999999999727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>44719</v>
+      </c>
+      <c r="B30">
+        <v>1315</v>
+      </c>
+      <c r="C30">
+        <v>1315.5</v>
+      </c>
+      <c r="D30">
+        <v>1293.3</v>
+      </c>
+      <c r="E30">
+        <v>1315</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1323.19</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1324.27</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1297.98</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1324.37</v>
+      </c>
+      <c r="J30">
+        <v>278.66399999999999</v>
+      </c>
+      <c r="K30">
+        <v>153.98099999999999</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f>C30-D30</f>
+        <v>22.200000000000045</v>
+      </c>
+      <c r="N30">
+        <f>G30-H30</f>
+        <v>26.289999999999964</v>
+      </c>
+      <c r="O30">
+        <f>I30-F30</f>
+        <v>1.1799999999998363</v>
+      </c>
+      <c r="P30">
+        <f>M30-N30</f>
+        <v>-4.0899999999999181</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="5"/>
+        <v>9.3699999999998909</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="164">
+        <v>44718</v>
+      </c>
+      <c r="B31">
+        <v>1320.7</v>
+      </c>
+      <c r="C31">
+        <v>1332</v>
+      </c>
+      <c r="D31">
+        <v>1315</v>
+      </c>
+      <c r="E31">
+        <v>1315</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1328.73</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1336.96</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1320.97</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1327.04</v>
+      </c>
+      <c r="J31">
+        <v>224.785</v>
+      </c>
+      <c r="K31">
+        <v>132.834</v>
+      </c>
+      <c r="L31">
+        <f>1097/500</f>
+        <v>2.194</v>
+      </c>
+      <c r="M31">
+        <f>C31-D31</f>
+        <v>17</v>
+      </c>
+      <c r="N31">
+        <f>G31-H31</f>
+        <v>15.990000000000009</v>
+      </c>
+      <c r="O31">
+        <f>I31-F31</f>
+        <v>-1.6900000000000546</v>
+      </c>
+      <c r="P31">
+        <f>M31-N31</f>
+        <v>1.0099999999999909</v>
+      </c>
+      <c r="Q31">
+        <f>I31-E31</f>
+        <v>12.039999999999964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>44715</v>
+      </c>
+      <c r="B32">
+        <v>1318</v>
+      </c>
+      <c r="C32">
+        <v>1323.9</v>
+      </c>
+      <c r="D32">
+        <v>1305.5999999999999</v>
+      </c>
+      <c r="E32">
+        <v>1318.5</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1323.09</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1329.9</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1313.4</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1327.4</v>
+      </c>
+      <c r="J32">
+        <v>233.505</v>
+      </c>
+      <c r="K32">
+        <v>100.18</v>
+      </c>
+      <c r="L32">
+        <f>997.3/500</f>
+        <v>1.9945999999999999</v>
+      </c>
+      <c r="M32">
+        <f>C32-D32</f>
+        <v>18.300000000000182</v>
+      </c>
+      <c r="N32">
+        <f>G32-H32</f>
+        <v>16.5</v>
+      </c>
+      <c r="O32">
+        <f>I32-F32</f>
+        <v>4.3100000000001728</v>
+      </c>
       <c r="P32">
-        <v>267.43</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="4"/>
-        <v>9.0299999999999727</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <f>M32-N32</f>
+        <v>1.8000000000001819</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q35" si="6">I32-E32</f>
+        <v>8.9000000000000909</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
-        <v>44719</v>
+        <v>44714</v>
       </c>
       <c r="B33">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C33">
-        <v>1315.5</v>
+        <v>1330</v>
       </c>
       <c r="D33">
-        <v>1293.3</v>
+        <v>1311</v>
       </c>
       <c r="E33">
         <v>1315</v>
       </c>
       <c r="F33" s="11">
-        <v>1323.19</v>
+        <v>1339.12</v>
       </c>
       <c r="G33" s="11">
-        <v>1324.27</v>
+        <v>1342.47</v>
       </c>
       <c r="H33" s="11">
-        <v>1297.98</v>
+        <v>1319.85</v>
       </c>
       <c r="I33" s="11">
-        <v>1324.37</v>
+        <v>1325.49</v>
       </c>
       <c r="J33">
-        <f>C33-D33</f>
-        <v>22.200000000000045</v>
+        <v>253.048</v>
       </c>
       <c r="K33">
-        <f>G33-H33</f>
-        <v>26.289999999999964</v>
+        <v>133.90299999999999</v>
       </c>
       <c r="L33">
-        <f>I33-F33</f>
-        <v>1.1799999999998363</v>
-      </c>
-      <c r="M33">
-        <f>J33-K33</f>
-        <v>-4.0899999999999181</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>278.66399999999999</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="4"/>
-        <v>9.3699999999998909</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
-        <v>44718</v>
-      </c>
-      <c r="B34">
-        <v>1320.7</v>
-      </c>
-      <c r="C34">
-        <v>1332</v>
-      </c>
-      <c r="D34">
-        <v>1315</v>
-      </c>
-      <c r="E34">
-        <v>1315</v>
-      </c>
-      <c r="F34" s="11">
-        <v>1328.73</v>
-      </c>
-      <c r="G34" s="11">
-        <v>1336.96</v>
-      </c>
-      <c r="H34" s="11">
-        <v>1320.97</v>
-      </c>
-      <c r="I34" s="11">
-        <v>1327.04</v>
-      </c>
-      <c r="J34">
-        <f>C34-D34</f>
-        <v>17</v>
-      </c>
-      <c r="K34">
-        <f>G34-H34</f>
-        <v>15.990000000000009</v>
-      </c>
-      <c r="L34">
-        <f>I34-F34</f>
-        <v>-1.6900000000000546</v>
-      </c>
-      <c r="M34">
-        <f>J34-K34</f>
-        <v>1.0099999999999909</v>
-      </c>
-      <c r="O34">
-        <f>1097/500</f>
-        <v>2.194</v>
-      </c>
-      <c r="P34">
-        <v>224.785</v>
-      </c>
-      <c r="R34">
-        <f>I34-E34</f>
-        <v>12.039999999999964</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
-        <v>44715</v>
-      </c>
-      <c r="B36">
-        <v>1318</v>
-      </c>
-      <c r="C36">
-        <v>1323.9</v>
-      </c>
-      <c r="D36">
-        <v>1305.5999999999999</v>
-      </c>
-      <c r="E36">
-        <v>1318.5</v>
-      </c>
-      <c r="F36" s="11">
-        <v>1323.09</v>
-      </c>
-      <c r="G36" s="11">
-        <v>1329.9</v>
-      </c>
-      <c r="H36" s="11">
-        <v>1313.4</v>
-      </c>
-      <c r="I36" s="11">
-        <v>1327.4</v>
-      </c>
-      <c r="J36">
-        <f>C36-D36</f>
-        <v>18.300000000000182</v>
-      </c>
-      <c r="K36">
-        <f>G36-H36</f>
-        <v>16.5</v>
-      </c>
-      <c r="L36">
-        <f>I36-F36</f>
-        <v>4.3100000000001728</v>
-      </c>
-      <c r="M36">
-        <f>J36-K36</f>
-        <v>1.8000000000001819</v>
-      </c>
-      <c r="O36">
-        <f>997.3/500</f>
-        <v>1.9945999999999999</v>
-      </c>
-      <c r="P36">
-        <v>233.505</v>
-      </c>
-      <c r="R36">
-        <f t="shared" ref="R36:R39" si="5">I36-E36</f>
-        <v>8.9000000000000909</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
-        <v>44714</v>
-      </c>
-      <c r="B37">
-        <v>1311</v>
-      </c>
-      <c r="C37">
-        <v>1330</v>
-      </c>
-      <c r="D37">
-        <v>1311</v>
-      </c>
-      <c r="E37">
-        <v>1315</v>
-      </c>
-      <c r="F37" s="11">
-        <v>1339.12</v>
-      </c>
-      <c r="G37" s="11">
-        <v>1342.47</v>
-      </c>
-      <c r="H37" s="11">
-        <v>1319.85</v>
-      </c>
-      <c r="I37" s="11">
-        <v>1325.49</v>
-      </c>
-      <c r="J37">
-        <f>C37-D37</f>
-        <v>19</v>
-      </c>
-      <c r="K37">
-        <f>G37-H37</f>
-        <v>22.620000000000118</v>
-      </c>
-      <c r="L37">
-        <f>I37-F37</f>
-        <v>-13.629999999999882</v>
-      </c>
-      <c r="M37">
-        <f>J37-K37</f>
-        <v>-3.6200000000001182</v>
-      </c>
-      <c r="O37">
         <f>2043.5/500</f>
         <v>4.0869999999999997</v>
       </c>
-      <c r="P37">
-        <v>253.048</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="5"/>
+      <c r="M33">
+        <f>C33-D33</f>
+        <v>19</v>
+      </c>
+      <c r="N33">
+        <f>G33-H33</f>
+        <v>22.620000000000118</v>
+      </c>
+      <c r="O33">
+        <f>I33-F33</f>
+        <v>-13.629999999999882</v>
+      </c>
+      <c r="P33">
+        <f>M33-N33</f>
+        <v>-3.6200000000001182</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="6"/>
         <v>10.490000000000009</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
         <v>44713</v>
       </c>
-      <c r="B38">
+      <c r="B34">
         <v>1318.5</v>
       </c>
-      <c r="C38">
+      <c r="C34">
         <v>1337.5</v>
       </c>
-      <c r="D38">
+      <c r="D34">
         <v>1316</v>
       </c>
-      <c r="E38">
+      <c r="E34">
         <v>1326</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F34" s="11">
         <v>1329.02</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G34" s="11">
         <v>1341.47</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H34" s="11">
         <v>1323.07</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I34" s="11">
         <v>1335.49</v>
       </c>
-      <c r="J38">
-        <f>C38-D38</f>
-        <v>21.5</v>
-      </c>
-      <c r="K38">
-        <f>G38-H38</f>
-        <v>18.400000000000091</v>
-      </c>
-      <c r="L38">
-        <f>I38-F38</f>
-        <v>6.4700000000000273</v>
-      </c>
-      <c r="M38">
-        <f>J38-K38</f>
-        <v>3.0999999999999091</v>
-      </c>
-      <c r="O38">
+      <c r="J34">
+        <v>325.93599999999998</v>
+      </c>
+      <c r="K34">
+        <v>127.58199999999999</v>
+      </c>
+      <c r="L34">
         <f>2996.5/500</f>
         <v>5.9930000000000003</v>
       </c>
-      <c r="P38">
-        <v>325.93599999999998</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="5"/>
+      <c r="M34">
+        <f>C34-D34</f>
+        <v>21.5</v>
+      </c>
+      <c r="N34">
+        <f>G34-H34</f>
+        <v>18.400000000000091</v>
+      </c>
+      <c r="O34">
+        <f>I34-F34</f>
+        <v>6.4700000000000273</v>
+      </c>
+      <c r="P34">
+        <f>M34-N34</f>
+        <v>3.0999999999999091</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="6"/>
         <v>9.4900000000000091</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
         <v>44712</v>
       </c>
-      <c r="B39">
+      <c r="B35">
         <v>1326.2</v>
       </c>
-      <c r="C39">
+      <c r="C35">
         <v>1326.8</v>
       </c>
-      <c r="D39">
+      <c r="D35">
         <v>1310.5</v>
       </c>
-      <c r="E39">
+      <c r="E35">
         <v>1320.5</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F35" s="11">
         <v>1342.8</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G35" s="11">
         <v>1342.8</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H35" s="11">
         <v>1324.46</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I35" s="11">
         <v>1332.59</v>
       </c>
-      <c r="J39">
-        <f>C39-D39</f>
+      <c r="J35">
+        <v>224.97800000000001</v>
+      </c>
+      <c r="K35">
+        <v>127.916</v>
+      </c>
+      <c r="M35">
+        <f>C35-D35</f>
         <v>16.299999999999955</v>
       </c>
-      <c r="K39">
-        <f>G39-H39</f>
+      <c r="N35">
+        <f>G35-H35</f>
         <v>18.339999999999918</v>
       </c>
-      <c r="L39">
-        <f>I39-F39</f>
+      <c r="O35">
+        <f>I35-F35</f>
         <v>-10.210000000000036</v>
       </c>
-      <c r="M39">
-        <f>J39-K39</f>
+      <c r="P35">
+        <f>M35-N35</f>
         <v>-2.0399999999999636</v>
       </c>
-      <c r="P39">
-        <v>224.97800000000001</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="5"/>
+      <c r="Q35">
+        <f t="shared" si="6"/>
         <v>12.089999999999918</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="164">
         <v>44711</v>
       </c>
-      <c r="B40">
+      <c r="B36">
         <v>1329.7</v>
       </c>
-      <c r="C40">
+      <c r="C36">
         <v>1331</v>
       </c>
-      <c r="D40">
+      <c r="D36">
         <v>1319.6</v>
       </c>
-      <c r="E40">
+      <c r="E36">
         <v>1325.6</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F36" s="11">
         <v>1337.39</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G36" s="11">
         <v>1342.87</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H36" s="11">
         <v>1329.38</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I36" s="11">
         <v>1342.87</v>
       </c>
-      <c r="J40">
-        <f>C40-D40</f>
-        <v>11.400000000000091</v>
-      </c>
-      <c r="K40">
-        <f>G40-H40</f>
-        <v>13.489999999999782</v>
-      </c>
-      <c r="L40">
-        <f>I40-F40</f>
-        <v>5.4799999999997908</v>
-      </c>
-      <c r="M40">
-        <f>J40-K40</f>
-        <v>-2.0899999999996908</v>
-      </c>
-      <c r="O40">
+      <c r="J36">
+        <v>204.05</v>
+      </c>
+      <c r="K36">
+        <v>121.53100000000001</v>
+      </c>
+      <c r="L36">
         <f>-18064/2000*4</f>
         <v>-36.128</v>
       </c>
-      <c r="P40">
-        <v>204.05</v>
-      </c>
-      <c r="R40">
-        <f>I40-E40</f>
+      <c r="M36">
+        <f>C36-D36</f>
+        <v>11.400000000000091</v>
+      </c>
+      <c r="N36">
+        <f>G36-H36</f>
+        <v>13.489999999999782</v>
+      </c>
+      <c r="O36">
+        <f>I36-F36</f>
+        <v>5.4799999999997908</v>
+      </c>
+      <c r="P36">
+        <f>M36-N36</f>
+        <v>-2.0899999999996908</v>
+      </c>
+      <c r="Q36">
+        <f>I36-E36</f>
         <v>17.269999999999982</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="19">
         <v>44708</v>
       </c>
-      <c r="B42">
+      <c r="B37">
         <v>1306.0999999999999</v>
       </c>
-      <c r="C42">
+      <c r="C37">
         <v>1328.8</v>
       </c>
-      <c r="D42">
+      <c r="D37">
         <v>1305.0999999999999</v>
       </c>
-      <c r="E42">
+      <c r="E37">
         <v>1322.5</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F37" s="11">
         <v>1311.78</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G37" s="11">
         <v>1336.99</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H37" s="11">
         <v>1310.6400000000001</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I37" s="11">
         <v>1335.68</v>
       </c>
-      <c r="J42">
-        <f>C42-D42</f>
-        <v>23.700000000000045</v>
-      </c>
-      <c r="K42">
-        <f>G42-H42</f>
-        <v>26.349999999999909</v>
-      </c>
-      <c r="L42">
-        <f>I42-F42</f>
-        <v>23.900000000000091</v>
-      </c>
-      <c r="M42">
-        <f>J42-K42</f>
-        <v>-2.6499999999998636</v>
-      </c>
-      <c r="O42">
+      <c r="J37">
+        <v>255.624</v>
+      </c>
+      <c r="K37">
+        <v>139.40600000000001</v>
+      </c>
+      <c r="L37">
         <f>2093/500</f>
         <v>4.1859999999999999</v>
       </c>
-      <c r="P42">
-        <v>255.624</v>
-      </c>
-      <c r="R42">
-        <f>I42-E42</f>
+      <c r="M37">
+        <f>C37-D37</f>
+        <v>23.700000000000045</v>
+      </c>
+      <c r="N37">
+        <f>G37-H37</f>
+        <v>26.349999999999909</v>
+      </c>
+      <c r="O37">
+        <f>I37-F37</f>
+        <v>23.900000000000091</v>
+      </c>
+      <c r="P37">
+        <f>M37-N37</f>
+        <v>-2.6499999999998636</v>
+      </c>
+      <c r="Q37">
+        <f>I37-E37</f>
         <v>13.180000000000064</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="19">
         <v>44707</v>
       </c>
-      <c r="B43">
+      <c r="B38">
         <v>1302</v>
       </c>
-      <c r="C43">
+      <c r="C38">
         <v>1310.5</v>
       </c>
-      <c r="D43">
+      <c r="D38">
         <v>1292.0999999999999</v>
       </c>
-      <c r="E43">
+      <c r="E38">
         <v>1300.9000000000001</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F38" s="11">
         <v>1312.56</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G38" s="11">
         <v>1319.21</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H38" s="11">
         <v>1304.5899999999999</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I38" s="11">
         <v>1309.5</v>
       </c>
-      <c r="J43">
-        <f>C43-D43</f>
-        <v>18.400000000000091</v>
-      </c>
-      <c r="K43">
-        <f>G43-H43</f>
-        <v>14.620000000000118</v>
-      </c>
-      <c r="L43">
-        <f>I43-F43</f>
-        <v>-3.0599999999999454</v>
-      </c>
-      <c r="M43">
-        <f>J43-K43</f>
-        <v>3.7799999999999727</v>
-      </c>
-      <c r="O43">
+      <c r="J38">
+        <v>279.32499999999999</v>
+      </c>
+      <c r="K38">
+        <v>127.93</v>
+      </c>
+      <c r="L38">
         <f>2494/500</f>
         <v>4.9880000000000004</v>
       </c>
+      <c r="M38">
+        <f>C38-D38</f>
+        <v>18.400000000000091</v>
+      </c>
+      <c r="N38">
+        <f>G38-H38</f>
+        <v>14.620000000000118</v>
+      </c>
+      <c r="O38">
+        <f>I38-F38</f>
+        <v>-3.0599999999999454</v>
+      </c>
+      <c r="P38">
+        <f>M38-N38</f>
+        <v>3.7799999999999727</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ref="Q38:Q60" si="7">I38-E38</f>
+        <v>8.5999999999999091</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
+        <v>44706</v>
+      </c>
+      <c r="B39">
+        <v>1275</v>
+      </c>
+      <c r="C39">
+        <v>1306</v>
+      </c>
+      <c r="D39">
+        <v>1268.5</v>
+      </c>
+      <c r="E39">
+        <v>1299.3</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1277.54</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1311.32</v>
+      </c>
+      <c r="H39" s="11">
+        <v>1273.29</v>
+      </c>
+      <c r="I39" s="11">
+        <v>1310.7</v>
+      </c>
+      <c r="J39">
+        <v>318.72399999999999</v>
+      </c>
+      <c r="K39">
+        <v>172.69800000000001</v>
+      </c>
+      <c r="L39">
+        <f>2897/5/100</f>
+        <v>5.7939999999999996</v>
+      </c>
+      <c r="M39">
+        <f>C39-D39</f>
+        <v>37.5</v>
+      </c>
+      <c r="N39">
+        <f>G39-H39</f>
+        <v>38.029999999999973</v>
+      </c>
+      <c r="O39">
+        <f>I39-F39</f>
+        <v>33.160000000000082</v>
+      </c>
+      <c r="P39">
+        <f>M39-N39</f>
+        <v>-0.52999999999997272</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="7"/>
+        <v>11.400000000000091</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="19">
+        <v>44705</v>
+      </c>
+      <c r="B40">
+        <v>1253</v>
+      </c>
+      <c r="C40">
+        <v>1271.0999999999999</v>
+      </c>
+      <c r="D40">
+        <v>1234</v>
+      </c>
+      <c r="E40">
+        <v>1267</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1255.77</v>
+      </c>
+      <c r="G40" s="11">
+        <v>1272.71</v>
+      </c>
+      <c r="H40" s="11">
+        <v>1242.3599999999999</v>
+      </c>
+      <c r="I40" s="11">
+        <v>1272.71</v>
+      </c>
+      <c r="J40">
+        <v>389.65800000000002</v>
+      </c>
+      <c r="K40">
+        <v>146.36600000000001</v>
+      </c>
+      <c r="M40">
+        <f>C40-D40</f>
+        <v>37.099999999999909</v>
+      </c>
+      <c r="N40">
+        <f>G40-H40</f>
+        <v>30.350000000000136</v>
+      </c>
+      <c r="O40">
+        <f>I40-F40</f>
+        <v>16.940000000000055</v>
+      </c>
+      <c r="P40">
+        <f>M40-N40</f>
+        <v>6.7499999999997726</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="7"/>
+        <v>5.7100000000000364</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="164">
+        <v>44704</v>
+      </c>
+      <c r="B41">
+        <v>1289</v>
+      </c>
+      <c r="C41">
+        <v>1289</v>
+      </c>
+      <c r="D41">
+        <v>1238.0999999999999</v>
+      </c>
+      <c r="E41">
+        <v>1253.0999999999999</v>
+      </c>
+      <c r="F41" s="11">
+        <v>1287.49</v>
+      </c>
+      <c r="G41" s="11">
+        <v>1287.6500000000001</v>
+      </c>
+      <c r="H41" s="11">
+        <v>1245.4100000000001</v>
+      </c>
+      <c r="I41" s="11">
+        <v>1255.3499999999999</v>
+      </c>
+      <c r="J41">
+        <v>324.733</v>
+      </c>
+      <c r="K41">
+        <v>139.33099999999999</v>
+      </c>
+      <c r="M41">
+        <f>C41-D41</f>
+        <v>50.900000000000091</v>
+      </c>
+      <c r="N41">
+        <f>G41-H41</f>
+        <v>42.240000000000009</v>
+      </c>
+      <c r="O41">
+        <f>I41-F41</f>
+        <v>-32.1400000000001</v>
+      </c>
+      <c r="P41">
+        <f>M41-N41</f>
+        <v>8.6600000000000819</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="7"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>44701</v>
+      </c>
+      <c r="B42">
+        <v>1283</v>
+      </c>
+      <c r="C42">
+        <v>1299.2</v>
+      </c>
+      <c r="D42">
+        <v>1259.8</v>
+      </c>
+      <c r="E42">
+        <v>1276.8</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1284.8900000000001</v>
+      </c>
+      <c r="G42" s="11">
+        <v>1296</v>
+      </c>
+      <c r="H42" s="11">
+        <v>1273.4000000000001</v>
+      </c>
+      <c r="I42" s="11">
+        <v>1282.51</v>
+      </c>
+      <c r="J42">
+        <v>317.06799999999998</v>
+      </c>
+      <c r="K42">
+        <v>110.1</v>
+      </c>
+      <c r="M42">
+        <f>C42-D42</f>
+        <v>39.400000000000091</v>
+      </c>
+      <c r="N42">
+        <f>G42-H42</f>
+        <v>22.599999999999909</v>
+      </c>
+      <c r="O42">
+        <f>I42-F42</f>
+        <v>-2.3800000000001091</v>
+      </c>
+      <c r="P42">
+        <f>M42-N42</f>
+        <v>16.800000000000182</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="7"/>
+        <v>5.7100000000000364</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
+        <v>44700</v>
+      </c>
+      <c r="B43">
+        <v>1255</v>
+      </c>
+      <c r="C43">
+        <v>1285.2</v>
+      </c>
+      <c r="D43">
+        <v>1253</v>
+      </c>
+      <c r="E43">
+        <v>1274.5</v>
+      </c>
+      <c r="F43" s="11">
+        <v>1259.5899999999999</v>
+      </c>
+      <c r="G43" s="11">
+        <v>1291.49</v>
+      </c>
+      <c r="H43" s="11">
+        <v>1255.6300000000001</v>
+      </c>
+      <c r="I43" s="11">
+        <v>1283.55</v>
+      </c>
+      <c r="K43">
+        <v>130.077</v>
+      </c>
+      <c r="M43">
+        <f>C43-D43</f>
+        <v>32.200000000000045</v>
+      </c>
+      <c r="N43">
+        <f>G43-H43</f>
+        <v>35.8599999999999</v>
+      </c>
+      <c r="O43">
+        <f>I43-F43</f>
+        <v>23.960000000000036</v>
+      </c>
       <c r="P43">
-        <v>279.32499999999999</v>
-      </c>
-      <c r="R43">
-        <f t="shared" ref="R43:R70" si="6">I43-E43</f>
-        <v>8.5999999999999091</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+        <f>M43-N43</f>
+        <v>-3.6599999999998545</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="7"/>
+        <v>9.0499999999999545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
-        <v>44706</v>
+        <v>44699</v>
       </c>
       <c r="B44">
         <v>1275</v>
       </c>
       <c r="C44">
-        <v>1306</v>
+        <v>1303.9000000000001</v>
       </c>
       <c r="D44">
-        <v>1268.5</v>
+        <v>1268</v>
       </c>
       <c r="E44">
-        <v>1299.3</v>
+        <v>1281.5</v>
       </c>
       <c r="F44" s="11">
-        <v>1277.54</v>
+        <v>1289.5</v>
       </c>
       <c r="G44" s="11">
-        <v>1311.32</v>
+        <v>1298.69</v>
       </c>
       <c r="H44" s="11">
-        <v>1273.29</v>
+        <v>1268.1300000000001</v>
       </c>
       <c r="I44" s="11">
-        <v>1310.7</v>
-      </c>
-      <c r="J44">
+        <v>1286.4100000000001</v>
+      </c>
+      <c r="K44">
+        <v>159.93799999999999</v>
+      </c>
+      <c r="M44">
         <f>C44-D44</f>
+        <v>35.900000000000091</v>
+      </c>
+      <c r="N44">
+        <f>G44-H44</f>
+        <v>30.559999999999945</v>
+      </c>
+      <c r="O44">
+        <f>I44-F44</f>
+        <v>-3.0899999999999181</v>
+      </c>
+      <c r="P44">
+        <f>M44-N44</f>
+        <v>5.3400000000001455</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="7"/>
+        <v>4.9100000000000819</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
+        <v>44698</v>
+      </c>
+      <c r="B45">
+        <v>1226</v>
+      </c>
+      <c r="C45">
+        <v>1282</v>
+      </c>
+      <c r="D45">
+        <v>1206.3</v>
+      </c>
+      <c r="E45">
+        <v>1281.8</v>
+      </c>
+      <c r="F45" s="11">
+        <v>1211.8800000000001</v>
+      </c>
+      <c r="G45" s="11">
+        <v>1279.55</v>
+      </c>
+      <c r="H45" s="11">
+        <v>1203.51</v>
+      </c>
+      <c r="I45" s="11">
+        <v>1279.55</v>
+      </c>
+      <c r="K45">
+        <v>161.81700000000001</v>
+      </c>
+      <c r="M45">
+        <f>C45-D45</f>
+        <v>75.700000000000045</v>
+      </c>
+      <c r="N45">
+        <f>G45-H45</f>
+        <v>76.039999999999964</v>
+      </c>
+      <c r="O45">
+        <f>I45-F45</f>
+        <v>67.669999999999845</v>
+      </c>
+      <c r="P45">
+        <f>M45-N45</f>
+        <v>-0.33999999999991815</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="7"/>
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="164">
+        <v>44697</v>
+      </c>
+      <c r="B46">
+        <v>1240</v>
+      </c>
+      <c r="C46">
+        <v>1261.9000000000001</v>
+      </c>
+      <c r="D46">
+        <v>1212</v>
+      </c>
+      <c r="E46">
+        <v>1212</v>
+      </c>
+      <c r="F46" s="11">
+        <v>1254.8800000000001</v>
+      </c>
+      <c r="G46" s="11">
+        <v>1258.25</v>
+      </c>
+      <c r="H46" s="11">
+        <v>1214.29</v>
+      </c>
+      <c r="I46" s="11">
+        <v>1215.08</v>
+      </c>
+      <c r="K46">
+        <v>172.77</v>
+      </c>
+      <c r="M46">
+        <f>C46-D46</f>
+        <v>49.900000000000091</v>
+      </c>
+      <c r="N46">
+        <f>G46-H46</f>
+        <v>43.960000000000036</v>
+      </c>
+      <c r="O46">
+        <f>I46-F46</f>
+        <v>-39.800000000000182</v>
+      </c>
+      <c r="P46">
+        <f>M46-N46</f>
+        <v>5.9400000000000546</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="7"/>
+        <v>3.0799999999999272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="19">
+        <v>44694</v>
+      </c>
+      <c r="B47">
+        <v>1272</v>
+      </c>
+      <c r="C47">
+        <v>1288.0999999999999</v>
+      </c>
+      <c r="D47">
+        <v>1214.7</v>
+      </c>
+      <c r="E47">
+        <v>1225</v>
+      </c>
+      <c r="F47" s="11">
+        <v>1281.28</v>
+      </c>
+      <c r="G47" s="11">
+        <v>1284.94</v>
+      </c>
+      <c r="H47" s="11">
+        <v>1219.52</v>
+      </c>
+      <c r="I47" s="11">
+        <v>1223.76</v>
+      </c>
+      <c r="K47">
+        <v>237.55500000000001</v>
+      </c>
+      <c r="M47">
+        <f>C47-D47</f>
+        <v>73.399999999999864</v>
+      </c>
+      <c r="N47">
+        <f>G47-H47</f>
+        <v>65.420000000000073</v>
+      </c>
+      <c r="O47">
+        <f>I47-F47</f>
+        <v>-57.519999999999982</v>
+      </c>
+      <c r="P47">
+        <f>M47-N47</f>
+        <v>7.9799999999997908</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="7"/>
+        <v>-1.2400000000000091</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
+        <v>44693</v>
+      </c>
+      <c r="B48">
+        <v>1334</v>
+      </c>
+      <c r="C48">
+        <v>1334</v>
+      </c>
+      <c r="D48">
+        <v>1262</v>
+      </c>
+      <c r="E48">
+        <v>1270</v>
+      </c>
+      <c r="F48" s="11">
+        <v>1337.01</v>
+      </c>
+      <c r="G48" s="11">
+        <v>1339.25</v>
+      </c>
+      <c r="H48" s="11">
+        <v>1279.48</v>
+      </c>
+      <c r="I48" s="11">
+        <v>1279.76</v>
+      </c>
+      <c r="K48">
+        <v>163.22399999999999</v>
+      </c>
+      <c r="M48">
+        <f>C48-D48</f>
+        <v>72</v>
+      </c>
+      <c r="N48">
+        <f>G48-H48</f>
+        <v>59.769999999999982</v>
+      </c>
+      <c r="O48">
+        <f>I48-F48</f>
+        <v>-57.25</v>
+      </c>
+      <c r="P48">
+        <f>M48-N48</f>
+        <v>12.230000000000018</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="7"/>
+        <v>9.7599999999999909</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
+        <v>44692</v>
+      </c>
+      <c r="B49">
+        <v>1335</v>
+      </c>
+      <c r="C49">
+        <v>1349</v>
+      </c>
+      <c r="D49">
+        <v>1318</v>
+      </c>
+      <c r="E49">
+        <v>1337</v>
+      </c>
+      <c r="F49" s="11">
+        <v>1344.14</v>
+      </c>
+      <c r="G49" s="11">
+        <v>1355.11</v>
+      </c>
+      <c r="H49" s="11">
+        <v>1324.2</v>
+      </c>
+      <c r="I49" s="11">
+        <v>1349.82</v>
+      </c>
+      <c r="K49">
+        <v>94.774000000000001</v>
+      </c>
+      <c r="M49">
+        <f>C49-D49</f>
+        <v>31</v>
+      </c>
+      <c r="N49">
+        <f>G49-H49</f>
+        <v>30.909999999999854</v>
+      </c>
+      <c r="O49">
+        <f>I49-F49</f>
+        <v>5.6799999999998363</v>
+      </c>
+      <c r="P49">
+        <f>M49-N49</f>
+        <v>9.0000000000145519E-2</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="7"/>
+        <v>12.819999999999936</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="19">
+        <v>44691</v>
+      </c>
+      <c r="B50">
+        <v>1299.8</v>
+      </c>
+      <c r="C50">
+        <v>1340.9</v>
+      </c>
+      <c r="D50">
+        <v>1291.0999999999999</v>
+      </c>
+      <c r="E50">
+        <v>1335</v>
+      </c>
+      <c r="F50" s="11">
+        <v>1312.1</v>
+      </c>
+      <c r="G50" s="11">
+        <v>1345.46</v>
+      </c>
+      <c r="H50" s="11">
+        <v>1285.67</v>
+      </c>
+      <c r="I50" s="11">
+        <v>1345.46</v>
+      </c>
+      <c r="K50">
+        <v>157.23400000000001</v>
+      </c>
+      <c r="M50">
+        <f>C50-D50</f>
+        <v>49.800000000000182</v>
+      </c>
+      <c r="N50">
+        <f>G50-H50</f>
+        <v>59.789999999999964</v>
+      </c>
+      <c r="O50">
+        <f>I50-F50</f>
+        <v>33.360000000000127</v>
+      </c>
+      <c r="P50">
+        <f>M50-N50</f>
+        <v>-9.9899999999997817</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="7"/>
+        <v>10.460000000000036</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="164">
+        <v>44690</v>
+      </c>
+      <c r="B51">
+        <v>1353.7</v>
+      </c>
+      <c r="C51">
+        <v>1355.8</v>
+      </c>
+      <c r="D51">
+        <v>1300</v>
+      </c>
+      <c r="E51">
+        <v>1308.0999999999999</v>
+      </c>
+      <c r="F51" s="11">
+        <v>1358.56</v>
+      </c>
+      <c r="G51" s="11">
+        <v>1360.64</v>
+      </c>
+      <c r="H51" s="11">
+        <v>1308.3399999999999</v>
+      </c>
+      <c r="I51" s="11">
+        <v>1314.04</v>
+      </c>
+      <c r="K51">
+        <v>200.87899999999999</v>
+      </c>
+      <c r="M51">
+        <f>C51-D51</f>
+        <v>55.799999999999955</v>
+      </c>
+      <c r="N51">
+        <f>G51-H51</f>
+        <v>52.300000000000182</v>
+      </c>
+      <c r="O51">
+        <f>I51-F51</f>
+        <v>-44.519999999999982</v>
+      </c>
+      <c r="P51">
+        <f>M51-N51</f>
+        <v>3.4999999999997726</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="7"/>
+        <v>5.9400000000000546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="19">
+        <v>44687</v>
+      </c>
+      <c r="B52">
+        <v>1382</v>
+      </c>
+      <c r="C52">
+        <v>1396.3</v>
+      </c>
+      <c r="D52">
+        <v>1358.8</v>
+      </c>
+      <c r="E52">
+        <v>1362</v>
+      </c>
+      <c r="F52" s="11">
+        <v>1399.54</v>
+      </c>
+      <c r="G52" s="11">
+        <v>1399.54</v>
+      </c>
+      <c r="H52" s="11">
+        <v>1371</v>
+      </c>
+      <c r="I52" s="11">
+        <v>1373.21</v>
+      </c>
+      <c r="K52">
+        <v>129.90700000000001</v>
+      </c>
+      <c r="M52">
+        <f>C52-D52</f>
         <v>37.5</v>
       </c>
-      <c r="K44">
-        <f>G44-H44</f>
-        <v>38.029999999999973</v>
-      </c>
-      <c r="L44">
-        <f>I44-F44</f>
-        <v>33.160000000000082</v>
-      </c>
-      <c r="M44">
-        <f>J44-K44</f>
-        <v>-0.52999999999997272</v>
-      </c>
-      <c r="O44">
-        <f>2897/5/100</f>
-        <v>5.7939999999999996</v>
-      </c>
-      <c r="P44">
-        <v>318.72399999999999</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="6"/>
-        <v>11.400000000000091</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
-        <v>44705</v>
-      </c>
-      <c r="B45">
-        <v>1253</v>
-      </c>
-      <c r="C45">
-        <v>1271.0999999999999</v>
-      </c>
-      <c r="D45">
-        <v>1234</v>
-      </c>
-      <c r="E45">
-        <v>1267</v>
-      </c>
-      <c r="F45" s="11">
-        <v>1255.77</v>
-      </c>
-      <c r="G45" s="11">
-        <v>1272.71</v>
-      </c>
-      <c r="H45" s="11">
-        <v>1242.3599999999999</v>
-      </c>
-      <c r="I45" s="11">
-        <v>1272.71</v>
-      </c>
-      <c r="J45">
-        <f>C45-D45</f>
-        <v>37.099999999999909</v>
-      </c>
-      <c r="K45">
-        <f>G45-H45</f>
-        <v>30.350000000000136</v>
-      </c>
-      <c r="L45">
-        <f>I45-F45</f>
-        <v>16.940000000000055</v>
-      </c>
-      <c r="M45">
-        <f>J45-K45</f>
-        <v>6.7499999999997726</v>
-      </c>
-      <c r="P45">
-        <v>389.65800000000002</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="6"/>
-        <v>5.7100000000000364</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
-        <v>44704</v>
-      </c>
-      <c r="B46">
-        <v>1289</v>
-      </c>
-      <c r="C46">
-        <v>1289</v>
-      </c>
-      <c r="D46">
-        <v>1238.0999999999999</v>
-      </c>
-      <c r="E46">
-        <v>1253.0999999999999</v>
-      </c>
-      <c r="F46" s="11">
-        <v>1287.49</v>
-      </c>
-      <c r="G46" s="11">
-        <v>1287.6500000000001</v>
-      </c>
-      <c r="H46" s="11">
-        <v>1245.4100000000001</v>
-      </c>
-      <c r="I46" s="11">
-        <v>1255.3499999999999</v>
-      </c>
-      <c r="J46">
-        <f>C46-D46</f>
-        <v>50.900000000000091</v>
-      </c>
-      <c r="K46">
-        <f>G46-H46</f>
-        <v>42.240000000000009</v>
-      </c>
-      <c r="L46">
-        <f>I46-F46</f>
-        <v>-32.1400000000001</v>
-      </c>
-      <c r="M46">
-        <f>J46-K46</f>
-        <v>8.6600000000000819</v>
-      </c>
-      <c r="P46">
-        <v>324.733</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="6"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
-        <v>44701</v>
-      </c>
-      <c r="B48">
-        <v>1283</v>
-      </c>
-      <c r="C48">
-        <v>1299.2</v>
-      </c>
-      <c r="D48">
-        <v>1259.8</v>
-      </c>
-      <c r="E48">
-        <v>1276.8</v>
-      </c>
-      <c r="F48" s="11">
-        <v>1284.8900000000001</v>
-      </c>
-      <c r="G48" s="11">
-        <v>1296</v>
-      </c>
-      <c r="H48" s="11">
-        <v>1273.4000000000001</v>
-      </c>
-      <c r="I48" s="11">
-        <v>1282.51</v>
-      </c>
-      <c r="J48">
-        <f>C48-D48</f>
-        <v>39.400000000000091</v>
-      </c>
-      <c r="K48">
-        <f>G48-H48</f>
-        <v>22.599999999999909</v>
-      </c>
-      <c r="L48">
-        <f>I48-F48</f>
-        <v>-2.3800000000001091</v>
-      </c>
-      <c r="M48">
-        <f>J48-K48</f>
-        <v>16.800000000000182</v>
-      </c>
-      <c r="P48">
-        <v>317.06799999999998</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="6"/>
-        <v>5.7100000000000364</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
-        <v>44700</v>
-      </c>
-      <c r="B49">
-        <v>1255</v>
-      </c>
-      <c r="C49">
-        <v>1285.2</v>
-      </c>
-      <c r="D49">
-        <v>1253</v>
-      </c>
-      <c r="E49">
-        <v>1274.5</v>
-      </c>
-      <c r="F49" s="11">
-        <v>1259.5899999999999</v>
-      </c>
-      <c r="G49" s="11">
-        <v>1291.49</v>
-      </c>
-      <c r="H49" s="11">
-        <v>1255.6300000000001</v>
-      </c>
-      <c r="I49" s="11">
-        <v>1283.55</v>
-      </c>
-      <c r="J49">
-        <f>C49-D49</f>
-        <v>32.200000000000045</v>
-      </c>
-      <c r="K49">
-        <f>G49-H49</f>
-        <v>35.8599999999999</v>
-      </c>
-      <c r="L49">
-        <f>I49-F49</f>
-        <v>23.960000000000036</v>
-      </c>
-      <c r="M49">
-        <f>J49-K49</f>
-        <v>-3.6599999999998545</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="6"/>
-        <v>9.0499999999999545</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
-        <v>44699</v>
-      </c>
-      <c r="B50">
-        <v>1275</v>
-      </c>
-      <c r="C50">
-        <v>1303.9000000000001</v>
-      </c>
-      <c r="D50">
-        <v>1268</v>
-      </c>
-      <c r="E50">
-        <v>1281.5</v>
-      </c>
-      <c r="F50" s="11">
-        <v>1289.5</v>
-      </c>
-      <c r="G50" s="11">
-        <v>1298.69</v>
-      </c>
-      <c r="H50" s="11">
-        <v>1268.1300000000001</v>
-      </c>
-      <c r="I50" s="11">
-        <v>1286.4100000000001</v>
-      </c>
-      <c r="J50">
-        <f>C50-D50</f>
-        <v>35.900000000000091</v>
-      </c>
-      <c r="K50">
-        <f>G50-H50</f>
-        <v>30.559999999999945</v>
-      </c>
-      <c r="L50">
-        <f>I50-F50</f>
-        <v>-3.0899999999999181</v>
-      </c>
-      <c r="M50">
-        <f>J50-K50</f>
-        <v>5.3400000000001455</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="6"/>
-        <v>4.9100000000000819</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
-        <v>44698</v>
-      </c>
-      <c r="B51">
-        <v>1226</v>
-      </c>
-      <c r="C51">
-        <v>1282</v>
-      </c>
-      <c r="D51">
-        <v>1206.3</v>
-      </c>
-      <c r="E51">
-        <v>1281.8</v>
-      </c>
-      <c r="F51" s="11">
-        <v>1211.8800000000001</v>
-      </c>
-      <c r="G51" s="11">
-        <v>1279.55</v>
-      </c>
-      <c r="H51" s="11">
-        <v>1203.51</v>
-      </c>
-      <c r="I51" s="11">
-        <v>1279.55</v>
-      </c>
-      <c r="J51">
-        <f>C51-D51</f>
-        <v>75.700000000000045</v>
-      </c>
-      <c r="K51">
-        <f>G51-H51</f>
-        <v>76.039999999999964</v>
-      </c>
-      <c r="L51">
-        <f>I51-F51</f>
-        <v>67.669999999999845</v>
-      </c>
-      <c r="M51">
-        <f>J51-K51</f>
-        <v>-0.33999999999991815</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="6"/>
-        <v>-2.25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
-        <v>44697</v>
-      </c>
-      <c r="B52">
-        <v>1240</v>
-      </c>
-      <c r="C52">
-        <v>1261.9000000000001</v>
-      </c>
-      <c r="D52">
-        <v>1212</v>
-      </c>
-      <c r="E52">
-        <v>1212</v>
-      </c>
-      <c r="F52" s="11">
-        <v>1254.8800000000001</v>
-      </c>
-      <c r="G52" s="11">
-        <v>1258.25</v>
-      </c>
-      <c r="H52" s="11">
-        <v>1214.29</v>
-      </c>
-      <c r="I52" s="11">
-        <v>1215.08</v>
-      </c>
-      <c r="J52">
-        <f>C52-D52</f>
-        <v>49.900000000000091</v>
-      </c>
-      <c r="K52">
+      <c r="N52">
         <f>G52-H52</f>
-        <v>43.960000000000036</v>
-      </c>
-      <c r="L52">
+        <v>28.539999999999964</v>
+      </c>
+      <c r="O52">
         <f>I52-F52</f>
-        <v>-39.800000000000182</v>
-      </c>
-      <c r="M52">
-        <f>J52-K52</f>
-        <v>5.9400000000000546</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="6"/>
-        <v>3.0799999999999272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
-        <v>44694</v>
+        <v>-26.329999999999927</v>
+      </c>
+      <c r="P52">
+        <f>M52-N52</f>
+        <v>8.9600000000000364</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="7"/>
+        <v>11.210000000000036</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="19">
+        <v>44686</v>
+      </c>
+      <c r="B53">
+        <v>1392</v>
+      </c>
+      <c r="C53">
+        <v>1403.6</v>
+      </c>
+      <c r="D53">
+        <v>1372.6</v>
+      </c>
+      <c r="E53">
+        <v>1402.5</v>
+      </c>
+      <c r="F53" s="11">
+        <v>1402.6</v>
+      </c>
+      <c r="G53" s="11">
+        <v>1405.43</v>
+      </c>
+      <c r="H53" s="11">
+        <v>1373.42</v>
+      </c>
+      <c r="I53" s="11">
+        <v>1404.88</v>
+      </c>
+      <c r="K53">
+        <v>122.134</v>
+      </c>
+      <c r="M53">
+        <f>C53-D53</f>
+        <v>31</v>
+      </c>
+      <c r="N53">
+        <f>G53-H53</f>
+        <v>32.009999999999991</v>
+      </c>
+      <c r="O53">
+        <f>I53-F53</f>
+        <v>2.2800000000002001</v>
+      </c>
+      <c r="P53">
+        <f>M53-N53</f>
+        <v>-1.0099999999999909</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="7"/>
+        <v>2.3800000000001091</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="164">
+        <v>44685</v>
       </c>
       <c r="B54">
-        <v>1272</v>
+        <v>1408.3</v>
       </c>
       <c r="C54">
-        <v>1288.0999999999999</v>
+        <v>1409.9</v>
       </c>
       <c r="D54">
-        <v>1214.7</v>
+        <v>1383</v>
       </c>
       <c r="E54">
-        <v>1225</v>
+        <v>1383</v>
       </c>
       <c r="F54" s="11">
-        <v>1281.28</v>
+        <v>1415.43</v>
       </c>
       <c r="G54" s="11">
-        <v>1284.94</v>
+        <v>1415.45</v>
       </c>
       <c r="H54" s="11">
-        <v>1219.52</v>
+        <v>1389.59</v>
       </c>
       <c r="I54" s="11">
-        <v>1223.76</v>
-      </c>
-      <c r="J54">
+        <v>1389.59</v>
+      </c>
+      <c r="K54">
+        <v>114.19</v>
+      </c>
+      <c r="M54">
         <f>C54-D54</f>
-        <v>73.399999999999864</v>
-      </c>
-      <c r="K54">
+        <v>26.900000000000091</v>
+      </c>
+      <c r="N54">
         <f>G54-H54</f>
-        <v>65.420000000000073</v>
-      </c>
-      <c r="L54">
+        <v>25.860000000000127</v>
+      </c>
+      <c r="O54">
         <f>I54-F54</f>
-        <v>-57.519999999999982</v>
-      </c>
-      <c r="M54">
-        <f>J54-K54</f>
-        <v>7.9799999999997908</v>
-      </c>
-      <c r="R54">
-        <f t="shared" si="6"/>
-        <v>-1.2400000000000091</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-25.840000000000146</v>
+      </c>
+      <c r="P54">
+        <f>M54-N54</f>
+        <v>1.0399999999999636</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="7"/>
+        <v>6.5899999999999181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
-        <v>44693</v>
+        <v>44680</v>
       </c>
       <c r="B55">
-        <v>1334</v>
+        <v>1395</v>
       </c>
       <c r="C55">
-        <v>1334</v>
+        <v>1421.6</v>
       </c>
       <c r="D55">
-        <v>1262</v>
+        <v>1389.6</v>
       </c>
       <c r="E55">
-        <v>1270</v>
+        <v>1409</v>
       </c>
       <c r="F55" s="11">
-        <v>1337.01</v>
+        <v>1398.27</v>
       </c>
       <c r="G55" s="11">
-        <v>1339.25</v>
+        <v>1417.31</v>
       </c>
       <c r="H55" s="11">
-        <v>1279.48</v>
+        <v>1394.17</v>
       </c>
       <c r="I55" s="11">
-        <v>1279.76</v>
-      </c>
-      <c r="J55">
+        <v>1417.31</v>
+      </c>
+      <c r="K55">
+        <v>128.035</v>
+      </c>
+      <c r="M55">
         <f>C55-D55</f>
-        <v>72</v>
-      </c>
-      <c r="K55">
+        <v>32</v>
+      </c>
+      <c r="N55">
         <f>G55-H55</f>
-        <v>59.769999999999982</v>
-      </c>
-      <c r="L55">
+        <v>23.139999999999873</v>
+      </c>
+      <c r="O55">
         <f>I55-F55</f>
-        <v>-57.25</v>
-      </c>
-      <c r="M55">
-        <f>J55-K55</f>
-        <v>12.230000000000018</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="6"/>
-        <v>9.7599999999999909</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+        <v>19.039999999999964</v>
+      </c>
+      <c r="P55">
+        <f>M55-N55</f>
+        <v>8.8600000000001273</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="7"/>
+        <v>8.3099999999999454</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
-        <v>44692</v>
+        <v>44679</v>
       </c>
       <c r="B56">
-        <v>1335</v>
+        <v>1399.7</v>
       </c>
       <c r="C56">
-        <v>1349</v>
+        <v>1406.7</v>
       </c>
       <c r="D56">
-        <v>1318</v>
+        <v>1388</v>
       </c>
       <c r="E56">
-        <v>1337</v>
+        <v>1392</v>
       </c>
       <c r="F56" s="11">
-        <v>1344.14</v>
+        <v>1400.6</v>
       </c>
       <c r="G56" s="11">
-        <v>1355.11</v>
+        <v>1407.82</v>
       </c>
       <c r="H56" s="11">
-        <v>1324.2</v>
+        <v>1392.24</v>
       </c>
       <c r="I56" s="11">
-        <v>1349.82</v>
-      </c>
-      <c r="J56">
+        <v>1400.88</v>
+      </c>
+      <c r="K56">
+        <v>91.674999999999997</v>
+      </c>
+      <c r="M56">
         <f>C56-D56</f>
-        <v>31</v>
-      </c>
-      <c r="K56">
+        <v>18.700000000000045</v>
+      </c>
+      <c r="N56">
         <f>G56-H56</f>
-        <v>30.909999999999854</v>
-      </c>
-      <c r="L56">
+        <v>15.579999999999927</v>
+      </c>
+      <c r="O56">
         <f>I56-F56</f>
-        <v>5.6799999999998363</v>
-      </c>
-      <c r="M56">
-        <f>J56-K56</f>
-        <v>9.0000000000145519E-2</v>
-      </c>
-      <c r="R56">
-        <f t="shared" si="6"/>
-        <v>12.819999999999936</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.28000000000020009</v>
+      </c>
+      <c r="P56">
+        <f t="shared" ref="P56:P60" si="8">M56-N56</f>
+        <v>3.1200000000001182</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="7"/>
+        <v>8.8800000000001091</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
-        <v>44691</v>
+        <v>44678</v>
       </c>
       <c r="B57">
-        <v>1299.8</v>
+        <v>1379</v>
       </c>
       <c r="C57">
-        <v>1340.9</v>
+        <v>1406</v>
       </c>
       <c r="D57">
-        <v>1291.0999999999999</v>
+        <v>1358.1</v>
       </c>
       <c r="E57">
-        <v>1335</v>
+        <v>1401</v>
       </c>
       <c r="F57" s="11">
-        <v>1312.1</v>
+        <v>1394.85</v>
       </c>
       <c r="G57" s="11">
-        <v>1345.46</v>
+        <v>1407.7</v>
       </c>
       <c r="H57" s="11">
-        <v>1285.67</v>
+        <v>1362.87</v>
       </c>
       <c r="I57" s="11">
-        <v>1345.46</v>
-      </c>
-      <c r="J57">
+        <v>1402.03</v>
+      </c>
+      <c r="K57">
+        <v>108.117</v>
+      </c>
+      <c r="M57">
         <f>C57-D57</f>
-        <v>49.800000000000182</v>
-      </c>
-      <c r="K57">
+        <v>47.900000000000091</v>
+      </c>
+      <c r="N57">
         <f>G57-H57</f>
-        <v>59.789999999999964</v>
-      </c>
-      <c r="L57">
+        <v>44.830000000000155</v>
+      </c>
+      <c r="O57">
         <f>I57-F57</f>
-        <v>33.360000000000127</v>
-      </c>
-      <c r="M57">
-        <f>J57-K57</f>
-        <v>-9.9899999999997817</v>
-      </c>
-      <c r="R57">
-        <f t="shared" si="6"/>
-        <v>10.460000000000036</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7.1800000000000637</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="8"/>
+        <v>3.0699999999999363</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="7"/>
+        <v>1.0299999999999727</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
-        <v>44690</v>
+        <v>44677</v>
       </c>
       <c r="B58">
-        <v>1353.7</v>
+        <v>1356.1</v>
       </c>
       <c r="C58">
-        <v>1355.8</v>
+        <v>1393.2</v>
       </c>
       <c r="D58">
-        <v>1300</v>
+        <v>1327.1</v>
       </c>
       <c r="E58">
-        <v>1308.0999999999999</v>
+        <v>1391</v>
       </c>
       <c r="F58" s="11">
-        <v>1358.56</v>
+        <v>1347.83</v>
       </c>
       <c r="G58" s="11">
-        <v>1360.64</v>
+        <v>1397.43</v>
       </c>
       <c r="H58" s="11">
-        <v>1308.3399999999999</v>
+        <v>1318.5</v>
       </c>
       <c r="I58" s="11">
-        <v>1314.04</v>
-      </c>
-      <c r="J58">
+        <v>1396.9</v>
+      </c>
+      <c r="K58">
+        <v>181.77699999999999</v>
+      </c>
+      <c r="M58">
         <f>C58-D58</f>
-        <v>55.799999999999955</v>
-      </c>
-      <c r="K58">
+        <v>66.100000000000136</v>
+      </c>
+      <c r="N58">
         <f>G58-H58</f>
-        <v>52.300000000000182</v>
-      </c>
-      <c r="L58">
+        <v>78.930000000000064</v>
+      </c>
+      <c r="O58">
         <f>I58-F58</f>
-        <v>-44.519999999999982</v>
-      </c>
-      <c r="M58">
-        <f>J58-K58</f>
-        <v>3.4999999999997726</v>
-      </c>
-      <c r="R58">
-        <f t="shared" si="6"/>
-        <v>5.9400000000000546</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+        <v>49.070000000000164</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="8"/>
+        <v>-12.829999999999927</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="7"/>
+        <v>5.9000000000000909</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="164">
+        <v>44676</v>
+      </c>
+      <c r="B59">
+        <v>1442.9</v>
+      </c>
+      <c r="C59">
+        <v>1445.6</v>
+      </c>
+      <c r="D59">
+        <v>1345.3</v>
+      </c>
+      <c r="E59">
+        <v>1353.1</v>
+      </c>
+      <c r="F59" s="11">
+        <v>1444.79</v>
+      </c>
+      <c r="G59" s="11">
+        <v>1445.62</v>
+      </c>
+      <c r="H59" s="11">
+        <v>1356.36</v>
+      </c>
+      <c r="I59" s="11">
+        <v>1366.39</v>
+      </c>
+      <c r="K59">
+        <v>202.42599999999999</v>
+      </c>
+      <c r="M59">
+        <f>C59-D59</f>
+        <v>100.29999999999995</v>
+      </c>
+      <c r="N59">
+        <f>G59-H59</f>
+        <v>89.259999999999991</v>
+      </c>
+      <c r="O59">
+        <f>I59-F59</f>
+        <v>-78.399999999999864</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="8"/>
+        <v>11.039999999999964</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="7"/>
+        <v>13.290000000000191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
-        <v>44687</v>
+        <v>44673</v>
       </c>
       <c r="B60">
-        <v>1382</v>
+        <v>1442.3</v>
       </c>
       <c r="C60">
-        <v>1396.3</v>
+        <v>1459.8</v>
       </c>
       <c r="D60">
-        <v>1358.8</v>
+        <v>1434.7</v>
       </c>
       <c r="E60">
-        <v>1362</v>
+        <v>1445</v>
       </c>
       <c r="F60" s="11">
-        <v>1399.54</v>
+        <v>1439.32</v>
       </c>
       <c r="G60" s="11">
-        <v>1399.54</v>
+        <v>1455.15</v>
       </c>
       <c r="H60" s="11">
-        <v>1371</v>
+        <v>1419.05</v>
       </c>
       <c r="I60" s="11">
-        <v>1373.21</v>
-      </c>
-      <c r="J60">
+        <v>1444.32</v>
+      </c>
+      <c r="K60">
+        <v>150.755</v>
+      </c>
+      <c r="M60">
         <f>C60-D60</f>
-        <v>37.5</v>
-      </c>
-      <c r="K60">
+        <v>25.099999999999909</v>
+      </c>
+      <c r="N60">
         <f>G60-H60</f>
-        <v>28.539999999999964</v>
-      </c>
-      <c r="L60">
+        <v>36.100000000000136</v>
+      </c>
+      <c r="O60">
         <f>I60-F60</f>
-        <v>-26.329999999999927</v>
-      </c>
-      <c r="M60">
-        <f>J60-K60</f>
-        <v>8.9600000000000364</v>
-      </c>
-      <c r="R60">
-        <f t="shared" si="6"/>
-        <v>11.210000000000036</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="8"/>
+        <v>-11.000000000000227</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="7"/>
+        <v>-0.68000000000006366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
-        <v>44686</v>
-      </c>
-      <c r="B61">
-        <v>1392</v>
-      </c>
-      <c r="C61">
-        <v>1403.6</v>
-      </c>
-      <c r="D61">
-        <v>1372.6</v>
-      </c>
-      <c r="E61">
-        <v>1402.5</v>
+        <v>44672</v>
       </c>
       <c r="F61" s="11">
-        <v>1402.6</v>
+        <v>1434.77</v>
       </c>
       <c r="G61" s="11">
-        <v>1405.43</v>
+        <v>1452.41</v>
       </c>
       <c r="H61" s="11">
-        <v>1373.42</v>
+        <v>1422.7</v>
       </c>
       <c r="I61" s="11">
-        <v>1404.88</v>
-      </c>
-      <c r="J61">
+        <v>1426.87</v>
+      </c>
+      <c r="K61">
+        <v>172.35900000000001</v>
+      </c>
+      <c r="M61">
         <f>C61-D61</f>
-        <v>31</v>
-      </c>
-      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="N61">
         <f>G61-H61</f>
-        <v>32.009999999999991</v>
-      </c>
-      <c r="L61">
+        <v>29.710000000000036</v>
+      </c>
+      <c r="O61">
         <f>I61-F61</f>
-        <v>2.2800000000002001</v>
-      </c>
-      <c r="M61">
-        <f>J61-K61</f>
-        <v>-1.0099999999999909</v>
-      </c>
-      <c r="R61">
-        <f t="shared" si="6"/>
-        <v>2.3800000000001091</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-7.9000000000000909</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
-        <v>44685</v>
-      </c>
-      <c r="B62">
-        <v>1408.3</v>
-      </c>
-      <c r="C62">
-        <v>1409.9</v>
-      </c>
-      <c r="D62">
-        <v>1383</v>
-      </c>
-      <c r="E62">
-        <v>1383</v>
+        <v>44671</v>
       </c>
       <c r="F62" s="11">
-        <v>1415.43</v>
+        <v>1440.9</v>
       </c>
       <c r="G62" s="11">
-        <v>1415.45</v>
+        <v>1453.81</v>
       </c>
       <c r="H62" s="11">
-        <v>1389.59</v>
+        <v>1434.87</v>
       </c>
       <c r="I62" s="11">
-        <v>1389.59</v>
-      </c>
-      <c r="J62">
+        <v>1435.5</v>
+      </c>
+      <c r="K62">
+        <v>150.22200000000001</v>
+      </c>
+      <c r="M62">
         <f>C62-D62</f>
-        <v>26.900000000000091</v>
-      </c>
-      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="N62">
         <f>G62-H62</f>
-        <v>25.860000000000127</v>
-      </c>
-      <c r="L62">
+        <v>18.940000000000055</v>
+      </c>
+      <c r="O62">
         <f>I62-F62</f>
-        <v>-25.840000000000146</v>
-      </c>
-      <c r="M62">
-        <f>J62-K62</f>
-        <v>1.0399999999999636</v>
-      </c>
-      <c r="R62">
-        <f t="shared" si="6"/>
-        <v>6.5899999999999181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="19">
-        <v>44680</v>
-      </c>
-      <c r="B64">
-        <v>1395</v>
-      </c>
-      <c r="C64">
-        <v>1421.6</v>
-      </c>
-      <c r="D64">
-        <v>1389.6</v>
-      </c>
-      <c r="E64">
-        <v>1409</v>
+        <v>-5.4000000000000909</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="19">
+        <v>44670</v>
+      </c>
+      <c r="F63" s="11">
+        <v>1471.63</v>
+      </c>
+      <c r="G63" s="11">
+        <v>1478.5</v>
+      </c>
+      <c r="H63" s="11">
+        <v>1440.61</v>
+      </c>
+      <c r="I63" s="11">
+        <v>1440.61</v>
+      </c>
+      <c r="K63">
+        <v>156.62</v>
+      </c>
+      <c r="M63">
+        <f>C63-D63</f>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f>G63-H63</f>
+        <v>37.8900000000001</v>
+      </c>
+      <c r="O63">
+        <f>I63-F63</f>
+        <v>-31.020000000000209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="164">
+        <v>44669</v>
       </c>
       <c r="F64" s="11">
-        <v>1398.27</v>
+        <v>1493.17</v>
       </c>
       <c r="G64" s="11">
-        <v>1417.31</v>
+        <v>1493.24</v>
       </c>
       <c r="H64" s="11">
-        <v>1394.17</v>
+        <v>1466.73</v>
       </c>
       <c r="I64" s="11">
-        <v>1417.31</v>
-      </c>
-      <c r="J64">
+        <v>1468.25</v>
+      </c>
+      <c r="K64">
+        <v>194.44200000000001</v>
+      </c>
+      <c r="M64">
         <f>C64-D64</f>
-        <v>32</v>
-      </c>
-      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="N64">
         <f>G64-H64</f>
-        <v>23.139999999999873</v>
-      </c>
-      <c r="L64">
+        <v>26.509999999999991</v>
+      </c>
+      <c r="O64">
         <f>I64-F64</f>
-        <v>19.039999999999964</v>
-      </c>
-      <c r="M64">
-        <f>J64-K64</f>
-        <v>8.8600000000001273</v>
-      </c>
-      <c r="R64">
-        <f t="shared" si="6"/>
-        <v>8.3099999999999454</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-24.920000000000073</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
-        <v>44679</v>
-      </c>
-      <c r="B65">
-        <v>1399.7</v>
-      </c>
-      <c r="C65">
-        <v>1406.7</v>
-      </c>
-      <c r="D65">
-        <v>1388</v>
-      </c>
-      <c r="E65">
-        <v>1392</v>
+        <v>44666</v>
       </c>
       <c r="F65" s="11">
-        <v>1400.6</v>
+        <v>1514.89</v>
       </c>
       <c r="G65" s="11">
-        <v>1407.82</v>
+        <v>1518.85</v>
       </c>
       <c r="H65" s="11">
-        <v>1392.24</v>
+        <v>1491.26</v>
       </c>
       <c r="I65" s="11">
-        <v>1400.88</v>
-      </c>
-      <c r="J65">
+        <v>1493.74</v>
+      </c>
+      <c r="K65">
+        <v>181.76499999999999</v>
+      </c>
+      <c r="M65">
         <f>C65-D65</f>
-        <v>18.700000000000045</v>
-      </c>
-      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="N65">
         <f>G65-H65</f>
-        <v>15.579999999999927</v>
-      </c>
-      <c r="L65">
+        <v>27.589999999999918</v>
+      </c>
+      <c r="O65">
         <f>I65-F65</f>
-        <v>0.28000000000020009</v>
-      </c>
-      <c r="M65">
-        <f t="shared" ref="M65:M70" si="7">J65-K65</f>
-        <v>3.1200000000001182</v>
-      </c>
-      <c r="R65">
-        <f t="shared" si="6"/>
-        <v>8.8800000000001091</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-21.150000000000091</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
-        <v>44678</v>
-      </c>
-      <c r="B66">
-        <v>1379</v>
-      </c>
-      <c r="C66">
-        <v>1406</v>
-      </c>
-      <c r="D66">
-        <v>1358.1</v>
-      </c>
-      <c r="E66">
-        <v>1401</v>
+        <v>44665</v>
       </c>
       <c r="F66" s="11">
-        <v>1394.85</v>
+        <v>1526.49</v>
       </c>
       <c r="G66" s="11">
-        <v>1407.7</v>
+        <v>1534.28</v>
       </c>
       <c r="H66" s="11">
-        <v>1362.87</v>
+        <v>1517.07</v>
       </c>
       <c r="I66" s="11">
-        <v>1402.03</v>
-      </c>
-      <c r="J66">
+        <v>1518.01</v>
+      </c>
+      <c r="K66">
+        <v>119.60899999999999</v>
+      </c>
+      <c r="M66">
         <f>C66-D66</f>
-        <v>47.900000000000091</v>
-      </c>
-      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="N66">
         <f>G66-H66</f>
-        <v>44.830000000000155</v>
-      </c>
-      <c r="L66">
+        <v>17.210000000000036</v>
+      </c>
+      <c r="O66">
         <f>I66-F66</f>
-        <v>7.1800000000000637</v>
-      </c>
-      <c r="M66">
-        <f t="shared" si="7"/>
-        <v>3.0699999999999363</v>
-      </c>
-      <c r="R66">
-        <f t="shared" si="6"/>
-        <v>1.0299999999999727</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-8.4800000000000182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
-        <v>44677</v>
-      </c>
-      <c r="B67">
-        <v>1356.1</v>
-      </c>
-      <c r="C67">
-        <v>1393.2</v>
-      </c>
-      <c r="D67">
-        <v>1327.1</v>
-      </c>
-      <c r="E67">
-        <v>1391</v>
+        <v>44664</v>
       </c>
       <c r="F67" s="11">
-        <v>1347.83</v>
+        <v>1512.37</v>
       </c>
       <c r="G67" s="11">
-        <v>1397.43</v>
+        <v>1526.44</v>
       </c>
       <c r="H67" s="11">
-        <v>1318.5</v>
+        <v>1506.45</v>
       </c>
       <c r="I67" s="11">
-        <v>1396.9</v>
-      </c>
-      <c r="J67">
+        <v>1525.39</v>
+      </c>
+      <c r="K67">
+        <v>143.87200000000001</v>
+      </c>
+      <c r="M67">
         <f>C67-D67</f>
-        <v>66.100000000000136</v>
-      </c>
-      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="N67">
         <f>G67-H67</f>
-        <v>78.930000000000064</v>
-      </c>
-      <c r="L67">
+        <v>19.990000000000009</v>
+      </c>
+      <c r="O67">
         <f>I67-F67</f>
-        <v>49.070000000000164</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="7"/>
-        <v>-12.829999999999927</v>
-      </c>
-      <c r="R67">
-        <f t="shared" si="6"/>
-        <v>5.9000000000000909</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+        <v>13.020000000000209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
-        <v>44676</v>
-      </c>
-      <c r="B68">
-        <v>1442.9</v>
-      </c>
-      <c r="C68">
-        <v>1445.6</v>
-      </c>
-      <c r="D68">
-        <v>1345.3</v>
-      </c>
-      <c r="E68">
-        <v>1353.1</v>
+        <v>44663</v>
       </c>
       <c r="F68" s="11">
-        <v>1444.79</v>
+        <v>1530.3</v>
       </c>
       <c r="G68" s="11">
-        <v>1445.62</v>
+        <v>1532.03</v>
       </c>
       <c r="H68" s="11">
-        <v>1356.36</v>
+        <v>1506.41</v>
       </c>
       <c r="I68" s="11">
-        <v>1366.39</v>
-      </c>
-      <c r="J68">
+        <v>1507.2</v>
+      </c>
+      <c r="K68">
+        <v>152.482</v>
+      </c>
+      <c r="M68">
         <f>C68-D68</f>
-        <v>100.29999999999995</v>
-      </c>
-      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="N68">
         <f>G68-H68</f>
-        <v>89.259999999999991</v>
-      </c>
-      <c r="L68">
+        <v>25.619999999999891</v>
+      </c>
+      <c r="O68">
         <f>I68-F68</f>
-        <v>-78.399999999999864</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="7"/>
-        <v>11.039999999999964</v>
-      </c>
-      <c r="R68">
-        <f t="shared" si="6"/>
-        <v>13.290000000000191</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="19">
-        <v>44673</v>
-      </c>
-      <c r="B70">
-        <v>1442.3</v>
-      </c>
-      <c r="C70">
-        <v>1459.8</v>
-      </c>
-      <c r="D70">
-        <v>1434.7</v>
-      </c>
-      <c r="E70">
-        <v>1445</v>
-      </c>
-      <c r="F70" s="11">
-        <v>1439.32</v>
-      </c>
-      <c r="G70" s="11">
-        <v>1455.15</v>
-      </c>
-      <c r="H70" s="11">
-        <v>1419.05</v>
-      </c>
-      <c r="I70" s="11">
-        <v>1444.32</v>
-      </c>
-      <c r="J70">
-        <f>C70-D70</f>
-        <v>25.099999999999909</v>
-      </c>
-      <c r="K70">
-        <f>G70-H70</f>
-        <v>36.100000000000136</v>
-      </c>
-      <c r="L70">
-        <f>I70-F70</f>
-        <v>5</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="7"/>
-        <v>-11.000000000000227</v>
-      </c>
-      <c r="R70">
-        <f t="shared" si="6"/>
-        <v>-0.68000000000006366</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="19">
-        <v>44672</v>
-      </c>
-      <c r="F71" s="11">
-        <v>1434.77</v>
-      </c>
-      <c r="G71" s="11">
-        <v>1452.41</v>
-      </c>
-      <c r="H71" s="11">
-        <v>1422.7</v>
-      </c>
-      <c r="I71" s="11">
-        <v>1426.87</v>
-      </c>
-      <c r="J71">
-        <f>C71-D71</f>
+        <v>-23.099999999999909</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="164">
+        <v>44659</v>
+      </c>
+      <c r="F69" s="11">
+        <v>1541.78</v>
+      </c>
+      <c r="G69" s="11">
+        <v>1547.6</v>
+      </c>
+      <c r="H69" s="11">
+        <v>1524.31</v>
+      </c>
+      <c r="I69" s="11">
+        <v>1524.31</v>
+      </c>
+      <c r="K69">
+        <v>156.33600000000001</v>
+      </c>
+      <c r="M69">
+        <f>C69-D69</f>
         <v>0</v>
       </c>
-      <c r="K71">
-        <f>G71-H71</f>
-        <v>29.710000000000036</v>
-      </c>
-      <c r="L71">
-        <f>I71-F71</f>
-        <v>-7.9000000000000909</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="19">
-        <v>44671</v>
-      </c>
-      <c r="F72" s="11">
-        <v>1440.9</v>
-      </c>
-      <c r="G72" s="11">
-        <v>1453.81</v>
-      </c>
-      <c r="H72" s="11">
-        <v>1434.87</v>
-      </c>
-      <c r="I72" s="11">
-        <v>1435.5</v>
-      </c>
-      <c r="J72">
-        <f>C72-D72</f>
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <f>G72-H72</f>
-        <v>18.940000000000055</v>
-      </c>
-      <c r="L72">
-        <f>I72-F72</f>
-        <v>-5.4000000000000909</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="19">
-        <v>44670</v>
-      </c>
-      <c r="F73" s="11">
-        <v>1471.63</v>
-      </c>
-      <c r="G73" s="11">
-        <v>1478.5</v>
-      </c>
-      <c r="H73" s="11">
-        <v>1440.61</v>
-      </c>
-      <c r="I73" s="11">
-        <v>1440.61</v>
-      </c>
-      <c r="J73">
-        <f>C73-D73</f>
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <f>G73-H73</f>
-        <v>37.8900000000001</v>
-      </c>
-      <c r="L73">
-        <f>I73-F73</f>
-        <v>-31.020000000000209</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="19">
-        <v>44669</v>
-      </c>
-      <c r="F74" s="11">
-        <v>1493.17</v>
-      </c>
-      <c r="G74" s="11">
-        <v>1493.24</v>
-      </c>
-      <c r="H74" s="11">
-        <v>1466.73</v>
-      </c>
-      <c r="I74" s="11">
-        <v>1468.25</v>
-      </c>
-      <c r="J74">
-        <f>C74-D74</f>
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <f>G74-H74</f>
-        <v>26.509999999999991</v>
-      </c>
-      <c r="L74">
-        <f>I74-F74</f>
-        <v>-24.920000000000073</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="19">
-        <v>44666</v>
-      </c>
-      <c r="F76" s="11">
-        <v>1514.89</v>
-      </c>
-      <c r="G76" s="11">
-        <v>1518.85</v>
-      </c>
-      <c r="H76" s="11">
-        <v>1491.26</v>
-      </c>
-      <c r="I76" s="11">
-        <v>1493.74</v>
-      </c>
-      <c r="J76">
-        <f>C76-D76</f>
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <f>G76-H76</f>
-        <v>27.589999999999918</v>
-      </c>
-      <c r="L76">
-        <f>I76-F76</f>
-        <v>-21.150000000000091</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="19">
-        <v>44665</v>
-      </c>
-      <c r="F77" s="11">
-        <v>1526.49</v>
-      </c>
-      <c r="G77" s="11">
-        <v>1534.28</v>
-      </c>
-      <c r="H77" s="11">
-        <v>1517.07</v>
-      </c>
-      <c r="I77" s="11">
-        <v>1518.01</v>
-      </c>
-      <c r="J77">
-        <f>C77-D77</f>
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <f>G77-H77</f>
-        <v>17.210000000000036</v>
-      </c>
-      <c r="L77">
-        <f>I77-F77</f>
-        <v>-8.4800000000000182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="19">
-        <v>44664</v>
-      </c>
-      <c r="F78" s="11">
-        <v>1512.37</v>
-      </c>
-      <c r="G78" s="11">
-        <v>1526.44</v>
-      </c>
-      <c r="H78" s="11">
-        <v>1506.45</v>
-      </c>
-      <c r="I78" s="11">
-        <v>1525.39</v>
-      </c>
-      <c r="J78">
-        <f>C78-D78</f>
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <f>G78-H78</f>
-        <v>19.990000000000009</v>
-      </c>
-      <c r="L78">
-        <f>I78-F78</f>
-        <v>13.020000000000209</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="19">
-        <v>44663</v>
-      </c>
-      <c r="F79" s="11">
-        <v>1530.3</v>
-      </c>
-      <c r="G79" s="11">
-        <v>1532.03</v>
-      </c>
-      <c r="H79" s="11">
-        <v>1506.41</v>
-      </c>
-      <c r="I79" s="11">
-        <v>1507.2</v>
-      </c>
-      <c r="J79">
-        <f>C79-D79</f>
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <f>G79-H79</f>
-        <v>25.619999999999891</v>
-      </c>
-      <c r="L79">
-        <f>I79-F79</f>
-        <v>-23.099999999999909</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="19">
-        <v>44659</v>
-      </c>
-      <c r="F81" s="11">
-        <v>1541.78</v>
-      </c>
-      <c r="G81" s="11">
-        <v>1547.6</v>
-      </c>
-      <c r="H81" s="11">
-        <v>1524.31</v>
-      </c>
-      <c r="I81" s="11">
-        <v>1524.31</v>
-      </c>
-      <c r="J81">
-        <f>C81-D81</f>
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <f>G81-H81</f>
+      <c r="N69">
+        <f>G69-H69</f>
         <v>23.289999999999964</v>
       </c>
-      <c r="L81">
-        <f>I81-F81</f>
+      <c r="O69">
+        <f>I69-F69</f>
         <v>-17.470000000000027</v>
       </c>
     </row>

--- a/Relax.xlsx
+++ b/Relax.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CB627B-E557-4E00-A643-11ADB7CA3945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D53182-7257-4CA1-AA9D-48A51B0BF85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="15" windowWidth="20370" windowHeight="10905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KeHoach" sheetId="5" r:id="rId1"/>
@@ -2344,7 +2344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="1299">
   <si>
     <t>https://www.youtube.com/watch?v=T77wtm-2exE</t>
   </si>
@@ -7179,6 +7179,18 @@
   </si>
   <si>
     <t>CS-Close</t>
+  </si>
+  <si>
+    <t>1 lệnh SS 1226; giữ lệnh qua tuần đợi tin xấu tối nay của Mỹ</t>
+  </si>
+  <si>
+    <t>Ngày 8-7-22</t>
+  </si>
+  <si>
+    <t>Short lệnh 1226, giữ qua tuần</t>
+  </si>
+  <si>
+    <t>1 lệnh S 1225; giữ từ tuần trước, dự báo kinh tế suy thoái, giá phá vỡ vùng hỗ trợ dưới nên giữ short</t>
   </si>
 </sst>
 </file>
@@ -11680,8 +11692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6293297E-B88A-45D7-A63B-B3F6BFB51BF0}">
   <dimension ref="A1:AB284"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11764,7 +11776,7 @@
       </c>
       <c r="N2" s="15">
         <f>PS!M2+SUM(D:D)-SUM(O2:Q2)</f>
-        <v>54425.942279999988</v>
+        <v>55025.942279999988</v>
       </c>
       <c r="O2" s="15">
         <v>62924</v>
@@ -11913,7 +11925,7 @@
       </c>
       <c r="N6" s="21">
         <f ca="1">-N9+0*J86+PS!M6*0+N12+J77+J73+J75+5080+J71+J69+J67+J65+J63+J61+J59+J56+J54+J48+J50+J52+J46+J44+J42+J40+J38+8230+J36+J35+J33+J34+J27+J32+J31+J30+J29+J26+J24+J22+1000+J20+J10+J16+J14+J12</f>
-        <v>-55412.600749999423</v>
+        <v>-60321.046583332754</v>
       </c>
       <c r="O6" s="21">
         <f>-O9+1*J86+29000-16000-800-22000-500-2200+7900+9200+4700+1000+500+7900+J135+J133+J131+11000+J127+J129+J125+J123+J121+J119+J117+J115+J113+J111+274+J110-5000+J108+J106+J102+J104+I105+1850+J100+J98+J96+J94+J93+J91+J89+J88+J84</f>
@@ -11950,7 +11962,7 @@
       </c>
       <c r="N7" s="36">
         <f ca="1">SUM(N4:N6)</f>
-        <v>239334.20247114889</v>
+        <v>234425.75663781556</v>
       </c>
       <c r="O7" s="36">
         <f>SUM(O4:O6)</f>
@@ -11983,7 +11995,7 @@
       </c>
       <c r="N8" s="65">
         <f ca="1">ROUNDDOWN((N6/(N4+N5)),3)</f>
-        <v>-0.188</v>
+        <v>-0.20399999999999999</v>
       </c>
       <c r="O8" s="65">
         <f>ROUNDDOWN((O6/(O4+O5)),3)</f>
@@ -12049,7 +12061,7 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="43">
         <f ca="1">TODAY()</f>
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>90</v>
@@ -12070,15 +12082,15 @@
       <c r="G10" s="14"/>
       <c r="H10" s="97">
         <f ca="1">Table1[[#This Row],[Result]]/(E11*F11)</f>
-        <v>-0.16150328330206379</v>
+        <v>-0.16093071190327288</v>
       </c>
       <c r="I10" s="69">
         <f ca="1">Table1[[#This Row],[Date]]-A11</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" s="162">
         <f ca="1">-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E11*F11-Table1[[#This Row],[Commission]]-D11+I11</f>
-        <v>-25824.375</v>
+        <v>-25732.820833333331</v>
       </c>
       <c r="K10" s="121" t="s">
         <v>1272</v>
@@ -12130,7 +12142,7 @@
       <c r="H11" s="97"/>
       <c r="I11" s="67">
         <f ca="1">-105/360*(I10+1)*Table1[[#This Row],[Notes]]</f>
-        <v>1647.9749999999999</v>
+        <v>1739.5291666666667</v>
       </c>
       <c r="J11" s="98">
         <f>Table1[[#This Row],[Volume]]*Table1[[#This Row],[Price]]</f>
@@ -12206,8 +12218,8 @@
         <v>1176</v>
       </c>
       <c r="N12" s="13">
-        <f>4000</f>
-        <v>4000</v>
+        <f>4000-5000</f>
+        <v>-1000</v>
       </c>
       <c r="O12" s="13">
         <f>2+3-4</f>
@@ -23366,8 +23378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CE18B9-1E5D-4C51-9D03-C69B0DC41E11}">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23458,7 +23470,7 @@
       </c>
       <c r="M2" s="15">
         <f>SUM(Table6[[#All],[Commission]])</f>
-        <v>18218.300000000003</v>
+        <v>18818.300000000003</v>
       </c>
       <c r="P2" t="s">
         <v>1022</v>
@@ -23597,7 +23609,7 @@
       </c>
       <c r="M5" s="21">
         <f>SUM(G:G)-M3-U5</f>
-        <v>-8083.7999999996464</v>
+        <v>-6983.7999999996464</v>
       </c>
       <c r="T5" s="160" t="s">
         <v>1223</v>
@@ -23645,7 +23657,7 @@
       </c>
       <c r="M6" s="21">
         <f>-M3-M2+SUM(Table6[[#All],[Vị thế đóng]])-M7</f>
-        <v>29642.200000000354</v>
+        <v>30742.200000000354</v>
       </c>
       <c r="O6" s="134" t="s">
         <v>987</v>
@@ -23742,7 +23754,7 @@
       </c>
       <c r="M8" s="65">
         <f>ROUNDDOWN((M6/(M4)),3)</f>
-        <v>4.7E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="O8" s="140" t="s">
         <v>976</v>
@@ -24099,6 +24111,12 @@
       <c r="H17" s="24"/>
       <c r="I17" s="152"/>
       <c r="J17" s="45"/>
+      <c r="L17" t="s">
+        <v>1296</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1297</v>
+      </c>
       <c r="AA17" t="s">
         <v>1099</v>
       </c>
@@ -24264,16 +24282,24 @@
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="D22" s="14">
+        <v>1225</v>
+      </c>
+      <c r="E22" s="14">
+        <v>10</v>
+      </c>
       <c r="F22" s="98"/>
       <c r="G22" s="153">
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
         <v>0</v>
       </c>
       <c r="H22" s="24"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="45"/>
+      <c r="I22" s="152">
+        <v>30000</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>1298</v>
+      </c>
       <c r="L22" t="s">
         <v>1256</v>
       </c>
@@ -24294,17 +24320,29 @@
       <c r="B23" s="14" t="s">
         <v>1280</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="98"/>
+      <c r="C23" s="16">
+        <v>600</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1226</v>
+      </c>
+      <c r="E23" s="14">
+        <v>10</v>
+      </c>
+      <c r="F23" s="98">
+        <v>1700</v>
+      </c>
       <c r="G23" s="153">
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="45"/>
+      <c r="I23" s="152">
+        <v>5500</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>1295</v>
+      </c>
       <c r="L23" t="s">
         <v>1252</v>
       </c>
@@ -25949,8 +25987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568958D5-2C8A-40B9-B12B-4E5C3AD6BE19}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26017,23 +26055,23 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="M2">
-        <f>C2-D2</f>
+        <f t="shared" ref="M2:M33" si="0">C2-D2</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>G2-H2</f>
+        <f t="shared" ref="N2:N33" si="1">G2-H2</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>I2-F2</f>
+        <f t="shared" ref="O2:O33" si="2">I2-F2</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>M2-N2</f>
+        <f t="shared" ref="P2:P33" si="3">M2-N2</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q5" si="0">I2-E2</f>
+        <f t="shared" ref="Q2:Q5" si="4">I2-E2</f>
         <v>0</v>
       </c>
     </row>
@@ -26046,23 +26084,23 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="M3">
-        <f>C3-D3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>G3-H3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>I3-F3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>M3-N3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -26075,23 +26113,23 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="M4">
-        <f>C4-D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>G4-H4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>I4-F4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>M4-N4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -26104,23 +26142,23 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="M5">
-        <f>C5-D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>G5-H5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>I5-F5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>M5-N5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -26133,19 +26171,19 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="M6">
-        <f>C6-D6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>G6-H6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>I6-F6</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>M6-N6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q6">
@@ -26162,23 +26200,23 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="M7">
-        <f>C7-D7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>G7-H7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>I7-F7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>M7-N7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7:Q10" si="1">I7-E7</f>
+        <f t="shared" ref="Q7:Q10" si="5">I7-E7</f>
         <v>0</v>
       </c>
     </row>
@@ -26220,23 +26258,23 @@
         <v>-4.2</v>
       </c>
       <c r="M8">
-        <f>C8-D8</f>
+        <f t="shared" si="0"/>
         <v>13.200000000000045</v>
       </c>
       <c r="N8">
-        <f>G8-H8</f>
+        <f t="shared" si="1"/>
         <v>19.259999999999991</v>
       </c>
       <c r="O8">
-        <f>I8-F8</f>
+        <f t="shared" si="2"/>
         <v>16.870000000000118</v>
       </c>
       <c r="P8">
-        <f>M8-N8</f>
+        <f t="shared" si="3"/>
         <v>-6.0599999999999454</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.2300000000000182</v>
       </c>
     </row>
@@ -26278,23 +26316,23 @@
         <v>-2</v>
       </c>
       <c r="M9">
-        <f>C9-D9</f>
+        <f t="shared" si="0"/>
         <v>21.399999999999864</v>
       </c>
       <c r="N9">
-        <f>G9-H9</f>
+        <f t="shared" si="1"/>
         <v>29.25</v>
       </c>
       <c r="O9">
-        <f>I9-F9</f>
+        <f t="shared" si="2"/>
         <v>-29.25</v>
       </c>
       <c r="P9">
-        <f>M9-N9</f>
+        <f t="shared" si="3"/>
         <v>-7.8500000000001364</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-6.0599999999999454</v>
       </c>
     </row>
@@ -26336,23 +26374,23 @@
         <v>-5</v>
       </c>
       <c r="M10">
-        <f>C10-D10</f>
+        <f t="shared" si="0"/>
         <v>17.900000000000091</v>
       </c>
       <c r="N10">
-        <f>G10-H10</f>
+        <f t="shared" si="1"/>
         <v>16.670000000000073</v>
       </c>
       <c r="O10">
-        <f>I10-F10</f>
+        <f t="shared" si="2"/>
         <v>-10.430000000000064</v>
       </c>
       <c r="P10">
-        <f>M10-N10</f>
+        <f t="shared" si="3"/>
         <v>1.2300000000000182</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.1499999999998636</v>
       </c>
     </row>
@@ -26394,19 +26432,19 @@
         <v>-5</v>
       </c>
       <c r="M11">
-        <f>C11-D11</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="N11">
-        <f>G11-H11</f>
+        <f t="shared" si="1"/>
         <v>16.220000000000027</v>
       </c>
       <c r="O11">
-        <f>I11-F11</f>
+        <f t="shared" si="2"/>
         <v>-7.8300000000001546</v>
       </c>
       <c r="P11">
-        <f>M11-N11</f>
+        <f t="shared" si="3"/>
         <v>-2.2200000000000273</v>
       </c>
       <c r="Q11">
@@ -26452,23 +26490,23 @@
         <v>4</v>
       </c>
       <c r="M12">
-        <f>C12-D12</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="N12">
-        <f>G12-H12</f>
+        <f t="shared" si="1"/>
         <v>30.029999999999973</v>
       </c>
       <c r="O12">
-        <f>I12-F12</f>
+        <f t="shared" si="2"/>
         <v>4.5399999999999636</v>
       </c>
       <c r="P12">
-        <f>M12-N12</f>
+        <f t="shared" si="3"/>
         <v>-8.0299999999999727</v>
       </c>
       <c r="Q12">
-        <f t="shared" ref="Q12:Q15" si="2">I12-E12</f>
+        <f t="shared" ref="Q12:Q15" si="6">I12-E12</f>
         <v>10.240000000000009</v>
       </c>
     </row>
@@ -26510,23 +26548,23 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <f>C13-D13</f>
+        <f t="shared" si="0"/>
         <v>24.700000000000045</v>
       </c>
       <c r="N13">
-        <f>G13-H13</f>
+        <f t="shared" si="1"/>
         <v>27.309999999999945</v>
       </c>
       <c r="O13">
-        <f>I13-F13</f>
+        <f t="shared" si="2"/>
         <v>-25.069999999999936</v>
       </c>
       <c r="P13">
-        <f>M13-N13</f>
+        <f t="shared" si="3"/>
         <v>-2.6099999999999</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.8200000000001637</v>
       </c>
     </row>
@@ -26568,23 +26606,23 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <f>C14-D14</f>
+        <f t="shared" si="0"/>
         <v>11.800000000000182</v>
       </c>
       <c r="N14">
-        <f>G14-H14</f>
+        <f t="shared" si="1"/>
         <v>15.319999999999936</v>
       </c>
       <c r="O14">
-        <f>I14-F14</f>
+        <f t="shared" si="2"/>
         <v>13.570000000000164</v>
       </c>
       <c r="P14">
-        <f>M14-N14</f>
+        <f t="shared" si="3"/>
         <v>-3.5199999999997544</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12.900000000000091</v>
       </c>
     </row>
@@ -26626,23 +26664,23 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <f>C15-D15</f>
+        <f t="shared" si="0"/>
         <v>23.799999999999955</v>
       </c>
       <c r="N15">
-        <f>G15-H15</f>
+        <f t="shared" si="1"/>
         <v>26.6400000000001</v>
       </c>
       <c r="O15">
-        <f>I15-F15</f>
+        <f t="shared" si="2"/>
         <v>19.060000000000173</v>
       </c>
       <c r="P15">
-        <f>M15-N15</f>
+        <f t="shared" si="3"/>
         <v>-2.8400000000001455</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12.410000000000082</v>
       </c>
     </row>
@@ -26684,19 +26722,19 @@
         <v>13</v>
       </c>
       <c r="M16">
-        <f>C16-D16</f>
+        <f t="shared" si="0"/>
         <v>13.900000000000091</v>
       </c>
       <c r="N16">
-        <f>G16-H16</f>
+        <f t="shared" si="1"/>
         <v>18.880000000000109</v>
       </c>
       <c r="O16">
-        <f>I16-F16</f>
+        <f t="shared" si="2"/>
         <v>18.440000000000055</v>
       </c>
       <c r="P16">
-        <f>M16-N16</f>
+        <f t="shared" si="3"/>
         <v>-4.9800000000000182</v>
       </c>
       <c r="Q16">
@@ -26742,23 +26780,23 @@
         <v>-10</v>
       </c>
       <c r="M17">
-        <f>C17-D17</f>
+        <f t="shared" si="0"/>
         <v>11.900000000000091</v>
       </c>
       <c r="N17">
-        <f>G17-H17</f>
+        <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
       <c r="O17">
-        <f>I17-F17</f>
+        <f t="shared" si="2"/>
         <v>-4.0699999999999363</v>
       </c>
       <c r="P17">
-        <f>M17-N17</f>
+        <f t="shared" si="3"/>
         <v>0.40000000000009095</v>
       </c>
       <c r="Q17">
-        <f t="shared" ref="Q17:Q20" si="3">I17-E17</f>
+        <f t="shared" ref="Q17:Q20" si="7">I17-E17</f>
         <v>8.4700000000000273</v>
       </c>
     </row>
@@ -26800,23 +26838,23 @@
         <v>7</v>
       </c>
       <c r="M18">
-        <f>C18-D18</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="N18">
-        <f>G18-H18</f>
+        <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
       <c r="O18">
-        <f>I18-F18</f>
+        <f t="shared" si="2"/>
         <v>20.909999999999854</v>
       </c>
       <c r="P18">
-        <f>M18-N18</f>
+        <f t="shared" si="3"/>
         <v>-7.5</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12.779999999999973</v>
       </c>
     </row>
@@ -26858,23 +26896,23 @@
         <v>22</v>
       </c>
       <c r="M19">
-        <f>C19-D19</f>
+        <f t="shared" si="0"/>
         <v>24.900000000000091</v>
       </c>
       <c r="N19">
-        <f>G19-H19</f>
+        <f t="shared" si="1"/>
         <v>19.200000000000045</v>
       </c>
       <c r="O19">
-        <f>I19-F19</f>
+        <f t="shared" si="2"/>
         <v>-6.0999999999999091</v>
       </c>
       <c r="P19">
-        <f>M19-N19</f>
+        <f t="shared" si="3"/>
         <v>5.7000000000000455</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11.180000000000064</v>
       </c>
     </row>
@@ -26916,23 +26954,23 @@
         <v>5</v>
       </c>
       <c r="M20">
-        <f>C20-D20</f>
+        <f t="shared" si="0"/>
         <v>29.5</v>
       </c>
       <c r="N20">
-        <f>G20-H20</f>
+        <f t="shared" si="1"/>
         <v>28.1099999999999</v>
       </c>
       <c r="O20">
-        <f>I20-F20</f>
+        <f t="shared" si="2"/>
         <v>3.7799999999999727</v>
       </c>
       <c r="P20">
-        <f>M20-N20</f>
+        <f t="shared" si="3"/>
         <v>1.3900000000001</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.4600000000000364</v>
       </c>
     </row>
@@ -26974,19 +27012,19 @@
         <v>7</v>
       </c>
       <c r="M21">
-        <f>C21-D21</f>
+        <f t="shared" si="0"/>
         <v>37.400000000000091</v>
       </c>
       <c r="N21">
-        <f>G21-H21</f>
+        <f t="shared" si="1"/>
         <v>39.799999999999955</v>
       </c>
       <c r="O21">
-        <f>I21-F21</f>
+        <f t="shared" si="2"/>
         <v>-32.740000000000009</v>
       </c>
       <c r="P21">
-        <f>M21-N21</f>
+        <f t="shared" si="3"/>
         <v>-2.3999999999998636</v>
       </c>
       <c r="Q21">
@@ -27032,23 +27070,23 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <f>C22-D22</f>
+        <f t="shared" si="0"/>
         <v>33.799999999999955</v>
       </c>
       <c r="N22">
-        <f>G22-H22</f>
+        <f t="shared" si="1"/>
         <v>29.650000000000091</v>
       </c>
       <c r="O22">
-        <f>I22-F22</f>
+        <f t="shared" si="2"/>
         <v>3.9800000000000182</v>
       </c>
       <c r="P22">
-        <f>M22-N22</f>
+        <f t="shared" si="3"/>
         <v>4.1499999999998636</v>
       </c>
       <c r="Q22">
-        <f t="shared" ref="Q22:Q25" si="4">I22-E22</f>
+        <f t="shared" ref="Q22:Q25" si="8">I22-E22</f>
         <v>12.829999999999927</v>
       </c>
     </row>
@@ -27090,23 +27128,23 @@
         <v>-4</v>
       </c>
       <c r="M23">
-        <f>C23-D23</f>
+        <f t="shared" si="0"/>
         <v>25.799999999999955</v>
       </c>
       <c r="N23">
-        <f>G23-H23</f>
+        <f t="shared" si="1"/>
         <v>28.460000000000036</v>
       </c>
       <c r="O23">
-        <f>I23-F23</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="P23">
-        <f>M23-N23</f>
+        <f t="shared" si="3"/>
         <v>-2.6600000000000819</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-5.6300000000001091</v>
       </c>
     </row>
@@ -27148,23 +27186,23 @@
         <v>4</v>
       </c>
       <c r="M24">
-        <f>C24-D24</f>
+        <f t="shared" si="0"/>
         <v>35.200000000000045</v>
       </c>
       <c r="N24">
-        <f>G24-H24</f>
+        <f t="shared" si="1"/>
         <v>37.210000000000036</v>
       </c>
       <c r="O24">
-        <f>I24-F24</f>
+        <f t="shared" si="2"/>
         <v>-10.870000000000118</v>
       </c>
       <c r="P24">
-        <f>M24-N24</f>
+        <f t="shared" si="3"/>
         <v>-2.0099999999999909</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.7899999999999636</v>
       </c>
     </row>
@@ -27206,23 +27244,23 @@
         <v>-1</v>
       </c>
       <c r="M25">
-        <f>C25-D25</f>
+        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="N25">
-        <f>G25-H25</f>
+        <f t="shared" si="1"/>
         <v>26.019999999999982</v>
       </c>
       <c r="O25">
-        <f>I25-F25</f>
+        <f t="shared" si="2"/>
         <v>13.769999999999982</v>
       </c>
       <c r="P25">
-        <f>M25-N25</f>
+        <f t="shared" si="3"/>
         <v>-3.5199999999999818</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-7.1399999999998727</v>
       </c>
     </row>
@@ -27265,19 +27303,19 @@
         <v>7.27</v>
       </c>
       <c r="M26">
-        <f>C26-D26</f>
+        <f t="shared" si="0"/>
         <v>39.600000000000136</v>
       </c>
       <c r="N26">
-        <f>G26-H26</f>
+        <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
       <c r="O26">
-        <f>I26-F26</f>
+        <f t="shared" si="2"/>
         <v>-23.799999999999955</v>
       </c>
       <c r="P26">
-        <f>M26-N26</f>
+        <f t="shared" si="3"/>
         <v>7.1000000000001364</v>
       </c>
       <c r="Q26">
@@ -27323,23 +27361,23 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <f>C27-D27</f>
+        <f t="shared" si="0"/>
         <v>22.700000000000045</v>
       </c>
       <c r="N27">
-        <f>G27-H27</f>
+        <f t="shared" si="1"/>
         <v>19.159999999999854</v>
       </c>
       <c r="O27">
-        <f>I27-F27</f>
+        <f t="shared" si="2"/>
         <v>-7.2400000000000091</v>
       </c>
       <c r="P27">
-        <f>M27-N27</f>
+        <f t="shared" si="3"/>
         <v>3.540000000000191</v>
       </c>
       <c r="Q27">
-        <f t="shared" ref="Q27:Q30" si="5">I27-E27</f>
+        <f t="shared" ref="Q27:Q30" si="9">I27-E27</f>
         <v>14.590000000000146</v>
       </c>
     </row>
@@ -27382,23 +27420,23 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="M28">
-        <f>C28-D28</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="N28">
-        <f>G28-H28</f>
+        <f t="shared" si="1"/>
         <v>10.850000000000136</v>
       </c>
       <c r="O28">
-        <f>I28-F28</f>
+        <f t="shared" si="2"/>
         <v>-1.6399999999998727</v>
       </c>
       <c r="P28">
-        <f>M28-N28</f>
+        <f t="shared" si="3"/>
         <v>1.1499999999998636</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.6200000000001182</v>
       </c>
     </row>
@@ -27441,23 +27479,23 @@
         <v>2.246</v>
       </c>
       <c r="M29">
-        <f>C29-D29</f>
+        <f t="shared" si="0"/>
         <v>22.200000000000045</v>
       </c>
       <c r="N29">
-        <f>G29-H29</f>
+        <f t="shared" si="1"/>
         <v>22.75</v>
       </c>
       <c r="O29">
-        <f>I29-F29</f>
+        <f t="shared" si="2"/>
         <v>13.079999999999927</v>
       </c>
       <c r="P29">
-        <f>M29-N29</f>
+        <f t="shared" si="3"/>
         <v>-0.54999999999995453</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.0299999999999727</v>
       </c>
     </row>
@@ -27499,23 +27537,23 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <f>C30-D30</f>
+        <f t="shared" si="0"/>
         <v>22.200000000000045</v>
       </c>
       <c r="N30">
-        <f>G30-H30</f>
+        <f t="shared" si="1"/>
         <v>26.289999999999964</v>
       </c>
       <c r="O30">
-        <f>I30-F30</f>
+        <f t="shared" si="2"/>
         <v>1.1799999999998363</v>
       </c>
       <c r="P30">
-        <f>M30-N30</f>
+        <f t="shared" si="3"/>
         <v>-4.0899999999999181</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.3699999999998909</v>
       </c>
     </row>
@@ -27558,19 +27596,19 @@
         <v>2.194</v>
       </c>
       <c r="M31">
-        <f>C31-D31</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="N31">
-        <f>G31-H31</f>
+        <f t="shared" si="1"/>
         <v>15.990000000000009</v>
       </c>
       <c r="O31">
-        <f>I31-F31</f>
+        <f t="shared" si="2"/>
         <v>-1.6900000000000546</v>
       </c>
       <c r="P31">
-        <f>M31-N31</f>
+        <f t="shared" si="3"/>
         <v>1.0099999999999909</v>
       </c>
       <c r="Q31">
@@ -27617,23 +27655,23 @@
         <v>1.9945999999999999</v>
       </c>
       <c r="M32">
-        <f>C32-D32</f>
+        <f t="shared" si="0"/>
         <v>18.300000000000182</v>
       </c>
       <c r="N32">
-        <f>G32-H32</f>
+        <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
       <c r="O32">
-        <f>I32-F32</f>
+        <f t="shared" si="2"/>
         <v>4.3100000000001728</v>
       </c>
       <c r="P32">
-        <f>M32-N32</f>
+        <f t="shared" si="3"/>
         <v>1.8000000000001819</v>
       </c>
       <c r="Q32">
-        <f t="shared" ref="Q32:Q35" si="6">I32-E32</f>
+        <f t="shared" ref="Q32:Q35" si="10">I32-E32</f>
         <v>8.9000000000000909</v>
       </c>
     </row>
@@ -27676,23 +27714,23 @@
         <v>4.0869999999999997</v>
       </c>
       <c r="M33">
-        <f>C33-D33</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="N33">
-        <f>G33-H33</f>
+        <f t="shared" si="1"/>
         <v>22.620000000000118</v>
       </c>
       <c r="O33">
-        <f>I33-F33</f>
+        <f t="shared" si="2"/>
         <v>-13.629999999999882</v>
       </c>
       <c r="P33">
-        <f>M33-N33</f>
+        <f t="shared" si="3"/>
         <v>-3.6200000000001182</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10.490000000000009</v>
       </c>
     </row>
@@ -27735,23 +27773,23 @@
         <v>5.9930000000000003</v>
       </c>
       <c r="M34">
-        <f>C34-D34</f>
+        <f t="shared" ref="M34:M69" si="11">C34-D34</f>
         <v>21.5</v>
       </c>
       <c r="N34">
-        <f>G34-H34</f>
+        <f t="shared" ref="N34:N69" si="12">G34-H34</f>
         <v>18.400000000000091</v>
       </c>
       <c r="O34">
-        <f>I34-F34</f>
+        <f t="shared" ref="O34:O69" si="13">I34-F34</f>
         <v>6.4700000000000273</v>
       </c>
       <c r="P34">
-        <f>M34-N34</f>
+        <f t="shared" ref="P34:P55" si="14">M34-N34</f>
         <v>3.0999999999999091</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9.4900000000000091</v>
       </c>
     </row>
@@ -27790,23 +27828,23 @@
         <v>127.916</v>
       </c>
       <c r="M35">
-        <f>C35-D35</f>
+        <f t="shared" si="11"/>
         <v>16.299999999999955</v>
       </c>
       <c r="N35">
-        <f>G35-H35</f>
+        <f t="shared" si="12"/>
         <v>18.339999999999918</v>
       </c>
       <c r="O35">
-        <f>I35-F35</f>
+        <f t="shared" si="13"/>
         <v>-10.210000000000036</v>
       </c>
       <c r="P35">
-        <f>M35-N35</f>
+        <f t="shared" si="14"/>
         <v>-2.0399999999999636</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>12.089999999999918</v>
       </c>
     </row>
@@ -27849,19 +27887,19 @@
         <v>-36.128</v>
       </c>
       <c r="M36">
-        <f>C36-D36</f>
+        <f t="shared" si="11"/>
         <v>11.400000000000091</v>
       </c>
       <c r="N36">
-        <f>G36-H36</f>
+        <f t="shared" si="12"/>
         <v>13.489999999999782</v>
       </c>
       <c r="O36">
-        <f>I36-F36</f>
+        <f t="shared" si="13"/>
         <v>5.4799999999997908</v>
       </c>
       <c r="P36">
-        <f>M36-N36</f>
+        <f t="shared" si="14"/>
         <v>-2.0899999999996908</v>
       </c>
       <c r="Q36">
@@ -27908,19 +27946,19 @@
         <v>4.1859999999999999</v>
       </c>
       <c r="M37">
-        <f>C37-D37</f>
+        <f t="shared" si="11"/>
         <v>23.700000000000045</v>
       </c>
       <c r="N37">
-        <f>G37-H37</f>
+        <f t="shared" si="12"/>
         <v>26.349999999999909</v>
       </c>
       <c r="O37">
-        <f>I37-F37</f>
+        <f t="shared" si="13"/>
         <v>23.900000000000091</v>
       </c>
       <c r="P37">
-        <f>M37-N37</f>
+        <f t="shared" si="14"/>
         <v>-2.6499999999998636</v>
       </c>
       <c r="Q37">
@@ -27967,23 +28005,23 @@
         <v>4.9880000000000004</v>
       </c>
       <c r="M38">
-        <f>C38-D38</f>
+        <f t="shared" si="11"/>
         <v>18.400000000000091</v>
       </c>
       <c r="N38">
-        <f>G38-H38</f>
+        <f t="shared" si="12"/>
         <v>14.620000000000118</v>
       </c>
       <c r="O38">
-        <f>I38-F38</f>
+        <f t="shared" si="13"/>
         <v>-3.0599999999999454</v>
       </c>
       <c r="P38">
-        <f>M38-N38</f>
+        <f t="shared" si="14"/>
         <v>3.7799999999999727</v>
       </c>
       <c r="Q38">
-        <f t="shared" ref="Q38:Q60" si="7">I38-E38</f>
+        <f t="shared" ref="Q38:Q60" si="15">I38-E38</f>
         <v>8.5999999999999091</v>
       </c>
     </row>
@@ -28026,23 +28064,23 @@
         <v>5.7939999999999996</v>
       </c>
       <c r="M39">
-        <f>C39-D39</f>
+        <f t="shared" si="11"/>
         <v>37.5</v>
       </c>
       <c r="N39">
-        <f>G39-H39</f>
+        <f t="shared" si="12"/>
         <v>38.029999999999973</v>
       </c>
       <c r="O39">
-        <f>I39-F39</f>
+        <f t="shared" si="13"/>
         <v>33.160000000000082</v>
       </c>
       <c r="P39">
-        <f>M39-N39</f>
+        <f t="shared" si="14"/>
         <v>-0.52999999999997272</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>11.400000000000091</v>
       </c>
     </row>
@@ -28081,23 +28119,23 @@
         <v>146.36600000000001</v>
       </c>
       <c r="M40">
-        <f>C40-D40</f>
+        <f t="shared" si="11"/>
         <v>37.099999999999909</v>
       </c>
       <c r="N40">
-        <f>G40-H40</f>
+        <f t="shared" si="12"/>
         <v>30.350000000000136</v>
       </c>
       <c r="O40">
-        <f>I40-F40</f>
+        <f t="shared" si="13"/>
         <v>16.940000000000055</v>
       </c>
       <c r="P40">
-        <f>M40-N40</f>
+        <f t="shared" si="14"/>
         <v>6.7499999999997726</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>5.7100000000000364</v>
       </c>
     </row>
@@ -28136,23 +28174,23 @@
         <v>139.33099999999999</v>
       </c>
       <c r="M41">
-        <f>C41-D41</f>
+        <f t="shared" si="11"/>
         <v>50.900000000000091</v>
       </c>
       <c r="N41">
-        <f>G41-H41</f>
+        <f t="shared" si="12"/>
         <v>42.240000000000009</v>
       </c>
       <c r="O41">
-        <f>I41-F41</f>
+        <f t="shared" si="13"/>
         <v>-32.1400000000001</v>
       </c>
       <c r="P41">
-        <f>M41-N41</f>
+        <f t="shared" si="14"/>
         <v>8.6600000000000819</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
     </row>
@@ -28191,23 +28229,23 @@
         <v>110.1</v>
       </c>
       <c r="M42">
-        <f>C42-D42</f>
+        <f t="shared" si="11"/>
         <v>39.400000000000091</v>
       </c>
       <c r="N42">
-        <f>G42-H42</f>
+        <f t="shared" si="12"/>
         <v>22.599999999999909</v>
       </c>
       <c r="O42">
-        <f>I42-F42</f>
+        <f t="shared" si="13"/>
         <v>-2.3800000000001091</v>
       </c>
       <c r="P42">
-        <f>M42-N42</f>
+        <f t="shared" si="14"/>
         <v>16.800000000000182</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>5.7100000000000364</v>
       </c>
     </row>
@@ -28243,23 +28281,23 @@
         <v>130.077</v>
       </c>
       <c r="M43">
-        <f>C43-D43</f>
+        <f t="shared" si="11"/>
         <v>32.200000000000045</v>
       </c>
       <c r="N43">
-        <f>G43-H43</f>
+        <f t="shared" si="12"/>
         <v>35.8599999999999</v>
       </c>
       <c r="O43">
-        <f>I43-F43</f>
+        <f t="shared" si="13"/>
         <v>23.960000000000036</v>
       </c>
       <c r="P43">
-        <f>M43-N43</f>
+        <f t="shared" si="14"/>
         <v>-3.6599999999998545</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>9.0499999999999545</v>
       </c>
     </row>
@@ -28295,23 +28333,23 @@
         <v>159.93799999999999</v>
       </c>
       <c r="M44">
-        <f>C44-D44</f>
+        <f t="shared" si="11"/>
         <v>35.900000000000091</v>
       </c>
       <c r="N44">
-        <f>G44-H44</f>
+        <f t="shared" si="12"/>
         <v>30.559999999999945</v>
       </c>
       <c r="O44">
-        <f>I44-F44</f>
+        <f t="shared" si="13"/>
         <v>-3.0899999999999181</v>
       </c>
       <c r="P44">
-        <f>M44-N44</f>
+        <f t="shared" si="14"/>
         <v>5.3400000000001455</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>4.9100000000000819</v>
       </c>
     </row>
@@ -28347,23 +28385,23 @@
         <v>161.81700000000001</v>
       </c>
       <c r="M45">
-        <f>C45-D45</f>
+        <f t="shared" si="11"/>
         <v>75.700000000000045</v>
       </c>
       <c r="N45">
-        <f>G45-H45</f>
+        <f t="shared" si="12"/>
         <v>76.039999999999964</v>
       </c>
       <c r="O45">
-        <f>I45-F45</f>
+        <f t="shared" si="13"/>
         <v>67.669999999999845</v>
       </c>
       <c r="P45">
-        <f>M45-N45</f>
+        <f t="shared" si="14"/>
         <v>-0.33999999999991815</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-2.25</v>
       </c>
     </row>
@@ -28399,23 +28437,23 @@
         <v>172.77</v>
       </c>
       <c r="M46">
-        <f>C46-D46</f>
+        <f t="shared" si="11"/>
         <v>49.900000000000091</v>
       </c>
       <c r="N46">
-        <f>G46-H46</f>
+        <f t="shared" si="12"/>
         <v>43.960000000000036</v>
       </c>
       <c r="O46">
-        <f>I46-F46</f>
+        <f t="shared" si="13"/>
         <v>-39.800000000000182</v>
       </c>
       <c r="P46">
-        <f>M46-N46</f>
+        <f t="shared" si="14"/>
         <v>5.9400000000000546</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>3.0799999999999272</v>
       </c>
     </row>
@@ -28451,23 +28489,23 @@
         <v>237.55500000000001</v>
       </c>
       <c r="M47">
-        <f>C47-D47</f>
+        <f t="shared" si="11"/>
         <v>73.399999999999864</v>
       </c>
       <c r="N47">
-        <f>G47-H47</f>
+        <f t="shared" si="12"/>
         <v>65.420000000000073</v>
       </c>
       <c r="O47">
-        <f>I47-F47</f>
+        <f t="shared" si="13"/>
         <v>-57.519999999999982</v>
       </c>
       <c r="P47">
-        <f>M47-N47</f>
+        <f t="shared" si="14"/>
         <v>7.9799999999997908</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-1.2400000000000091</v>
       </c>
     </row>
@@ -28503,23 +28541,23 @@
         <v>163.22399999999999</v>
       </c>
       <c r="M48">
-        <f>C48-D48</f>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="N48">
-        <f>G48-H48</f>
+        <f t="shared" si="12"/>
         <v>59.769999999999982</v>
       </c>
       <c r="O48">
-        <f>I48-F48</f>
+        <f t="shared" si="13"/>
         <v>-57.25</v>
       </c>
       <c r="P48">
-        <f>M48-N48</f>
+        <f t="shared" si="14"/>
         <v>12.230000000000018</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>9.7599999999999909</v>
       </c>
     </row>
@@ -28555,23 +28593,23 @@
         <v>94.774000000000001</v>
       </c>
       <c r="M49">
-        <f>C49-D49</f>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="N49">
-        <f>G49-H49</f>
+        <f t="shared" si="12"/>
         <v>30.909999999999854</v>
       </c>
       <c r="O49">
-        <f>I49-F49</f>
+        <f t="shared" si="13"/>
         <v>5.6799999999998363</v>
       </c>
       <c r="P49">
-        <f>M49-N49</f>
+        <f t="shared" si="14"/>
         <v>9.0000000000145519E-2</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>12.819999999999936</v>
       </c>
     </row>
@@ -28607,23 +28645,23 @@
         <v>157.23400000000001</v>
       </c>
       <c r="M50">
-        <f>C50-D50</f>
+        <f t="shared" si="11"/>
         <v>49.800000000000182</v>
       </c>
       <c r="N50">
-        <f>G50-H50</f>
+        <f t="shared" si="12"/>
         <v>59.789999999999964</v>
       </c>
       <c r="O50">
-        <f>I50-F50</f>
+        <f t="shared" si="13"/>
         <v>33.360000000000127</v>
       </c>
       <c r="P50">
-        <f>M50-N50</f>
+        <f t="shared" si="14"/>
         <v>-9.9899999999997817</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>10.460000000000036</v>
       </c>
     </row>
@@ -28659,23 +28697,23 @@
         <v>200.87899999999999</v>
       </c>
       <c r="M51">
-        <f>C51-D51</f>
+        <f t="shared" si="11"/>
         <v>55.799999999999955</v>
       </c>
       <c r="N51">
-        <f>G51-H51</f>
+        <f t="shared" si="12"/>
         <v>52.300000000000182</v>
       </c>
       <c r="O51">
-        <f>I51-F51</f>
+        <f t="shared" si="13"/>
         <v>-44.519999999999982</v>
       </c>
       <c r="P51">
-        <f>M51-N51</f>
+        <f t="shared" si="14"/>
         <v>3.4999999999997726</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>5.9400000000000546</v>
       </c>
     </row>
@@ -28711,23 +28749,23 @@
         <v>129.90700000000001</v>
       </c>
       <c r="M52">
-        <f>C52-D52</f>
+        <f t="shared" si="11"/>
         <v>37.5</v>
       </c>
       <c r="N52">
-        <f>G52-H52</f>
+        <f t="shared" si="12"/>
         <v>28.539999999999964</v>
       </c>
       <c r="O52">
-        <f>I52-F52</f>
+        <f t="shared" si="13"/>
         <v>-26.329999999999927</v>
       </c>
       <c r="P52">
-        <f>M52-N52</f>
+        <f t="shared" si="14"/>
         <v>8.9600000000000364</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>11.210000000000036</v>
       </c>
     </row>
@@ -28763,23 +28801,23 @@
         <v>122.134</v>
       </c>
       <c r="M53">
-        <f>C53-D53</f>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="N53">
-        <f>G53-H53</f>
+        <f t="shared" si="12"/>
         <v>32.009999999999991</v>
       </c>
       <c r="O53">
-        <f>I53-F53</f>
+        <f t="shared" si="13"/>
         <v>2.2800000000002001</v>
       </c>
       <c r="P53">
-        <f>M53-N53</f>
+        <f t="shared" si="14"/>
         <v>-1.0099999999999909</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>2.3800000000001091</v>
       </c>
     </row>
@@ -28815,23 +28853,23 @@
         <v>114.19</v>
       </c>
       <c r="M54">
-        <f>C54-D54</f>
+        <f t="shared" si="11"/>
         <v>26.900000000000091</v>
       </c>
       <c r="N54">
-        <f>G54-H54</f>
+        <f t="shared" si="12"/>
         <v>25.860000000000127</v>
       </c>
       <c r="O54">
-        <f>I54-F54</f>
+        <f t="shared" si="13"/>
         <v>-25.840000000000146</v>
       </c>
       <c r="P54">
-        <f>M54-N54</f>
+        <f t="shared" si="14"/>
         <v>1.0399999999999636</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.5899999999999181</v>
       </c>
     </row>
@@ -28867,23 +28905,23 @@
         <v>128.035</v>
       </c>
       <c r="M55">
-        <f>C55-D55</f>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="N55">
-        <f>G55-H55</f>
+        <f t="shared" si="12"/>
         <v>23.139999999999873</v>
       </c>
       <c r="O55">
-        <f>I55-F55</f>
+        <f t="shared" si="13"/>
         <v>19.039999999999964</v>
       </c>
       <c r="P55">
-        <f>M55-N55</f>
+        <f t="shared" si="14"/>
         <v>8.8600000000001273</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>8.3099999999999454</v>
       </c>
     </row>
@@ -28919,23 +28957,23 @@
         <v>91.674999999999997</v>
       </c>
       <c r="M56">
-        <f>C56-D56</f>
+        <f t="shared" si="11"/>
         <v>18.700000000000045</v>
       </c>
       <c r="N56">
-        <f>G56-H56</f>
+        <f t="shared" si="12"/>
         <v>15.579999999999927</v>
       </c>
       <c r="O56">
-        <f>I56-F56</f>
+        <f t="shared" si="13"/>
         <v>0.28000000000020009</v>
       </c>
       <c r="P56">
-        <f t="shared" ref="P56:P60" si="8">M56-N56</f>
+        <f t="shared" ref="P56:P60" si="16">M56-N56</f>
         <v>3.1200000000001182</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>8.8800000000001091</v>
       </c>
     </row>
@@ -28971,23 +29009,23 @@
         <v>108.117</v>
       </c>
       <c r="M57">
-        <f>C57-D57</f>
+        <f t="shared" si="11"/>
         <v>47.900000000000091</v>
       </c>
       <c r="N57">
-        <f>G57-H57</f>
+        <f t="shared" si="12"/>
         <v>44.830000000000155</v>
       </c>
       <c r="O57">
-        <f>I57-F57</f>
+        <f t="shared" si="13"/>
         <v>7.1800000000000637</v>
       </c>
       <c r="P57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>3.0699999999999363</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.0299999999999727</v>
       </c>
     </row>
@@ -29023,23 +29061,23 @@
         <v>181.77699999999999</v>
       </c>
       <c r="M58">
-        <f>C58-D58</f>
+        <f t="shared" si="11"/>
         <v>66.100000000000136</v>
       </c>
       <c r="N58">
-        <f>G58-H58</f>
+        <f t="shared" si="12"/>
         <v>78.930000000000064</v>
       </c>
       <c r="O58">
-        <f>I58-F58</f>
+        <f t="shared" si="13"/>
         <v>49.070000000000164</v>
       </c>
       <c r="P58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-12.829999999999927</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>5.9000000000000909</v>
       </c>
     </row>
@@ -29075,23 +29113,23 @@
         <v>202.42599999999999</v>
       </c>
       <c r="M59">
-        <f>C59-D59</f>
+        <f t="shared" si="11"/>
         <v>100.29999999999995</v>
       </c>
       <c r="N59">
-        <f>G59-H59</f>
+        <f t="shared" si="12"/>
         <v>89.259999999999991</v>
       </c>
       <c r="O59">
-        <f>I59-F59</f>
+        <f t="shared" si="13"/>
         <v>-78.399999999999864</v>
       </c>
       <c r="P59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>11.039999999999964</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>13.290000000000191</v>
       </c>
     </row>
@@ -29127,23 +29165,23 @@
         <v>150.755</v>
       </c>
       <c r="M60">
-        <f>C60-D60</f>
+        <f t="shared" si="11"/>
         <v>25.099999999999909</v>
       </c>
       <c r="N60">
-        <f>G60-H60</f>
+        <f t="shared" si="12"/>
         <v>36.100000000000136</v>
       </c>
       <c r="O60">
-        <f>I60-F60</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-11.000000000000227</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.68000000000006366</v>
       </c>
     </row>
@@ -29167,15 +29205,15 @@
         <v>172.35900000000001</v>
       </c>
       <c r="M61">
-        <f>C61-D61</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N61">
-        <f>G61-H61</f>
+        <f t="shared" si="12"/>
         <v>29.710000000000036</v>
       </c>
       <c r="O61">
-        <f>I61-F61</f>
+        <f t="shared" si="13"/>
         <v>-7.9000000000000909</v>
       </c>
     </row>
@@ -29199,15 +29237,15 @@
         <v>150.22200000000001</v>
       </c>
       <c r="M62">
-        <f>C62-D62</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N62">
-        <f>G62-H62</f>
+        <f t="shared" si="12"/>
         <v>18.940000000000055</v>
       </c>
       <c r="O62">
-        <f>I62-F62</f>
+        <f t="shared" si="13"/>
         <v>-5.4000000000000909</v>
       </c>
     </row>
@@ -29231,15 +29269,15 @@
         <v>156.62</v>
       </c>
       <c r="M63">
-        <f>C63-D63</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N63">
-        <f>G63-H63</f>
+        <f t="shared" si="12"/>
         <v>37.8900000000001</v>
       </c>
       <c r="O63">
-        <f>I63-F63</f>
+        <f t="shared" si="13"/>
         <v>-31.020000000000209</v>
       </c>
     </row>
@@ -29263,15 +29301,15 @@
         <v>194.44200000000001</v>
       </c>
       <c r="M64">
-        <f>C64-D64</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N64">
-        <f>G64-H64</f>
+        <f t="shared" si="12"/>
         <v>26.509999999999991</v>
       </c>
       <c r="O64">
-        <f>I64-F64</f>
+        <f t="shared" si="13"/>
         <v>-24.920000000000073</v>
       </c>
     </row>
@@ -29295,15 +29333,15 @@
         <v>181.76499999999999</v>
       </c>
       <c r="M65">
-        <f>C65-D65</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N65">
-        <f>G65-H65</f>
+        <f t="shared" si="12"/>
         <v>27.589999999999918</v>
       </c>
       <c r="O65">
-        <f>I65-F65</f>
+        <f t="shared" si="13"/>
         <v>-21.150000000000091</v>
       </c>
     </row>
@@ -29327,15 +29365,15 @@
         <v>119.60899999999999</v>
       </c>
       <c r="M66">
-        <f>C66-D66</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N66">
-        <f>G66-H66</f>
+        <f t="shared" si="12"/>
         <v>17.210000000000036</v>
       </c>
       <c r="O66">
-        <f>I66-F66</f>
+        <f t="shared" si="13"/>
         <v>-8.4800000000000182</v>
       </c>
     </row>
@@ -29359,15 +29397,15 @@
         <v>143.87200000000001</v>
       </c>
       <c r="M67">
-        <f>C67-D67</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N67">
-        <f>G67-H67</f>
+        <f t="shared" si="12"/>
         <v>19.990000000000009</v>
       </c>
       <c r="O67">
-        <f>I67-F67</f>
+        <f t="shared" si="13"/>
         <v>13.020000000000209</v>
       </c>
     </row>
@@ -29391,15 +29429,15 @@
         <v>152.482</v>
       </c>
       <c r="M68">
-        <f>C68-D68</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N68">
-        <f>G68-H68</f>
+        <f t="shared" si="12"/>
         <v>25.619999999999891</v>
       </c>
       <c r="O68">
-        <f>I68-F68</f>
+        <f t="shared" si="13"/>
         <v>-23.099999999999909</v>
       </c>
     </row>
@@ -29423,15 +29461,15 @@
         <v>156.33600000000001</v>
       </c>
       <c r="M69">
-        <f>C69-D69</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N69">
-        <f>G69-H69</f>
+        <f t="shared" si="12"/>
         <v>23.289999999999964</v>
       </c>
       <c r="O69">
-        <f>I69-F69</f>
+        <f t="shared" si="13"/>
         <v>-17.470000000000027</v>
       </c>
     </row>

--- a/Relax.xlsx
+++ b/Relax.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D53182-7257-4CA1-AA9D-48A51B0BF85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92077AC-22E1-434A-B1AB-95FA519C0E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="15" windowWidth="20370" windowHeight="10905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KeHoach" sheetId="5" r:id="rId1"/>
@@ -2344,7 +2344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="1299">
   <si>
     <t>https://www.youtube.com/watch?v=T77wtm-2exE</t>
   </si>
@@ -11693,7 +11693,7 @@
   <dimension ref="A1:AB284"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="N2" s="15">
         <f>PS!M2+SUM(D:D)-SUM(O2:Q2)</f>
-        <v>55025.942279999988</v>
+        <v>55115.442279999988</v>
       </c>
       <c r="O2" s="15">
         <v>62924</v>
@@ -11925,7 +11925,7 @@
       </c>
       <c r="N6" s="21">
         <f ca="1">-N9+0*J86+PS!M6*0+N12+J77+J73+J75+5080+J71+J69+J67+J65+J63+J61+J59+J56+J54+J48+J50+J52+J46+J44+J42+J40+J38+8230+J36+J35+J33+J34+J27+J32+J31+J30+J29+J26+J24+J22+1000+J20+J10+J16+J14+J12</f>
-        <v>-60321.046583332754</v>
+        <v>-60046.384083332756</v>
       </c>
       <c r="O6" s="21">
         <f>-O9+1*J86+29000-16000-800-22000-500-2200+7900+9200+4700+1000+500+7900+J135+J133+J131+11000+J127+J129+J125+J123+J121+J119+J117+J115+J113+J111+274+J110-5000+J108+J106+J102+J104+I105+1850+J100+J98+J96+J94+J93+J91+J89+J88+J84</f>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="N7" s="36">
         <f ca="1">SUM(N4:N6)</f>
-        <v>234425.75663781556</v>
+        <v>234700.41913781557</v>
       </c>
       <c r="O7" s="36">
         <f>SUM(O4:O6)</f>
@@ -11995,7 +11995,7 @@
       </c>
       <c r="N8" s="65">
         <f ca="1">ROUNDDOWN((N6/(N4+N5)),3)</f>
-        <v>-0.20399999999999999</v>
+        <v>-0.20300000000000001</v>
       </c>
       <c r="O8" s="65">
         <f>ROUNDDOWN((O6/(O4+O5)),3)</f>
@@ -12061,7 +12061,7 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="43">
         <f ca="1">TODAY()</f>
-        <v>44750</v>
+        <v>44753</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>90</v>
@@ -12082,15 +12082,15 @@
       <c r="G10" s="14"/>
       <c r="H10" s="97">
         <f ca="1">Table1[[#This Row],[Result]]/(E11*F11)</f>
-        <v>-0.16093071190327288</v>
+        <v>-0.15921299770690014</v>
       </c>
       <c r="I10" s="69">
         <f ca="1">Table1[[#This Row],[Date]]-A11</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J10" s="162">
         <f ca="1">-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E11*F11-Table1[[#This Row],[Commission]]-D11+I11</f>
-        <v>-25732.820833333331</v>
+        <v>-25458.158333333333</v>
       </c>
       <c r="K10" s="121" t="s">
         <v>1272</v>
@@ -12142,7 +12142,7 @@
       <c r="H11" s="97"/>
       <c r="I11" s="67">
         <f ca="1">-105/360*(I10+1)*Table1[[#This Row],[Notes]]</f>
-        <v>1739.5291666666667</v>
+        <v>2014.1916666666666</v>
       </c>
       <c r="J11" s="98">
         <f>Table1[[#This Row],[Volume]]*Table1[[#This Row],[Price]]</f>
@@ -23378,8 +23378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CE18B9-1E5D-4C51-9D03-C69B0DC41E11}">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23470,7 +23470,7 @@
       </c>
       <c r="M2" s="15">
         <f>SUM(Table6[[#All],[Commission]])</f>
-        <v>18818.300000000003</v>
+        <v>18907.800000000003</v>
       </c>
       <c r="P2" t="s">
         <v>1022</v>
@@ -23609,7 +23609,7 @@
       </c>
       <c r="M5" s="21">
         <f>SUM(G:G)-M3-U5</f>
-        <v>-6983.7999999996464</v>
+        <v>-1673.2999999996391</v>
       </c>
       <c r="T5" s="160" t="s">
         <v>1223</v>
@@ -23657,7 +23657,7 @@
       </c>
       <c r="M6" s="21">
         <f>-M3-M2+SUM(Table6[[#All],[Vị thế đóng]])-M7</f>
-        <v>30742.200000000354</v>
+        <v>36052.700000000354</v>
       </c>
       <c r="O6" s="134" t="s">
         <v>987</v>
@@ -23754,7 +23754,7 @@
       </c>
       <c r="M8" s="65">
         <f>ROUNDDOWN((M6/(M4)),3)</f>
-        <v>4.9000000000000002E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="O8" s="140" t="s">
         <v>976</v>
@@ -24280,22 +24280,29 @@
       <c r="A22" s="43">
         <v>44753</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="C22" s="16">
+        <f>89.5</f>
+        <v>89.5</v>
+      </c>
       <c r="D22" s="14">
         <v>1225</v>
       </c>
       <c r="E22" s="14">
         <v>10</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="98">
+        <v>5400</v>
+      </c>
       <c r="G22" s="153">
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
-        <v>0</v>
+        <v>5310.5</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="152">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="J22" s="45" t="s">
         <v>1298</v>

--- a/Relax.xlsx
+++ b/Relax.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92077AC-22E1-434A-B1AB-95FA519C0E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KeHoach" sheetId="5" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="NH" sheetId="9" r:id="rId10"/>
     <sheet name="CP68" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B64" authorId="0" shapeId="0" xr:uid="{5B9400C5-352B-4E38-B418-46019A57ABBA}">
+    <comment ref="B64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B86" authorId="0" shapeId="0" xr:uid="{4992EC16-83F0-4274-BB2E-8C87936ED916}">
+    <comment ref="B86" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,12 +101,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{84FFA54A-B8B6-466B-AF55-6989CCD19F93}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{E055B1DD-B3B4-4A30-B5A4-9A1FEE8925FB}">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{771007BD-7E5B-45A9-B1B4-232F6A784F17}">
+    <comment ref="O3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{D8B01C7A-D581-47D3-9B8F-1CD7F54FAD98}">
+    <comment ref="P3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{D3C5A39F-F808-4677-9587-33DD4D34F93E}">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{EB6C80F3-3780-4E47-AA7D-94139B6C6F8F}">
+    <comment ref="N4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{5ED9CBCA-410D-4604-8288-55BB48B7EE98}">
+    <comment ref="O4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -275,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{34BFE8B0-8B72-428C-B102-B9A4E976EFF7}">
+    <comment ref="M5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{3789EE4B-BE20-4B5B-836B-7DD559C276AA}">
+    <comment ref="O5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -327,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{9EC39504-4FEB-4ADF-8DB4-95B0F278A0FF}">
+    <comment ref="M6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{481C1E5A-1F2F-4F1B-91D0-8473359E5DFB}">
+    <comment ref="O6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{361338AD-FDC6-4B15-AB25-5091C9D37472}">
+    <comment ref="P6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="0" shapeId="0" xr:uid="{8D8A62C1-D253-400A-8248-FBC98D5226F9}">
+    <comment ref="Q6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0" xr:uid="{F55D0CCB-1ACC-469B-9C7E-FBEB0CCECB0B}">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -459,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="0" shapeId="0" xr:uid="{C2E5DC8D-5827-4493-984C-78B7A144C1E3}">
+    <comment ref="Q8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -489,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{A03CBE5E-E4DC-4F37-8CBF-E9BE2EEC7943}">
+    <comment ref="N9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{8FE60451-3739-4A26-907B-FF4448D0629A}">
+    <comment ref="O9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q10" authorId="0" shapeId="0" xr:uid="{B44A650A-E0B4-4D4A-9D36-EA8A1464D36B}">
+    <comment ref="Q10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -571,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{9CD6974B-4905-425A-A04A-2A6725AC3DE9}">
+    <comment ref="N12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{11500BF2-F68B-4AC3-BC20-E29764CC8191}">
+    <comment ref="O12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -624,7 +623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{4C257D49-7542-4B16-8130-4CDD22745B27}">
+    <comment ref="P12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -655,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{9163AB89-1C49-448B-B0DE-96D62B95F621}">
+    <comment ref="K22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{315E0C10-E11A-486E-9331-1AE448BCB44E}">
+    <comment ref="D31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -711,7 +710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{4543298B-DAAE-435E-B10F-4D7ACBF3ED72}">
+    <comment ref="D32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -739,7 +738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{FAB28970-1E6C-465C-8042-09CC91371133}">
+    <comment ref="D33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -767,7 +766,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="0" shapeId="0" xr:uid="{9ECB7447-60B1-4D93-BC88-E3C8585EF4FF}">
+    <comment ref="D34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -795,7 +794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{2D2ED5F0-47D7-4617-B0CF-C57874C8DDE1}">
+    <comment ref="D35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -823,7 +822,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{DB882070-461E-4C0F-870C-F4415B1F9018}">
+    <comment ref="E35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -847,7 +846,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{E1AF460C-23ED-4418-93F6-8A5D909B6529}">
+    <comment ref="D36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -875,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J86" authorId="0" shapeId="0" xr:uid="{7929B0C0-43A5-4D35-8429-E0A183A9C02E}">
+    <comment ref="J86" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -900,7 +899,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F87" authorId="0" shapeId="0" xr:uid="{7B6E8BA5-181A-4D24-8132-76E769BB9B1C}">
+    <comment ref="F87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -925,7 +924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G87" authorId="0" shapeId="0" xr:uid="{1CEBB9C5-D274-4856-9EF7-C0791A676C16}">
+    <comment ref="G87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -949,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I87" authorId="0" shapeId="0" xr:uid="{FFC974B7-6B00-4438-B30F-F52EA6B3680E}">
+    <comment ref="I87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -975,7 +974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J87" authorId="0" shapeId="0" xr:uid="{756C3A40-2F5B-4C59-9AA1-4275B0B8C754}">
+    <comment ref="J87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1000,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K87" authorId="0" shapeId="0" xr:uid="{3E0A6348-46D5-4175-AA65-6C46C5F198EF}">
+    <comment ref="K87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1024,7 +1023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D88" authorId="0" shapeId="0" xr:uid="{FE6096BA-0FE2-483A-A3A5-E2E835E6E9C2}">
+    <comment ref="D88" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1050,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J88" authorId="0" shapeId="0" xr:uid="{CB86AFB5-1965-4BA3-BBF6-22B8006C7823}">
+    <comment ref="J88" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1078,7 +1077,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I90" authorId="0" shapeId="0" xr:uid="{1020EF3F-6EBC-47E1-A230-C2AFD2539155}">
+    <comment ref="I90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1104,7 +1103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I92" authorId="0" shapeId="0" xr:uid="{7978E8E4-C0C1-4A2C-9D23-709D8AF5C6CD}">
+    <comment ref="I92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1129,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J93" authorId="0" shapeId="0" xr:uid="{F5280058-31F1-4910-8DD9-1E2D18F44A1B}">
+    <comment ref="J93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1153,7 +1152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I116" authorId="0" shapeId="0" xr:uid="{BB53422C-28CE-47B4-B505-0709F9C6F36D}">
+    <comment ref="I116" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1177,7 +1176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I120" authorId="0" shapeId="0" xr:uid="{6036A6E1-3C4F-4B73-9549-049F84C48A2E}">
+    <comment ref="I120" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1201,7 +1200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I130" authorId="0" shapeId="0" xr:uid="{9469A22A-0A26-4185-A2CF-2CFC8DCE4E59}">
+    <comment ref="I130" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1225,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C134" authorId="0" shapeId="0" xr:uid="{04A3FB3F-12F1-48C1-832C-097A7AABA886}">
+    <comment ref="C134" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1259,7 +1258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I134" authorId="0" shapeId="0" xr:uid="{831CC4D2-B67F-45F9-B16A-6BF8AEBA687F}">
+    <comment ref="I134" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1283,7 +1282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M192" authorId="0" shapeId="0" xr:uid="{3451904D-C089-46BC-8538-59E0DD819EC5}">
+    <comment ref="M192" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1307,7 +1306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K227" authorId="0" shapeId="0" xr:uid="{A1506845-5EFD-44D3-85C7-90FB71C5F2F9}">
+    <comment ref="K227" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1334,7 +1333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K228" authorId="0" shapeId="0" xr:uid="{C3E5FE96-61B1-4681-AC8E-4EEA82660877}">
+    <comment ref="K228" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1359,7 +1358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K229" authorId="0" shapeId="0" xr:uid="{80F48D1A-0814-4007-9948-B8825B87408B}">
+    <comment ref="K229" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1384,7 +1383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K230" authorId="0" shapeId="0" xr:uid="{B088036F-0736-4995-A61E-0AF8323F617A}">
+    <comment ref="K230" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1409,7 +1408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K239" authorId="0" shapeId="0" xr:uid="{81367E1C-DB7E-4D02-9B5F-5486BDA3C1F5}">
+    <comment ref="K239" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1433,7 +1432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q239" authorId="0" shapeId="0" xr:uid="{4ED3DCB3-1EB3-4A95-9ECF-10CB24E8EE9A}">
+    <comment ref="Q239" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1469,7 +1468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q240" authorId="0" shapeId="0" xr:uid="{4CCEBF4A-FCFF-4509-AE81-2AE719A9370D}">
+    <comment ref="Q240" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1493,7 +1492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K242" authorId="0" shapeId="0" xr:uid="{24459BDA-3371-4D60-9332-137D9EF80FE1}">
+    <comment ref="K242" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1517,7 +1516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O243" authorId="0" shapeId="0" xr:uid="{C0457BE8-FFFC-4CA9-BC28-E2A147B63B90}">
+    <comment ref="O243" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1549,7 +1548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K244" authorId="0" shapeId="0" xr:uid="{41D9A476-6811-451C-B8EF-C5D96DA139E9}">
+    <comment ref="K244" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1573,7 +1572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K249" authorId="0" shapeId="0" xr:uid="{D1BB250B-2899-47EB-9B60-422C8A4C54E4}">
+    <comment ref="K249" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1597,7 +1596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K251" authorId="0" shapeId="0" xr:uid="{04BC3DD7-9286-47F1-A37A-E9AB22C9C550}">
+    <comment ref="K251" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1622,7 +1621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K254" authorId="0" shapeId="0" xr:uid="{6D169A83-4D8D-4DD8-AE4D-495EC664977B}">
+    <comment ref="K254" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1647,7 +1646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K256" authorId="0" shapeId="0" xr:uid="{60BEEACC-8390-4442-AF41-412F8010419F}">
+    <comment ref="K256" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1672,7 +1671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K258" authorId="0" shapeId="0" xr:uid="{3284642C-49B7-46B3-86BF-43F64B107F66}">
+    <comment ref="K258" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1697,7 +1696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K259" authorId="0" shapeId="0" xr:uid="{E79BDA27-4834-46E0-AD6C-7BE05B9CFF54}">
+    <comment ref="K259" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1721,7 +1720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K260" authorId="0" shapeId="0" xr:uid="{71C0C95E-9DA6-4E2F-8AFC-AA079E1B4C30}">
+    <comment ref="K260" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1748,7 +1747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K264" authorId="0" shapeId="0" xr:uid="{BBC4CEC5-61A2-43E5-9BEE-F7018A05C24D}">
+    <comment ref="K264" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1772,7 +1771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K266" authorId="0" shapeId="0" xr:uid="{BED2C3B5-549E-4076-BBBE-1E2BDD8E3C6A}">
+    <comment ref="K266" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1797,7 +1796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K269" authorId="0" shapeId="0" xr:uid="{4D3CD685-A782-482D-A631-BF514380B134}">
+    <comment ref="K269" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1827,7 +1826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K273" authorId="0" shapeId="0" xr:uid="{3743DB28-66F6-4109-8190-D96D499B2D64}">
+    <comment ref="K273" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1853,7 +1852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K275" authorId="0" shapeId="0" xr:uid="{49EA8D68-7D70-4AEC-AF4B-C167D84ECE20}">
+    <comment ref="K275" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1880,7 +1879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G278" authorId="0" shapeId="0" xr:uid="{6559B8CB-7AC5-40D3-BBAF-6D599FF44566}">
+    <comment ref="G278" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1904,7 +1903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G279" authorId="0" shapeId="0" xr:uid="{A987935B-C742-439B-9795-3AABF68EE679}">
+    <comment ref="G279" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1933,12 +1932,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{F8D8F28E-1144-4033-B80C-ACE94C2BCEF4}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1964,7 +1963,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{71A3E71E-78EA-41C5-9786-1A45F7BBA5FB}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1988,7 +1987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{093F18B3-6A2F-45F9-8B43-760229713BF4}">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2012,7 +2011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{ED91D5D6-A957-4FAF-9A5A-3A68F4343F57}">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2037,7 +2036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{302000D7-2F86-462C-8107-25D79B90B780}">
+    <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2061,7 +2060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{A3F82132-E938-4888-B235-0B88BD8CE3AE}">
+    <comment ref="M9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2086,7 +2085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T12" authorId="0" shapeId="0" xr:uid="{D8B5E6AA-5851-4D30-9F16-54CB840CD4C1}">
+    <comment ref="T12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2112,7 +2111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q20" authorId="0" shapeId="0" xr:uid="{95125CA2-ADBE-4E7A-A38F-F5F83E7B1DC5}">
+    <comment ref="Q20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2136,7 +2135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q21" authorId="0" shapeId="0" xr:uid="{AC2CD4E9-C550-4912-8DF9-BE0DC2F678F5}">
+    <comment ref="Q21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2161,7 +2160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R27" authorId="0" shapeId="0" xr:uid="{F562C844-2A6F-4D46-9A5C-DAE0EC941497}">
+    <comment ref="R27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2190,12 +2189,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{60425335-6940-403D-B8F3-6473296745D6}">
+    <comment ref="A23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2219,7 +2218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L36" authorId="0" shapeId="0" xr:uid="{88562B5A-603C-4241-8AA9-1FF39AB36375}">
+    <comment ref="L36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2243,7 +2242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{E5D9037A-9360-4BEF-8244-9B21DD73F0FE}">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2267,7 +2266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="0" shapeId="0" xr:uid="{74FED9E6-FC08-4B4D-8474-931C77F01427}">
+    <comment ref="B44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2291,7 +2290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="0" shapeId="0" xr:uid="{EA9D82F6-2C52-4359-8880-D8E049D3AE84}">
+    <comment ref="B45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2315,7 +2314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{B92270FA-8899-44F7-8D2C-A4A390393354}">
+    <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7190,13 +7189,13 @@
     <t>Short lệnh 1226, giữ qua tuần</t>
   </si>
   <si>
-    <t>1 lệnh S 1225; giữ từ tuần trước, dự báo kinh tế suy thoái, giá phá vỡ vùng hỗ trợ dưới nên giữ short</t>
+    <t>1 lệnh S 1225; giữ từ tuần trước, dự báo kinh tế suy thoái, giá phá vỡ vùng hỗ trợ dưới nên giữ short =&gt; quá thất bại khi chốt sớm đầu ngày, để lại tới atc là đc hơn 19M nữa, liệu có nên nghỉ hẳn vì mình không hợp vs chứng khoán không???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -8468,7 +8467,6 @@
         <sz val="11"/>
         <color rgb="FF0000CC"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -8486,7 +8484,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -8518,7 +8515,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -8552,7 +8548,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -8592,7 +8587,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -8624,7 +8618,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -8658,7 +8651,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -8692,7 +8684,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -8726,7 +8717,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -8761,7 +8751,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -8795,7 +8784,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="21" formatCode="dd\-mmm"/>
@@ -8852,7 +8840,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -9098,7 +9085,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -9131,102 +9117,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB0195ED-C702-47C3-848F-D53DDC28B59D}" name="Table1" displayName="Table1" ref="A2:K282" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58">
-  <autoFilter ref="A2:K282" xr:uid="{D66C23F6-EBC7-48B7-A349-AA2873C4D03F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:K282" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58">
+  <autoFilter ref="A2:K282"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{678F0869-582C-4332-8B68-BAF10F78D2B1}" name="Date" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{D92322D0-2918-414B-9303-0CB402AE7DE6}" name="Order" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{896E41AC-8414-4060-B26E-CDECE66DC0BD}" name="Stock" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{4A70537B-3B23-4397-891B-1D6A1EEA3628}" name="Commission" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{D560FFCE-B086-4299-A9A8-C071CDFD3E79}" name="Price" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{47DE455E-F467-4FF6-B662-8AD426E6353A}" name="Volume" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{CDD576E1-0BAF-4998-8C60-B60ECF695902}" name="NR" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{F87DA863-07C1-4F6D-8CB4-0165C274F4E1}" name="Average Price" dataDxfId="50" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{2B43B371-03FA-441B-8CDF-32FAF8B88947}" name="T+" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{6D1D7107-B634-4446-8FD1-AA0DE4994DE0}" name="Result" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{894B8239-3394-4C04-B4E4-D47C4C2780CB}" name="Notes" dataDxfId="47"/>
+    <tableColumn id="1" name="Date" dataDxfId="57"/>
+    <tableColumn id="2" name="Order" dataDxfId="56"/>
+    <tableColumn id="3" name="Stock" dataDxfId="55"/>
+    <tableColumn id="4" name="Commission" dataDxfId="54"/>
+    <tableColumn id="5" name="Price" dataDxfId="53"/>
+    <tableColumn id="6" name="Volume" dataDxfId="52"/>
+    <tableColumn id="7" name="NR" dataDxfId="51"/>
+    <tableColumn id="8" name="Average Price" dataDxfId="50" dataCellStyle="Percent"/>
+    <tableColumn id="11" name="T+" dataDxfId="49"/>
+    <tableColumn id="9" name="Result" dataDxfId="48"/>
+    <tableColumn id="10" name="Notes" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{48524ADB-C8FD-4308-A1BA-E2BCE4FD262B}" name="Table6" displayName="Table6" ref="A2:J59" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44" totalsRowBorderDxfId="43">
-  <autoFilter ref="A2:J59" xr:uid="{48524ADB-C8FD-4308-A1BA-E2BCE4FD262B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A2:J59" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+  <autoFilter ref="A2:J59"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{1D6780EB-F871-4180-A92C-D0F0D1B007D3}" name="Date" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{32FF7720-289E-4408-917C-7A831AAA254A}" name="Order" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{44368CD4-5C2F-4309-B8A2-975B12C38B1B}" name="Commission" dataDxfId="40">
+    <tableColumn id="1" name="Date" dataDxfId="42"/>
+    <tableColumn id="2" name="Order" dataDxfId="41"/>
+    <tableColumn id="3" name="Commission" dataDxfId="40">
       <calculatedColumnFormula>86.314*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8AFA76CD-5814-46C1-9F18-C64B52184E93}" name="Price" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{1319990D-EF9B-461D-9147-EAC1CB46493F}" name="Volume" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{D2B81404-D6B3-4DC3-9FD4-09D2EB09C3D1}" name="Vị thế đóng" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{B711B704-D395-40AC-8EFD-90F6604576A5}" name="Result" dataDxfId="36">
+    <tableColumn id="4" name="Price" dataDxfId="39"/>
+    <tableColumn id="5" name="Volume" dataDxfId="38"/>
+    <tableColumn id="6" name="Vị thế đóng" dataDxfId="37"/>
+    <tableColumn id="8" name="Result" dataDxfId="36">
       <calculatedColumnFormula>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BD5D59EC-BF64-454A-BBFB-151C1B4853F9}" name="H-L PS" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{1F29E53B-6220-489B-B701-40234C101838}" name="RR" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{6623CB91-8EA1-4AB5-A740-EAD61B5274C5}" name="Notes" dataDxfId="33"/>
+    <tableColumn id="9" name="H-L PS" dataDxfId="35"/>
+    <tableColumn id="10" name="RR" dataDxfId="34"/>
+    <tableColumn id="7" name="Notes" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2ED9513C-1748-45BA-8C2B-296169998D6C}" name="Table2" displayName="Table2" ref="B2:F4" totalsRowShown="0" headerRowDxfId="32">
-  <autoFilter ref="B2:F4" xr:uid="{7FA8D454-127A-43FD-9AC6-FD9CB8942CD3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:F4" totalsRowShown="0" headerRowDxfId="32">
+  <autoFilter ref="B2:F4"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{196E8946-9826-401D-8D85-F9C71E92D01E}" name="Sách"/>
-    <tableColumn id="2" xr3:uid="{27484900-F190-428B-BC01-BC29D7138F32}" name="Ngày mua" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{4BFC1984-0E3F-482B-B870-C4DDE9AEA56C}" name="NXB"/>
-    <tableColumn id="4" xr3:uid="{1FF0B5C9-6050-4E67-8963-C93936875EEF}" name="Ngày đọc xong lần 1"/>
-    <tableColumn id="5" xr3:uid="{5B0A22AE-96B7-48EE-88F3-0216E413D6D9}" name="Nhận xét"/>
+    <tableColumn id="1" name="Sách"/>
+    <tableColumn id="2" name="Ngày mua" dataDxfId="31"/>
+    <tableColumn id="3" name="NXB"/>
+    <tableColumn id="4" name="Ngày đọc xong lần 1"/>
+    <tableColumn id="5" name="Nhận xét"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{78D8D93A-1E7E-4639-B314-3CE4F679D400}" name="Table4" displayName="Table4" ref="A2:H21" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A2:H21" xr:uid="{9EF8C343-DB95-476E-8DC4-AAED225885C6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:H21" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A2:H21"/>
+  <sortState ref="A3:H21">
     <sortCondition ref="F2:F21"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7082F595-6344-4BE3-BD92-121B5F0DEF67}" name="STT" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{9E478B5A-0117-4D8A-9FFD-104A843C2548}" name="Tên NH" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{84D62623-65A5-4C11-B3CB-383A58D98CA7}" name="EPS" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{60224D81-BBB0-45C4-AA99-73E2C79FCF95}" name="PE" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{483373E4-B131-4ADC-9333-C03E1A316935}" name="GTSS" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{2DB9519C-77A5-4D05-A57E-902775AB07AA}" name="KLCP" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{0AE07D5D-2E2D-444B-97B1-00B00ABCC556}" name="Giá 27-4-21" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{30FB1221-F4AD-40B5-9080-8AAFBC2BE886}" name="Cổ đông Khác (%)" dataDxfId="18"/>
+    <tableColumn id="1" name="STT" dataDxfId="25"/>
+    <tableColumn id="2" name="Tên NH" dataDxfId="24"/>
+    <tableColumn id="3" name="EPS" dataDxfId="23"/>
+    <tableColumn id="4" name="PE" dataDxfId="22"/>
+    <tableColumn id="5" name="GTSS" dataDxfId="21"/>
+    <tableColumn id="6" name="KLCP" dataDxfId="20"/>
+    <tableColumn id="7" name="Giá 27-4-21" dataDxfId="19"/>
+    <tableColumn id="8" name="Cổ đông Khác (%)" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ACF14950-60EC-4534-8E59-6DDC4D93865D}" name="Table3" displayName="Table3" ref="A3:M32" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A3:M32" xr:uid="{A71581B6-ACC9-46F7-A5B4-60D1AA846C96}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A3:M32" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A3:M32"/>
+  <sortState ref="A4:M32">
     <sortCondition ref="A3:A32"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{44DDB0EA-5629-4F81-8961-F24BE4338836}" name="STT" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{60DD9777-4CA6-4AD5-938B-A1A43CD3489A}" name="Mã CK" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{19F42510-9543-49DB-9A8D-4F4E97238D02}" name="+/-" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{9163277F-939E-4142-8489-29F477702868}" name="EPS" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{3AB9A23A-A690-4664-9C04-DC5EB554B984}" name="PE" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{9820B426-4061-4CAC-A041-426DF5B234C5}" name="ROA" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{AF38F579-4593-4FA9-B44B-F021E6E95280}" name="ROE" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{8968142D-97F5-4854-8ABB-ECFAF7BA1484}" name="Giá SS" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{9524ED83-56A7-4E5B-9FC6-EDFADFC7EBD5}" name="P/B" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{DBE41C76-78BC-4E99-A235-A9D403EF7C1F}" name="Beta" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{9C08C753-7C28-4CCC-81F1-7B482FCEC32F}" name="Tổng KL" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{D4440DEF-8BFC-4F15-B5D0-88A720EE9EC1}" name="NN SởHữu" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{C93E18BF-6178-4590-A173-AD91F9B6E953}" name="Vốn TT (Tỷ)" dataDxfId="0"/>
+    <tableColumn id="1" name="STT" dataDxfId="12"/>
+    <tableColumn id="2" name="Mã CK" dataDxfId="11"/>
+    <tableColumn id="3" name="+/-" dataDxfId="10"/>
+    <tableColumn id="4" name="EPS" dataDxfId="9"/>
+    <tableColumn id="5" name="PE" dataDxfId="8"/>
+    <tableColumn id="6" name="ROA" dataDxfId="7"/>
+    <tableColumn id="7" name="ROE" dataDxfId="6"/>
+    <tableColumn id="8" name="Giá SS" dataDxfId="5"/>
+    <tableColumn id="9" name="P/B" dataDxfId="4"/>
+    <tableColumn id="10" name="Beta" dataDxfId="3"/>
+    <tableColumn id="11" name="Tổng KL" dataDxfId="2"/>
+    <tableColumn id="12" name="NN SởHữu" dataDxfId="1"/>
+    <tableColumn id="13" name="Vốn TT (Tỷ)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9494,89 +9480,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F0756C-0760-4C29-A677-BE7381842730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>852</v>
       </c>
@@ -9584,297 +9570,297 @@
         <v>887</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="41" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B74" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B82" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B83" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B84" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>58</v>
       </c>
@@ -9887,20 +9873,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884CAAA4-812A-4F42-BF21-CBAC550E39BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="84" t="s">
         <v>455</v>
       </c>
@@ -9926,7 +9912,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="82">
         <v>13</v>
       </c>
@@ -9952,7 +9938,7 @@
         <v>35.340000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="82">
         <v>14</v>
       </c>
@@ -9978,7 +9964,7 @@
         <v>85.14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="82">
         <v>9</v>
       </c>
@@ -10004,7 +9990,7 @@
         <v>50.92</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="82">
         <v>12</v>
       </c>
@@ -10030,7 +10016,7 @@
         <v>75.209999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="82">
         <v>5</v>
       </c>
@@ -10056,7 +10042,7 @@
         <v>71.709999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="82">
         <v>10</v>
       </c>
@@ -10082,7 +10068,7 @@
         <v>70.42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="82">
         <v>11</v>
       </c>
@@ -10108,7 +10094,7 @@
         <v>79.64</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="82">
         <v>8</v>
       </c>
@@ -10134,7 +10120,7 @@
         <v>85.66</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="82">
         <v>7</v>
       </c>
@@ -10160,7 +10146,7 @@
         <v>67.23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="82">
         <v>1</v>
       </c>
@@ -10186,7 +10172,7 @@
         <v>54.65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="82">
         <v>4</v>
       </c>
@@ -10212,7 +10198,7 @@
         <v>66.83</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="82">
         <v>2</v>
       </c>
@@ -10238,7 +10224,7 @@
         <v>7.65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="82">
         <v>6</v>
       </c>
@@ -10264,7 +10250,7 @@
         <v>12.45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="82">
         <v>3</v>
       </c>
@@ -10290,7 +10276,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="82">
         <v>17</v>
       </c>
@@ -10316,7 +10302,7 @@
         <v>88.25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="82">
         <v>18</v>
       </c>
@@ -10342,7 +10328,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="82">
         <v>19</v>
       </c>
@@ -10368,7 +10354,7 @@
         <v>84.21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="82">
         <v>16</v>
       </c>
@@ -10394,7 +10380,7 @@
         <v>42.95</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="87">
         <v>15</v>
       </c>
@@ -10429,27 +10415,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7D358C-7634-4374-9491-1CE5E3A36BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="94" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" style="94" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="84" t="s">
         <v>455</v>
       </c>
@@ -10490,7 +10476,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="82">
         <v>1</v>
       </c>
@@ -10531,7 +10517,7 @@
         <v>365.69499999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="82">
         <v>2</v>
       </c>
@@ -10572,7 +10558,7 @@
         <v>162.892</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="82">
         <v>3</v>
       </c>
@@ -10613,7 +10599,7 @@
         <v>147.81899999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="82">
         <v>4</v>
       </c>
@@ -10654,7 +10640,7 @@
         <v>138.08099999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="82">
         <v>5</v>
       </c>
@@ -10695,7 +10681,7 @@
         <v>130.208</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="82">
         <v>6</v>
       </c>
@@ -10736,7 +10722,7 @@
         <v>82.843000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="82">
         <v>7</v>
       </c>
@@ -10777,7 +10763,7 @@
         <v>71.98</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="82">
         <v>8</v>
       </c>
@@ -10818,7 +10804,7 @@
         <v>59.685000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="82">
         <v>9</v>
       </c>
@@ -10859,7 +10845,7 @@
         <v>47.582999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="82">
         <v>10</v>
       </c>
@@ -10900,7 +10886,7 @@
         <v>42.634</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="82">
         <v>11</v>
       </c>
@@ -10941,7 +10927,7 @@
         <v>42.609000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="82">
         <v>12</v>
       </c>
@@ -10982,7 +10968,7 @@
         <v>42.512</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="82">
         <v>13</v>
       </c>
@@ -11023,7 +11009,7 @@
         <v>32.308999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="82">
         <v>14</v>
       </c>
@@ -11064,7 +11050,7 @@
         <v>29.096</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="82">
         <v>15</v>
       </c>
@@ -11105,7 +11091,7 @@
         <v>22.245000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="82">
         <v>16</v>
       </c>
@@ -11146,7 +11132,7 @@
         <v>18.917000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="82">
         <v>17</v>
       </c>
@@ -11187,7 +11173,7 @@
         <v>9.2550000000000008</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="82">
         <v>18</v>
       </c>
@@ -11228,7 +11214,7 @@
         <v>8.3390000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="82">
         <v>19</v>
       </c>
@@ -11269,7 +11255,7 @@
         <v>7.7770000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="82">
         <v>20</v>
       </c>
@@ -11310,7 +11296,7 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="82">
         <v>21</v>
       </c>
@@ -11351,7 +11337,7 @@
         <v>5.5730000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="82">
         <v>22</v>
       </c>
@@ -11392,7 +11378,7 @@
         <v>3.093</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="82">
         <v>23</v>
       </c>
@@ -11433,7 +11419,7 @@
         <v>2.4940000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="82">
         <v>24</v>
       </c>
@@ -11474,7 +11460,7 @@
         <v>2.492</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="82">
         <v>25</v>
       </c>
@@ -11515,7 +11501,7 @@
         <v>2.4159999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="82">
         <v>26</v>
       </c>
@@ -11556,7 +11542,7 @@
         <v>2.1259999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="82">
         <v>27</v>
       </c>
@@ -11597,7 +11583,7 @@
         <v>1.774</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="82">
         <v>28</v>
       </c>
@@ -11638,7 +11624,7 @@
         <v>1.6419999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="87">
         <v>29</v>
       </c>
@@ -11689,35 +11675,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6293297E-B88A-45D7-A63B-B3F6BFB51BF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB284"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.54296875" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="18" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="72" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" style="72" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="158" t="s">
         <v>1120</v>
       </c>
@@ -11734,7 +11720,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
         <v>75</v>
       </c>
@@ -11791,7 +11777,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="42"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11832,7 +11818,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="43"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -11868,7 +11854,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="43"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -11905,7 +11891,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="43"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -11942,7 +11928,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="43"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -11975,7 +11961,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="44"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -12014,7 +12000,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="44">
         <v>44748</v>
       </c>
@@ -12058,7 +12044,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="43">
         <f ca="1">TODAY()</f>
         <v>44753</v>
@@ -12117,7 +12103,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="43">
         <v>44732</v>
       </c>
@@ -12174,7 +12160,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="43">
         <v>44748</v>
       </c>
@@ -12235,7 +12221,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="43">
         <v>44746</v>
       </c>
@@ -12283,7 +12269,7 @@
       <c r="AA13" s="31"/>
       <c r="AB13" s="31"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="43">
         <v>44743</v>
       </c>
@@ -12345,7 +12331,7 @@
       <c r="AA14" s="31"/>
       <c r="AB14" s="31"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="43">
         <v>44743</v>
       </c>
@@ -12399,7 +12385,7 @@
       <c r="AA15" s="31"/>
       <c r="AB15" s="31"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="43">
         <v>44741</v>
       </c>
@@ -12453,7 +12439,7 @@
       <c r="AA16" s="31"/>
       <c r="AB16" s="31"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="43">
         <v>44732</v>
       </c>
@@ -12506,7 +12492,7 @@
       <c r="AA17" s="31"/>
       <c r="AB17" s="31"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="43">
         <v>44735</v>
       </c>
@@ -12540,7 +12526,7 @@
       <c r="T18" s="135"/>
       <c r="U18" s="31"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="43">
         <v>44734</v>
       </c>
@@ -12568,7 +12554,7 @@
       <c r="S19" s="133"/>
       <c r="T19" s="135"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="43">
         <v>44714</v>
       </c>
@@ -12614,7 +12600,7 @@
       <c r="S20" s="133"/>
       <c r="T20" s="31"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="43">
         <v>44708</v>
       </c>
@@ -12655,7 +12641,7 @@
       <c r="S21" s="133"/>
       <c r="T21" s="31"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="43">
         <v>44705</v>
       </c>
@@ -12702,7 +12688,7 @@
       <c r="S22" s="133"/>
       <c r="T22" s="31"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" s="43">
         <v>44699</v>
       </c>
@@ -12751,7 +12737,7 @@
       <c r="S23" s="133"/>
       <c r="T23" s="31"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" s="43">
         <v>44692</v>
       </c>
@@ -12801,7 +12787,7 @@
       <c r="S24" s="133"/>
       <c r="T24" s="31"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" s="43">
         <v>44690</v>
       </c>
@@ -12846,7 +12832,7 @@
       <c r="S25" s="133"/>
       <c r="T25" s="31"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" s="43">
         <v>44686</v>
       </c>
@@ -12890,7 +12876,7 @@
       <c r="S26" s="133"/>
       <c r="T26" s="31"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" s="43">
         <v>44691</v>
       </c>
@@ -12940,7 +12926,7 @@
       <c r="S27" s="133"/>
       <c r="T27" s="31"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" s="43">
         <v>44686</v>
       </c>
@@ -12988,7 +12974,7 @@
       <c r="S28" s="133"/>
       <c r="T28" s="31"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" s="43">
         <v>44685</v>
       </c>
@@ -13031,7 +13017,7 @@
       <c r="S29" s="133"/>
       <c r="T29" s="31"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="43">
         <v>44680</v>
       </c>
@@ -13075,7 +13061,7 @@
       <c r="S30" s="133"/>
       <c r="T30" s="31"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" s="43">
         <v>44679</v>
       </c>
@@ -13117,7 +13103,7 @@
       <c r="S31" s="133"/>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" s="43">
         <v>44678</v>
       </c>
@@ -13159,7 +13145,7 @@
       <c r="S32" s="133"/>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="43">
         <v>44677</v>
       </c>
@@ -13201,7 +13187,7 @@
       <c r="S33" s="133"/>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="43">
         <v>44677</v>
       </c>
@@ -13244,7 +13230,7 @@
       <c r="S34" s="133"/>
       <c r="T34" s="31"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="43">
         <v>44677</v>
       </c>
@@ -13287,7 +13273,7 @@
       <c r="S35" s="133"/>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="43">
         <v>44676</v>
       </c>
@@ -13329,7 +13315,7 @@
       <c r="P36" s="31"/>
       <c r="S36" s="133"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="43"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -13359,7 +13345,7 @@
       <c r="P37" s="31"/>
       <c r="S37" s="133"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="43">
         <v>44672</v>
       </c>
@@ -13409,7 +13395,7 @@
       <c r="P38" s="31"/>
       <c r="S38" s="133"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="43">
         <v>44648</v>
       </c>
@@ -13456,7 +13442,7 @@
       <c r="P39" s="31"/>
       <c r="S39" s="133"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="43">
         <v>44657</v>
       </c>
@@ -13505,7 +13491,7 @@
       <c r="P40" s="31"/>
       <c r="S40" s="133"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="43">
         <v>44657</v>
       </c>
@@ -13551,7 +13537,7 @@
       <c r="P41" s="31"/>
       <c r="S41" s="133"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="43">
         <v>44657</v>
       </c>
@@ -13600,7 +13586,7 @@
       <c r="P42" s="31"/>
       <c r="S42" s="133"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="43">
         <v>44657</v>
       </c>
@@ -13647,7 +13633,7 @@
       <c r="P43" s="31"/>
       <c r="S43" s="133"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="43">
         <v>44656</v>
       </c>
@@ -13697,7 +13683,7 @@
       <c r="P44" s="31"/>
       <c r="S44" s="133"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="43">
         <v>44655</v>
       </c>
@@ -13744,7 +13730,7 @@
       <c r="P45" s="31"/>
       <c r="S45" s="133"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="43">
         <v>44657</v>
       </c>
@@ -13793,7 +13779,7 @@
       <c r="P46" s="31"/>
       <c r="S46" s="133"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="43">
         <v>44652</v>
       </c>
@@ -13839,7 +13825,7 @@
       <c r="P47" s="31"/>
       <c r="S47" s="133"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="43">
         <v>44656</v>
       </c>
@@ -13888,7 +13874,7 @@
       <c r="P48" s="31"/>
       <c r="S48" s="133"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="43">
         <v>44650</v>
       </c>
@@ -13932,7 +13918,7 @@
       <c r="P49" s="31"/>
       <c r="S49" s="133"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="43">
         <v>44655</v>
       </c>
@@ -13981,7 +13967,7 @@
       <c r="P50" s="31"/>
       <c r="S50" s="133"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="43">
         <v>44650</v>
       </c>
@@ -14025,7 +14011,7 @@
       <c r="P51" s="31"/>
       <c r="S51" s="133"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="43">
         <v>44655</v>
       </c>
@@ -14074,7 +14060,7 @@
       <c r="P52" s="31"/>
       <c r="S52" s="133"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="43">
         <v>44644</v>
       </c>
@@ -14120,7 +14106,7 @@
       <c r="P53" s="31"/>
       <c r="S53" s="139"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="43">
         <v>44657</v>
       </c>
@@ -14170,7 +14156,7 @@
       <c r="P54" s="31"/>
       <c r="S54" s="138"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="43">
         <v>44648</v>
       </c>
@@ -14217,7 +14203,7 @@
       <c r="P55" s="31"/>
       <c r="S55" s="138"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="43">
         <v>44653</v>
       </c>
@@ -14265,7 +14251,7 @@
       <c r="Q56" s="134"/>
       <c r="S56" s="133"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="43">
         <v>44648</v>
       </c>
@@ -14307,7 +14293,7 @@
       </c>
       <c r="S57" s="133"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="43">
         <v>44645</v>
       </c>
@@ -14338,7 +14324,7 @@
       </c>
       <c r="S58" s="133"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="43">
         <v>44649</v>
       </c>
@@ -14387,7 +14373,7 @@
       <c r="P59" s="135"/>
       <c r="S59" s="133"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="43">
         <v>44644</v>
       </c>
@@ -14433,7 +14419,7 @@
       <c r="P60" s="135"/>
       <c r="S60" s="133"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="43">
         <v>44649</v>
       </c>
@@ -14482,7 +14468,7 @@
       <c r="P61" s="135"/>
       <c r="S61" s="133"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="43">
         <v>44644</v>
       </c>
@@ -14528,7 +14514,7 @@
       <c r="P62" s="135"/>
       <c r="S62" s="133"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="43">
         <v>44648</v>
       </c>
@@ -14576,7 +14562,7 @@
       <c r="P63" s="141"/>
       <c r="S63" s="133"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="43">
         <v>44643</v>
       </c>
@@ -14620,7 +14606,7 @@
       <c r="P64" s="135"/>
       <c r="S64" s="133"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="43">
         <v>44644</v>
       </c>
@@ -14669,7 +14655,7 @@
       <c r="P65" s="135"/>
       <c r="S65" s="133"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="43">
         <v>44641</v>
       </c>
@@ -14715,7 +14701,7 @@
       <c r="P66" s="135"/>
       <c r="S66" s="133"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="43">
         <v>44648</v>
       </c>
@@ -14762,7 +14748,7 @@
       <c r="P67" s="135"/>
       <c r="S67" s="133"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="43">
         <v>44637</v>
       </c>
@@ -14810,7 +14796,7 @@
       <c r="P68" s="135"/>
       <c r="S68" s="133"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="43">
         <v>44636</v>
       </c>
@@ -14850,7 +14836,7 @@
       <c r="P69" s="135"/>
       <c r="S69" s="133"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="43">
         <v>44635</v>
       </c>
@@ -14890,7 +14876,7 @@
       <c r="P70" s="135"/>
       <c r="S70" s="133"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="43">
         <v>44635</v>
       </c>
@@ -14939,7 +14925,7 @@
       <c r="P71" s="135"/>
       <c r="S71" s="133"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="43">
         <v>44630</v>
       </c>
@@ -14984,7 +14970,7 @@
       <c r="P72" s="135"/>
       <c r="S72" s="2"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="43">
         <v>44628</v>
       </c>
@@ -15029,7 +15015,7 @@
       <c r="P73" s="31"/>
       <c r="S73" s="2"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="43">
         <v>44623</v>
       </c>
@@ -15070,7 +15056,7 @@
       <c r="P74" s="31"/>
       <c r="S74" s="2"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="43">
         <v>44628</v>
       </c>
@@ -15120,7 +15106,7 @@
       <c r="P75" s="31"/>
       <c r="S75" s="2"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="43">
         <v>44622</v>
       </c>
@@ -15166,7 +15152,7 @@
       <c r="P76" s="31"/>
       <c r="S76" s="2"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="43">
         <v>44622</v>
       </c>
@@ -15215,7 +15201,7 @@
       <c r="P77" s="31"/>
       <c r="S77" s="2"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="43">
         <v>44617</v>
       </c>
@@ -15262,7 +15248,7 @@
       <c r="P78" s="31"/>
       <c r="S78" s="2"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="43">
         <v>44616</v>
       </c>
@@ -15293,7 +15279,7 @@
       <c r="P79" s="31"/>
       <c r="S79" s="2"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="43">
         <v>44608</v>
       </c>
@@ -15324,7 +15310,7 @@
       <c r="P80" s="31"/>
       <c r="S80" s="2"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="43">
         <v>44607</v>
       </c>
@@ -15358,7 +15344,7 @@
       <c r="P81" s="31"/>
       <c r="S81" s="2"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="43">
         <v>44554</v>
       </c>
@@ -15389,7 +15375,7 @@
       <c r="P82" s="31"/>
       <c r="S82" s="2"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="43">
         <v>44530</v>
       </c>
@@ -15420,7 +15406,7 @@
       <c r="P83" s="31"/>
       <c r="S83" s="2"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="43">
         <v>44530</v>
       </c>
@@ -15470,7 +15456,7 @@
       <c r="P84" s="31"/>
       <c r="S84" s="2"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="43">
         <v>44525</v>
       </c>
@@ -15518,7 +15504,7 @@
       <c r="P85" s="31"/>
       <c r="S85" s="2"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="123">
         <v>44616</v>
       </c>
@@ -15568,7 +15554,7 @@
       <c r="P86" s="31"/>
       <c r="S86" s="2"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="123">
         <v>44525</v>
       </c>
@@ -15617,7 +15603,7 @@
       <c r="P87" s="31"/>
       <c r="S87" s="2"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="43">
         <v>44523</v>
       </c>
@@ -15664,7 +15650,7 @@
       <c r="P88" s="31"/>
       <c r="S88" s="2"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="43">
         <v>44522</v>
       </c>
@@ -15713,7 +15699,7 @@
       <c r="P89" s="31"/>
       <c r="S89" s="2"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="43">
         <v>44508</v>
       </c>
@@ -15760,7 +15746,7 @@
       <c r="P90" s="31"/>
       <c r="S90" s="2"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="43">
         <v>44502</v>
       </c>
@@ -15810,7 +15796,7 @@
       <c r="P91" s="31"/>
       <c r="S91" s="2"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="43">
         <v>44496</v>
       </c>
@@ -15856,7 +15842,7 @@
       <c r="P92" s="31"/>
       <c r="S92" s="2"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="43">
         <v>44488</v>
       </c>
@@ -15899,7 +15885,7 @@
       <c r="P93" s="31"/>
       <c r="S93" s="2"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="43">
         <v>44483</v>
       </c>
@@ -15948,7 +15934,7 @@
       <c r="P94" s="31"/>
       <c r="S94" s="2"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="43">
         <v>44480</v>
       </c>
@@ -15989,7 +15975,7 @@
       <c r="P95" s="31"/>
       <c r="S95" s="2"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="43">
         <v>44482</v>
       </c>
@@ -16038,7 +16024,7 @@
       <c r="P96" s="31"/>
       <c r="S96" s="2"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="43">
         <v>44477</v>
       </c>
@@ -16079,7 +16065,7 @@
       <c r="P97" s="31"/>
       <c r="S97" s="2"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="43">
         <v>44481</v>
       </c>
@@ -16128,7 +16114,7 @@
       <c r="P98" s="31"/>
       <c r="S98" s="2"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="43">
         <v>44476</v>
       </c>
@@ -16169,7 +16155,7 @@
       <c r="P99" s="31"/>
       <c r="S99" s="2"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="43">
         <v>44481</v>
       </c>
@@ -16218,7 +16204,7 @@
       <c r="P100" s="31"/>
       <c r="S100" s="2"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="43">
         <v>44476</v>
       </c>
@@ -16264,7 +16250,7 @@
       <c r="P101" s="31"/>
       <c r="S101" s="2"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="43">
         <v>44468</v>
       </c>
@@ -16313,7 +16299,7 @@
       <c r="P102" s="31"/>
       <c r="S102" s="2"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="43">
         <v>44462</v>
       </c>
@@ -16354,7 +16340,7 @@
       <c r="P103" s="31"/>
       <c r="S103" s="2"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="43">
         <v>44468</v>
       </c>
@@ -16403,7 +16389,7 @@
       <c r="P104" s="31"/>
       <c r="S104" s="2"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="43">
         <v>44462</v>
       </c>
@@ -16447,7 +16433,7 @@
       <c r="P105" s="31"/>
       <c r="S105" s="2"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="43">
         <v>44460</v>
       </c>
@@ -16496,7 +16482,7 @@
       <c r="P106" s="31"/>
       <c r="S106" s="2"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="43">
         <v>44453</v>
       </c>
@@ -16540,7 +16526,7 @@
       <c r="P107" s="31"/>
       <c r="S107" s="2"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="43">
         <v>44452</v>
       </c>
@@ -16589,7 +16575,7 @@
       <c r="P108" s="31"/>
       <c r="S108" s="2"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="43">
         <v>44438</v>
       </c>
@@ -16635,7 +16621,7 @@
       <c r="P109" s="31"/>
       <c r="S109" s="2"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="43">
         <v>44426</v>
       </c>
@@ -16680,7 +16666,7 @@
       <c r="P110" s="31"/>
       <c r="S110" s="2"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="43">
         <v>44420</v>
       </c>
@@ -16730,7 +16716,7 @@
       <c r="P111" s="31"/>
       <c r="S111" s="2"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="43">
         <v>44417</v>
       </c>
@@ -16776,7 +16762,7 @@
       <c r="P112" s="31"/>
       <c r="S112" s="2"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="43">
         <f>A114+3</f>
         <v>44407</v>
@@ -16826,7 +16812,7 @@
       <c r="P113" s="31"/>
       <c r="S113" s="2"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="43">
         <v>44404</v>
       </c>
@@ -16869,7 +16855,7 @@
       <c r="P114" s="31"/>
       <c r="S114" s="2"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="43">
         <v>44397</v>
       </c>
@@ -16919,7 +16905,7 @@
       <c r="P115" s="31"/>
       <c r="S115" s="2"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="43">
         <v>44391</v>
       </c>
@@ -16965,7 +16951,7 @@
       <c r="P116" s="31"/>
       <c r="S116" s="2"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="43">
         <v>44391</v>
       </c>
@@ -17014,7 +17000,7 @@
       <c r="P117" s="31"/>
       <c r="S117" s="2"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="43">
         <v>44384</v>
       </c>
@@ -17057,7 +17043,7 @@
       <c r="P118" s="31"/>
       <c r="S118" s="2"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="43">
         <v>44379</v>
       </c>
@@ -17106,7 +17092,7 @@
       <c r="P119" s="31"/>
       <c r="S119" s="2"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="43">
         <v>44375</v>
       </c>
@@ -17152,7 +17138,7 @@
       <c r="P120" s="31"/>
       <c r="S120" s="2"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="43">
         <v>44370</v>
       </c>
@@ -17198,7 +17184,7 @@
       <c r="P121" s="31"/>
       <c r="S121" s="2"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="43">
         <v>44369</v>
       </c>
@@ -17234,7 +17220,7 @@
       <c r="P122" s="31"/>
       <c r="S122" s="2"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="43">
         <v>44397</v>
       </c>
@@ -17281,7 +17267,7 @@
       <c r="P123" s="31"/>
       <c r="S123" s="2"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="43">
         <v>44363</v>
       </c>
@@ -17325,7 +17311,7 @@
       <c r="P124" s="31"/>
       <c r="S124" s="2"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="43">
         <v>44368</v>
       </c>
@@ -17375,7 +17361,7 @@
       <c r="P125" s="31"/>
       <c r="S125" s="2"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="43">
         <v>44363</v>
       </c>
@@ -17419,7 +17405,7 @@
       <c r="P126" s="31"/>
       <c r="S126" s="2"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="43">
         <v>44425</v>
       </c>
@@ -17469,7 +17455,7 @@
       <c r="P127" s="31"/>
       <c r="S127" s="2"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="43">
         <v>44356</v>
       </c>
@@ -17513,7 +17499,7 @@
       <c r="P128" s="31"/>
       <c r="S128" s="2"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="43">
         <v>44362</v>
       </c>
@@ -17563,7 +17549,7 @@
       <c r="P129" s="31"/>
       <c r="S129" s="2"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="43">
         <v>44356</v>
       </c>
@@ -17610,7 +17596,7 @@
       <c r="P130" s="31"/>
       <c r="S130" s="2"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="43">
         <v>44349</v>
       </c>
@@ -17662,7 +17648,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" s="43">
         <v>44349</v>
       </c>
@@ -17702,7 +17688,7 @@
       <c r="P132" s="31"/>
       <c r="S132" s="2"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" s="43">
         <v>44347</v>
       </c>
@@ -17755,7 +17741,7 @@
       <c r="P133" s="31"/>
       <c r="S133" s="2"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" s="43">
         <v>44315</v>
       </c>
@@ -17803,7 +17789,7 @@
       <c r="P134" s="31"/>
       <c r="S134" s="2"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" s="43">
         <v>44312</v>
       </c>
@@ -17852,7 +17838,7 @@
       <c r="P135" s="31"/>
       <c r="S135" s="2"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136" s="43">
         <v>44271</v>
       </c>
@@ -17895,7 +17881,7 @@
       <c r="P136" s="31"/>
       <c r="S136" s="2"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" s="43">
         <v>44266</v>
       </c>
@@ -17928,7 +17914,7 @@
       <c r="P137" s="31"/>
       <c r="S137" s="2"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" s="43">
         <v>44270</v>
       </c>
@@ -17981,7 +17967,7 @@
       <c r="P138" s="31"/>
       <c r="S138" s="2"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" s="43">
         <v>44260</v>
       </c>
@@ -18025,7 +18011,7 @@
       <c r="P139" s="31"/>
       <c r="S139" s="2"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" s="43">
         <v>44256</v>
       </c>
@@ -18056,7 +18042,7 @@
       <c r="P140" s="31"/>
       <c r="S140" s="2"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" s="43">
         <v>44257</v>
       </c>
@@ -18103,7 +18089,7 @@
       <c r="P141" s="31"/>
       <c r="S141" s="2"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" s="43">
         <v>44252</v>
       </c>
@@ -18146,7 +18132,7 @@
       <c r="P142" s="31"/>
       <c r="S142" s="2"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143" s="43">
         <v>44257</v>
       </c>
@@ -18196,7 +18182,7 @@
       <c r="P143" s="31"/>
       <c r="S143" s="2"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A144" s="43">
         <v>44252</v>
       </c>
@@ -18237,7 +18223,7 @@
       <c r="P144" s="31"/>
       <c r="S144" s="2"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" s="43">
         <v>44257</v>
       </c>
@@ -18285,7 +18271,7 @@
       <c r="P145" s="31"/>
       <c r="S145" s="2"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" s="43">
         <v>44252</v>
       </c>
@@ -18328,7 +18314,7 @@
       <c r="P146" s="31"/>
       <c r="S146" s="2"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" s="43">
         <v>44245</v>
       </c>
@@ -18377,7 +18363,7 @@
       <c r="P147" s="31"/>
       <c r="S147" s="2"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148" s="43">
         <v>44235</v>
       </c>
@@ -18419,7 +18405,7 @@
       <c r="P148" s="31"/>
       <c r="S148" s="2"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" s="43">
         <v>44232</v>
       </c>
@@ -18470,7 +18456,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" s="43">
         <v>44229</v>
       </c>
@@ -18508,7 +18494,7 @@
       <c r="P150" s="31"/>
       <c r="S150" s="2"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151" s="43">
         <v>44232</v>
       </c>
@@ -18557,7 +18543,7 @@
       <c r="P151" s="31"/>
       <c r="S151" s="2"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" s="43">
         <v>44229</v>
       </c>
@@ -18597,7 +18583,7 @@
       <c r="P152" s="31"/>
       <c r="S152" s="2"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153" s="43">
         <v>44225</v>
       </c>
@@ -18646,7 +18632,7 @@
       <c r="P153" s="31"/>
       <c r="S153" s="2"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" s="43">
         <v>44228</v>
       </c>
@@ -18693,7 +18679,7 @@
       <c r="P154" s="31"/>
       <c r="S154" s="2"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155" s="43">
         <v>44223</v>
       </c>
@@ -18737,7 +18723,7 @@
       </c>
       <c r="S155" s="2"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A156" s="43">
         <v>44228</v>
       </c>
@@ -18789,7 +18775,7 @@
       </c>
       <c r="S156" s="2"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A157" s="43">
         <v>44223</v>
       </c>
@@ -18836,7 +18822,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158" s="43">
         <v>44223</v>
       </c>
@@ -18898,7 +18884,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A159" s="43">
         <v>44224</v>
       </c>
@@ -18949,7 +18935,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A160" s="43">
         <v>44218</v>
       </c>
@@ -18997,7 +18983,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A161" s="43">
         <v>44218</v>
       </c>
@@ -19039,7 +19025,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A162" s="43">
         <v>44218</v>
       </c>
@@ -19081,7 +19067,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A163" s="43">
         <v>44215</v>
       </c>
@@ -19129,7 +19115,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A164" s="43">
         <v>44215</v>
       </c>
@@ -19180,7 +19166,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A165" s="43">
         <v>44210</v>
       </c>
@@ -19222,7 +19208,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A166" s="43">
         <v>44210</v>
       </c>
@@ -19262,7 +19248,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A167" s="43">
         <v>44209</v>
       </c>
@@ -19313,7 +19299,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A168" s="43">
         <v>44200</v>
       </c>
@@ -19352,7 +19338,7 @@
       <c r="O168" s="34"/>
       <c r="P168" s="31"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A169" s="43">
         <v>44200</v>
       </c>
@@ -19391,7 +19377,7 @@
       <c r="O169" s="34"/>
       <c r="P169" s="31"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A170" s="43">
         <v>44200</v>
       </c>
@@ -19423,7 +19409,7 @@
       <c r="O170" s="34"/>
       <c r="P170" s="31"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A171" s="43">
         <v>44195</v>
       </c>
@@ -19471,7 +19457,7 @@
       <c r="O171" s="34"/>
       <c r="P171" s="31"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A172" s="43">
         <v>44190</v>
       </c>
@@ -19510,7 +19496,7 @@
       <c r="O172" s="34"/>
       <c r="P172" s="31"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A173" s="43">
         <v>44190</v>
       </c>
@@ -19549,7 +19535,7 @@
       <c r="O173" s="34"/>
       <c r="P173" s="31"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A174" s="43">
         <v>44190</v>
       </c>
@@ -19597,7 +19583,7 @@
       <c r="O174" s="34"/>
       <c r="P174" s="31"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A175" s="43">
         <v>44187</v>
       </c>
@@ -19636,7 +19622,7 @@
       <c r="O175" s="34"/>
       <c r="P175" s="31"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A176" s="43">
         <v>44186</v>
       </c>
@@ -19675,7 +19661,7 @@
       <c r="O176" s="34"/>
       <c r="P176" s="31"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" s="43">
         <v>44186</v>
       </c>
@@ -19714,7 +19700,7 @@
       <c r="O177" s="34"/>
       <c r="P177" s="31"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" s="43">
         <v>44186</v>
       </c>
@@ -19746,7 +19732,7 @@
       <c r="O178" s="34"/>
       <c r="P178" s="31"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" s="43">
         <v>44183</v>
       </c>
@@ -19776,7 +19762,7 @@
       <c r="O179" s="34"/>
       <c r="P179" s="31"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" s="43">
         <v>44183</v>
       </c>
@@ -19815,7 +19801,7 @@
       <c r="O180" s="34"/>
       <c r="P180" s="31"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" s="43">
         <v>44181</v>
       </c>
@@ -19854,7 +19840,7 @@
       <c r="O181" s="34"/>
       <c r="P181" s="31"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" s="43">
         <v>44180</v>
       </c>
@@ -19891,7 +19877,7 @@
       <c r="O182" s="34"/>
       <c r="P182" s="31"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" s="43">
         <v>44180</v>
       </c>
@@ -19932,7 +19918,7 @@
       <c r="O183" s="34"/>
       <c r="P183" s="31"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" s="43">
         <v>44172</v>
       </c>
@@ -19973,7 +19959,7 @@
       <c r="O184" s="34"/>
       <c r="P184" s="31"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" s="43">
         <v>44172</v>
       </c>
@@ -20003,7 +19989,7 @@
       <c r="O185" s="34"/>
       <c r="P185" s="31"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" s="43">
         <v>44168</v>
       </c>
@@ -20040,7 +20026,7 @@
       <c r="O186" s="34"/>
       <c r="P186" s="31"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" s="43">
         <v>44167</v>
       </c>
@@ -20070,7 +20056,7 @@
       <c r="O187" s="34"/>
       <c r="P187" s="31"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" s="43">
         <v>44166</v>
       </c>
@@ -20107,7 +20093,7 @@
       <c r="O188" s="34"/>
       <c r="P188" s="31"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" s="43">
         <v>44159</v>
       </c>
@@ -20149,7 +20135,7 @@
       <c r="O189" s="34"/>
       <c r="P189" s="31"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" s="43">
         <v>44158</v>
       </c>
@@ -20181,7 +20167,7 @@
       <c r="O190" s="34"/>
       <c r="P190" s="31"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" s="42"/>
       <c r="B191" s="14" t="s">
         <v>90</v>
@@ -20216,7 +20202,7 @@
       <c r="O191" s="34"/>
       <c r="P191" s="31"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" s="43">
         <v>44126</v>
       </c>
@@ -20253,7 +20239,7 @@
       <c r="O192" s="34"/>
       <c r="P192" s="31"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A193" s="43">
         <v>44126</v>
       </c>
@@ -20283,7 +20269,7 @@
       <c r="O193" s="34"/>
       <c r="P193" s="31"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A194" s="43">
         <v>44119</v>
       </c>
@@ -20324,7 +20310,7 @@
       <c r="O194" s="34"/>
       <c r="P194" s="31"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A195" s="43">
         <v>44103</v>
       </c>
@@ -20356,7 +20342,7 @@
       <c r="O195" s="34"/>
       <c r="P195" s="31"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A196" s="43">
         <v>44077</v>
       </c>
@@ -20397,7 +20383,7 @@
       <c r="O196" s="34"/>
       <c r="P196" s="31"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A197" s="43">
         <v>44077</v>
       </c>
@@ -20434,7 +20420,7 @@
       <c r="O197" s="34"/>
       <c r="P197" s="31"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A198" s="43">
         <v>44071</v>
       </c>
@@ -20473,7 +20459,7 @@
       <c r="O198" s="34"/>
       <c r="P198" s="31"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A199" s="43">
         <v>44071</v>
       </c>
@@ -20514,7 +20500,7 @@
       <c r="O199" s="34"/>
       <c r="P199" s="31"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A200" s="43">
         <v>44071</v>
       </c>
@@ -20551,7 +20537,7 @@
       <c r="O200" s="34"/>
       <c r="P200" s="31"/>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A201" s="43">
         <v>44071</v>
       </c>
@@ -20590,7 +20576,7 @@
       <c r="O201" s="34"/>
       <c r="P201" s="31"/>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A202" s="43">
         <v>44069</v>
       </c>
@@ -20629,7 +20615,7 @@
       <c r="O202" s="34"/>
       <c r="P202" s="31"/>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A203" s="43">
         <v>44069</v>
       </c>
@@ -20668,7 +20654,7 @@
       <c r="O203" s="34"/>
       <c r="P203" s="31"/>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A204" s="43">
         <v>44069</v>
       </c>
@@ -20709,7 +20695,7 @@
       <c r="O204" s="34"/>
       <c r="P204" s="31"/>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A205" s="43">
         <v>44068</v>
       </c>
@@ -20748,7 +20734,7 @@
       <c r="O205" s="34"/>
       <c r="P205" s="31"/>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A206" s="43">
         <v>44068</v>
       </c>
@@ -20788,7 +20774,7 @@
       <c r="P206" s="31"/>
       <c r="T206" s="31"/>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A207" s="43">
         <v>44067</v>
       </c>
@@ -20828,7 +20814,7 @@
       <c r="P207" s="31"/>
       <c r="T207" s="31"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A208" s="43">
         <v>44067</v>
       </c>
@@ -20869,7 +20855,7 @@
       <c r="O208" s="34"/>
       <c r="P208" s="31"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" s="43">
         <v>44057</v>
       </c>
@@ -20908,7 +20894,7 @@
       <c r="O209" s="34"/>
       <c r="P209" s="31"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" s="43">
         <v>44055</v>
       </c>
@@ -20947,7 +20933,7 @@
       <c r="O210" s="34"/>
       <c r="P210" s="31"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" s="43">
         <v>44055</v>
       </c>
@@ -20977,7 +20963,7 @@
       <c r="O211" s="34"/>
       <c r="P211" s="31"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" s="43">
         <v>44053</v>
       </c>
@@ -21018,7 +21004,7 @@
       <c r="O212" s="34"/>
       <c r="P212" s="31"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" s="43">
         <v>44050</v>
       </c>
@@ -21060,7 +21046,7 @@
       <c r="O213" s="34"/>
       <c r="P213" s="31"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" s="43">
         <v>44050</v>
       </c>
@@ -21090,7 +21076,7 @@
       <c r="O214" s="34"/>
       <c r="P214" s="31"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" s="43">
         <v>44047</v>
       </c>
@@ -21131,7 +21117,7 @@
       <c r="O215" s="34"/>
       <c r="P215" s="31"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" s="43">
         <v>44047</v>
       </c>
@@ -21170,7 +21156,7 @@
       <c r="O216" s="34"/>
       <c r="P216" s="31"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" s="43">
         <v>44047</v>
       </c>
@@ -21200,7 +21186,7 @@
       <c r="O217" s="34"/>
       <c r="P217" s="31"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" s="43">
         <v>44042</v>
       </c>
@@ -21240,7 +21226,7 @@
       <c r="O218" s="34"/>
       <c r="P218" s="31"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" s="43">
         <v>44039</v>
       </c>
@@ -21279,7 +21265,7 @@
       <c r="O219" s="34"/>
       <c r="P219" s="31"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" s="43">
         <v>44036</v>
       </c>
@@ -21318,7 +21304,7 @@
       <c r="O220" s="34"/>
       <c r="P220" s="31"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" s="43">
         <v>44036</v>
       </c>
@@ -21357,7 +21343,7 @@
       <c r="O221" s="34"/>
       <c r="P221" s="31"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" s="43">
         <v>44036</v>
       </c>
@@ -21394,7 +21380,7 @@
       <c r="O222" s="34"/>
       <c r="P222" s="31"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" s="43">
         <v>44033</v>
       </c>
@@ -21431,7 +21417,7 @@
       <c r="O223" s="34"/>
       <c r="P223" s="31"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" s="43">
         <v>44033</v>
       </c>
@@ -21468,7 +21454,7 @@
       </c>
       <c r="P224" s="31"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A225" s="43">
         <v>44033</v>
       </c>
@@ -21507,7 +21493,7 @@
       </c>
       <c r="P225" s="31"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A226" s="43">
         <v>44026</v>
       </c>
@@ -21546,7 +21532,7 @@
       </c>
       <c r="P226" s="31"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A227" s="43">
         <v>44008</v>
       </c>
@@ -21585,7 +21571,7 @@
       </c>
       <c r="P227" s="31"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A228" s="43">
         <v>44004</v>
       </c>
@@ -21626,7 +21612,7 @@
       </c>
       <c r="P228" s="31"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A229" s="43">
         <v>44004</v>
       </c>
@@ -21659,7 +21645,7 @@
       </c>
       <c r="P229" s="31"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A230" s="43">
         <v>43978</v>
       </c>
@@ -21691,7 +21677,7 @@
       </c>
       <c r="P230" s="31"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A231" s="43">
         <v>43973</v>
       </c>
@@ -21723,7 +21709,7 @@
       </c>
       <c r="P231" s="31"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A232" s="43">
         <v>43965</v>
       </c>
@@ -21762,7 +21748,7 @@
       </c>
       <c r="P232" s="31"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A233" s="43">
         <v>43965</v>
       </c>
@@ -21801,7 +21787,7 @@
       </c>
       <c r="P233" s="31"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A234" s="43">
         <v>43956</v>
       </c>
@@ -21829,7 +21815,7 @@
       </c>
       <c r="P234" s="31"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A235" s="43">
         <v>43955</v>
       </c>
@@ -21857,7 +21843,7 @@
       </c>
       <c r="P235" s="31"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A236" s="43">
         <v>43949</v>
       </c>
@@ -21896,7 +21882,7 @@
       </c>
       <c r="P236" s="31"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A237" s="43">
         <v>43941</v>
       </c>
@@ -21935,7 +21921,7 @@
       </c>
       <c r="P237" s="31"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A238" s="43">
         <v>43938</v>
       </c>
@@ -21963,7 +21949,7 @@
       </c>
       <c r="P238" s="31"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A239" s="43">
         <v>43928</v>
       </c>
@@ -22006,7 +21992,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A240" s="43">
         <v>43922</v>
       </c>
@@ -22051,7 +22037,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A241" s="43">
         <v>43921</v>
       </c>
@@ -22091,7 +22077,7 @@
       </c>
       <c r="P241" s="31"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A242" s="43">
         <v>43920</v>
       </c>
@@ -22132,7 +22118,7 @@
       </c>
       <c r="S242" s="133"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A243" s="43">
         <v>43915</v>
       </c>
@@ -22160,7 +22146,7 @@
       </c>
       <c r="S243" s="133"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A244" s="43">
         <v>43914</v>
       </c>
@@ -22181,7 +22167,7 @@
       </c>
       <c r="S244" s="2"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A245" s="43">
         <v>43910</v>
       </c>
@@ -22208,7 +22194,7 @@
       <c r="P245" s="31"/>
       <c r="S245" s="2"/>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A246" s="43">
         <v>43909</v>
       </c>
@@ -22235,7 +22221,7 @@
       <c r="P246" s="31"/>
       <c r="S246" s="2"/>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A247" s="43">
         <v>43907</v>
       </c>
@@ -22262,7 +22248,7 @@
       <c r="P247" s="31"/>
       <c r="S247" s="2"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A248" s="43">
         <v>43900</v>
       </c>
@@ -22297,7 +22283,7 @@
       <c r="P248" s="31"/>
       <c r="S248" s="2"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A249" s="43">
         <v>43895</v>
       </c>
@@ -22340,7 +22326,7 @@
       <c r="P249" s="31"/>
       <c r="S249" s="2"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A250" s="43">
         <v>43881</v>
       </c>
@@ -22373,7 +22359,7 @@
       <c r="P250" s="31"/>
       <c r="S250" s="2"/>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A251" s="43">
         <v>43878</v>
       </c>
@@ -22413,7 +22399,7 @@
       <c r="P251" s="31"/>
       <c r="S251" s="2"/>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A252" s="43">
         <v>43866</v>
       </c>
@@ -22456,7 +22442,7 @@
       <c r="P252" s="31"/>
       <c r="S252" s="2"/>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A253" s="43">
         <v>43861</v>
       </c>
@@ -22492,7 +22478,7 @@
       </c>
       <c r="S253" s="2"/>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A254" s="43">
         <v>43860</v>
       </c>
@@ -22530,7 +22516,7 @@
       <c r="P254" s="31"/>
       <c r="S254" s="2"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A255" s="43">
         <v>43852</v>
       </c>
@@ -22561,7 +22547,7 @@
       <c r="P255" s="31"/>
       <c r="S255" s="2"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A256" s="43">
         <v>43852</v>
       </c>
@@ -22603,7 +22589,7 @@
       <c r="P256" s="31"/>
       <c r="S256" s="2"/>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A257" s="43">
         <v>43846</v>
       </c>
@@ -22629,7 +22615,7 @@
       <c r="P257" s="31"/>
       <c r="S257" s="2"/>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A258" s="43">
         <v>43844</v>
       </c>
@@ -22665,7 +22651,7 @@
       <c r="O258" s="34"/>
       <c r="P258" s="31"/>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A259" s="43">
         <v>43838</v>
       </c>
@@ -22702,7 +22688,7 @@
       </c>
       <c r="P259" s="31"/>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A260" s="43">
         <v>43824</v>
       </c>
@@ -22739,7 +22725,7 @@
       <c r="O260" s="34"/>
       <c r="P260" s="31"/>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A261" s="43">
         <v>43822</v>
       </c>
@@ -22770,7 +22756,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A262" s="43">
         <v>43818</v>
       </c>
@@ -22796,7 +22782,7 @@
       <c r="J262" s="24"/>
       <c r="K262" s="45"/>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A263" s="43">
         <v>43812</v>
       </c>
@@ -22827,7 +22813,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A264" s="43">
         <v>43810</v>
       </c>
@@ -22858,7 +22844,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A265" s="43">
         <v>43809</v>
       </c>
@@ -22884,7 +22870,7 @@
       <c r="J265" s="24"/>
       <c r="K265" s="45"/>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A266" s="43">
         <v>43808</v>
       </c>
@@ -22913,7 +22899,7 @@
       <c r="J266" s="24"/>
       <c r="K266" s="45"/>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A267" s="43">
         <v>43805</v>
       </c>
@@ -22932,7 +22918,7 @@
       <c r="J267" s="24"/>
       <c r="K267" s="45"/>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A268" s="43">
         <v>43804</v>
       </c>
@@ -22961,7 +22947,7 @@
       <c r="J268" s="24"/>
       <c r="K268" s="45"/>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A269" s="43">
         <v>43802</v>
       </c>
@@ -22986,7 +22972,7 @@
       <c r="J269" s="24"/>
       <c r="K269" s="45"/>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A270" s="43">
         <v>43761</v>
       </c>
@@ -23015,7 +23001,7 @@
       <c r="J270" s="24"/>
       <c r="K270" s="45"/>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A271" s="43">
         <v>43760</v>
       </c>
@@ -23034,7 +23020,7 @@
       <c r="J271" s="24"/>
       <c r="K271" s="45"/>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A272" s="43">
         <v>43732</v>
       </c>
@@ -23065,7 +23051,7 @@
       <c r="J272" s="24"/>
       <c r="K272" s="45"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" s="43">
         <v>43699</v>
       </c>
@@ -23096,7 +23082,7 @@
       <c r="J273" s="24"/>
       <c r="K273" s="45"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" s="43">
         <v>43664</v>
       </c>
@@ -23127,7 +23113,7 @@
       <c r="J274" s="24"/>
       <c r="K274" s="45"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" s="43">
         <v>43662</v>
       </c>
@@ -23158,7 +23144,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" s="43">
         <v>43640</v>
       </c>
@@ -23183,7 +23169,7 @@
       <c r="J276" s="24"/>
       <c r="K276" s="45"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" s="43">
         <v>43622</v>
       </c>
@@ -23210,7 +23196,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278" s="44">
         <v>43609</v>
       </c>
@@ -23241,7 +23227,7 @@
         <v>166.749</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" s="44">
         <v>43599</v>
       </c>
@@ -23271,7 +23257,7 @@
       <c r="J279" s="25"/>
       <c r="K279" s="49"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" s="44">
         <v>43595</v>
       </c>
@@ -23298,7 +23284,7 @@
       <c r="J280" s="25"/>
       <c r="K280" s="49"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" s="44">
         <v>43574</v>
       </c>
@@ -23328,7 +23314,7 @@
       <c r="J281" s="25"/>
       <c r="K281" s="49"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" s="55">
         <v>43549</v>
       </c>
@@ -23355,12 +23341,12 @@
       <c r="J282" s="57"/>
       <c r="K282" s="58"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E284" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R14" r:id="rId1" xr:uid="{F80EE8D3-3DDD-4E6E-8F46-8E7EAE967507}"/>
+    <hyperlink ref="R14" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -23375,34 +23361,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CE18B9-1E5D-4C51-9D03-C69B0DC41E11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="6" max="7" width="9.1796875" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" customWidth="1"/>
-    <col min="27" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.81640625" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="10.1796875" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" customWidth="1"/>
+    <col min="20" max="20" width="11.1796875" customWidth="1"/>
+    <col min="27" max="27" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="35" t="s">
         <v>1025</v>
       </c>
@@ -23431,7 +23417,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
         <v>75</v>
       </c>
@@ -23488,7 +23474,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="42"/>
       <c r="B3" s="14"/>
       <c r="C3" s="16"/>
@@ -23539,7 +23525,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="43"/>
       <c r="B4" s="14"/>
       <c r="C4" s="16"/>
@@ -23587,7 +23573,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="43"/>
       <c r="B5" s="14"/>
       <c r="C5" s="16"/>
@@ -23635,7 +23621,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="43"/>
       <c r="B6" s="14"/>
       <c r="C6" s="16"/>
@@ -23688,7 +23674,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="43"/>
       <c r="B7" s="14"/>
       <c r="C7" s="16"/>
@@ -23730,7 +23716,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="43">
         <v>44771</v>
       </c>
@@ -23777,7 +23763,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="43">
         <v>44770</v>
       </c>
@@ -23823,7 +23809,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="43">
         <v>44769</v>
       </c>
@@ -23865,7 +23851,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="43">
         <v>44768</v>
       </c>
@@ -23905,7 +23891,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="43">
         <v>44767</v>
       </c>
@@ -23941,7 +23927,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="43">
         <v>44764</v>
       </c>
@@ -23994,7 +23980,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" s="43">
         <v>44763</v>
       </c>
@@ -24046,7 +24032,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="43">
         <v>44762</v>
       </c>
@@ -24072,7 +24058,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="43">
         <v>44761</v>
       </c>
@@ -24095,7 +24081,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="43">
         <v>44760</v>
       </c>
@@ -24124,7 +24110,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="43">
         <v>44757</v>
       </c>
@@ -24153,7 +24139,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="43">
         <v>44756</v>
       </c>
@@ -24192,7 +24178,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="43">
         <v>44755</v>
       </c>
@@ -24234,7 +24220,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="43">
         <v>44754</v>
       </c>
@@ -24276,7 +24262,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="43">
         <v>44753</v>
       </c>
@@ -24320,7 +24306,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" s="43">
         <v>44750</v>
       </c>
@@ -24363,7 +24349,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="43">
         <v>44749</v>
       </c>
@@ -24408,7 +24394,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="43">
         <v>44748</v>
       </c>
@@ -24466,7 +24452,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" s="43">
         <v>44747</v>
       </c>
@@ -24523,7 +24509,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" s="43">
         <v>44746</v>
       </c>
@@ -24580,7 +24566,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" s="43">
         <v>44743</v>
       </c>
@@ -24643,7 +24629,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" s="43">
         <v>44742</v>
       </c>
@@ -24704,7 +24690,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="43">
         <v>44741</v>
       </c>
@@ -24754,7 +24740,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" s="43">
         <v>44740</v>
       </c>
@@ -24804,7 +24790,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" s="43">
         <v>44739</v>
       </c>
@@ -24853,7 +24839,7 @@
       <c r="Z32" s="146"/>
       <c r="AA32" s="146"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" s="43">
         <v>44736</v>
       </c>
@@ -24913,7 +24899,7 @@
       <c r="Z33" s="146"/>
       <c r="AA33" s="146"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" s="43">
         <v>44735</v>
       </c>
@@ -24957,7 +24943,7 @@
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="43">
         <v>44734</v>
       </c>
@@ -25012,7 +24998,7 @@
         <v>0.80320089061654654</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" s="43">
         <v>44733</v>
       </c>
@@ -25051,7 +25037,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" s="43">
         <v>44732</v>
       </c>
@@ -25093,7 +25079,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" s="43">
         <v>44729</v>
       </c>
@@ -25138,7 +25124,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" s="43">
         <v>44728</v>
       </c>
@@ -25180,7 +25166,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="43">
         <v>44727</v>
       </c>
@@ -25225,7 +25211,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" s="43">
         <v>44726</v>
       </c>
@@ -25271,7 +25257,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" s="43">
         <v>44725</v>
       </c>
@@ -25315,7 +25301,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" s="43">
         <v>44722</v>
       </c>
@@ -25358,7 +25344,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" s="43">
         <v>44721</v>
       </c>
@@ -25405,7 +25391,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" s="43">
         <v>44720</v>
       </c>
@@ -25448,7 +25434,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" s="43">
         <v>44719</v>
       </c>
@@ -25492,7 +25478,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" s="43">
         <v>44718</v>
       </c>
@@ -25537,7 +25523,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" s="43">
         <v>44715</v>
       </c>
@@ -25579,7 +25565,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="43">
         <v>44714</v>
       </c>
@@ -25618,7 +25604,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="43">
         <v>44713</v>
       </c>
@@ -25658,7 +25644,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="43">
         <v>44712</v>
       </c>
@@ -25682,7 +25668,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="43">
         <v>44711</v>
       </c>
@@ -25722,7 +25708,7 @@
       </c>
       <c r="U52" s="143"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="43">
         <v>44708</v>
       </c>
@@ -25762,7 +25748,7 @@
       </c>
       <c r="U53" s="143"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="43">
         <v>44707</v>
       </c>
@@ -25802,7 +25788,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="43">
         <v>44706</v>
       </c>
@@ -25839,7 +25825,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="43">
         <v>44698</v>
       </c>
@@ -25875,7 +25861,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="43">
         <v>44697</v>
       </c>
@@ -25911,7 +25897,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="43">
         <v>44694</v>
       </c>
@@ -25945,7 +25931,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="148">
         <v>44693</v>
       </c>
@@ -25991,16 +25977,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568958D5-2C8A-40B9-B12B-4E5C3AD6BE19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>192</v>
       </c>
@@ -26053,7 +26039,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="165">
         <v>44757</v>
       </c>
@@ -26082,7 +26068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
         <v>44756</v>
       </c>
@@ -26111,7 +26097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="165">
         <v>44755</v>
       </c>
@@ -26140,7 +26126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>44754</v>
       </c>
@@ -26169,7 +26155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="164">
         <v>44753</v>
       </c>
@@ -26198,7 +26184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>44750</v>
       </c>
@@ -26227,7 +26213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>44749</v>
       </c>
@@ -26285,7 +26271,7 @@
         <v>4.2300000000000182</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>44748</v>
       </c>
@@ -26343,7 +26329,7 @@
         <v>-6.0599999999999454</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>44747</v>
       </c>
@@ -26401,7 +26387,7 @@
         <v>7.1499999999998636</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="164">
         <v>44746</v>
       </c>
@@ -26459,7 +26445,7 @@
         <v>6.3699999999998909</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>44743</v>
       </c>
@@ -26517,7 +26503,7 @@
         <v>10.240000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>44742</v>
       </c>
@@ -26575,7 +26561,7 @@
         <v>8.8200000000001637</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>44741</v>
       </c>
@@ -26633,7 +26619,7 @@
         <v>12.900000000000091</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>44740</v>
       </c>
@@ -26691,7 +26677,7 @@
         <v>12.410000000000082</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="164">
         <v>44739</v>
       </c>
@@ -26749,7 +26735,7 @@
         <v>8.7699999999999818</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <v>44736</v>
       </c>
@@ -26807,7 +26793,7 @@
         <v>8.4700000000000273</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="19">
         <v>44735</v>
       </c>
@@ -26865,7 +26851,7 @@
         <v>12.779999999999973</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="19">
         <v>44734</v>
       </c>
@@ -26923,7 +26909,7 @@
         <v>11.180000000000064</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="19">
         <v>44733</v>
       </c>
@@ -26981,7 +26967,7 @@
         <v>-3.4600000000000364</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="164">
         <v>44732</v>
       </c>
@@ -27039,7 +27025,7 @@
         <v>13.559999999999945</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="19">
         <v>44729</v>
       </c>
@@ -27097,7 +27083,7 @@
         <v>12.829999999999927</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="159">
         <v>44728</v>
       </c>
@@ -27155,7 +27141,7 @@
         <v>-5.6300000000001091</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="19">
         <v>44727</v>
       </c>
@@ -27213,7 +27199,7 @@
         <v>1.7899999999999636</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="19">
         <v>44726</v>
       </c>
@@ -27271,7 +27257,7 @@
         <v>-7.1399999999998727</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="164">
         <v>44725</v>
       </c>
@@ -27330,7 +27316,7 @@
         <v>-0.64999999999986358</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="19">
         <v>44722</v>
       </c>
@@ -27388,7 +27374,7 @@
         <v>14.590000000000146</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="19">
         <v>44721</v>
       </c>
@@ -27447,7 +27433,7 @@
         <v>7.6200000000001182</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="19">
         <v>44720</v>
       </c>
@@ -27506,7 +27492,7 @@
         <v>9.0299999999999727</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="19">
         <v>44719</v>
       </c>
@@ -27564,7 +27550,7 @@
         <v>9.3699999999998909</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="164">
         <v>44718</v>
       </c>
@@ -27623,7 +27609,7 @@
         <v>12.039999999999964</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="19">
         <v>44715</v>
       </c>
@@ -27682,7 +27668,7 @@
         <v>8.9000000000000909</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="19">
         <v>44714</v>
       </c>
@@ -27741,7 +27727,7 @@
         <v>10.490000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="19">
         <v>44713</v>
       </c>
@@ -27800,7 +27786,7 @@
         <v>9.4900000000000091</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="19">
         <v>44712</v>
       </c>
@@ -27855,7 +27841,7 @@
         <v>12.089999999999918</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="164">
         <v>44711</v>
       </c>
@@ -27914,7 +27900,7 @@
         <v>17.269999999999982</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="19">
         <v>44708</v>
       </c>
@@ -27973,7 +27959,7 @@
         <v>13.180000000000064</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="19">
         <v>44707</v>
       </c>
@@ -28032,7 +28018,7 @@
         <v>8.5999999999999091</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="19">
         <v>44706</v>
       </c>
@@ -28091,7 +28077,7 @@
         <v>11.400000000000091</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="19">
         <v>44705</v>
       </c>
@@ -28146,7 +28132,7 @@
         <v>5.7100000000000364</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="164">
         <v>44704</v>
       </c>
@@ -28201,7 +28187,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="19">
         <v>44701</v>
       </c>
@@ -28256,7 +28242,7 @@
         <v>5.7100000000000364</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="19">
         <v>44700</v>
       </c>
@@ -28308,7 +28294,7 @@
         <v>9.0499999999999545</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="19">
         <v>44699</v>
       </c>
@@ -28360,7 +28346,7 @@
         <v>4.9100000000000819</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="19">
         <v>44698</v>
       </c>
@@ -28412,7 +28398,7 @@
         <v>-2.25</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="164">
         <v>44697</v>
       </c>
@@ -28464,7 +28450,7 @@
         <v>3.0799999999999272</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="19">
         <v>44694</v>
       </c>
@@ -28516,7 +28502,7 @@
         <v>-1.2400000000000091</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="19">
         <v>44693</v>
       </c>
@@ -28568,7 +28554,7 @@
         <v>9.7599999999999909</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="19">
         <v>44692</v>
       </c>
@@ -28620,7 +28606,7 @@
         <v>12.819999999999936</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="19">
         <v>44691</v>
       </c>
@@ -28672,7 +28658,7 @@
         <v>10.460000000000036</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="164">
         <v>44690</v>
       </c>
@@ -28724,7 +28710,7 @@
         <v>5.9400000000000546</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="19">
         <v>44687</v>
       </c>
@@ -28776,7 +28762,7 @@
         <v>11.210000000000036</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="19">
         <v>44686</v>
       </c>
@@ -28828,7 +28814,7 @@
         <v>2.3800000000001091</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="164">
         <v>44685</v>
       </c>
@@ -28880,7 +28866,7 @@
         <v>6.5899999999999181</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="19">
         <v>44680</v>
       </c>
@@ -28932,7 +28918,7 @@
         <v>8.3099999999999454</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="19">
         <v>44679</v>
       </c>
@@ -28984,7 +28970,7 @@
         <v>8.8800000000001091</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="19">
         <v>44678</v>
       </c>
@@ -29036,7 +29022,7 @@
         <v>1.0299999999999727</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="19">
         <v>44677</v>
       </c>
@@ -29088,7 +29074,7 @@
         <v>5.9000000000000909</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="164">
         <v>44676</v>
       </c>
@@ -29140,7 +29126,7 @@
         <v>13.290000000000191</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="19">
         <v>44673</v>
       </c>
@@ -29192,7 +29178,7 @@
         <v>-0.68000000000006366</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="19">
         <v>44672</v>
       </c>
@@ -29224,7 +29210,7 @@
         <v>-7.9000000000000909</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="19">
         <v>44671</v>
       </c>
@@ -29256,7 +29242,7 @@
         <v>-5.4000000000000909</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="19">
         <v>44670</v>
       </c>
@@ -29288,7 +29274,7 @@
         <v>-31.020000000000209</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="164">
         <v>44669</v>
       </c>
@@ -29320,7 +29306,7 @@
         <v>-24.920000000000073</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="19">
         <v>44666</v>
       </c>
@@ -29352,7 +29338,7 @@
         <v>-21.150000000000091</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="19">
         <v>44665</v>
       </c>
@@ -29384,7 +29370,7 @@
         <v>-8.4800000000000182</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="19">
         <v>44664</v>
       </c>
@@ -29416,7 +29402,7 @@
         <v>13.020000000000209</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="19">
         <v>44663</v>
       </c>
@@ -29448,7 +29434,7 @@
         <v>-23.099999999999909</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="164">
         <v>44659</v>
       </c>
@@ -29487,22 +29473,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085A2AAE-15E0-475F-AE66-24AD3A8CC11E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" customWidth="1"/>
+    <col min="4" max="4" width="64.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -29519,7 +29505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -29536,7 +29522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -29550,7 +29536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -29567,7 +29553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -29587,7 +29573,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>71</v>
       </c>
@@ -29598,7 +29584,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>43670</v>
       </c>
@@ -29617,35 +29603,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{54928C64-C17E-4490-8471-EBA6A6F491A4}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{66D10D2C-F202-4011-AD40-EA65FB16A073}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79557E11-72F4-4D14-861F-CA0F71C99BE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="7"/>
+    <col min="4" max="4" width="88.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -29659,7 +29645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -29673,7 +29659,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -29690,7 +29676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -29707,7 +29693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -29724,7 +29710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -29741,7 +29727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -29758,7 +29744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -29775,7 +29761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -29792,7 +29778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -29809,7 +29795,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -29826,7 +29812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -29850,20 +29836,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -29871,7 +29857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -29879,12 +29865,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -29892,7 +29878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -29907,28 +29893,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE928E-CD8B-48FE-81C7-BD5BCA91012F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="2" max="2" width="52.1796875" customWidth="1"/>
     <col min="3" max="3" width="15" style="78" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" s="79" t="s">
         <v>431</v>
       </c>
@@ -29945,7 +29931,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C3" s="78">
         <v>44297</v>
       </c>
@@ -29963,32 +29949,32 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712CE15C-17C9-4046-BA60-1FA5E56A83BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="60" t="s">
         <v>341</v>
       </c>
@@ -30017,7 +30003,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" s="60">
         <v>2021</v>
       </c>
@@ -30051,7 +30037,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="60">
         <v>2022</v>
       </c>
@@ -30084,7 +30070,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" s="60">
         <v>2023</v>
       </c>
@@ -30117,7 +30103,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="60">
         <v>2024</v>
       </c>
@@ -30150,7 +30136,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10" s="60">
         <v>2025</v>
       </c>
@@ -30183,7 +30169,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="60">
         <v>2026</v>
       </c>
@@ -30216,7 +30202,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="60">
         <v>2027</v>
       </c>
@@ -30249,7 +30235,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H13" s="60">
         <v>8</v>
       </c>
@@ -30264,7 +30250,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H14" s="60">
         <v>9</v>
       </c>
@@ -30279,7 +30265,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>349</v>
       </c>
@@ -30297,7 +30283,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="60" t="s">
         <v>341</v>
       </c>
@@ -30327,7 +30313,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="60">
         <v>2021</v>
       </c>
@@ -30359,7 +30345,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="60">
         <v>2022</v>
       </c>
@@ -30383,7 +30369,7 @@
       <c r="J18" s="60"/>
       <c r="K18" s="60"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="60">
         <v>2023</v>
       </c>
@@ -30415,7 +30401,7 @@
         <v>12546</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="60">
         <v>2024</v>
       </c>
@@ -30435,7 +30421,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="60">
         <v>2025</v>
       </c>
@@ -30455,7 +30441,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="60">
         <v>2026</v>
       </c>
@@ -30475,7 +30461,7 @@
         <v>117.1</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="60">
         <v>2027</v>
       </c>

--- a/Relax.xlsx
+++ b/Relax.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KeHoach" sheetId="5" r:id="rId1"/>
@@ -496,7 +496,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -505,7 +505,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1-6-22: Mua máy tính, đầu tư vào bản thân, học lập trình R, và các khóa lập trình khác cần thiết
@@ -578,7 +578,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -587,7 +587,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 10-6: +4tr</t>
@@ -662,7 +662,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -671,7 +671,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 giá 17,2k: bán 7k 120M
@@ -690,7 +690,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Author: 736,590k
 </t>
@@ -700,7 +700,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>IM 375,102 phí thuế Mua
 Phí giao dịch Bán: 134
@@ -718,7 +718,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Author: 736,590k
 </t>
@@ -728,7 +728,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>IM 375,102 phí thuế Mua
 Phí giao dịch Bán: 134
@@ -746,7 +746,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Author: 736,590k
 </t>
@@ -756,7 +756,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>IM 375,102 phí thuế Mua
 Phí giao dịch Bán: 134
@@ -774,7 +774,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Author: 736,590k
 </t>
@@ -784,7 +784,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>IM 375,102 phí thuế Mua
 Phí giao dịch Bán: 134
@@ -802,7 +802,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Author: 736,590k
 </t>
@@ -812,7 +812,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>IM 375,102 phí thuế Mua
 Phí giao dịch Bán: 134
@@ -830,7 +830,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -839,7 +839,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 chốt 1339,6</t>
@@ -854,7 +854,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Author: 736,590k
 </t>
@@ -864,7 +864,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>IM 375,102 phí thuế Mua
 Phí giao dịch Bán: 134
@@ -1971,7 +1971,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -1980,7 +1980,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ghi nhận lại mức độ chấp nhận rủi ro trong ngày giao dịch</t>
@@ -2093,7 +2093,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -2102,7 +2102,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hết Tháng 6-22: 
@@ -2119,7 +2119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -2128,7 +2128,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 T1/2022</t>
@@ -2143,7 +2143,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -2152,7 +2152,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 T11/2021
@@ -2202,7 +2202,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -2211,7 +2211,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 chốt phái sinh 2206</t>
@@ -2250,7 +2250,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -2259,7 +2259,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 lộn tháng</t>
@@ -2274,7 +2274,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -2283,7 +2283,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 lộn tháng</t>
@@ -2298,7 +2298,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -2307,7 +2307,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 lộn tháng</t>
@@ -2322,7 +2322,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -2331,7 +2331,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 lộn tháng</t>
@@ -2343,7 +2343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="1302">
   <si>
     <t>https://www.youtube.com/watch?v=T77wtm-2exE</t>
   </si>
@@ -7191,6 +7191,15 @@
   <si>
     <t>1 lệnh S 1225; giữ từ tuần trước, dự báo kinh tế suy thoái, giá phá vỡ vùng hỗ trợ dưới nên giữ short =&gt; quá thất bại khi chốt sớm đầu ngày, để lại tới atc là đc hơn 19M nữa, liệu có nên nghỉ hẳn vì mình không hợp vs chứng khoán không???</t>
   </si>
+  <si>
+    <t>Ngày 12-7-22</t>
+  </si>
+  <si>
+    <t>Mua vào 10k ASM vì thấy thị trường có nhịp hồi với dòng Heo khi giá heo tăng, câu hỏi đặt ra là tại sao thủy sản được hưởng lợi như vậy lại bị bán tháo, ASM sắp chia cổ tức và bán CP giá 12, trong khi dự chia cổ tức năm sau là 20%, với mức giá này có thể nắm giữ lợi hơn gởi ngân hàng =&gt; đừng dùng margin để khỏi bị áp lực</t>
+  </si>
+  <si>
+    <t>Nạp lại để khỏi vay và cơ cấu tiền sẵn có để mua PHT - không giao dịch chứng khoán nữa mà thử giữ luôn 1 doanh nghiệp</t>
+  </si>
 </sst>
 </file>
 
@@ -7200,7 +7209,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7339,19 +7348,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -7921,11 +7917,11 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -11678,8 +11674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB284"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11762,7 +11758,7 @@
       </c>
       <c r="N2" s="15">
         <f>PS!M2+SUM(D:D)-SUM(O2:Q2)</f>
-        <v>55115.442279999988</v>
+        <v>55660.592279999997</v>
       </c>
       <c r="O2" s="15">
         <v>62924</v>
@@ -11838,7 +11834,7 @@
       </c>
       <c r="N4" s="21">
         <f>SUM(G:G)-O4-P4</f>
-        <v>-22500</v>
+        <v>107500</v>
       </c>
       <c r="O4" s="21">
         <v>25500</v>
@@ -11911,7 +11907,7 @@
       </c>
       <c r="N6" s="21">
         <f ca="1">-N9+0*J86+PS!M6*0+N12+J77+J73+J75+5080+J71+J69+J67+J65+J63+J61+J59+J56+J54+J48+J50+J52+J46+J44+J42+J40+J38+8230+J36+J35+J33+J34+J27+J32+J31+J30+J29+J26+J24+J22+1000+J20+J10+J16+J14+J12</f>
-        <v>-60046.384083332756</v>
+        <v>-59506.275749999419</v>
       </c>
       <c r="O6" s="21">
         <f>-O9+1*J86+29000-16000-800-22000-500-2200+7900+9200+4700+1000+500+7900+J135+J133+J131+11000+J127+J129+J125+J123+J121+J119+J117+J115+J113+J111+274+J110-5000+J108+J106+J102+J104+I105+1850+J100+J98+J96+J94+J93+J91+J89+J88+J84</f>
@@ -11948,7 +11944,7 @@
       </c>
       <c r="N7" s="36">
         <f ca="1">SUM(N4:N6)</f>
-        <v>234700.41913781557</v>
+        <v>365240.52747114887</v>
       </c>
       <c r="O7" s="36">
         <f>SUM(O4:O6)</f>
@@ -11962,17 +11958,23 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
+      <c r="A8" s="44">
+        <v>44754</v>
+      </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="17"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12">
+        <v>130000</v>
+      </c>
       <c r="H8" s="97"/>
       <c r="I8" s="67"/>
       <c r="J8" s="161"/>
-      <c r="K8" s="49"/>
+      <c r="K8" s="49" t="s">
+        <v>1301</v>
+      </c>
       <c r="L8" t="s">
         <v>756</v>
       </c>
@@ -11981,7 +11983,7 @@
       </c>
       <c r="N8" s="65">
         <f ca="1">ROUNDDOWN((N6/(N4+N5)),3)</f>
-        <v>-0.20300000000000001</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="O8" s="65">
         <f>ROUNDDOWN((O6/(O4+O5)),3)</f>
@@ -12047,7 +12049,7 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="43">
         <f ca="1">TODAY()</f>
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>90</v>
@@ -12057,26 +12059,26 @@
       </c>
       <c r="D10" s="16">
         <f>-F10*E10*0.0025</f>
-        <v>332.5</v>
+        <v>675</v>
       </c>
       <c r="E10" s="14">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="F10" s="14">
-        <v>-10000</v>
+        <v>-20000</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="97">
         <f ca="1">Table1[[#This Row],[Result]]/(E11*F11)</f>
-        <v>-0.15921299770690014</v>
+        <v>-8.4467966101694908E-2</v>
       </c>
       <c r="I10" s="69">
         <f ca="1">Table1[[#This Row],[Date]]-A11</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" s="162">
         <f ca="1">-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E11*F11-Table1[[#This Row],[Commission]]-D11+I11</f>
-        <v>-25458.158333333333</v>
+        <v>-24918.05</v>
       </c>
       <c r="K10" s="121" t="s">
         <v>1272</v>
@@ -12115,28 +12117,28 @@
       </c>
       <c r="D11" s="16">
         <f>F11*E11*0.0015</f>
-        <v>239.85</v>
+        <v>442.5</v>
       </c>
       <c r="E11" s="14">
-        <f>ROUNDUP((10*16.3+10*16.35+10*16.15+(13*10*0+1*15.125*10))/40,2)</f>
-        <v>15.99</v>
+        <f>ROUNDUP(((10*16.3+10*16.35+10*16.15+(13*10*0+1*15.125*10))/40+13.5)/2,2)</f>
+        <v>14.75</v>
       </c>
       <c r="F11" s="14">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="97"/>
       <c r="I11" s="67">
         <f ca="1">-105/360*(I10+1)*Table1[[#This Row],[Notes]]</f>
-        <v>2014.1916666666666</v>
+        <v>1199.4500000000003</v>
       </c>
       <c r="J11" s="98">
         <f>Table1[[#This Row],[Volume]]*Table1[[#This Row],[Price]]</f>
-        <v>159900</v>
+        <v>295000</v>
       </c>
       <c r="K11" s="109">
         <f>Table1[[#This Row],[Result]]/1000-(446+8.8+7+12)</f>
-        <v>-313.89999999999998</v>
+        <v>-178.8</v>
       </c>
       <c r="L11" t="s">
         <v>756</v>
@@ -12681,8 +12683,12 @@
       <c r="L22" t="s">
         <v>756</v>
       </c>
-      <c r="M22" s="33"/>
-      <c r="N22" s="31"/>
+      <c r="M22" s="33" t="s">
+        <v>1299</v>
+      </c>
+      <c r="N22" s="31" t="s">
+        <v>1300</v>
+      </c>
       <c r="O22" s="31"/>
       <c r="P22" s="31"/>
       <c r="S22" s="133"/>
@@ -23364,8 +23370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25966,7 +25972,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Relax.xlsx
+++ b/Relax.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KeHoach" sheetId="5" r:id="rId1"/>
@@ -7195,13 +7195,13 @@
     <t>Ngày 12-7-22</t>
   </si>
   <si>
-    <t>Nạp lại để khỏi vay và cơ cấu tiền sẵn có để mua PHT - không giao dịch chứng khoán nữa mà thử giữ luôn 1 doanh nghiệp</t>
-  </si>
-  <si>
     <t xml:space="preserve">có tín hiệu bật tăng trở lại, nên tận dụng cơ hội </t>
   </si>
   <si>
     <t xml:space="preserve">Mua vào 10k ASM vì thấy thị trường có nhịp hồi với dòng Heo khi giá heo tăng, câu hỏi đặt ra là tại sao thủy sản được hưởng lợi như vậy lại bị bán tháo, ASM sắp chia cổ tức và bán CP giá 12, trong khi dự chia cổ tức năm sau là 20%, với mức giá này có thể nắm giữ lợi hơn gởi ngân hàng =&gt; đừng dùng margin để khỏi bị áp lực =&gt; không thể ngồi im khi giá lên tím, dòng Thủy sản sẽ có sóng nên vào thêm 10k để TBG </t>
+  </si>
+  <si>
+    <t>Nạp lại để khỏi vay và cơ cấu tiền sẵn có để mua PHT - không giao dịch chứng khoán nữa mà thử giữ luôn 1 doanh nghiệp - rút ra 125M để day trading</t>
   </si>
 </sst>
 </file>
@@ -11677,8 +11677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11837,7 +11837,7 @@
       </c>
       <c r="N4" s="21">
         <f>SUM(G:G)-O4-P4</f>
-        <v>248500</v>
+        <v>123500</v>
       </c>
       <c r="O4" s="21">
         <v>25500</v>
@@ -11947,7 +11947,7 @@
       </c>
       <c r="N7" s="36">
         <f ca="1">SUM(N4:N6)</f>
-        <v>504974.77747114887</v>
+        <v>379974.77747114887</v>
       </c>
       <c r="O7" s="36">
         <f>SUM(O4:O6)</f>
@@ -11970,14 +11970,14 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
-        <f>130000+141000</f>
-        <v>271000</v>
+        <f>130000+141000-125000</f>
+        <v>146000</v>
       </c>
       <c r="H8" s="97"/>
       <c r="I8" s="67"/>
       <c r="J8" s="161"/>
       <c r="K8" s="49" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="L8" t="s">
         <v>756</v>
@@ -11987,7 +11987,7 @@
       </c>
       <c r="N8" s="65">
         <f ca="1">ROUNDDOWN((N6/(N4+N5)),3)</f>
-        <v>-0.107</v>
+        <v>-0.13700000000000001</v>
       </c>
       <c r="O8" s="65">
         <f>ROUNDDOWN((O6/(O4+O5)),3)</f>
@@ -12202,7 +12202,7 @@
         <v>-2903.75</v>
       </c>
       <c r="K12" s="121" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="L12" t="s">
         <v>756</v>
@@ -12692,7 +12692,7 @@
         <v>1299</v>
       </c>
       <c r="N22" s="31" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="O22" s="31"/>
       <c r="P22" s="31"/>
@@ -23445,7 +23445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>

--- a/Relax.xlsx
+++ b/Relax.xlsx
@@ -2343,7 +2343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="1307">
   <si>
     <t>https://www.youtube.com/watch?v=T77wtm-2exE</t>
   </si>
@@ -7202,6 +7202,18 @@
   </si>
   <si>
     <t>Nạp lại để khỏi vay và cơ cấu tiền sẵn có để mua PHT - không giao dịch chứng khoán nữa mà thử giữ luôn 1 doanh nghiệp - rút ra 125M để day trading</t>
+  </si>
+  <si>
+    <t>Ngày 14-7-22</t>
+  </si>
+  <si>
+    <t>1 lệnh L 1210,4; khi giá break 1209 thì vào Long, nhưng giá đi ko như kỳ vọng, cắt lỗ 10 giá 1200,7 may mắn chốt lời 2,6 giá =&gt; nghỉ thôi</t>
+  </si>
+  <si>
+    <t>Vào lệnh LONG trong khi thị trường thế giới không ủng hộ, tối qua CPI của Mỹ vẫn tăng cao và ck châu á đỏ lửa =&gt; quá may vì đã hit lệnh và quay đầu giảm điểm</t>
+  </si>
+  <si>
+    <t>Giá vẫn đang giằng co quanh vùng 14,25 nhưng có vẻ khả quan vì nếu ra tin chia cổ tức 1,5K thì sẽ phi chắc trần đc 2 phiên =&gt; nắm giữ chắc vẫn ok</t>
   </si>
 </sst>
 </file>
@@ -7674,7 +7686,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -7959,6 +7971,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11677,8 +11690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N19:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11761,7 +11774,7 @@
       </c>
       <c r="N2" s="15">
         <f>PS!M2+SUM(D:D)-SUM(O2:Q2)</f>
-        <v>56224.192279999988</v>
+        <v>56379.192279999988</v>
       </c>
       <c r="O2" s="15">
         <v>62924</v>
@@ -11910,7 +11923,7 @@
       </c>
       <c r="N6" s="21">
         <f ca="1">-N9+0*J88+PS!M6*0+N12+J79+J75+J77+5080+J73+J71+J69+J67+J65+J63+J61+J58+J56+J50+J52+J54+J48+J46+J44+J42+J40+8230+J38+J37+J35+J36+J29+J34+J33+J32+J31+J28+J26+J24+1000+J22+J10+J18+J16+J14+J12</f>
-        <v>-60772.025749999419</v>
+        <v>-60680.47158333275</v>
       </c>
       <c r="O6" s="21">
         <f>-O9+1*J88+29000-16000-800-22000-500-2200+7900+9200+4700+1000+500+7900+J137+J135+J133+11000+J129+J131+J127+J125+J123+J121+J119+J117+J115+J113+274+J112-5000+J110+J108+J104+J106+I107+1850+J102+J100+J98+J96+J95+J93+J91+J90+J86</f>
@@ -11947,7 +11960,7 @@
       </c>
       <c r="N7" s="36">
         <f ca="1">SUM(N4:N6)</f>
-        <v>379974.77747114887</v>
+        <v>380066.33163781557</v>
       </c>
       <c r="O7" s="36">
         <f>SUM(O4:O6)</f>
@@ -12053,7 +12066,7 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="43">
         <f ca="1">TODAY()</f>
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>90</v>
@@ -12074,15 +12087,15 @@
       <c r="G10" s="14"/>
       <c r="H10" s="97">
         <f ca="1">Table1[[#This Row],[Result]]/(E11*F11)</f>
-        <v>-0.14559130706691681</v>
+        <v>-0.1450187356681259</v>
       </c>
       <c r="I10" s="69">
         <f ca="1">Table1[[#This Row],[Date]]-A11</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" s="162">
         <f ca="1">-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E11*F11-Table1[[#This Row],[Commission]]-D11+I11</f>
-        <v>-23280.05</v>
+        <v>-23188.495833333331</v>
       </c>
       <c r="K10" s="121" t="s">
         <v>1272</v>
@@ -12134,7 +12147,7 @@
       <c r="H11" s="97"/>
       <c r="I11" s="67">
         <f ca="1">-105/360*(I10+1)*Table1[[#This Row],[Notes]]</f>
-        <v>2197.2999999999997</v>
+        <v>2288.8541666666665</v>
       </c>
       <c r="J11" s="98">
         <f>Table1[[#This Row],[Volume]]*Table1[[#This Row],[Price]]</f>
@@ -12169,7 +12182,7 @@
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="43">
         <f ca="1">TODAY()</f>
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>90</v>
@@ -12195,7 +12208,7 @@
       </c>
       <c r="I12" s="69">
         <f ca="1">Table1[[#This Row],[Date]]-A13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="162">
         <f>-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E13*F13-Table1[[#This Row],[Commission]]-D13+I13</f>
@@ -12642,8 +12655,12 @@
       <c r="L21" t="s">
         <v>756</v>
       </c>
-      <c r="M21" s="33"/>
-      <c r="N21" s="31"/>
+      <c r="M21" s="33" t="s">
+        <v>1303</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>1306</v>
+      </c>
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
       <c r="S21" s="133"/>
@@ -23445,8 +23462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23537,7 +23554,7 @@
       </c>
       <c r="M2" s="15">
         <f>SUM(Table6[[#All],[Commission]])</f>
-        <v>18907.800000000003</v>
+        <v>19062.800000000003</v>
       </c>
       <c r="P2" t="s">
         <v>1022</v>
@@ -23676,7 +23693,7 @@
       </c>
       <c r="M5" s="21">
         <f>SUM(G:G)-M3-U5</f>
-        <v>-1684.2999999996391</v>
+        <v>-389.29999999963911</v>
       </c>
       <c r="T5" s="160" t="s">
         <v>1223</v>
@@ -23724,7 +23741,7 @@
       </c>
       <c r="M6" s="21">
         <f>-M3-M2+SUM(Table6[[#All],[Vị thế đóng]])-M7</f>
-        <v>36041.700000000354</v>
+        <v>37336.700000000354</v>
       </c>
       <c r="O6" s="134" t="s">
         <v>987</v>
@@ -23821,7 +23838,7 @@
       </c>
       <c r="M8" s="65">
         <f>ROUNDDOWN((M6/(M4)),3)</f>
-        <v>5.7000000000000002E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="O8" s="140" t="s">
         <v>976</v>
@@ -24155,6 +24172,12 @@
       <c r="H16" s="24"/>
       <c r="I16" s="152"/>
       <c r="J16" s="45"/>
+      <c r="L16" t="s">
+        <v>1303</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1305</v>
+      </c>
       <c r="AA16" t="s">
         <v>1100</v>
       </c>
@@ -24224,18 +24247,32 @@
       <c r="A19" s="43">
         <v>44756</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="98"/>
+      <c r="B19" s="166" t="s">
+        <v>969</v>
+      </c>
+      <c r="C19" s="16">
+        <v>155</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1210.4000000000001</v>
+      </c>
+      <c r="E19" s="14">
+        <v>5</v>
+      </c>
+      <c r="F19" s="98">
+        <v>1450</v>
+      </c>
       <c r="G19" s="153">
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
-        <v>0</v>
+        <v>1295</v>
       </c>
       <c r="H19" s="24"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="45"/>
+      <c r="I19" s="152">
+        <v>5000</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>1304</v>
+      </c>
       <c r="L19" t="s">
         <v>1269</v>
       </c>
@@ -24274,7 +24311,9 @@
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="152"/>
-      <c r="J20" s="45"/>
+      <c r="J20" s="45" t="s">
+        <v>1245</v>
+      </c>
       <c r="L20" t="s">
         <v>1264</v>
       </c>
@@ -24316,7 +24355,9 @@
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="152"/>
-      <c r="J21" s="45"/>
+      <c r="J21" s="45" t="s">
+        <v>1245</v>
+      </c>
       <c r="L21" t="s">
         <v>1260</v>
       </c>

--- a/Relax.xlsx
+++ b/Relax.xlsx
@@ -2343,7 +2343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="1310">
   <si>
     <t>https://www.youtube.com/watch?v=T77wtm-2exE</t>
   </si>
@@ -7214,6 +7214,15 @@
   </si>
   <si>
     <t>Giá vẫn đang giằng co quanh vùng 14,25 nhưng có vẻ khả quan vì nếu ra tin chia cổ tức 1,5K thì sẽ phi chắc trần đc 2 phiên =&gt; nắm giữ chắc vẫn ok</t>
+  </si>
+  <si>
+    <t>Ngày 15-7-22</t>
+  </si>
+  <si>
+    <t>1 lệnh L 1218.1; thấp hơn 0,4 giá ATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Định vào lệnh ATO và chốt lệnh ATC, nhưng mở phiên đã xuất hiện GAP tăng lên 1219 nên quyết định đứng ngoài để mua được giá tốt hơn và chốt lệnh trong ATC hoặc giữ qua tuần đều đc =&gt; sai lầm khi không chốt lời như mọi khi 2,3 giá, để giờ lỗ gần 7 giá và quyết định giữ sang tuần vì dự báo không có gì xấu - thứ 2 nạp tiền vào giữ lệnh - chấp nhận lỗ 20 giá </t>
   </si>
 </sst>
 </file>
@@ -11690,8 +11699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N19:O20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11774,7 +11783,7 @@
       </c>
       <c r="N2" s="15">
         <f>PS!M2+SUM(D:D)-SUM(O2:Q2)</f>
-        <v>56379.192279999988</v>
+        <v>56605.442279999988</v>
       </c>
       <c r="O2" s="15">
         <v>62924</v>
@@ -11923,7 +11932,7 @@
       </c>
       <c r="N6" s="21">
         <f ca="1">-N9+0*J88+PS!M6*0+N12+J79+J75+J77+5080+J73+J71+J69+J67+J65+J63+J61+J58+J56+J50+J52+J54+J48+J46+J44+J42+J40+8230+J38+J37+J35+J36+J29+J34+J33+J32+J31+J28+J26+J24+1000+J22+J10+J18+J16+J14+J12</f>
-        <v>-60680.47158333275</v>
+        <v>-31885.50491666609</v>
       </c>
       <c r="O6" s="21">
         <f>-O9+1*J88+29000-16000-800-22000-500-2200+7900+9200+4700+1000+500+7900+J137+J135+J133+11000+J129+J131+J127+J125+J123+J121+J119+J117+J115+J113+274+J112-5000+J110+J108+J104+J106+I107+1850+J102+J100+J98+J96+J95+J93+J91+J90+J86</f>
@@ -11960,7 +11969,7 @@
       </c>
       <c r="N7" s="36">
         <f ca="1">SUM(N4:N6)</f>
-        <v>380066.33163781557</v>
+        <v>408861.29830448225</v>
       </c>
       <c r="O7" s="36">
         <f>SUM(O4:O6)</f>
@@ -12000,7 +12009,7 @@
       </c>
       <c r="N8" s="65">
         <f ca="1">ROUNDDOWN((N6/(N4+N5)),3)</f>
-        <v>-0.13700000000000001</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="O8" s="65">
         <f>ROUNDDOWN((O6/(O4+O5)),3)</f>
@@ -12066,7 +12075,7 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="43">
         <f ca="1">TODAY()</f>
-        <v>44756</v>
+        <v>44760</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>90</v>
@@ -12076,10 +12085,10 @@
       </c>
       <c r="D10" s="16">
         <f>-F10*E10*0.0025</f>
-        <v>337.5</v>
+        <v>363.75</v>
       </c>
       <c r="E10" s="14">
-        <v>13.5</v>
+        <v>14.55</v>
       </c>
       <c r="F10" s="14">
         <v>-10000</v>
@@ -12087,15 +12096,15 @@
       <c r="G10" s="14"/>
       <c r="H10" s="97">
         <f ca="1">Table1[[#This Row],[Result]]/(E11*F11)</f>
-        <v>-0.1450187356681259</v>
+        <v>-7.7226573900354395E-2</v>
       </c>
       <c r="I10" s="69">
         <f ca="1">Table1[[#This Row],[Date]]-A11</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J10" s="162">
         <f ca="1">-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E11*F11-Table1[[#This Row],[Commission]]-D11+I11</f>
-        <v>-23188.495833333331</v>
+        <v>-12348.529166666667</v>
       </c>
       <c r="K10" s="121" t="s">
         <v>1272</v>
@@ -12147,7 +12156,7 @@
       <c r="H11" s="97"/>
       <c r="I11" s="67">
         <f ca="1">-105/360*(I10+1)*Table1[[#This Row],[Notes]]</f>
-        <v>2288.8541666666665</v>
+        <v>2655.0708333333332</v>
       </c>
       <c r="J11" s="98">
         <f>Table1[[#This Row],[Volume]]*Table1[[#This Row],[Price]]</f>
@@ -12182,7 +12191,7 @@
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="43">
         <f ca="1">TODAY()</f>
-        <v>44756</v>
+        <v>44760</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>90</v>
@@ -12192,11 +12201,10 @@
       </c>
       <c r="D12" s="16">
         <f>-F12*E12*0.0025</f>
-        <v>687.5</v>
+        <v>732.5</v>
       </c>
       <c r="E12" s="14">
-        <f>(2*13.775+13.7)/3</f>
-        <v>13.75</v>
+        <v>14.65</v>
       </c>
       <c r="F12" s="14">
         <v>-20000</v>
@@ -12204,15 +12212,15 @@
       <c r="G12" s="14"/>
       <c r="H12" s="97">
         <f>Table1[[#This Row],[Result]]/(E13*F13)</f>
-        <v>-1.0463963963963964E-2</v>
+        <v>5.4238738738738738E-2</v>
       </c>
       <c r="I12" s="69">
         <f ca="1">Table1[[#This Row],[Date]]-A13</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J12" s="162">
         <f>-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E13*F13-Table1[[#This Row],[Commission]]-D13+I13</f>
-        <v>-2903.75</v>
+        <v>15051.25</v>
       </c>
       <c r="K12" s="121" t="s">
         <v>1300</v>
@@ -23463,7 +23471,7 @@
   <dimension ref="A1:AE59"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23554,7 +23562,7 @@
       </c>
       <c r="M2" s="15">
         <f>SUM(Table6[[#All],[Commission]])</f>
-        <v>19062.800000000003</v>
+        <v>19217.800000000003</v>
       </c>
       <c r="P2" t="s">
         <v>1022</v>
@@ -23693,7 +23701,7 @@
       </c>
       <c r="M5" s="21">
         <f>SUM(G:G)-M3-U5</f>
-        <v>-389.29999999963911</v>
+        <v>-10544.299999999646</v>
       </c>
       <c r="T5" s="160" t="s">
         <v>1223</v>
@@ -23741,7 +23749,7 @@
       </c>
       <c r="M6" s="21">
         <f>-M3-M2+SUM(Table6[[#All],[Vị thế đóng]])-M7</f>
-        <v>37336.700000000354</v>
+        <v>27181.700000000354</v>
       </c>
       <c r="O6" s="134" t="s">
         <v>987</v>
@@ -23838,7 +23846,7 @@
       </c>
       <c r="M8" s="65">
         <f>ROUNDDOWN((M6/(M4)),3)</f>
-        <v>5.8999999999999997E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="O8" s="140" t="s">
         <v>976</v>
@@ -24146,6 +24154,12 @@
       <c r="H15" s="24"/>
       <c r="I15" s="152"/>
       <c r="J15" s="45"/>
+      <c r="L15" t="s">
+        <v>1307</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1309</v>
+      </c>
       <c r="O15" s="140" t="s">
         <v>1026</v>
       </c>
@@ -24218,18 +24232,32 @@
       <c r="A18" s="43">
         <v>44757</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="98"/>
+      <c r="B18" s="14" t="s">
+        <v>969</v>
+      </c>
+      <c r="C18" s="16">
+        <v>155</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1218.0999999999999</v>
+      </c>
+      <c r="E18" s="14">
+        <v>5</v>
+      </c>
+      <c r="F18" s="98">
+        <v>-10000</v>
+      </c>
       <c r="G18" s="153">
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
-        <v>0</v>
+        <v>-10155</v>
       </c>
       <c r="H18" s="24"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="45"/>
+      <c r="I18" s="152">
+        <v>10000</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>1308</v>
+      </c>
       <c r="L18" t="s">
         <v>1278</v>
       </c>

--- a/Relax.xlsx
+++ b/Relax.xlsx
@@ -2343,7 +2343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="1312">
   <si>
     <t>https://www.youtube.com/watch?v=T77wtm-2exE</t>
   </si>
@@ -7223,6 +7223,12 @@
   </si>
   <si>
     <t xml:space="preserve">Định vào lệnh ATO và chốt lệnh ATC, nhưng mở phiên đã xuất hiện GAP tăng lên 1219 nên quyết định đứng ngoài để mua được giá tốt hơn và chốt lệnh trong ATC hoặc giữ qua tuần đều đc =&gt; sai lầm khi không chốt lời như mọi khi 2,3 giá, để giờ lỗ gần 7 giá và quyết định giữ sang tuần vì dự báo không có gì xấu - thứ 2 nạp tiền vào giữ lệnh - chấp nhận lỗ 20 giá </t>
+  </si>
+  <si>
+    <t>giữ lệnh từ thứ 6, có cơ hội chốt lời mà ko chốt</t>
+  </si>
+  <si>
+    <t>Ngày đáo hạn PS, coi mấy ảnh diễn trò</t>
   </si>
 </sst>
 </file>
@@ -11699,8 +11705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="A9:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11783,7 +11789,7 @@
       </c>
       <c r="N2" s="15">
         <f>PS!M2+SUM(D:D)-SUM(O2:Q2)</f>
-        <v>56605.442279999988</v>
+        <v>56766.692279999988</v>
       </c>
       <c r="O2" s="15">
         <v>62924</v>
@@ -11932,7 +11938,7 @@
       </c>
       <c r="N6" s="21">
         <f ca="1">-N9+0*J88+PS!M6*0+N12+J79+J75+J77+5080+J73+J71+J69+J67+J65+J63+J61+J58+J56+J50+J52+J54+J48+J46+J44+J42+J40+8230+J38+J37+J35+J36+J29+J34+J33+J32+J31+J28+J26+J24+1000+J22+J10+J18+J16+J14+J12</f>
-        <v>-31885.50491666609</v>
+        <v>-26484.742416666086</v>
       </c>
       <c r="O6" s="21">
         <f>-O9+1*J88+29000-16000-800-22000-500-2200+7900+9200+4700+1000+500+7900+J137+J135+J133+11000+J129+J131+J127+J125+J123+J121+J119+J117+J115+J113+274+J112-5000+J110+J108+J104+J106+I107+1850+J102+J100+J98+J96+J95+J93+J91+J90+J86</f>
@@ -11969,7 +11975,7 @@
       </c>
       <c r="N7" s="36">
         <f ca="1">SUM(N4:N6)</f>
-        <v>408861.29830448225</v>
+        <v>414262.06080448226</v>
       </c>
       <c r="O7" s="36">
         <f>SUM(O4:O6)</f>
@@ -12009,7 +12015,7 @@
       </c>
       <c r="N8" s="65">
         <f ca="1">ROUNDDOWN((N6/(N4+N5)),3)</f>
-        <v>-7.1999999999999995E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="O8" s="65">
         <f>ROUNDDOWN((O6/(O4+O5)),3)</f>
@@ -12085,10 +12091,10 @@
       </c>
       <c r="D10" s="16">
         <f>-F10*E10*0.0025</f>
-        <v>363.75</v>
+        <v>372.5</v>
       </c>
       <c r="E10" s="14">
-        <v>14.55</v>
+        <v>14.9</v>
       </c>
       <c r="F10" s="14">
         <v>-10000</v>
@@ -12096,7 +12102,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="97">
         <f ca="1">Table1[[#This Row],[Result]]/(E11*F11)</f>
-        <v>-7.7226573900354395E-2</v>
+        <v>-7.4642067959141134E-2</v>
       </c>
       <c r="I10" s="69">
         <f ca="1">Table1[[#This Row],[Date]]-A11</f>
@@ -12104,7 +12110,7 @@
       </c>
       <c r="J10" s="162">
         <f ca="1">-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E11*F11-Table1[[#This Row],[Commission]]-D11+I11</f>
-        <v>-12348.529166666667</v>
+        <v>-11935.266666666666</v>
       </c>
       <c r="K10" s="121" t="s">
         <v>1272</v>
@@ -12156,15 +12162,14 @@
       <c r="H11" s="97"/>
       <c r="I11" s="67">
         <f ca="1">-105/360*(I10+1)*Table1[[#This Row],[Notes]]</f>
-        <v>2655.0708333333332</v>
+        <v>-422.91666666666669</v>
       </c>
       <c r="J11" s="98">
         <f>Table1[[#This Row],[Volume]]*Table1[[#This Row],[Price]]</f>
         <v>159900</v>
       </c>
       <c r="K11" s="109">
-        <f>Table1[[#This Row],[Result]]/1000-(446+8.8+7+12)</f>
-        <v>-313.89999999999998</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s">
         <v>756</v>
@@ -12201,10 +12206,10 @@
       </c>
       <c r="D12" s="16">
         <f>-F12*E12*0.0025</f>
-        <v>732.5</v>
+        <v>745</v>
       </c>
       <c r="E12" s="14">
-        <v>14.65</v>
+        <v>14.9</v>
       </c>
       <c r="F12" s="14">
         <v>-20000</v>
@@ -12212,7 +12217,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="97">
         <f>Table1[[#This Row],[Result]]/(E13*F13)</f>
-        <v>5.4238738738738738E-2</v>
+        <v>7.2211711711711715E-2</v>
       </c>
       <c r="I12" s="69">
         <f ca="1">Table1[[#This Row],[Date]]-A13</f>
@@ -12220,7 +12225,7 @@
       </c>
       <c r="J12" s="162">
         <f>-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E13*F13-Table1[[#This Row],[Commission]]-D13+I13</f>
-        <v>15051.25</v>
+        <v>20038.75</v>
       </c>
       <c r="K12" s="121" t="s">
         <v>1300</v>
@@ -23470,8 +23475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23562,7 +23567,7 @@
       </c>
       <c r="M2" s="15">
         <f>SUM(Table6[[#All],[Commission]])</f>
-        <v>19217.800000000003</v>
+        <v>19357.800000000003</v>
       </c>
       <c r="P2" t="s">
         <v>1022</v>
@@ -23701,7 +23706,7 @@
       </c>
       <c r="M5" s="21">
         <f>SUM(G:G)-M3-U5</f>
-        <v>-10544.299999999646</v>
+        <v>-2034.2999999996391</v>
       </c>
       <c r="T5" s="160" t="s">
         <v>1223</v>
@@ -23749,7 +23754,7 @@
       </c>
       <c r="M6" s="21">
         <f>-M3-M2+SUM(Table6[[#All],[Vị thế đóng]])-M7</f>
-        <v>27181.700000000354</v>
+        <v>35691.700000000354</v>
       </c>
       <c r="O6" s="134" t="s">
         <v>987</v>
@@ -23846,7 +23851,7 @@
       </c>
       <c r="M8" s="65">
         <f>ROUNDDOWN((M6/(M4)),3)</f>
-        <v>4.2999999999999997E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="O8" s="140" t="s">
         <v>976</v>
@@ -24153,7 +24158,9 @@
       </c>
       <c r="H15" s="24"/>
       <c r="I15" s="152"/>
-      <c r="J15" s="45"/>
+      <c r="J15" s="45" t="s">
+        <v>1311</v>
+      </c>
       <c r="L15" t="s">
         <v>1307</v>
       </c>
@@ -24174,7 +24181,9 @@
       <c r="A16" s="43">
         <v>44761</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>969</v>
+      </c>
       <c r="C16" s="16"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -24203,18 +24212,31 @@
       <c r="A17" s="43">
         <v>44760</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="98"/>
+      <c r="B17" s="14" t="s">
+        <v>969</v>
+      </c>
+      <c r="C17" s="16">
+        <v>140</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1210.0999999999999</v>
+      </c>
+      <c r="E17" s="14">
+        <v>5</v>
+      </c>
+      <c r="F17" s="98">
+        <f>(15.4-10.1)*500</f>
+        <v>2650.0000000000005</v>
+      </c>
       <c r="G17" s="153">
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
-        <v>0</v>
+        <v>2510.0000000000005</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="152"/>
-      <c r="J17" s="45"/>
+      <c r="J17" s="45" t="s">
+        <v>1310</v>
+      </c>
       <c r="L17" t="s">
         <v>1296</v>
       </c>
@@ -24245,11 +24267,11 @@
         <v>5</v>
       </c>
       <c r="F18" s="98">
-        <v>-10000</v>
+        <v>-4000</v>
       </c>
       <c r="G18" s="153">
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
-        <v>-10155</v>
+        <v>-4155</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="152">

--- a/Relax.xlsx
+++ b/Relax.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KeHoach" sheetId="5" r:id="rId1"/>
@@ -2343,7 +2343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="1312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="1315">
   <si>
     <t>https://www.youtube.com/watch?v=T77wtm-2exE</t>
   </si>
@@ -7228,7 +7228,16 @@
     <t>giữ lệnh từ thứ 6, có cơ hội chốt lời mà ko chốt</t>
   </si>
   <si>
-    <t>Ngày đáo hạn PS, coi mấy ảnh diễn trò</t>
+    <t>Vì tối qua DJ tăng mạnh nên hnay khó có kịch bản VN30 giảm; Ngày đáo hạn PS, coi mấy ảnh diễn trò =&gt; không có trò gì hay ho, 1 phiên đáo hạn diễn ra bình ổn</t>
+  </si>
+  <si>
+    <t>Ngày 20-7-22</t>
+  </si>
+  <si>
+    <t>Đã chính thức về bờ tháng này, giữ lệnh tới thời điểm này không hiệu quả bằng chốt liền như tháng trước</t>
+  </si>
+  <si>
+    <t>KEEP</t>
   </si>
 </sst>
 </file>
@@ -11705,8 +11714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="A9:Q9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11789,7 +11798,7 @@
       </c>
       <c r="N2" s="15">
         <f>PS!M2+SUM(D:D)-SUM(O2:Q2)</f>
-        <v>56766.692279999988</v>
+        <v>56824.942279999988</v>
       </c>
       <c r="O2" s="15">
         <v>62924</v>
@@ -11938,7 +11947,7 @@
       </c>
       <c r="N6" s="21">
         <f ca="1">-N9+0*J88+PS!M6*0+N12+J79+J75+J77+5080+J73+J71+J69+J67+J65+J63+J61+J58+J56+J50+J52+J54+J48+J46+J44+J42+J40+8230+J38+J37+J35+J36+J29+J34+J33+J32+J31+J28+J26+J24+1000+J22+J10+J18+J16+J14+J12</f>
-        <v>-26484.742416666086</v>
+        <v>-45965.15908333275</v>
       </c>
       <c r="O6" s="21">
         <f>-O9+1*J88+29000-16000-800-22000-500-2200+7900+9200+4700+1000+500+7900+J137+J135+J133+11000+J129+J131+J127+J125+J123+J121+J119+J117+J115+J113+274+J112-5000+J110+J108+J104+J106+I107+1850+J102+J100+J98+J96+J95+J93+J91+J90+J86</f>
@@ -11975,7 +11984,7 @@
       </c>
       <c r="N7" s="36">
         <f ca="1">SUM(N4:N6)</f>
-        <v>414262.06080448226</v>
+        <v>394781.64413781557</v>
       </c>
       <c r="O7" s="36">
         <f>SUM(O4:O6)</f>
@@ -12015,7 +12024,7 @@
       </c>
       <c r="N8" s="65">
         <f ca="1">ROUNDDOWN((N6/(N4+N5)),3)</f>
-        <v>-0.06</v>
+        <v>-0.104</v>
       </c>
       <c r="O8" s="65">
         <f>ROUNDDOWN((O6/(O4+O5)),3)</f>
@@ -12081,7 +12090,7 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="43">
         <f ca="1">TODAY()</f>
-        <v>44760</v>
+        <v>44762</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>90</v>
@@ -12091,10 +12100,10 @@
       </c>
       <c r="D10" s="16">
         <f>-F10*E10*0.0025</f>
-        <v>372.5</v>
+        <v>356.25</v>
       </c>
       <c r="E10" s="14">
-        <v>14.9</v>
+        <v>14.25</v>
       </c>
       <c r="F10" s="14">
         <v>-10000</v>
@@ -12102,15 +12111,15 @@
       <c r="G10" s="14"/>
       <c r="H10" s="97">
         <f ca="1">Table1[[#This Row],[Result]]/(E11*F11)</f>
-        <v>-7.4642067959141134E-2</v>
+        <v>-0.11537325411715654</v>
       </c>
       <c r="I10" s="69">
         <f ca="1">Table1[[#This Row],[Date]]-A11</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J10" s="162">
         <f ca="1">-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E11*F11-Table1[[#This Row],[Commission]]-D11+I11</f>
-        <v>-11935.266666666666</v>
+        <v>-18448.183333333331</v>
       </c>
       <c r="K10" s="121" t="s">
         <v>1272</v>
@@ -12162,7 +12171,7 @@
       <c r="H11" s="97"/>
       <c r="I11" s="67">
         <f ca="1">-105/360*(I10+1)*Table1[[#This Row],[Notes]]</f>
-        <v>-422.91666666666669</v>
+        <v>-452.08333333333337</v>
       </c>
       <c r="J11" s="98">
         <f>Table1[[#This Row],[Volume]]*Table1[[#This Row],[Price]]</f>
@@ -12196,7 +12205,7 @@
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="43">
         <f ca="1">TODAY()</f>
-        <v>44760</v>
+        <v>44762</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>90</v>
@@ -12206,10 +12215,10 @@
       </c>
       <c r="D12" s="16">
         <f>-F12*E12*0.0025</f>
-        <v>745</v>
+        <v>712.5</v>
       </c>
       <c r="E12" s="14">
-        <v>14.9</v>
+        <v>14.25</v>
       </c>
       <c r="F12" s="14">
         <v>-20000</v>
@@ -12217,15 +12226,15 @@
       <c r="G12" s="14"/>
       <c r="H12" s="97">
         <f>Table1[[#This Row],[Result]]/(E13*F13)</f>
-        <v>7.2211711711711715E-2</v>
+        <v>2.5481981981981983E-2</v>
       </c>
       <c r="I12" s="69">
         <f ca="1">Table1[[#This Row],[Date]]-A13</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J12" s="162">
         <f>-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E13*F13-Table1[[#This Row],[Commission]]-D13+I13</f>
-        <v>20038.75</v>
+        <v>7071.25</v>
       </c>
       <c r="K12" s="121" t="s">
         <v>1300</v>
@@ -23475,8 +23484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23567,7 +23576,7 @@
       </c>
       <c r="M2" s="15">
         <f>SUM(Table6[[#All],[Commission]])</f>
-        <v>19357.800000000003</v>
+        <v>19464.800000000003</v>
       </c>
       <c r="P2" t="s">
         <v>1022</v>
@@ -23706,7 +23715,7 @@
       </c>
       <c r="M5" s="21">
         <f>SUM(G:G)-M3-U5</f>
-        <v>-2034.2999999996391</v>
+        <v>3818.7000000003609</v>
       </c>
       <c r="T5" s="160" t="s">
         <v>1223</v>
@@ -23754,7 +23763,7 @@
       </c>
       <c r="M6" s="21">
         <f>-M3-M2+SUM(Table6[[#All],[Vị thế đóng]])-M7</f>
-        <v>35691.700000000354</v>
+        <v>41544.700000000354</v>
       </c>
       <c r="O6" s="134" t="s">
         <v>987</v>
@@ -23851,7 +23860,7 @@
       </c>
       <c r="M8" s="65">
         <f>ROUNDDOWN((M6/(M4)),3)</f>
-        <v>5.7000000000000002E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="O8" s="140" t="s">
         <v>976</v>
@@ -24110,6 +24119,12 @@
       <c r="K14" t="s">
         <v>756</v>
       </c>
+      <c r="L14" t="s">
+        <v>1312</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1313</v>
+      </c>
       <c r="O14" s="140" t="s">
         <v>975</v>
       </c>
@@ -24147,14 +24162,24 @@
       <c r="A15" s="43">
         <v>44762</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="14" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C15" s="16">
+        <f>13+59+15</f>
+        <v>87</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1227</v>
+      </c>
       <c r="E15" s="14"/>
-      <c r="F15" s="98"/>
+      <c r="F15" s="98">
+        <f>2840+1510+1590+1220</f>
+        <v>7160</v>
+      </c>
       <c r="G15" s="153">
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
-        <v>0</v>
+        <v>7073</v>
       </c>
       <c r="H15" s="24"/>
       <c r="I15" s="152"/>
@@ -24182,15 +24207,21 @@
         <v>44761</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>969</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14"/>
+        <v>1314</v>
+      </c>
+      <c r="C16" s="16">
+        <v>20</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1213.5</v>
+      </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="98"/>
+      <c r="F16" s="98">
+        <v>-1200</v>
+      </c>
       <c r="G16" s="153">
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
-        <v>0</v>
+        <v>-1220</v>
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="152"/>
@@ -24213,7 +24244,7 @@
         <v>44760</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>969</v>
+        <v>1314</v>
       </c>
       <c r="C17" s="16">
         <v>140</v>
@@ -24221,9 +24252,7 @@
       <c r="D17" s="14">
         <v>1210.0999999999999</v>
       </c>
-      <c r="E17" s="14">
-        <v>5</v>
-      </c>
+      <c r="E17" s="14"/>
       <c r="F17" s="98">
         <f>(15.4-10.1)*500</f>
         <v>2650.0000000000005</v>
@@ -24255,7 +24284,7 @@
         <v>44757</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>969</v>
+        <v>1314</v>
       </c>
       <c r="C18" s="16">
         <v>155</v>
@@ -24263,9 +24292,7 @@
       <c r="D18" s="14">
         <v>1218.0999999999999</v>
       </c>
-      <c r="E18" s="14">
-        <v>5</v>
-      </c>
+      <c r="E18" s="14"/>
       <c r="F18" s="98">
         <v>-4000</v>
       </c>

--- a/Relax.xlsx
+++ b/Relax.xlsx
@@ -2194,7 +2194,31 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A23" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+chốt PS 2207</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2218,7 +2242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L36" authorId="0" shapeId="0">
+    <comment ref="L51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2242,7 +2266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0" shapeId="0">
+    <comment ref="B58" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2266,7 +2290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="0" shapeId="0">
+    <comment ref="B59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2290,7 +2314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="0" shapeId="0">
+    <comment ref="B60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2314,7 +2338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0" shapeId="0">
+    <comment ref="B61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7710,7 +7734,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -7996,6 +8020,7 @@
     <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -23485,7 +23510,7 @@
   <dimension ref="A1:AE59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24181,7 +24206,9 @@
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
         <v>7073</v>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24">
+        <v>9.3999999999998636</v>
+      </c>
       <c r="I15" s="152"/>
       <c r="J15" s="45" t="s">
         <v>1311</v>
@@ -24223,7 +24250,9 @@
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
         <v>-1220</v>
       </c>
-      <c r="H16" s="24"/>
+      <c r="H16" s="24">
+        <v>8.3000000000001819</v>
+      </c>
       <c r="I16" s="152"/>
       <c r="J16" s="45"/>
       <c r="L16" t="s">
@@ -24261,7 +24290,9 @@
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
         <v>2510.0000000000005</v>
       </c>
-      <c r="H17" s="24"/>
+      <c r="H17" s="24">
+        <v>8.7999999999999545</v>
+      </c>
       <c r="I17" s="152"/>
       <c r="J17" s="45" t="s">
         <v>1310</v>
@@ -24284,7 +24315,7 @@
         <v>44757</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1314</v>
+        <v>969</v>
       </c>
       <c r="C18" s="16">
         <v>155</v>
@@ -24300,7 +24331,9 @@
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
         <v>-4155</v>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="24">
+        <v>12.599999999999909</v>
+      </c>
       <c r="I18" s="152">
         <v>10000</v>
       </c>
@@ -24343,7 +24376,9 @@
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
         <v>1295</v>
       </c>
-      <c r="H19" s="24"/>
+      <c r="H19" s="24">
+        <v>13.5</v>
+      </c>
       <c r="I19" s="152">
         <v>5000</v>
       </c>
@@ -24386,7 +24421,9 @@
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
         <v>0</v>
       </c>
-      <c r="H20" s="24"/>
+      <c r="H20" s="24">
+        <v>10.599999999999909</v>
+      </c>
       <c r="I20" s="152"/>
       <c r="J20" s="45" t="s">
         <v>1245</v>
@@ -24430,7 +24467,9 @@
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
         <v>0</v>
       </c>
-      <c r="H21" s="24"/>
+      <c r="H21" s="24">
+        <v>14.099999999999909</v>
+      </c>
       <c r="I21" s="152"/>
       <c r="J21" s="45" t="s">
         <v>1245</v>
@@ -24485,7 +24524,9 @@
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
         <v>5310.5</v>
       </c>
-      <c r="H22" s="24"/>
+      <c r="H22" s="24">
+        <v>24.700000000000045</v>
+      </c>
       <c r="I22" s="152">
         <v>20000</v>
       </c>
@@ -24528,7 +24569,9 @@
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
         <v>1100</v>
       </c>
-      <c r="H23" s="24"/>
+      <c r="H23" s="24">
+        <v>8.2999999999999545</v>
+      </c>
       <c r="I23" s="152">
         <v>5500</v>
       </c>
@@ -26177,10 +26220,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26240,26 +26283,27 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="165">
-        <v>44757</v>
+        <v>44778</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
+      <c r="L2" s="167"/>
       <c r="M2">
-        <f t="shared" ref="M2:M33" si="0">C2-D2</f>
+        <f t="shared" ref="M2:M6" si="0">C2-D2</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N33" si="1">G2-H2</f>
+        <f t="shared" ref="N2:N6" si="1">G2-H2</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O33" si="2">I2-F2</f>
+        <f t="shared" ref="O2:O6" si="2">I2-F2</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P33" si="3">M2-N2</f>
+        <f t="shared" ref="P2:P6" si="3">M2-N2</f>
         <v>0</v>
       </c>
       <c r="Q2">
@@ -26269,12 +26313,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
-        <v>44756</v>
+        <v>44777</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
+      <c r="L3" s="167"/>
       <c r="M3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26298,7 +26343,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="165">
-        <v>44755</v>
+        <v>44776</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -26327,7 +26372,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
-        <v>44754</v>
+        <v>44775</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -26356,12 +26401,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="164">
-        <v>44753</v>
+        <v>44774</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
+      <c r="L6" s="167"/>
       <c r="M6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26384,3284 +26430,3977 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="19">
-        <v>44750</v>
+      <c r="A7" s="165">
+        <v>44771</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
+      <c r="L7" s="167"/>
       <c r="M7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M7:M11" si="5">C7-D7</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N7:N11" si="6">G7-H7</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O7:O11" si="7">I7-F7</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P7:P11" si="8">M7-N7</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7:Q10" si="5">I7-E7</f>
+        <f t="shared" ref="Q7:Q10" si="9">I7-E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
-        <v>44749</v>
-      </c>
-      <c r="B8">
-        <v>1215.7</v>
-      </c>
-      <c r="C8">
-        <v>1226.2</v>
-      </c>
-      <c r="D8">
-        <v>1213</v>
-      </c>
-      <c r="E8">
-        <v>1225</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1212.3599999999999</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1229.23</v>
-      </c>
-      <c r="H8" s="11">
-        <v>1209.97</v>
-      </c>
-      <c r="I8" s="11">
-        <v>1229.23</v>
-      </c>
-      <c r="J8">
-        <v>319.33600000000001</v>
-      </c>
-      <c r="K8">
-        <v>98.638999999999996</v>
-      </c>
-      <c r="L8">
-        <v>-4.2</v>
-      </c>
+        <v>44770</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="L8" s="167"/>
       <c r="M8">
-        <f t="shared" si="0"/>
-        <v>13.200000000000045</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
-        <v>19.259999999999991</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="2"/>
-        <v>16.870000000000118</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
-        <v>-6.0599999999999454</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="165">
+        <v>44769</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="M9">
         <f t="shared" si="5"/>
-        <v>4.2300000000000182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="19">
-        <v>44748</v>
-      </c>
-      <c r="B9">
-        <v>1234.8</v>
-      </c>
-      <c r="C9">
-        <v>1234.8</v>
-      </c>
-      <c r="D9">
-        <v>1213.4000000000001</v>
-      </c>
-      <c r="E9">
-        <v>1218</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1241.19</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1241.19</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1211.94</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1211.94</v>
-      </c>
-      <c r="J9">
-        <v>399.286</v>
-      </c>
-      <c r="K9">
-        <v>131.18</v>
-      </c>
-      <c r="L9">
-        <v>-2</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>21.399999999999864</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
-        <v>29.25</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" si="2"/>
-        <v>-29.25</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P9">
-        <f t="shared" si="3"/>
-        <v>-7.8500000000001364</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="5"/>
-        <v>-6.0599999999999454</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
-        <v>44747</v>
-      </c>
-      <c r="B10">
-        <v>1248.3</v>
-      </c>
-      <c r="C10">
-        <v>1251.9000000000001</v>
-      </c>
-      <c r="D10">
-        <v>1234</v>
-      </c>
-      <c r="E10">
-        <v>1234.9000000000001</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1252.48</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1256.47</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1239.8</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1242.05</v>
-      </c>
-      <c r="J10">
-        <v>332.00200000000001</v>
-      </c>
-      <c r="K10">
-        <v>162.03100000000001</v>
-      </c>
-      <c r="L10">
-        <v>-5</v>
-      </c>
+        <v>44768</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="M10">
-        <f t="shared" si="0"/>
-        <v>17.900000000000091</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
-        <v>16.670000000000073</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="O10">
-        <f t="shared" si="2"/>
-        <v>-10.430000000000064</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P10">
-        <f t="shared" si="3"/>
-        <v>1.2300000000000182</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="5"/>
-        <v>7.1499999999998636</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="164">
-        <v>44746</v>
-      </c>
-      <c r="B11">
-        <v>1247</v>
-      </c>
-      <c r="C11">
-        <v>1252.0999999999999</v>
-      </c>
-      <c r="D11">
-        <v>1238.0999999999999</v>
-      </c>
-      <c r="E11">
-        <v>1242</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1256.2</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1260.72</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1244.5</v>
-      </c>
-      <c r="I11" s="11">
-        <v>1248.3699999999999</v>
-      </c>
-      <c r="J11">
-        <v>245.64400000000001</v>
-      </c>
-      <c r="K11">
-        <v>112.84</v>
-      </c>
-      <c r="L11">
-        <v>-5</v>
-      </c>
+        <v>44767</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="L11" s="167"/>
       <c r="M11">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
-        <v>16.220000000000027</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
-        <v>-7.8300000000001546</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
-        <v>-2.2200000000000273</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q11">
         <f>I11-E11</f>
-        <v>6.3699999999998909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="19">
-        <v>44743</v>
-      </c>
-      <c r="B12">
-        <v>1241</v>
-      </c>
-      <c r="C12">
-        <v>1243.5</v>
-      </c>
-      <c r="D12">
-        <v>1221.5</v>
-      </c>
-      <c r="E12">
-        <v>1242</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1247.7</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1255.67</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1225.6400000000001</v>
-      </c>
-      <c r="I12" s="11">
-        <v>1252.24</v>
-      </c>
-      <c r="J12">
-        <v>330.35199999999998</v>
-      </c>
-      <c r="K12">
-        <v>118.89100000000001</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
+      <c r="A12" s="165">
+        <v>44764</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="M12">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f t="shared" ref="M12:M16" si="10">C12-D12</f>
+        <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
-        <v>30.029999999999973</v>
+        <f t="shared" ref="N12:N16" si="11">G12-H12</f>
+        <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
-        <v>4.5399999999999636</v>
+        <f t="shared" ref="O12:O16" si="12">I12-F12</f>
+        <v>0</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
-        <v>-8.0299999999999727</v>
+        <f t="shared" ref="P12:P16" si="13">M12-N12</f>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <f t="shared" ref="Q12:Q15" si="6">I12-E12</f>
-        <v>10.240000000000009</v>
+        <f t="shared" ref="Q12:Q15" si="14">I12-E12</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
-        <v>44742</v>
-      </c>
-      <c r="B13">
-        <v>1262</v>
-      </c>
-      <c r="C13">
-        <v>1264.8</v>
-      </c>
-      <c r="D13">
-        <v>1240.0999999999999</v>
-      </c>
-      <c r="E13">
-        <v>1240.0999999999999</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1273.99</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1276.23</v>
-      </c>
-      <c r="H13" s="11">
-        <v>1248.92</v>
-      </c>
-      <c r="I13" s="11">
-        <v>1248.92</v>
-      </c>
-      <c r="J13">
-        <v>256.95100000000002</v>
-      </c>
-      <c r="K13">
-        <v>118.014</v>
-      </c>
-      <c r="L13">
+        <v>44763</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="M13">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>24.700000000000045</v>
-      </c>
       <c r="N13">
-        <f t="shared" si="1"/>
-        <v>27.309999999999945</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
-        <v>-25.069999999999936</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
-        <v>-2.6099999999999</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="6"/>
-        <v>8.8200000000001637</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="19">
-        <v>44741</v>
+      <c r="A14" s="159">
+        <v>44762</v>
       </c>
       <c r="B14">
-        <v>1255</v>
+        <v>1223.5</v>
       </c>
       <c r="C14">
-        <v>1262.9000000000001</v>
+        <v>1230.8</v>
       </c>
       <c r="D14">
-        <v>1251.0999999999999</v>
+        <v>1221.4000000000001</v>
       </c>
       <c r="E14">
-        <v>1260.5</v>
+        <v>1226.0999999999999</v>
       </c>
       <c r="F14" s="11">
-        <v>1259.83</v>
+        <v>1220.25</v>
       </c>
       <c r="G14" s="11">
-        <v>1274.73</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="H14" s="11">
-        <v>1259.4100000000001</v>
+        <v>1217.45</v>
       </c>
       <c r="I14" s="11">
-        <v>1273.4000000000001</v>
+        <v>1225.6199999999999</v>
       </c>
       <c r="J14">
-        <v>289.58300000000003</v>
-      </c>
-      <c r="K14">
-        <v>113.29600000000001</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
+        <v>189.50299999999999</v>
+      </c>
+      <c r="K14" s="167">
+        <v>123.378</v>
+      </c>
+      <c r="L14" s="167">
+        <v>14</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
-        <v>11.800000000000182</v>
+        <f t="shared" si="10"/>
+        <v>9.3999999999998636</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
-        <v>15.319999999999936</v>
+        <f t="shared" si="11"/>
+        <v>12.169999999999845</v>
       </c>
       <c r="O14">
-        <f t="shared" si="2"/>
-        <v>13.570000000000164</v>
+        <f t="shared" si="12"/>
+        <v>5.3699999999998909</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
-        <v>-3.5199999999997544</v>
+        <f t="shared" si="13"/>
+        <v>-2.7699999999999818</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="6"/>
-        <v>12.900000000000091</v>
+        <f t="shared" si="14"/>
+        <v>-0.48000000000001819</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
-        <v>44740</v>
+        <v>44761</v>
       </c>
       <c r="B15">
-        <v>1246</v>
+        <v>1213.9000000000001</v>
       </c>
       <c r="C15">
-        <v>1266.5</v>
+        <v>1216.4000000000001</v>
       </c>
       <c r="D15">
-        <v>1242.7</v>
+        <v>1208.0999999999999</v>
       </c>
       <c r="E15">
-        <v>1261</v>
+        <v>1213</v>
       </c>
       <c r="F15" s="11">
-        <v>1254.3499999999999</v>
+        <v>1213.55</v>
       </c>
       <c r="G15" s="11">
-        <v>1276.21</v>
+        <v>1213.6400000000001</v>
       </c>
       <c r="H15" s="11">
-        <v>1249.57</v>
+        <v>1204.6099999999999</v>
       </c>
       <c r="I15" s="11">
-        <v>1273.4100000000001</v>
+        <v>1211.7</v>
       </c>
       <c r="J15">
-        <v>258.19400000000002</v>
+        <v>196.929</v>
       </c>
       <c r="K15">
-        <v>151.571</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
+        <v>100.593</v>
+      </c>
+      <c r="L15" s="167">
+        <v>-2.4</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
-        <v>23.799999999999955</v>
+        <f t="shared" si="10"/>
+        <v>8.3000000000001819</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
-        <v>26.6400000000001</v>
+        <f t="shared" si="11"/>
+        <v>9.0300000000002001</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
-        <v>19.060000000000173</v>
+        <f t="shared" si="12"/>
+        <v>-1.8499999999999091</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
-        <v>-2.8400000000001455</v>
+        <f t="shared" si="13"/>
+        <v>-0.73000000000001819</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="6"/>
-        <v>12.410000000000082</v>
+        <f t="shared" si="14"/>
+        <v>-1.2999999999999545</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="164">
-        <v>44739</v>
+        <v>44760</v>
       </c>
       <c r="B16">
-        <v>1236</v>
+        <v>1218.2</v>
       </c>
       <c r="C16">
-        <v>1247.9000000000001</v>
+        <v>1221</v>
       </c>
       <c r="D16">
-        <v>1234</v>
+        <v>1212.2</v>
       </c>
       <c r="E16">
-        <v>1247.9000000000001</v>
+        <v>1215.4000000000001</v>
       </c>
       <c r="F16" s="11">
-        <v>1238.23</v>
+        <v>1225.4000000000001</v>
       </c>
       <c r="G16" s="11">
-        <v>1256.67</v>
+        <v>1225.69</v>
       </c>
       <c r="H16" s="11">
-        <v>1237.79</v>
+        <v>1213.28</v>
       </c>
       <c r="I16" s="11">
-        <v>1256.67</v>
+        <v>1214.28</v>
       </c>
       <c r="J16">
-        <v>218.952</v>
+        <v>178.982</v>
       </c>
       <c r="K16">
-        <v>110.59699999999999</v>
-      </c>
-      <c r="L16">
-        <v>13</v>
+        <v>104.039</v>
+      </c>
+      <c r="L16" s="167">
+        <v>5</v>
       </c>
       <c r="M16">
-        <f t="shared" si="0"/>
-        <v>13.900000000000091</v>
+        <f t="shared" si="10"/>
+        <v>8.7999999999999545</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
-        <v>18.880000000000109</v>
+        <f t="shared" si="11"/>
+        <v>12.410000000000082</v>
       </c>
       <c r="O16">
-        <f t="shared" si="2"/>
-        <v>18.440000000000055</v>
+        <f t="shared" si="12"/>
+        <v>-11.120000000000118</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
-        <v>-4.9800000000000182</v>
+        <f t="shared" si="13"/>
+        <v>-3.6100000000001273</v>
       </c>
       <c r="Q16">
         <f>I16-E16</f>
-        <v>8.7699999999999818</v>
+        <v>-1.1200000000001182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="19">
-        <v>44736</v>
+      <c r="A17" s="165">
+        <v>44757</v>
       </c>
       <c r="B17">
-        <v>1236</v>
+        <v>1219</v>
       </c>
       <c r="C17">
-        <v>1237.9000000000001</v>
+        <v>1221.8</v>
       </c>
       <c r="D17">
-        <v>1226</v>
+        <v>1209.2</v>
       </c>
       <c r="E17">
-        <v>1227</v>
+        <v>1210.0999999999999</v>
       </c>
       <c r="F17" s="11">
-        <v>1239.54</v>
+        <v>1224.1500000000001</v>
       </c>
       <c r="G17" s="11">
-        <v>1246.22</v>
+        <v>1228.48</v>
       </c>
       <c r="H17" s="11">
-        <v>1234.72</v>
+        <v>1217.21</v>
       </c>
       <c r="I17" s="11">
-        <v>1235.47</v>
+        <v>1220.1400000000001</v>
       </c>
       <c r="J17">
-        <v>243.816</v>
+        <v>220.851</v>
       </c>
       <c r="K17">
-        <v>90.436999999999998</v>
-      </c>
-      <c r="L17">
-        <v>-10</v>
+        <v>147.666</v>
+      </c>
+      <c r="L17" s="167">
+        <v>-8</v>
       </c>
       <c r="M17">
-        <f t="shared" si="0"/>
-        <v>11.900000000000091</v>
+        <f t="shared" ref="M17:M48" si="15">C17-D17</f>
+        <v>12.599999999999909</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
-        <v>11.5</v>
+        <f t="shared" ref="N17:N48" si="16">G17-H17</f>
+        <v>11.269999999999982</v>
       </c>
       <c r="O17">
-        <f t="shared" si="2"/>
-        <v>-4.0699999999999363</v>
+        <f t="shared" ref="O17:O48" si="17">I17-F17</f>
+        <v>-4.0099999999999909</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
-        <v>0.40000000000009095</v>
+        <f t="shared" ref="P17:P48" si="18">M17-N17</f>
+        <v>1.3299999999999272</v>
       </c>
       <c r="Q17">
-        <f t="shared" ref="Q17:Q20" si="7">I17-E17</f>
-        <v>8.4700000000000273</v>
+        <f t="shared" ref="Q17:Q20" si="19">I17-E17</f>
+        <v>10.040000000000191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="19">
-        <v>44735</v>
+        <v>44756</v>
       </c>
       <c r="B18">
-        <v>1222</v>
+        <v>1206.8</v>
       </c>
       <c r="C18">
-        <v>1230.3</v>
+        <v>1217.9000000000001</v>
       </c>
       <c r="D18">
-        <v>1216.3</v>
+        <v>1204.4000000000001</v>
       </c>
       <c r="E18">
-        <v>1227.8</v>
+        <v>1215.7</v>
       </c>
       <c r="F18" s="11">
-        <v>1219.67</v>
+        <v>1213.73</v>
       </c>
       <c r="G18" s="11">
-        <v>1240.58</v>
+        <v>1224.01</v>
       </c>
       <c r="H18" s="11">
-        <v>1219.08</v>
+        <v>1211.1400000000001</v>
       </c>
       <c r="I18" s="11">
-        <v>1240.58</v>
+        <v>1221.94</v>
       </c>
       <c r="J18">
-        <v>336.90800000000002</v>
+        <v>242.459</v>
       </c>
       <c r="K18">
-        <v>105.24</v>
-      </c>
-      <c r="L18">
-        <v>7</v>
+        <v>106.758</v>
+      </c>
+      <c r="L18" s="167">
+        <v>2</v>
       </c>
       <c r="M18">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f t="shared" si="15"/>
+        <v>13.5</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
-        <v>21.5</v>
+        <f t="shared" si="16"/>
+        <v>12.869999999999891</v>
       </c>
       <c r="O18">
-        <f t="shared" si="2"/>
-        <v>20.909999999999854</v>
+        <f t="shared" si="17"/>
+        <v>8.2100000000000364</v>
       </c>
       <c r="P18">
-        <f t="shared" si="3"/>
-        <v>-7.5</v>
+        <f t="shared" si="18"/>
+        <v>0.63000000000010914</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="7"/>
-        <v>12.779999999999973</v>
+        <f t="shared" si="19"/>
+        <v>6.2400000000000091</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="19">
-        <v>44734</v>
+      <c r="A19" s="165">
+        <v>44755</v>
       </c>
       <c r="B19">
-        <v>1233.7</v>
+        <v>1215</v>
       </c>
       <c r="C19">
-        <v>1240.9000000000001</v>
+        <v>1220.0999999999999</v>
       </c>
       <c r="D19">
-        <v>1216</v>
+        <v>1209.5</v>
       </c>
       <c r="E19">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="F19" s="11">
-        <v>1233.28</v>
+        <v>1216.83</v>
       </c>
       <c r="G19" s="11">
-        <v>1242.06</v>
+        <v>1225.8499999999999</v>
       </c>
       <c r="H19" s="11">
-        <v>1222.8599999999999</v>
+        <v>1213.4100000000001</v>
       </c>
       <c r="I19" s="11">
-        <v>1227.18</v>
+        <v>1216.94</v>
       </c>
       <c r="J19">
-        <v>404.68</v>
+        <v>251.96899999999999</v>
       </c>
       <c r="K19">
-        <v>142.69499999999999</v>
-      </c>
-      <c r="L19">
-        <v>22</v>
+        <v>117.18</v>
       </c>
       <c r="M19">
-        <f t="shared" si="0"/>
-        <v>24.900000000000091</v>
+        <f t="shared" si="15"/>
+        <v>10.599999999999909</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
-        <v>19.200000000000045</v>
+        <f t="shared" si="16"/>
+        <v>12.439999999999827</v>
       </c>
       <c r="O19">
-        <f t="shared" si="2"/>
-        <v>-6.0999999999999091</v>
+        <f t="shared" si="17"/>
+        <v>0.11000000000012733</v>
       </c>
       <c r="P19">
-        <f t="shared" si="3"/>
-        <v>5.7000000000000455</v>
+        <f t="shared" si="18"/>
+        <v>-1.8399999999999181</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="7"/>
-        <v>11.180000000000064</v>
+        <f t="shared" si="19"/>
+        <v>6.9400000000000546</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="19">
-        <v>44733</v>
+        <v>44754</v>
       </c>
       <c r="B20">
-        <v>1216.8</v>
+        <v>1202</v>
       </c>
       <c r="C20">
-        <v>1240</v>
+        <v>1216</v>
       </c>
       <c r="D20">
-        <v>1210.5</v>
+        <v>1201.9000000000001</v>
       </c>
       <c r="E20">
-        <v>1228</v>
+        <v>1213.5</v>
       </c>
       <c r="F20" s="11">
-        <v>1220.76</v>
+        <v>1208.06</v>
       </c>
       <c r="G20" s="11">
-        <v>1240.8</v>
+        <v>1219.44</v>
       </c>
       <c r="H20" s="11">
-        <v>1212.69</v>
+        <v>1204.8399999999999</v>
       </c>
       <c r="I20" s="11">
-        <v>1224.54</v>
+        <v>1219.44</v>
       </c>
       <c r="J20">
-        <v>504.51600000000002</v>
+        <v>224.334</v>
       </c>
       <c r="K20">
-        <v>172.80199999999999</v>
-      </c>
-      <c r="L20">
-        <v>5</v>
+        <v>88.676000000000002</v>
       </c>
       <c r="M20">
-        <f t="shared" si="0"/>
-        <v>29.5</v>
+        <f t="shared" si="15"/>
+        <v>14.099999999999909</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
-        <v>28.1099999999999</v>
+        <f t="shared" si="16"/>
+        <v>14.600000000000136</v>
       </c>
       <c r="O20">
-        <f t="shared" si="2"/>
-        <v>3.7799999999999727</v>
+        <f t="shared" si="17"/>
+        <v>11.380000000000109</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
-        <v>1.3900000000001</v>
+        <f t="shared" si="18"/>
+        <v>-0.50000000000022737</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="7"/>
-        <v>-3.4600000000000364</v>
+        <f t="shared" si="19"/>
+        <v>5.9400000000000546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="164">
-        <v>44732</v>
+        <v>44753</v>
       </c>
       <c r="B21">
-        <v>1244.8</v>
+        <v>1221</v>
       </c>
       <c r="C21">
-        <v>1249.4000000000001</v>
+        <v>1221.8</v>
       </c>
       <c r="D21">
-        <v>1212</v>
+        <v>1197.0999999999999</v>
       </c>
       <c r="E21">
-        <v>1212</v>
+        <v>1200.7</v>
       </c>
       <c r="F21" s="11">
-        <v>1258.3</v>
+        <v>1224.2</v>
       </c>
       <c r="G21" s="11">
-        <v>1262.83</v>
+        <v>1224.2</v>
       </c>
       <c r="H21" s="11">
-        <v>1223.03</v>
+        <v>1200.1500000000001</v>
       </c>
       <c r="I21" s="11">
-        <v>1225.56</v>
+        <v>1209.2</v>
       </c>
       <c r="J21">
-        <v>405.214</v>
+        <v>228.673</v>
       </c>
       <c r="K21">
-        <v>168.768</v>
-      </c>
-      <c r="L21">
-        <v>7</v>
+        <v>131.00200000000001</v>
+      </c>
+      <c r="L21" s="167">
+        <v>10</v>
       </c>
       <c r="M21">
-        <f t="shared" si="0"/>
-        <v>37.400000000000091</v>
+        <f t="shared" si="15"/>
+        <v>24.700000000000045</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
-        <v>39.799999999999955</v>
+        <f t="shared" si="16"/>
+        <v>24.049999999999955</v>
       </c>
       <c r="O21">
-        <f t="shared" si="2"/>
-        <v>-32.740000000000009</v>
+        <f t="shared" si="17"/>
+        <v>-15</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
-        <v>-2.3999999999998636</v>
+        <f t="shared" si="18"/>
+        <v>0.65000000000009095</v>
       </c>
       <c r="Q21">
         <f>I21-E21</f>
-        <v>13.559999999999945</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="19">
-        <v>44729</v>
+        <v>44750</v>
       </c>
       <c r="B22">
-        <v>1247.5</v>
+        <v>1230.5</v>
       </c>
       <c r="C22">
-        <v>1249</v>
+        <v>1231.8</v>
       </c>
       <c r="D22">
-        <v>1215.2</v>
+        <v>1223.5</v>
       </c>
       <c r="E22">
-        <v>1245.2</v>
+        <v>1225</v>
       </c>
       <c r="F22" s="11">
-        <v>1254.05</v>
+        <v>1235.6500000000001</v>
       </c>
       <c r="G22" s="11">
-        <v>1259.3900000000001</v>
+        <v>1236.8499999999999</v>
       </c>
       <c r="H22" s="11">
-        <v>1229.74</v>
+        <v>1225.04</v>
       </c>
       <c r="I22" s="11">
-        <v>1258.03</v>
+        <v>1231.54</v>
       </c>
       <c r="J22">
-        <v>455.23399999999998</v>
+        <v>210.77</v>
       </c>
       <c r="K22">
-        <v>187.3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
+        <v>115.988</v>
+      </c>
+      <c r="L22" s="167">
+        <v>2</v>
       </c>
       <c r="M22">
-        <f t="shared" si="0"/>
-        <v>33.799999999999955</v>
+        <f t="shared" si="15"/>
+        <v>8.2999999999999545</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
-        <v>29.650000000000091</v>
+        <f t="shared" si="16"/>
+        <v>11.809999999999945</v>
       </c>
       <c r="O22">
-        <f t="shared" si="2"/>
-        <v>3.9800000000000182</v>
+        <f t="shared" si="17"/>
+        <v>-4.1100000000001273</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
-        <v>4.1499999999998636</v>
+        <f t="shared" si="18"/>
+        <v>-3.5099999999999909</v>
       </c>
       <c r="Q22">
-        <f t="shared" ref="Q22:Q25" si="8">I22-E22</f>
-        <v>12.829999999999927</v>
+        <f t="shared" ref="Q22:Q25" si="20">I22-E22</f>
+        <v>6.5399999999999636</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="159">
-        <v>44728</v>
+      <c r="A23" s="19">
+        <v>44749</v>
       </c>
       <c r="B23">
-        <v>1261</v>
+        <v>1215.7</v>
       </c>
       <c r="C23">
-        <v>1286.5</v>
+        <v>1226.2</v>
       </c>
       <c r="D23">
-        <v>1260.7</v>
+        <v>1213</v>
       </c>
       <c r="E23">
-        <v>1286</v>
+        <v>1225</v>
       </c>
       <c r="F23" s="11">
-        <v>1266.8699999999999</v>
+        <v>1212.3599999999999</v>
       </c>
       <c r="G23" s="11">
-        <v>1292.02</v>
+        <v>1229.23</v>
       </c>
       <c r="H23" s="11">
-        <v>1263.56</v>
+        <v>1209.97</v>
       </c>
       <c r="I23" s="11">
-        <v>1280.3699999999999</v>
+        <v>1229.23</v>
       </c>
       <c r="J23">
-        <v>284.86799999999999</v>
+        <v>319.33600000000001</v>
       </c>
       <c r="K23">
-        <v>156.45500000000001</v>
+        <v>98.638999999999996</v>
       </c>
       <c r="L23">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="M23">
-        <f t="shared" si="0"/>
-        <v>25.799999999999955</v>
+        <f t="shared" si="15"/>
+        <v>13.200000000000045</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
-        <v>28.460000000000036</v>
+        <f t="shared" si="16"/>
+        <v>19.259999999999991</v>
       </c>
       <c r="O23">
-        <f t="shared" si="2"/>
-        <v>13.5</v>
+        <f t="shared" si="17"/>
+        <v>16.870000000000118</v>
       </c>
       <c r="P23">
-        <f t="shared" si="3"/>
-        <v>-2.6600000000000819</v>
+        <f t="shared" si="18"/>
+        <v>-6.0599999999999454</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="8"/>
-        <v>-5.6300000000001091</v>
+        <f t="shared" si="20"/>
+        <v>4.2300000000000182</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="19">
-        <v>44727</v>
+        <v>44748</v>
       </c>
       <c r="B24">
-        <v>1268</v>
+        <v>1234.8</v>
       </c>
       <c r="C24">
-        <v>1270.5</v>
+        <v>1234.8</v>
       </c>
       <c r="D24">
-        <v>1235.3</v>
+        <v>1213.4000000000001</v>
       </c>
       <c r="E24">
-        <v>1251.3</v>
+        <v>1218</v>
       </c>
       <c r="F24" s="11">
-        <v>1263.96</v>
+        <v>1241.19</v>
       </c>
       <c r="G24" s="11">
-        <v>1268.33</v>
+        <v>1241.19</v>
       </c>
       <c r="H24" s="11">
-        <v>1231.1199999999999</v>
+        <v>1211.94</v>
       </c>
       <c r="I24" s="11">
-        <v>1253.0899999999999</v>
+        <v>1211.94</v>
       </c>
       <c r="J24">
-        <v>356.99299999999999</v>
+        <v>399.286</v>
       </c>
       <c r="K24">
-        <v>167.43100000000001</v>
+        <v>131.18</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="M24">
-        <f t="shared" si="0"/>
-        <v>35.200000000000045</v>
+        <f t="shared" si="15"/>
+        <v>21.399999999999864</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
-        <v>37.210000000000036</v>
+        <f t="shared" si="16"/>
+        <v>29.25</v>
       </c>
       <c r="O24">
-        <f t="shared" si="2"/>
-        <v>-10.870000000000118</v>
+        <f t="shared" si="17"/>
+        <v>-29.25</v>
       </c>
       <c r="P24">
-        <f t="shared" si="3"/>
-        <v>-2.0099999999999909</v>
+        <f t="shared" si="18"/>
+        <v>-7.8500000000001364</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="8"/>
-        <v>1.7899999999999636</v>
+        <f t="shared" si="20"/>
+        <v>-6.0599999999999454</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="19">
-        <v>44726</v>
+        <v>44747</v>
       </c>
       <c r="B25">
-        <v>1254.8</v>
+        <v>1248.3</v>
       </c>
       <c r="C25">
-        <v>1272.5</v>
+        <v>1251.9000000000001</v>
       </c>
       <c r="D25">
-        <v>1250</v>
+        <v>1234</v>
       </c>
       <c r="E25">
-        <v>1268.3</v>
+        <v>1234.9000000000001</v>
       </c>
       <c r="F25" s="11">
-        <v>1247.3900000000001</v>
+        <v>1252.48</v>
       </c>
       <c r="G25" s="11">
-        <v>1271.28</v>
+        <v>1256.47</v>
       </c>
       <c r="H25" s="11">
-        <v>1245.26</v>
+        <v>1239.8</v>
       </c>
       <c r="I25" s="11">
-        <v>1261.1600000000001</v>
+        <v>1242.05</v>
       </c>
       <c r="J25">
-        <v>353.74700000000001</v>
+        <v>332.00200000000001</v>
       </c>
       <c r="K25">
-        <v>145.64099999999999</v>
+        <v>162.03100000000001</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="M25">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
+        <f t="shared" si="15"/>
+        <v>17.900000000000091</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
-        <v>26.019999999999982</v>
+        <f t="shared" si="16"/>
+        <v>16.670000000000073</v>
       </c>
       <c r="O25">
-        <f t="shared" si="2"/>
-        <v>13.769999999999982</v>
+        <f t="shared" si="17"/>
+        <v>-10.430000000000064</v>
       </c>
       <c r="P25">
-        <f t="shared" si="3"/>
-        <v>-3.5199999999999818</v>
+        <f t="shared" si="18"/>
+        <v>1.2300000000000182</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="8"/>
-        <v>-7.1399999999998727</v>
+        <f t="shared" si="20"/>
+        <v>7.1499999999998636</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="164">
+        <v>44746</v>
+      </c>
+      <c r="B26">
+        <v>1247</v>
+      </c>
+      <c r="C26">
+        <v>1252.0999999999999</v>
+      </c>
+      <c r="D26">
+        <v>1238.0999999999999</v>
+      </c>
+      <c r="E26">
+        <v>1242</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1256.2</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1260.72</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1244.5</v>
+      </c>
+      <c r="I26" s="11">
+        <v>1248.3699999999999</v>
+      </c>
+      <c r="J26">
+        <v>245.64400000000001</v>
+      </c>
+      <c r="K26">
+        <v>112.84</v>
+      </c>
+      <c r="L26">
+        <v>-5</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="16"/>
+        <v>16.220000000000027</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="17"/>
+        <v>-7.8300000000001546</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="18"/>
+        <v>-2.2200000000000273</v>
+      </c>
+      <c r="Q26">
+        <f>I26-E26</f>
+        <v>6.3699999999998909</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="19">
+        <v>44743</v>
+      </c>
+      <c r="B27">
+        <v>1241</v>
+      </c>
+      <c r="C27">
+        <v>1243.5</v>
+      </c>
+      <c r="D27">
+        <v>1221.5</v>
+      </c>
+      <c r="E27">
+        <v>1242</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1247.7</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1255.67</v>
+      </c>
+      <c r="H27" s="11">
+        <v>1225.6400000000001</v>
+      </c>
+      <c r="I27" s="11">
+        <v>1252.24</v>
+      </c>
+      <c r="J27">
+        <v>330.35199999999998</v>
+      </c>
+      <c r="K27">
+        <v>118.89100000000001</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="16"/>
+        <v>30.029999999999973</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="17"/>
+        <v>4.5399999999999636</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="18"/>
+        <v>-8.0299999999999727</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ref="Q27:Q30" si="21">I27-E27</f>
+        <v>10.240000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="19">
+        <v>44742</v>
+      </c>
+      <c r="B28">
+        <v>1262</v>
+      </c>
+      <c r="C28">
+        <v>1264.8</v>
+      </c>
+      <c r="D28">
+        <v>1240.0999999999999</v>
+      </c>
+      <c r="E28">
+        <v>1240.0999999999999</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1273.99</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1276.23</v>
+      </c>
+      <c r="H28" s="11">
+        <v>1248.92</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1248.92</v>
+      </c>
+      <c r="J28">
+        <v>256.95100000000002</v>
+      </c>
+      <c r="K28">
+        <v>118.014</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="15"/>
+        <v>24.700000000000045</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="16"/>
+        <v>27.309999999999945</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="17"/>
+        <v>-25.069999999999936</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="18"/>
+        <v>-2.6099999999999</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="21"/>
+        <v>8.8200000000001637</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="19">
+        <v>44741</v>
+      </c>
+      <c r="B29">
+        <v>1255</v>
+      </c>
+      <c r="C29">
+        <v>1262.9000000000001</v>
+      </c>
+      <c r="D29">
+        <v>1251.0999999999999</v>
+      </c>
+      <c r="E29">
+        <v>1260.5</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1259.83</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1274.73</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1259.4100000000001</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1273.4000000000001</v>
+      </c>
+      <c r="J29">
+        <v>289.58300000000003</v>
+      </c>
+      <c r="K29">
+        <v>113.29600000000001</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="15"/>
+        <v>11.800000000000182</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="16"/>
+        <v>15.319999999999936</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="17"/>
+        <v>13.570000000000164</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="18"/>
+        <v>-3.5199999999997544</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="21"/>
+        <v>12.900000000000091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="19">
+        <v>44740</v>
+      </c>
+      <c r="B30">
+        <v>1246</v>
+      </c>
+      <c r="C30">
+        <v>1266.5</v>
+      </c>
+      <c r="D30">
+        <v>1242.7</v>
+      </c>
+      <c r="E30">
+        <v>1261</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1254.3499999999999</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1276.21</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1249.57</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1273.4100000000001</v>
+      </c>
+      <c r="J30">
+        <v>258.19400000000002</v>
+      </c>
+      <c r="K30">
+        <v>151.571</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="15"/>
+        <v>23.799999999999955</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="16"/>
+        <v>26.6400000000001</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="17"/>
+        <v>19.060000000000173</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="18"/>
+        <v>-2.8400000000001455</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="21"/>
+        <v>12.410000000000082</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="164">
+        <v>44739</v>
+      </c>
+      <c r="B31">
+        <v>1236</v>
+      </c>
+      <c r="C31">
+        <v>1247.9000000000001</v>
+      </c>
+      <c r="D31">
+        <v>1234</v>
+      </c>
+      <c r="E31">
+        <v>1247.9000000000001</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1238.23</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1256.67</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1237.79</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1256.67</v>
+      </c>
+      <c r="J31">
+        <v>218.952</v>
+      </c>
+      <c r="K31">
+        <v>110.59699999999999</v>
+      </c>
+      <c r="L31">
+        <v>13</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="15"/>
+        <v>13.900000000000091</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="16"/>
+        <v>18.880000000000109</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="17"/>
+        <v>18.440000000000055</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="18"/>
+        <v>-4.9800000000000182</v>
+      </c>
+      <c r="Q31">
+        <f>I31-E31</f>
+        <v>8.7699999999999818</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="19">
+        <v>44736</v>
+      </c>
+      <c r="B32">
+        <v>1236</v>
+      </c>
+      <c r="C32">
+        <v>1237.9000000000001</v>
+      </c>
+      <c r="D32">
+        <v>1226</v>
+      </c>
+      <c r="E32">
+        <v>1227</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1239.54</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1246.22</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1234.72</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1235.47</v>
+      </c>
+      <c r="J32">
+        <v>243.816</v>
+      </c>
+      <c r="K32">
+        <v>90.436999999999998</v>
+      </c>
+      <c r="L32">
+        <v>-10</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="15"/>
+        <v>11.900000000000091</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="16"/>
+        <v>11.5</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="17"/>
+        <v>-4.0699999999999363</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="18"/>
+        <v>0.40000000000009095</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q35" si="22">I32-E32</f>
+        <v>8.4700000000000273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="19">
+        <v>44735</v>
+      </c>
+      <c r="B33">
+        <v>1222</v>
+      </c>
+      <c r="C33">
+        <v>1230.3</v>
+      </c>
+      <c r="D33">
+        <v>1216.3</v>
+      </c>
+      <c r="E33">
+        <v>1227.8</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1219.67</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1240.58</v>
+      </c>
+      <c r="H33" s="11">
+        <v>1219.08</v>
+      </c>
+      <c r="I33" s="11">
+        <v>1240.58</v>
+      </c>
+      <c r="J33">
+        <v>336.90800000000002</v>
+      </c>
+      <c r="K33">
+        <v>105.24</v>
+      </c>
+      <c r="L33">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="16"/>
+        <v>21.5</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="17"/>
+        <v>20.909999999999854</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="18"/>
+        <v>-7.5</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="22"/>
+        <v>12.779999999999973</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="19">
+        <v>44734</v>
+      </c>
+      <c r="B34">
+        <v>1233.7</v>
+      </c>
+      <c r="C34">
+        <v>1240.9000000000001</v>
+      </c>
+      <c r="D34">
+        <v>1216</v>
+      </c>
+      <c r="E34">
+        <v>1216</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1233.28</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1242.06</v>
+      </c>
+      <c r="H34" s="11">
+        <v>1222.8599999999999</v>
+      </c>
+      <c r="I34" s="11">
+        <v>1227.18</v>
+      </c>
+      <c r="J34">
+        <v>404.68</v>
+      </c>
+      <c r="K34">
+        <v>142.69499999999999</v>
+      </c>
+      <c r="L34">
+        <v>22</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="15"/>
+        <v>24.900000000000091</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="16"/>
+        <v>19.200000000000045</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="17"/>
+        <v>-6.0999999999999091</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="18"/>
+        <v>5.7000000000000455</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="22"/>
+        <v>11.180000000000064</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="19">
+        <v>44733</v>
+      </c>
+      <c r="B35">
+        <v>1216.8</v>
+      </c>
+      <c r="C35">
+        <v>1240</v>
+      </c>
+      <c r="D35">
+        <v>1210.5</v>
+      </c>
+      <c r="E35">
+        <v>1228</v>
+      </c>
+      <c r="F35" s="11">
+        <v>1220.76</v>
+      </c>
+      <c r="G35" s="11">
+        <v>1240.8</v>
+      </c>
+      <c r="H35" s="11">
+        <v>1212.69</v>
+      </c>
+      <c r="I35" s="11">
+        <v>1224.54</v>
+      </c>
+      <c r="J35">
+        <v>504.51600000000002</v>
+      </c>
+      <c r="K35">
+        <v>172.80199999999999</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="15"/>
+        <v>29.5</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="16"/>
+        <v>28.1099999999999</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="17"/>
+        <v>3.7799999999999727</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="18"/>
+        <v>1.3900000000001</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="22"/>
+        <v>-3.4600000000000364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="164">
+        <v>44732</v>
+      </c>
+      <c r="B36">
+        <v>1244.8</v>
+      </c>
+      <c r="C36">
+        <v>1249.4000000000001</v>
+      </c>
+      <c r="D36">
+        <v>1212</v>
+      </c>
+      <c r="E36">
+        <v>1212</v>
+      </c>
+      <c r="F36" s="11">
+        <v>1258.3</v>
+      </c>
+      <c r="G36" s="11">
+        <v>1262.83</v>
+      </c>
+      <c r="H36" s="11">
+        <v>1223.03</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1225.56</v>
+      </c>
+      <c r="J36">
+        <v>405.214</v>
+      </c>
+      <c r="K36">
+        <v>168.768</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="15"/>
+        <v>37.400000000000091</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="16"/>
+        <v>39.799999999999955</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="17"/>
+        <v>-32.740000000000009</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="18"/>
+        <v>-2.3999999999998636</v>
+      </c>
+      <c r="Q36">
+        <f>I36-E36</f>
+        <v>13.559999999999945</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="19">
+        <v>44729</v>
+      </c>
+      <c r="B37">
+        <v>1247.5</v>
+      </c>
+      <c r="C37">
+        <v>1249</v>
+      </c>
+      <c r="D37">
+        <v>1215.2</v>
+      </c>
+      <c r="E37">
+        <v>1245.2</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1254.05</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1259.3900000000001</v>
+      </c>
+      <c r="H37" s="11">
+        <v>1229.74</v>
+      </c>
+      <c r="I37" s="11">
+        <v>1258.03</v>
+      </c>
+      <c r="J37">
+        <v>455.23399999999998</v>
+      </c>
+      <c r="K37">
+        <v>187.3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="15"/>
+        <v>33.799999999999955</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="16"/>
+        <v>29.650000000000091</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="17"/>
+        <v>3.9800000000000182</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="18"/>
+        <v>4.1499999999998636</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ref="Q37:Q40" si="23">I37-E37</f>
+        <v>12.829999999999927</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="159">
+        <v>44728</v>
+      </c>
+      <c r="B38">
+        <v>1261</v>
+      </c>
+      <c r="C38">
+        <v>1286.5</v>
+      </c>
+      <c r="D38">
+        <v>1260.7</v>
+      </c>
+      <c r="E38">
+        <v>1286</v>
+      </c>
+      <c r="F38" s="11">
+        <v>1266.8699999999999</v>
+      </c>
+      <c r="G38" s="11">
+        <v>1292.02</v>
+      </c>
+      <c r="H38" s="11">
+        <v>1263.56</v>
+      </c>
+      <c r="I38" s="11">
+        <v>1280.3699999999999</v>
+      </c>
+      <c r="J38">
+        <v>284.86799999999999</v>
+      </c>
+      <c r="K38">
+        <v>156.45500000000001</v>
+      </c>
+      <c r="L38">
+        <v>-4</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="15"/>
+        <v>25.799999999999955</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="16"/>
+        <v>28.460000000000036</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="17"/>
+        <v>13.5</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="18"/>
+        <v>-2.6600000000000819</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="23"/>
+        <v>-5.6300000000001091</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="19">
+        <v>44727</v>
+      </c>
+      <c r="B39">
+        <v>1268</v>
+      </c>
+      <c r="C39">
+        <v>1270.5</v>
+      </c>
+      <c r="D39">
+        <v>1235.3</v>
+      </c>
+      <c r="E39">
+        <v>1251.3</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1263.96</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1268.33</v>
+      </c>
+      <c r="H39" s="11">
+        <v>1231.1199999999999</v>
+      </c>
+      <c r="I39" s="11">
+        <v>1253.0899999999999</v>
+      </c>
+      <c r="J39">
+        <v>356.99299999999999</v>
+      </c>
+      <c r="K39">
+        <v>167.43100000000001</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="15"/>
+        <v>35.200000000000045</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="16"/>
+        <v>37.210000000000036</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="17"/>
+        <v>-10.870000000000118</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="18"/>
+        <v>-2.0099999999999909</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="23"/>
+        <v>1.7899999999999636</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="19">
+        <v>44726</v>
+      </c>
+      <c r="B40">
+        <v>1254.8</v>
+      </c>
+      <c r="C40">
+        <v>1272.5</v>
+      </c>
+      <c r="D40">
+        <v>1250</v>
+      </c>
+      <c r="E40">
+        <v>1268.3</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1247.3900000000001</v>
+      </c>
+      <c r="G40" s="11">
+        <v>1271.28</v>
+      </c>
+      <c r="H40" s="11">
+        <v>1245.26</v>
+      </c>
+      <c r="I40" s="11">
+        <v>1261.1600000000001</v>
+      </c>
+      <c r="J40">
+        <v>353.74700000000001</v>
+      </c>
+      <c r="K40">
+        <v>145.64099999999999</v>
+      </c>
+      <c r="L40">
+        <v>-1</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="15"/>
+        <v>22.5</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="16"/>
+        <v>26.019999999999982</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="17"/>
+        <v>13.769999999999982</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="18"/>
+        <v>-3.5199999999999818</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="23"/>
+        <v>-7.1399999999998727</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" s="164">
         <v>44725</v>
       </c>
-      <c r="B26">
+      <c r="B41">
         <v>1295.26</v>
       </c>
-      <c r="C26">
+      <c r="C41">
         <v>1300.45</v>
       </c>
-      <c r="D26">
+      <c r="D41">
         <v>1260.8499999999999</v>
       </c>
-      <c r="E26">
+      <c r="E41">
         <v>1260.8499999999999</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F41" s="11">
         <v>1284</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G41" s="11">
         <v>1289.9000000000001</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H41" s="11">
         <v>1257.4000000000001</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I41" s="11">
         <v>1260.2</v>
       </c>
-      <c r="J26">
+      <c r="J41">
         <v>332.82900000000001</v>
       </c>
-      <c r="K26">
+      <c r="K41">
         <v>199.02</v>
       </c>
-      <c r="L26">
+      <c r="L41">
         <f>7270/1000</f>
         <v>7.27</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="0"/>
+      <c r="M41">
+        <f t="shared" si="15"/>
         <v>39.600000000000136</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="1"/>
+      <c r="N41">
+        <f t="shared" si="16"/>
         <v>32.5</v>
       </c>
-      <c r="O26">
-        <f t="shared" si="2"/>
+      <c r="O41">
+        <f t="shared" si="17"/>
         <v>-23.799999999999955</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="3"/>
+      <c r="P41">
+        <f t="shared" si="18"/>
         <v>7.1000000000001364</v>
       </c>
-      <c r="Q26">
-        <f>I26-E26</f>
+      <c r="Q41">
+        <f>I41-E41</f>
         <v>-0.64999999999986358</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="19">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="19">
         <v>44722</v>
       </c>
-      <c r="B27">
+      <c r="B42">
         <v>1328</v>
       </c>
-      <c r="C27">
+      <c r="C42">
         <v>1333.8</v>
       </c>
-      <c r="D27">
+      <c r="D42">
         <v>1311.1</v>
       </c>
-      <c r="E27">
+      <c r="E42">
         <v>1311.1</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F42" s="11">
         <v>1332.93</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G42" s="11">
         <v>1344.85</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H42" s="11">
         <v>1325.69</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I42" s="11">
         <v>1325.69</v>
       </c>
-      <c r="J27">
+      <c r="J42">
         <v>232.69300000000001</v>
       </c>
-      <c r="K27">
+      <c r="K42">
         <v>136.58500000000001</v>
       </c>
-      <c r="L27">
+      <c r="L42">
         <v>0</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="0"/>
+      <c r="M42">
+        <f t="shared" si="15"/>
         <v>22.700000000000045</v>
       </c>
-      <c r="N27">
-        <f t="shared" si="1"/>
+      <c r="N42">
+        <f t="shared" si="16"/>
         <v>19.159999999999854</v>
       </c>
-      <c r="O27">
-        <f t="shared" si="2"/>
+      <c r="O42">
+        <f t="shared" si="17"/>
         <v>-7.2400000000000091</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="3"/>
+      <c r="P42">
+        <f t="shared" si="18"/>
         <v>3.540000000000191</v>
       </c>
-      <c r="Q27">
-        <f t="shared" ref="Q27:Q30" si="9">I27-E27</f>
+      <c r="Q42">
+        <f t="shared" ref="Q42:Q45" si="24">I42-E42</f>
         <v>14.590000000000146</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="19">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="19">
         <v>44721</v>
       </c>
-      <c r="B28">
+      <c r="B43">
         <v>1332.4</v>
       </c>
-      <c r="C28">
+      <c r="C43">
         <v>1339</v>
       </c>
-      <c r="D28">
+      <c r="D43">
         <v>1327</v>
       </c>
-      <c r="E28">
+      <c r="E43">
         <v>1335.3</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F43" s="11">
         <v>1344.56</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G43" s="11">
         <v>1346.13</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H43" s="11">
         <v>1335.28</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I43" s="11">
         <v>1342.92</v>
       </c>
-      <c r="J28">
+      <c r="J43">
         <v>264.55900000000003</v>
       </c>
-      <c r="K28">
+      <c r="K43">
         <v>126.6</v>
       </c>
-      <c r="L28">
+      <c r="L43">
         <f>1852/500</f>
         <v>3.7040000000000002</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="0"/>
+      <c r="M43">
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="N28">
-        <f t="shared" si="1"/>
+      <c r="N43">
+        <f t="shared" si="16"/>
         <v>10.850000000000136</v>
       </c>
-      <c r="O28">
-        <f t="shared" si="2"/>
+      <c r="O43">
+        <f t="shared" si="17"/>
         <v>-1.6399999999998727</v>
       </c>
-      <c r="P28">
-        <f t="shared" si="3"/>
+      <c r="P43">
+        <f t="shared" si="18"/>
         <v>1.1499999999998636</v>
       </c>
-      <c r="Q28">
-        <f t="shared" si="9"/>
+      <c r="Q43">
+        <f t="shared" si="24"/>
         <v>7.6200000000001182</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="19">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" s="19">
         <v>44720</v>
       </c>
-      <c r="B29">
+      <c r="B44">
         <v>1321</v>
       </c>
-      <c r="C29">
+      <c r="C44">
         <v>1342</v>
       </c>
-      <c r="D29">
+      <c r="D44">
         <v>1319.8</v>
       </c>
-      <c r="E29">
+      <c r="E44">
         <v>1333</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F44" s="11">
         <v>1328.95</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G44" s="11">
         <v>1348.4</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H44" s="11">
         <v>1325.65</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I44" s="11">
         <v>1342.03</v>
       </c>
-      <c r="J29">
+      <c r="J44">
         <v>267.43</v>
       </c>
-      <c r="K29">
+      <c r="K44">
         <v>163.072</v>
       </c>
-      <c r="L29">
+      <c r="L44">
         <f>1123/500</f>
         <v>2.246</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="0"/>
+      <c r="M44">
+        <f t="shared" si="15"/>
         <v>22.200000000000045</v>
       </c>
-      <c r="N29">
-        <f t="shared" si="1"/>
+      <c r="N44">
+        <f t="shared" si="16"/>
         <v>22.75</v>
       </c>
-      <c r="O29">
-        <f t="shared" si="2"/>
+      <c r="O44">
+        <f t="shared" si="17"/>
         <v>13.079999999999927</v>
       </c>
-      <c r="P29">
-        <f t="shared" si="3"/>
+      <c r="P44">
+        <f t="shared" si="18"/>
         <v>-0.54999999999995453</v>
       </c>
-      <c r="Q29">
-        <f t="shared" si="9"/>
+      <c r="Q44">
+        <f t="shared" si="24"/>
         <v>9.0299999999999727</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="19">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" s="19">
         <v>44719</v>
       </c>
-      <c r="B30">
+      <c r="B45">
         <v>1315</v>
       </c>
-      <c r="C30">
+      <c r="C45">
         <v>1315.5</v>
       </c>
-      <c r="D30">
+      <c r="D45">
         <v>1293.3</v>
       </c>
-      <c r="E30">
+      <c r="E45">
         <v>1315</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F45" s="11">
         <v>1323.19</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G45" s="11">
         <v>1324.27</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H45" s="11">
         <v>1297.98</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I45" s="11">
         <v>1324.37</v>
       </c>
-      <c r="J30">
+      <c r="J45">
         <v>278.66399999999999</v>
       </c>
-      <c r="K30">
+      <c r="K45">
         <v>153.98099999999999</v>
       </c>
-      <c r="L30">
+      <c r="L45">
         <v>0</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="0"/>
+      <c r="M45">
+        <f t="shared" si="15"/>
         <v>22.200000000000045</v>
       </c>
-      <c r="N30">
-        <f t="shared" si="1"/>
+      <c r="N45">
+        <f t="shared" si="16"/>
         <v>26.289999999999964</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="2"/>
+      <c r="O45">
+        <f t="shared" si="17"/>
         <v>1.1799999999998363</v>
       </c>
-      <c r="P30">
-        <f t="shared" si="3"/>
+      <c r="P45">
+        <f t="shared" si="18"/>
         <v>-4.0899999999999181</v>
       </c>
-      <c r="Q30">
-        <f t="shared" si="9"/>
+      <c r="Q45">
+        <f t="shared" si="24"/>
         <v>9.3699999999998909</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="164">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" s="164">
         <v>44718</v>
       </c>
-      <c r="B31">
+      <c r="B46">
         <v>1320.7</v>
       </c>
-      <c r="C31">
+      <c r="C46">
         <v>1332</v>
       </c>
-      <c r="D31">
+      <c r="D46">
         <v>1315</v>
       </c>
-      <c r="E31">
+      <c r="E46">
         <v>1315</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F46" s="11">
         <v>1328.73</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G46" s="11">
         <v>1336.96</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H46" s="11">
         <v>1320.97</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I46" s="11">
         <v>1327.04</v>
       </c>
-      <c r="J31">
+      <c r="J46">
         <v>224.785</v>
       </c>
-      <c r="K31">
+      <c r="K46">
         <v>132.834</v>
       </c>
-      <c r="L31">
+      <c r="L46">
         <f>1097/500</f>
         <v>2.194</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="0"/>
+      <c r="M46">
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
-      <c r="N31">
-        <f t="shared" si="1"/>
+      <c r="N46">
+        <f t="shared" si="16"/>
         <v>15.990000000000009</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="2"/>
+      <c r="O46">
+        <f t="shared" si="17"/>
         <v>-1.6900000000000546</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="3"/>
+      <c r="P46">
+        <f t="shared" si="18"/>
         <v>1.0099999999999909</v>
       </c>
-      <c r="Q31">
-        <f>I31-E31</f>
+      <c r="Q46">
+        <f>I46-E46</f>
         <v>12.039999999999964</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="19">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A47" s="19">
         <v>44715</v>
       </c>
-      <c r="B32">
+      <c r="B47">
         <v>1318</v>
       </c>
-      <c r="C32">
+      <c r="C47">
         <v>1323.9</v>
       </c>
-      <c r="D32">
+      <c r="D47">
         <v>1305.5999999999999</v>
       </c>
-      <c r="E32">
+      <c r="E47">
         <v>1318.5</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F47" s="11">
         <v>1323.09</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G47" s="11">
         <v>1329.9</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H47" s="11">
         <v>1313.4</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I47" s="11">
         <v>1327.4</v>
       </c>
-      <c r="J32">
+      <c r="J47">
         <v>233.505</v>
       </c>
-      <c r="K32">
+      <c r="K47">
         <v>100.18</v>
       </c>
-      <c r="L32">
+      <c r="L47">
         <f>997.3/500</f>
         <v>1.9945999999999999</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="0"/>
+      <c r="M47">
+        <f t="shared" si="15"/>
         <v>18.300000000000182</v>
       </c>
-      <c r="N32">
-        <f t="shared" si="1"/>
+      <c r="N47">
+        <f t="shared" si="16"/>
         <v>16.5</v>
       </c>
-      <c r="O32">
-        <f t="shared" si="2"/>
+      <c r="O47">
+        <f t="shared" si="17"/>
         <v>4.3100000000001728</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="3"/>
+      <c r="P47">
+        <f t="shared" si="18"/>
         <v>1.8000000000001819</v>
       </c>
-      <c r="Q32">
-        <f t="shared" ref="Q32:Q35" si="10">I32-E32</f>
+      <c r="Q47">
+        <f t="shared" ref="Q47:Q50" si="25">I47-E47</f>
         <v>8.9000000000000909</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="19">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A48" s="19">
         <v>44714</v>
       </c>
-      <c r="B33">
+      <c r="B48">
         <v>1311</v>
       </c>
-      <c r="C33">
+      <c r="C48">
         <v>1330</v>
       </c>
-      <c r="D33">
+      <c r="D48">
         <v>1311</v>
       </c>
-      <c r="E33">
+      <c r="E48">
         <v>1315</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F48" s="11">
         <v>1339.12</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G48" s="11">
         <v>1342.47</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H48" s="11">
         <v>1319.85</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I48" s="11">
         <v>1325.49</v>
       </c>
-      <c r="J33">
+      <c r="J48">
         <v>253.048</v>
       </c>
-      <c r="K33">
+      <c r="K48">
         <v>133.90299999999999</v>
       </c>
-      <c r="L33">
+      <c r="L48">
         <f>2043.5/500</f>
         <v>4.0869999999999997</v>
       </c>
-      <c r="M33">
-        <f t="shared" si="0"/>
+      <c r="M48">
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
-      <c r="N33">
-        <f t="shared" si="1"/>
+      <c r="N48">
+        <f t="shared" si="16"/>
         <v>22.620000000000118</v>
       </c>
-      <c r="O33">
-        <f t="shared" si="2"/>
+      <c r="O48">
+        <f t="shared" si="17"/>
         <v>-13.629999999999882</v>
       </c>
-      <c r="P33">
-        <f t="shared" si="3"/>
+      <c r="P48">
+        <f t="shared" si="18"/>
         <v>-3.6200000000001182</v>
       </c>
-      <c r="Q33">
-        <f t="shared" si="10"/>
+      <c r="Q48">
+        <f t="shared" si="25"/>
         <v>10.490000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="19">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" s="19">
         <v>44713</v>
       </c>
-      <c r="B34">
+      <c r="B49">
         <v>1318.5</v>
       </c>
-      <c r="C34">
+      <c r="C49">
         <v>1337.5</v>
       </c>
-      <c r="D34">
+      <c r="D49">
         <v>1316</v>
       </c>
-      <c r="E34">
+      <c r="E49">
         <v>1326</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F49" s="11">
         <v>1329.02</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G49" s="11">
         <v>1341.47</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H49" s="11">
         <v>1323.07</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I49" s="11">
         <v>1335.49</v>
       </c>
-      <c r="J34">
+      <c r="J49">
         <v>325.93599999999998</v>
       </c>
-      <c r="K34">
+      <c r="K49">
         <v>127.58199999999999</v>
       </c>
-      <c r="L34">
+      <c r="L49">
         <f>2996.5/500</f>
         <v>5.9930000000000003</v>
       </c>
-      <c r="M34">
-        <f t="shared" ref="M34:M69" si="11">C34-D34</f>
+      <c r="M49">
+        <f t="shared" ref="M49:M84" si="26">C49-D49</f>
         <v>21.5</v>
       </c>
-      <c r="N34">
-        <f t="shared" ref="N34:N69" si="12">G34-H34</f>
+      <c r="N49">
+        <f t="shared" ref="N49:N84" si="27">G49-H49</f>
         <v>18.400000000000091</v>
       </c>
-      <c r="O34">
-        <f t="shared" ref="O34:O69" si="13">I34-F34</f>
+      <c r="O49">
+        <f t="shared" ref="O49:O84" si="28">I49-F49</f>
         <v>6.4700000000000273</v>
       </c>
-      <c r="P34">
-        <f t="shared" ref="P34:P55" si="14">M34-N34</f>
+      <c r="P49">
+        <f t="shared" ref="P49:P70" si="29">M49-N49</f>
         <v>3.0999999999999091</v>
       </c>
-      <c r="Q34">
-        <f t="shared" si="10"/>
+      <c r="Q49">
+        <f t="shared" si="25"/>
         <v>9.4900000000000091</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="19">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="19">
         <v>44712</v>
       </c>
-      <c r="B35">
+      <c r="B50">
         <v>1326.2</v>
       </c>
-      <c r="C35">
+      <c r="C50">
         <v>1326.8</v>
       </c>
-      <c r="D35">
+      <c r="D50">
         <v>1310.5</v>
       </c>
-      <c r="E35">
+      <c r="E50">
         <v>1320.5</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F50" s="11">
         <v>1342.8</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G50" s="11">
         <v>1342.8</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H50" s="11">
         <v>1324.46</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I50" s="11">
         <v>1332.59</v>
       </c>
-      <c r="J35">
+      <c r="J50">
         <v>224.97800000000001</v>
       </c>
-      <c r="K35">
+      <c r="K50">
         <v>127.916</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="11"/>
+      <c r="M50">
+        <f t="shared" si="26"/>
         <v>16.299999999999955</v>
       </c>
-      <c r="N35">
-        <f t="shared" si="12"/>
+      <c r="N50">
+        <f t="shared" si="27"/>
         <v>18.339999999999918</v>
       </c>
-      <c r="O35">
-        <f t="shared" si="13"/>
+      <c r="O50">
+        <f t="shared" si="28"/>
         <v>-10.210000000000036</v>
       </c>
-      <c r="P35">
-        <f t="shared" si="14"/>
+      <c r="P50">
+        <f t="shared" si="29"/>
         <v>-2.0399999999999636</v>
       </c>
-      <c r="Q35">
-        <f t="shared" si="10"/>
+      <c r="Q50">
+        <f t="shared" si="25"/>
         <v>12.089999999999918</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="164">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="164">
         <v>44711</v>
       </c>
-      <c r="B36">
+      <c r="B51">
         <v>1329.7</v>
       </c>
-      <c r="C36">
+      <c r="C51">
         <v>1331</v>
       </c>
-      <c r="D36">
+      <c r="D51">
         <v>1319.6</v>
       </c>
-      <c r="E36">
+      <c r="E51">
         <v>1325.6</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F51" s="11">
         <v>1337.39</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G51" s="11">
         <v>1342.87</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H51" s="11">
         <v>1329.38</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I51" s="11">
         <v>1342.87</v>
       </c>
-      <c r="J36">
+      <c r="J51">
         <v>204.05</v>
       </c>
-      <c r="K36">
+      <c r="K51">
         <v>121.53100000000001</v>
       </c>
-      <c r="L36">
+      <c r="L51">
         <f>-18064/2000*4</f>
         <v>-36.128</v>
       </c>
-      <c r="M36">
-        <f t="shared" si="11"/>
+      <c r="M51">
+        <f t="shared" si="26"/>
         <v>11.400000000000091</v>
       </c>
-      <c r="N36">
-        <f t="shared" si="12"/>
+      <c r="N51">
+        <f t="shared" si="27"/>
         <v>13.489999999999782</v>
       </c>
-      <c r="O36">
-        <f t="shared" si="13"/>
+      <c r="O51">
+        <f t="shared" si="28"/>
         <v>5.4799999999997908</v>
       </c>
-      <c r="P36">
-        <f t="shared" si="14"/>
+      <c r="P51">
+        <f t="shared" si="29"/>
         <v>-2.0899999999996908</v>
       </c>
-      <c r="Q36">
-        <f>I36-E36</f>
+      <c r="Q51">
+        <f>I51-E51</f>
         <v>17.269999999999982</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="19">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52" s="19">
         <v>44708</v>
       </c>
-      <c r="B37">
+      <c r="B52">
         <v>1306.0999999999999</v>
       </c>
-      <c r="C37">
+      <c r="C52">
         <v>1328.8</v>
       </c>
-      <c r="D37">
+      <c r="D52">
         <v>1305.0999999999999</v>
       </c>
-      <c r="E37">
+      <c r="E52">
         <v>1322.5</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F52" s="11">
         <v>1311.78</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G52" s="11">
         <v>1336.99</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H52" s="11">
         <v>1310.6400000000001</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I52" s="11">
         <v>1335.68</v>
       </c>
-      <c r="J37">
+      <c r="J52">
         <v>255.624</v>
       </c>
-      <c r="K37">
+      <c r="K52">
         <v>139.40600000000001</v>
       </c>
-      <c r="L37">
+      <c r="L52">
         <f>2093/500</f>
         <v>4.1859999999999999</v>
       </c>
-      <c r="M37">
-        <f t="shared" si="11"/>
+      <c r="M52">
+        <f t="shared" si="26"/>
         <v>23.700000000000045</v>
       </c>
-      <c r="N37">
-        <f t="shared" si="12"/>
+      <c r="N52">
+        <f t="shared" si="27"/>
         <v>26.349999999999909</v>
       </c>
-      <c r="O37">
-        <f t="shared" si="13"/>
+      <c r="O52">
+        <f t="shared" si="28"/>
         <v>23.900000000000091</v>
       </c>
-      <c r="P37">
-        <f t="shared" si="14"/>
+      <c r="P52">
+        <f t="shared" si="29"/>
         <v>-2.6499999999998636</v>
       </c>
-      <c r="Q37">
-        <f>I37-E37</f>
+      <c r="Q52">
+        <f>I52-E52</f>
         <v>13.180000000000064</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="19">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="19">
         <v>44707</v>
       </c>
-      <c r="B38">
+      <c r="B53">
         <v>1302</v>
       </c>
-      <c r="C38">
+      <c r="C53">
         <v>1310.5</v>
       </c>
-      <c r="D38">
+      <c r="D53">
         <v>1292.0999999999999</v>
       </c>
-      <c r="E38">
+      <c r="E53">
         <v>1300.9000000000001</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F53" s="11">
         <v>1312.56</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G53" s="11">
         <v>1319.21</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H53" s="11">
         <v>1304.5899999999999</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I53" s="11">
         <v>1309.5</v>
       </c>
-      <c r="J38">
+      <c r="J53">
         <v>279.32499999999999</v>
       </c>
-      <c r="K38">
+      <c r="K53">
         <v>127.93</v>
       </c>
-      <c r="L38">
+      <c r="L53">
         <f>2494/500</f>
         <v>4.9880000000000004</v>
       </c>
-      <c r="M38">
-        <f t="shared" si="11"/>
+      <c r="M53">
+        <f t="shared" si="26"/>
         <v>18.400000000000091</v>
       </c>
-      <c r="N38">
-        <f t="shared" si="12"/>
+      <c r="N53">
+        <f t="shared" si="27"/>
         <v>14.620000000000118</v>
       </c>
-      <c r="O38">
-        <f t="shared" si="13"/>
+      <c r="O53">
+        <f t="shared" si="28"/>
         <v>-3.0599999999999454</v>
       </c>
-      <c r="P38">
-        <f t="shared" si="14"/>
+      <c r="P53">
+        <f t="shared" si="29"/>
         <v>3.7799999999999727</v>
       </c>
-      <c r="Q38">
-        <f t="shared" ref="Q38:Q60" si="15">I38-E38</f>
+      <c r="Q53">
+        <f t="shared" ref="Q53:Q75" si="30">I53-E53</f>
         <v>8.5999999999999091</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="19">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="19">
         <v>44706</v>
       </c>
-      <c r="B39">
+      <c r="B54">
         <v>1275</v>
       </c>
-      <c r="C39">
+      <c r="C54">
         <v>1306</v>
       </c>
-      <c r="D39">
+      <c r="D54">
         <v>1268.5</v>
       </c>
-      <c r="E39">
+      <c r="E54">
         <v>1299.3</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F54" s="11">
         <v>1277.54</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G54" s="11">
         <v>1311.32</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H54" s="11">
         <v>1273.29</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I54" s="11">
         <v>1310.7</v>
       </c>
-      <c r="J39">
+      <c r="J54">
         <v>318.72399999999999</v>
       </c>
-      <c r="K39">
+      <c r="K54">
         <v>172.69800000000001</v>
       </c>
-      <c r="L39">
+      <c r="L54">
         <f>2897/5/100</f>
         <v>5.7939999999999996</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="11"/>
+      <c r="M54">
+        <f t="shared" si="26"/>
         <v>37.5</v>
       </c>
-      <c r="N39">
-        <f t="shared" si="12"/>
+      <c r="N54">
+        <f t="shared" si="27"/>
         <v>38.029999999999973</v>
       </c>
-      <c r="O39">
-        <f t="shared" si="13"/>
+      <c r="O54">
+        <f t="shared" si="28"/>
         <v>33.160000000000082</v>
       </c>
-      <c r="P39">
-        <f t="shared" si="14"/>
+      <c r="P54">
+        <f t="shared" si="29"/>
         <v>-0.52999999999997272</v>
       </c>
-      <c r="Q39">
-        <f t="shared" si="15"/>
+      <c r="Q54">
+        <f t="shared" si="30"/>
         <v>11.400000000000091</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="19">
-        <v>44705</v>
-      </c>
-      <c r="B40">
-        <v>1253</v>
-      </c>
-      <c r="C40">
-        <v>1271.0999999999999</v>
-      </c>
-      <c r="D40">
-        <v>1234</v>
-      </c>
-      <c r="E40">
-        <v>1267</v>
-      </c>
-      <c r="F40" s="11">
-        <v>1255.77</v>
-      </c>
-      <c r="G40" s="11">
-        <v>1272.71</v>
-      </c>
-      <c r="H40" s="11">
-        <v>1242.3599999999999</v>
-      </c>
-      <c r="I40" s="11">
-        <v>1272.71</v>
-      </c>
-      <c r="J40">
-        <v>389.65800000000002</v>
-      </c>
-      <c r="K40">
-        <v>146.36600000000001</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="11"/>
-        <v>37.099999999999909</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="12"/>
-        <v>30.350000000000136</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="13"/>
-        <v>16.940000000000055</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="14"/>
-        <v>6.7499999999997726</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="15"/>
-        <v>5.7100000000000364</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="164">
-        <v>44704</v>
-      </c>
-      <c r="B41">
-        <v>1289</v>
-      </c>
-      <c r="C41">
-        <v>1289</v>
-      </c>
-      <c r="D41">
-        <v>1238.0999999999999</v>
-      </c>
-      <c r="E41">
-        <v>1253.0999999999999</v>
-      </c>
-      <c r="F41" s="11">
-        <v>1287.49</v>
-      </c>
-      <c r="G41" s="11">
-        <v>1287.6500000000001</v>
-      </c>
-      <c r="H41" s="11">
-        <v>1245.4100000000001</v>
-      </c>
-      <c r="I41" s="11">
-        <v>1255.3499999999999</v>
-      </c>
-      <c r="J41">
-        <v>324.733</v>
-      </c>
-      <c r="K41">
-        <v>139.33099999999999</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="11"/>
-        <v>50.900000000000091</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="12"/>
-        <v>42.240000000000009</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="13"/>
-        <v>-32.1400000000001</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="14"/>
-        <v>8.6600000000000819</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="15"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42" s="19">
-        <v>44701</v>
-      </c>
-      <c r="B42">
-        <v>1283</v>
-      </c>
-      <c r="C42">
-        <v>1299.2</v>
-      </c>
-      <c r="D42">
-        <v>1259.8</v>
-      </c>
-      <c r="E42">
-        <v>1276.8</v>
-      </c>
-      <c r="F42" s="11">
-        <v>1284.8900000000001</v>
-      </c>
-      <c r="G42" s="11">
-        <v>1296</v>
-      </c>
-      <c r="H42" s="11">
-        <v>1273.4000000000001</v>
-      </c>
-      <c r="I42" s="11">
-        <v>1282.51</v>
-      </c>
-      <c r="J42">
-        <v>317.06799999999998</v>
-      </c>
-      <c r="K42">
-        <v>110.1</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="11"/>
-        <v>39.400000000000091</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="12"/>
-        <v>22.599999999999909</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="13"/>
-        <v>-2.3800000000001091</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="14"/>
-        <v>16.800000000000182</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="15"/>
-        <v>5.7100000000000364</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="19">
-        <v>44700</v>
-      </c>
-      <c r="B43">
-        <v>1255</v>
-      </c>
-      <c r="C43">
-        <v>1285.2</v>
-      </c>
-      <c r="D43">
-        <v>1253</v>
-      </c>
-      <c r="E43">
-        <v>1274.5</v>
-      </c>
-      <c r="F43" s="11">
-        <v>1259.5899999999999</v>
-      </c>
-      <c r="G43" s="11">
-        <v>1291.49</v>
-      </c>
-      <c r="H43" s="11">
-        <v>1255.6300000000001</v>
-      </c>
-      <c r="I43" s="11">
-        <v>1283.55</v>
-      </c>
-      <c r="K43">
-        <v>130.077</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="11"/>
-        <v>32.200000000000045</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="12"/>
-        <v>35.8599999999999</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="13"/>
-        <v>23.960000000000036</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="14"/>
-        <v>-3.6599999999998545</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="15"/>
-        <v>9.0499999999999545</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" s="19">
-        <v>44699</v>
-      </c>
-      <c r="B44">
-        <v>1275</v>
-      </c>
-      <c r="C44">
-        <v>1303.9000000000001</v>
-      </c>
-      <c r="D44">
-        <v>1268</v>
-      </c>
-      <c r="E44">
-        <v>1281.5</v>
-      </c>
-      <c r="F44" s="11">
-        <v>1289.5</v>
-      </c>
-      <c r="G44" s="11">
-        <v>1298.69</v>
-      </c>
-      <c r="H44" s="11">
-        <v>1268.1300000000001</v>
-      </c>
-      <c r="I44" s="11">
-        <v>1286.4100000000001</v>
-      </c>
-      <c r="K44">
-        <v>159.93799999999999</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="11"/>
-        <v>35.900000000000091</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="12"/>
-        <v>30.559999999999945</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="13"/>
-        <v>-3.0899999999999181</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="14"/>
-        <v>5.3400000000001455</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="15"/>
-        <v>4.9100000000000819</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45" s="19">
-        <v>44698</v>
-      </c>
-      <c r="B45">
-        <v>1226</v>
-      </c>
-      <c r="C45">
-        <v>1282</v>
-      </c>
-      <c r="D45">
-        <v>1206.3</v>
-      </c>
-      <c r="E45">
-        <v>1281.8</v>
-      </c>
-      <c r="F45" s="11">
-        <v>1211.8800000000001</v>
-      </c>
-      <c r="G45" s="11">
-        <v>1279.55</v>
-      </c>
-      <c r="H45" s="11">
-        <v>1203.51</v>
-      </c>
-      <c r="I45" s="11">
-        <v>1279.55</v>
-      </c>
-      <c r="K45">
-        <v>161.81700000000001</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="11"/>
-        <v>75.700000000000045</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="12"/>
-        <v>76.039999999999964</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="13"/>
-        <v>67.669999999999845</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="14"/>
-        <v>-0.33999999999991815</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="15"/>
-        <v>-2.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="164">
-        <v>44697</v>
-      </c>
-      <c r="B46">
-        <v>1240</v>
-      </c>
-      <c r="C46">
-        <v>1261.9000000000001</v>
-      </c>
-      <c r="D46">
-        <v>1212</v>
-      </c>
-      <c r="E46">
-        <v>1212</v>
-      </c>
-      <c r="F46" s="11">
-        <v>1254.8800000000001</v>
-      </c>
-      <c r="G46" s="11">
-        <v>1258.25</v>
-      </c>
-      <c r="H46" s="11">
-        <v>1214.29</v>
-      </c>
-      <c r="I46" s="11">
-        <v>1215.08</v>
-      </c>
-      <c r="K46">
-        <v>172.77</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="11"/>
-        <v>49.900000000000091</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="12"/>
-        <v>43.960000000000036</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="13"/>
-        <v>-39.800000000000182</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="14"/>
-        <v>5.9400000000000546</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="15"/>
-        <v>3.0799999999999272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A47" s="19">
-        <v>44694</v>
-      </c>
-      <c r="B47">
-        <v>1272</v>
-      </c>
-      <c r="C47">
-        <v>1288.0999999999999</v>
-      </c>
-      <c r="D47">
-        <v>1214.7</v>
-      </c>
-      <c r="E47">
-        <v>1225</v>
-      </c>
-      <c r="F47" s="11">
-        <v>1281.28</v>
-      </c>
-      <c r="G47" s="11">
-        <v>1284.94</v>
-      </c>
-      <c r="H47" s="11">
-        <v>1219.52</v>
-      </c>
-      <c r="I47" s="11">
-        <v>1223.76</v>
-      </c>
-      <c r="K47">
-        <v>237.55500000000001</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="11"/>
-        <v>73.399999999999864</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="12"/>
-        <v>65.420000000000073</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="13"/>
-        <v>-57.519999999999982</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="14"/>
-        <v>7.9799999999997908</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="15"/>
-        <v>-1.2400000000000091</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48" s="19">
-        <v>44693</v>
-      </c>
-      <c r="B48">
-        <v>1334</v>
-      </c>
-      <c r="C48">
-        <v>1334</v>
-      </c>
-      <c r="D48">
-        <v>1262</v>
-      </c>
-      <c r="E48">
-        <v>1270</v>
-      </c>
-      <c r="F48" s="11">
-        <v>1337.01</v>
-      </c>
-      <c r="G48" s="11">
-        <v>1339.25</v>
-      </c>
-      <c r="H48" s="11">
-        <v>1279.48</v>
-      </c>
-      <c r="I48" s="11">
-        <v>1279.76</v>
-      </c>
-      <c r="K48">
-        <v>163.22399999999999</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="11"/>
-        <v>72</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="12"/>
-        <v>59.769999999999982</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="13"/>
-        <v>-57.25</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="14"/>
-        <v>12.230000000000018</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="15"/>
-        <v>9.7599999999999909</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="19">
-        <v>44692</v>
-      </c>
-      <c r="B49">
-        <v>1335</v>
-      </c>
-      <c r="C49">
-        <v>1349</v>
-      </c>
-      <c r="D49">
-        <v>1318</v>
-      </c>
-      <c r="E49">
-        <v>1337</v>
-      </c>
-      <c r="F49" s="11">
-        <v>1344.14</v>
-      </c>
-      <c r="G49" s="11">
-        <v>1355.11</v>
-      </c>
-      <c r="H49" s="11">
-        <v>1324.2</v>
-      </c>
-      <c r="I49" s="11">
-        <v>1349.82</v>
-      </c>
-      <c r="K49">
-        <v>94.774000000000001</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="12"/>
-        <v>30.909999999999854</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="13"/>
-        <v>5.6799999999998363</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="14"/>
-        <v>9.0000000000145519E-2</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="15"/>
-        <v>12.819999999999936</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="19">
-        <v>44691</v>
-      </c>
-      <c r="B50">
-        <v>1299.8</v>
-      </c>
-      <c r="C50">
-        <v>1340.9</v>
-      </c>
-      <c r="D50">
-        <v>1291.0999999999999</v>
-      </c>
-      <c r="E50">
-        <v>1335</v>
-      </c>
-      <c r="F50" s="11">
-        <v>1312.1</v>
-      </c>
-      <c r="G50" s="11">
-        <v>1345.46</v>
-      </c>
-      <c r="H50" s="11">
-        <v>1285.67</v>
-      </c>
-      <c r="I50" s="11">
-        <v>1345.46</v>
-      </c>
-      <c r="K50">
-        <v>157.23400000000001</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="11"/>
-        <v>49.800000000000182</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="12"/>
-        <v>59.789999999999964</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="13"/>
-        <v>33.360000000000127</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="14"/>
-        <v>-9.9899999999997817</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="15"/>
-        <v>10.460000000000036</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="164">
-        <v>44690</v>
-      </c>
-      <c r="B51">
-        <v>1353.7</v>
-      </c>
-      <c r="C51">
-        <v>1355.8</v>
-      </c>
-      <c r="D51">
-        <v>1300</v>
-      </c>
-      <c r="E51">
-        <v>1308.0999999999999</v>
-      </c>
-      <c r="F51" s="11">
-        <v>1358.56</v>
-      </c>
-      <c r="G51" s="11">
-        <v>1360.64</v>
-      </c>
-      <c r="H51" s="11">
-        <v>1308.3399999999999</v>
-      </c>
-      <c r="I51" s="11">
-        <v>1314.04</v>
-      </c>
-      <c r="K51">
-        <v>200.87899999999999</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="11"/>
-        <v>55.799999999999955</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="12"/>
-        <v>52.300000000000182</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="13"/>
-        <v>-44.519999999999982</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="14"/>
-        <v>3.4999999999997726</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="15"/>
-        <v>5.9400000000000546</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="19">
-        <v>44687</v>
-      </c>
-      <c r="B52">
-        <v>1382</v>
-      </c>
-      <c r="C52">
-        <v>1396.3</v>
-      </c>
-      <c r="D52">
-        <v>1358.8</v>
-      </c>
-      <c r="E52">
-        <v>1362</v>
-      </c>
-      <c r="F52" s="11">
-        <v>1399.54</v>
-      </c>
-      <c r="G52" s="11">
-        <v>1399.54</v>
-      </c>
-      <c r="H52" s="11">
-        <v>1371</v>
-      </c>
-      <c r="I52" s="11">
-        <v>1373.21</v>
-      </c>
-      <c r="K52">
-        <v>129.90700000000001</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="11"/>
-        <v>37.5</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="12"/>
-        <v>28.539999999999964</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="13"/>
-        <v>-26.329999999999927</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="14"/>
-        <v>8.9600000000000364</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="15"/>
-        <v>11.210000000000036</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="19">
-        <v>44686</v>
-      </c>
-      <c r="B53">
-        <v>1392</v>
-      </c>
-      <c r="C53">
-        <v>1403.6</v>
-      </c>
-      <c r="D53">
-        <v>1372.6</v>
-      </c>
-      <c r="E53">
-        <v>1402.5</v>
-      </c>
-      <c r="F53" s="11">
-        <v>1402.6</v>
-      </c>
-      <c r="G53" s="11">
-        <v>1405.43</v>
-      </c>
-      <c r="H53" s="11">
-        <v>1373.42</v>
-      </c>
-      <c r="I53" s="11">
-        <v>1404.88</v>
-      </c>
-      <c r="K53">
-        <v>122.134</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="12"/>
-        <v>32.009999999999991</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="13"/>
-        <v>2.2800000000002001</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="14"/>
-        <v>-1.0099999999999909</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="15"/>
-        <v>2.3800000000001091</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="164">
-        <v>44685</v>
-      </c>
-      <c r="B54">
-        <v>1408.3</v>
-      </c>
-      <c r="C54">
-        <v>1409.9</v>
-      </c>
-      <c r="D54">
-        <v>1383</v>
-      </c>
-      <c r="E54">
-        <v>1383</v>
-      </c>
-      <c r="F54" s="11">
-        <v>1415.43</v>
-      </c>
-      <c r="G54" s="11">
-        <v>1415.45</v>
-      </c>
-      <c r="H54" s="11">
-        <v>1389.59</v>
-      </c>
-      <c r="I54" s="11">
-        <v>1389.59</v>
-      </c>
-      <c r="K54">
-        <v>114.19</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="11"/>
-        <v>26.900000000000091</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="12"/>
-        <v>25.860000000000127</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="13"/>
-        <v>-25.840000000000146</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="14"/>
-        <v>1.0399999999999636</v>
-      </c>
-      <c r="Q54">
-        <f t="shared" si="15"/>
-        <v>6.5899999999999181</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="19">
-        <v>44680</v>
+        <v>44705</v>
       </c>
       <c r="B55">
-        <v>1395</v>
+        <v>1253</v>
       </c>
       <c r="C55">
-        <v>1421.6</v>
+        <v>1271.0999999999999</v>
       </c>
       <c r="D55">
-        <v>1389.6</v>
+        <v>1234</v>
       </c>
       <c r="E55">
-        <v>1409</v>
+        <v>1267</v>
       </c>
       <c r="F55" s="11">
-        <v>1398.27</v>
+        <v>1255.77</v>
       </c>
       <c r="G55" s="11">
-        <v>1417.31</v>
+        <v>1272.71</v>
       </c>
       <c r="H55" s="11">
-        <v>1394.17</v>
+        <v>1242.3599999999999</v>
       </c>
       <c r="I55" s="11">
-        <v>1417.31</v>
+        <v>1272.71</v>
+      </c>
+      <c r="J55">
+        <v>389.65800000000002</v>
       </c>
       <c r="K55">
-        <v>128.035</v>
+        <v>146.36600000000001</v>
       </c>
       <c r="M55">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" si="26"/>
+        <v>37.099999999999909</v>
       </c>
       <c r="N55">
-        <f t="shared" si="12"/>
-        <v>23.139999999999873</v>
+        <f t="shared" si="27"/>
+        <v>30.350000000000136</v>
       </c>
       <c r="O55">
-        <f t="shared" si="13"/>
-        <v>19.039999999999964</v>
+        <f t="shared" si="28"/>
+        <v>16.940000000000055</v>
       </c>
       <c r="P55">
-        <f t="shared" si="14"/>
-        <v>8.8600000000001273</v>
+        <f t="shared" si="29"/>
+        <v>6.7499999999997726</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="15"/>
-        <v>8.3099999999999454</v>
+        <f t="shared" si="30"/>
+        <v>5.7100000000000364</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A56" s="19">
-        <v>44679</v>
+      <c r="A56" s="164">
+        <v>44704</v>
       </c>
       <c r="B56">
-        <v>1399.7</v>
+        <v>1289</v>
       </c>
       <c r="C56">
-        <v>1406.7</v>
+        <v>1289</v>
       </c>
       <c r="D56">
-        <v>1388</v>
+        <v>1238.0999999999999</v>
       </c>
       <c r="E56">
-        <v>1392</v>
+        <v>1253.0999999999999</v>
       </c>
       <c r="F56" s="11">
-        <v>1400.6</v>
+        <v>1287.49</v>
       </c>
       <c r="G56" s="11">
-        <v>1407.82</v>
+        <v>1287.6500000000001</v>
       </c>
       <c r="H56" s="11">
-        <v>1392.24</v>
+        <v>1245.4100000000001</v>
       </c>
       <c r="I56" s="11">
-        <v>1400.88</v>
+        <v>1255.3499999999999</v>
+      </c>
+      <c r="J56">
+        <v>324.733</v>
       </c>
       <c r="K56">
-        <v>91.674999999999997</v>
+        <v>139.33099999999999</v>
       </c>
       <c r="M56">
-        <f t="shared" si="11"/>
-        <v>18.700000000000045</v>
+        <f t="shared" si="26"/>
+        <v>50.900000000000091</v>
       </c>
       <c r="N56">
-        <f t="shared" si="12"/>
-        <v>15.579999999999927</v>
+        <f t="shared" si="27"/>
+        <v>42.240000000000009</v>
       </c>
       <c r="O56">
-        <f t="shared" si="13"/>
-        <v>0.28000000000020009</v>
+        <f t="shared" si="28"/>
+        <v>-32.1400000000001</v>
       </c>
       <c r="P56">
-        <f t="shared" ref="P56:P60" si="16">M56-N56</f>
-        <v>3.1200000000001182</v>
+        <f t="shared" si="29"/>
+        <v>8.6600000000000819</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="15"/>
-        <v>8.8800000000001091</v>
+        <f t="shared" si="30"/>
+        <v>2.25</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="19">
-        <v>44678</v>
+        <v>44701</v>
       </c>
       <c r="B57">
-        <v>1379</v>
+        <v>1283</v>
       </c>
       <c r="C57">
-        <v>1406</v>
+        <v>1299.2</v>
       </c>
       <c r="D57">
-        <v>1358.1</v>
+        <v>1259.8</v>
       </c>
       <c r="E57">
-        <v>1401</v>
+        <v>1276.8</v>
       </c>
       <c r="F57" s="11">
-        <v>1394.85</v>
+        <v>1284.8900000000001</v>
       </c>
       <c r="G57" s="11">
-        <v>1407.7</v>
+        <v>1296</v>
       </c>
       <c r="H57" s="11">
-        <v>1362.87</v>
+        <v>1273.4000000000001</v>
       </c>
       <c r="I57" s="11">
-        <v>1402.03</v>
+        <v>1282.51</v>
+      </c>
+      <c r="J57">
+        <v>317.06799999999998</v>
       </c>
       <c r="K57">
-        <v>108.117</v>
+        <v>110.1</v>
       </c>
       <c r="M57">
-        <f t="shared" si="11"/>
-        <v>47.900000000000091</v>
+        <f t="shared" si="26"/>
+        <v>39.400000000000091</v>
       </c>
       <c r="N57">
-        <f t="shared" si="12"/>
-        <v>44.830000000000155</v>
+        <f t="shared" si="27"/>
+        <v>22.599999999999909</v>
       </c>
       <c r="O57">
-        <f t="shared" si="13"/>
-        <v>7.1800000000000637</v>
+        <f t="shared" si="28"/>
+        <v>-2.3800000000001091</v>
       </c>
       <c r="P57">
-        <f t="shared" si="16"/>
-        <v>3.0699999999999363</v>
+        <f t="shared" si="29"/>
+        <v>16.800000000000182</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="15"/>
-        <v>1.0299999999999727</v>
+        <f t="shared" si="30"/>
+        <v>5.7100000000000364</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="19">
-        <v>44677</v>
+        <v>44700</v>
       </c>
       <c r="B58">
-        <v>1356.1</v>
+        <v>1255</v>
       </c>
       <c r="C58">
-        <v>1393.2</v>
+        <v>1285.2</v>
       </c>
       <c r="D58">
-        <v>1327.1</v>
+        <v>1253</v>
       </c>
       <c r="E58">
-        <v>1391</v>
+        <v>1274.5</v>
       </c>
       <c r="F58" s="11">
-        <v>1347.83</v>
+        <v>1259.5899999999999</v>
       </c>
       <c r="G58" s="11">
-        <v>1397.43</v>
+        <v>1291.49</v>
       </c>
       <c r="H58" s="11">
-        <v>1318.5</v>
+        <v>1255.6300000000001</v>
       </c>
       <c r="I58" s="11">
-        <v>1396.9</v>
+        <v>1283.55</v>
       </c>
       <c r="K58">
-        <v>181.77699999999999</v>
+        <v>130.077</v>
       </c>
       <c r="M58">
-        <f t="shared" si="11"/>
-        <v>66.100000000000136</v>
+        <f t="shared" si="26"/>
+        <v>32.200000000000045</v>
       </c>
       <c r="N58">
-        <f t="shared" si="12"/>
-        <v>78.930000000000064</v>
+        <f t="shared" si="27"/>
+        <v>35.8599999999999</v>
       </c>
       <c r="O58">
-        <f t="shared" si="13"/>
-        <v>49.070000000000164</v>
+        <f t="shared" si="28"/>
+        <v>23.960000000000036</v>
       </c>
       <c r="P58">
-        <f t="shared" si="16"/>
-        <v>-12.829999999999927</v>
+        <f t="shared" si="29"/>
+        <v>-3.6599999999998545</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="15"/>
-        <v>5.9000000000000909</v>
+        <f t="shared" si="30"/>
+        <v>9.0499999999999545</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A59" s="164">
-        <v>44676</v>
+      <c r="A59" s="19">
+        <v>44699</v>
       </c>
       <c r="B59">
-        <v>1442.9</v>
+        <v>1275</v>
       </c>
       <c r="C59">
-        <v>1445.6</v>
+        <v>1303.9000000000001</v>
       </c>
       <c r="D59">
-        <v>1345.3</v>
+        <v>1268</v>
       </c>
       <c r="E59">
-        <v>1353.1</v>
+        <v>1281.5</v>
       </c>
       <c r="F59" s="11">
-        <v>1444.79</v>
+        <v>1289.5</v>
       </c>
       <c r="G59" s="11">
-        <v>1445.62</v>
+        <v>1298.69</v>
       </c>
       <c r="H59" s="11">
-        <v>1356.36</v>
+        <v>1268.1300000000001</v>
       </c>
       <c r="I59" s="11">
-        <v>1366.39</v>
+        <v>1286.4100000000001</v>
       </c>
       <c r="K59">
-        <v>202.42599999999999</v>
+        <v>159.93799999999999</v>
       </c>
       <c r="M59">
-        <f t="shared" si="11"/>
-        <v>100.29999999999995</v>
+        <f t="shared" si="26"/>
+        <v>35.900000000000091</v>
       </c>
       <c r="N59">
-        <f t="shared" si="12"/>
-        <v>89.259999999999991</v>
+        <f t="shared" si="27"/>
+        <v>30.559999999999945</v>
       </c>
       <c r="O59">
-        <f t="shared" si="13"/>
-        <v>-78.399999999999864</v>
+        <f t="shared" si="28"/>
+        <v>-3.0899999999999181</v>
       </c>
       <c r="P59">
-        <f t="shared" si="16"/>
-        <v>11.039999999999964</v>
+        <f t="shared" si="29"/>
+        <v>5.3400000000001455</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="15"/>
-        <v>13.290000000000191</v>
+        <f t="shared" si="30"/>
+        <v>4.9100000000000819</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="19">
-        <v>44673</v>
+        <v>44698</v>
       </c>
       <c r="B60">
-        <v>1442.3</v>
+        <v>1226</v>
       </c>
       <c r="C60">
-        <v>1459.8</v>
+        <v>1282</v>
       </c>
       <c r="D60">
-        <v>1434.7</v>
+        <v>1206.3</v>
       </c>
       <c r="E60">
-        <v>1445</v>
+        <v>1281.8</v>
       </c>
       <c r="F60" s="11">
-        <v>1439.32</v>
+        <v>1211.8800000000001</v>
       </c>
       <c r="G60" s="11">
-        <v>1455.15</v>
+        <v>1279.55</v>
       </c>
       <c r="H60" s="11">
-        <v>1419.05</v>
+        <v>1203.51</v>
       </c>
       <c r="I60" s="11">
-        <v>1444.32</v>
+        <v>1279.55</v>
       </c>
       <c r="K60">
-        <v>150.755</v>
+        <v>161.81700000000001</v>
       </c>
       <c r="M60">
-        <f t="shared" si="11"/>
-        <v>25.099999999999909</v>
+        <f t="shared" si="26"/>
+        <v>75.700000000000045</v>
       </c>
       <c r="N60">
-        <f t="shared" si="12"/>
-        <v>36.100000000000136</v>
+        <f t="shared" si="27"/>
+        <v>76.039999999999964</v>
       </c>
       <c r="O60">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="28"/>
+        <v>67.669999999999845</v>
       </c>
       <c r="P60">
-        <f t="shared" si="16"/>
-        <v>-11.000000000000227</v>
+        <f t="shared" si="29"/>
+        <v>-0.33999999999991815</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="15"/>
-        <v>-0.68000000000006366</v>
+        <f t="shared" si="30"/>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A61" s="19">
-        <v>44672</v>
+      <c r="A61" s="164">
+        <v>44697</v>
+      </c>
+      <c r="B61">
+        <v>1240</v>
+      </c>
+      <c r="C61">
+        <v>1261.9000000000001</v>
+      </c>
+      <c r="D61">
+        <v>1212</v>
+      </c>
+      <c r="E61">
+        <v>1212</v>
       </c>
       <c r="F61" s="11">
-        <v>1434.77</v>
+        <v>1254.8800000000001</v>
       </c>
       <c r="G61" s="11">
-        <v>1452.41</v>
+        <v>1258.25</v>
       </c>
       <c r="H61" s="11">
-        <v>1422.7</v>
+        <v>1214.29</v>
       </c>
       <c r="I61" s="11">
-        <v>1426.87</v>
+        <v>1215.08</v>
       </c>
       <c r="K61">
-        <v>172.35900000000001</v>
+        <v>172.77</v>
       </c>
       <c r="M61">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>49.900000000000091</v>
       </c>
       <c r="N61">
-        <f t="shared" si="12"/>
-        <v>29.710000000000036</v>
+        <f t="shared" si="27"/>
+        <v>43.960000000000036</v>
       </c>
       <c r="O61">
-        <f t="shared" si="13"/>
-        <v>-7.9000000000000909</v>
+        <f t="shared" si="28"/>
+        <v>-39.800000000000182</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="29"/>
+        <v>5.9400000000000546</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="30"/>
+        <v>3.0799999999999272</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="19">
-        <v>44671</v>
+        <v>44694</v>
+      </c>
+      <c r="B62">
+        <v>1272</v>
+      </c>
+      <c r="C62">
+        <v>1288.0999999999999</v>
+      </c>
+      <c r="D62">
+        <v>1214.7</v>
+      </c>
+      <c r="E62">
+        <v>1225</v>
       </c>
       <c r="F62" s="11">
-        <v>1440.9</v>
+        <v>1281.28</v>
       </c>
       <c r="G62" s="11">
-        <v>1453.81</v>
+        <v>1284.94</v>
       </c>
       <c r="H62" s="11">
-        <v>1434.87</v>
+        <v>1219.52</v>
       </c>
       <c r="I62" s="11">
-        <v>1435.5</v>
+        <v>1223.76</v>
       </c>
       <c r="K62">
-        <v>150.22200000000001</v>
+        <v>237.55500000000001</v>
       </c>
       <c r="M62">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>73.399999999999864</v>
       </c>
       <c r="N62">
-        <f t="shared" si="12"/>
-        <v>18.940000000000055</v>
+        <f t="shared" si="27"/>
+        <v>65.420000000000073</v>
       </c>
       <c r="O62">
-        <f t="shared" si="13"/>
-        <v>-5.4000000000000909</v>
+        <f t="shared" si="28"/>
+        <v>-57.519999999999982</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="29"/>
+        <v>7.9799999999997908</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="30"/>
+        <v>-1.2400000000000091</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="19">
+        <v>44693</v>
+      </c>
+      <c r="B63">
+        <v>1334</v>
+      </c>
+      <c r="C63">
+        <v>1334</v>
+      </c>
+      <c r="D63">
+        <v>1262</v>
+      </c>
+      <c r="E63">
+        <v>1270</v>
+      </c>
+      <c r="F63" s="11">
+        <v>1337.01</v>
+      </c>
+      <c r="G63" s="11">
+        <v>1339.25</v>
+      </c>
+      <c r="H63" s="11">
+        <v>1279.48</v>
+      </c>
+      <c r="I63" s="11">
+        <v>1279.76</v>
+      </c>
+      <c r="K63">
+        <v>163.22399999999999</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="26"/>
+        <v>72</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="27"/>
+        <v>59.769999999999982</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="28"/>
+        <v>-57.25</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="29"/>
+        <v>12.230000000000018</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="30"/>
+        <v>9.7599999999999909</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A64" s="19">
+        <v>44692</v>
+      </c>
+      <c r="B64">
+        <v>1335</v>
+      </c>
+      <c r="C64">
+        <v>1349</v>
+      </c>
+      <c r="D64">
+        <v>1318</v>
+      </c>
+      <c r="E64">
+        <v>1337</v>
+      </c>
+      <c r="F64" s="11">
+        <v>1344.14</v>
+      </c>
+      <c r="G64" s="11">
+        <v>1355.11</v>
+      </c>
+      <c r="H64" s="11">
+        <v>1324.2</v>
+      </c>
+      <c r="I64" s="11">
+        <v>1349.82</v>
+      </c>
+      <c r="K64">
+        <v>94.774000000000001</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="27"/>
+        <v>30.909999999999854</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="28"/>
+        <v>5.6799999999998363</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="29"/>
+        <v>9.0000000000145519E-2</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="30"/>
+        <v>12.819999999999936</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A65" s="19">
+        <v>44691</v>
+      </c>
+      <c r="B65">
+        <v>1299.8</v>
+      </c>
+      <c r="C65">
+        <v>1340.9</v>
+      </c>
+      <c r="D65">
+        <v>1291.0999999999999</v>
+      </c>
+      <c r="E65">
+        <v>1335</v>
+      </c>
+      <c r="F65" s="11">
+        <v>1312.1</v>
+      </c>
+      <c r="G65" s="11">
+        <v>1345.46</v>
+      </c>
+      <c r="H65" s="11">
+        <v>1285.67</v>
+      </c>
+      <c r="I65" s="11">
+        <v>1345.46</v>
+      </c>
+      <c r="K65">
+        <v>157.23400000000001</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="26"/>
+        <v>49.800000000000182</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="27"/>
+        <v>59.789999999999964</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="28"/>
+        <v>33.360000000000127</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="29"/>
+        <v>-9.9899999999997817</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="30"/>
+        <v>10.460000000000036</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A66" s="164">
+        <v>44690</v>
+      </c>
+      <c r="B66">
+        <v>1353.7</v>
+      </c>
+      <c r="C66">
+        <v>1355.8</v>
+      </c>
+      <c r="D66">
+        <v>1300</v>
+      </c>
+      <c r="E66">
+        <v>1308.0999999999999</v>
+      </c>
+      <c r="F66" s="11">
+        <v>1358.56</v>
+      </c>
+      <c r="G66" s="11">
+        <v>1360.64</v>
+      </c>
+      <c r="H66" s="11">
+        <v>1308.3399999999999</v>
+      </c>
+      <c r="I66" s="11">
+        <v>1314.04</v>
+      </c>
+      <c r="K66">
+        <v>200.87899999999999</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="26"/>
+        <v>55.799999999999955</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="27"/>
+        <v>52.300000000000182</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="28"/>
+        <v>-44.519999999999982</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="29"/>
+        <v>3.4999999999997726</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="30"/>
+        <v>5.9400000000000546</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="19">
+        <v>44687</v>
+      </c>
+      <c r="B67">
+        <v>1382</v>
+      </c>
+      <c r="C67">
+        <v>1396.3</v>
+      </c>
+      <c r="D67">
+        <v>1358.8</v>
+      </c>
+      <c r="E67">
+        <v>1362</v>
+      </c>
+      <c r="F67" s="11">
+        <v>1399.54</v>
+      </c>
+      <c r="G67" s="11">
+        <v>1399.54</v>
+      </c>
+      <c r="H67" s="11">
+        <v>1371</v>
+      </c>
+      <c r="I67" s="11">
+        <v>1373.21</v>
+      </c>
+      <c r="K67">
+        <v>129.90700000000001</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="26"/>
+        <v>37.5</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="27"/>
+        <v>28.539999999999964</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="28"/>
+        <v>-26.329999999999927</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="29"/>
+        <v>8.9600000000000364</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="30"/>
+        <v>11.210000000000036</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A68" s="19">
+        <v>44686</v>
+      </c>
+      <c r="B68">
+        <v>1392</v>
+      </c>
+      <c r="C68">
+        <v>1403.6</v>
+      </c>
+      <c r="D68">
+        <v>1372.6</v>
+      </c>
+      <c r="E68">
+        <v>1402.5</v>
+      </c>
+      <c r="F68" s="11">
+        <v>1402.6</v>
+      </c>
+      <c r="G68" s="11">
+        <v>1405.43</v>
+      </c>
+      <c r="H68" s="11">
+        <v>1373.42</v>
+      </c>
+      <c r="I68" s="11">
+        <v>1404.88</v>
+      </c>
+      <c r="K68">
+        <v>122.134</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="27"/>
+        <v>32.009999999999991</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="28"/>
+        <v>2.2800000000002001</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="29"/>
+        <v>-1.0099999999999909</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="30"/>
+        <v>2.3800000000001091</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A69" s="164">
+        <v>44685</v>
+      </c>
+      <c r="B69">
+        <v>1408.3</v>
+      </c>
+      <c r="C69">
+        <v>1409.9</v>
+      </c>
+      <c r="D69">
+        <v>1383</v>
+      </c>
+      <c r="E69">
+        <v>1383</v>
+      </c>
+      <c r="F69" s="11">
+        <v>1415.43</v>
+      </c>
+      <c r="G69" s="11">
+        <v>1415.45</v>
+      </c>
+      <c r="H69" s="11">
+        <v>1389.59</v>
+      </c>
+      <c r="I69" s="11">
+        <v>1389.59</v>
+      </c>
+      <c r="K69">
+        <v>114.19</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="26"/>
+        <v>26.900000000000091</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="27"/>
+        <v>25.860000000000127</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="28"/>
+        <v>-25.840000000000146</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="29"/>
+        <v>1.0399999999999636</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="30"/>
+        <v>6.5899999999999181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A70" s="19">
+        <v>44680</v>
+      </c>
+      <c r="B70">
+        <v>1395</v>
+      </c>
+      <c r="C70">
+        <v>1421.6</v>
+      </c>
+      <c r="D70">
+        <v>1389.6</v>
+      </c>
+      <c r="E70">
+        <v>1409</v>
+      </c>
+      <c r="F70" s="11">
+        <v>1398.27</v>
+      </c>
+      <c r="G70" s="11">
+        <v>1417.31</v>
+      </c>
+      <c r="H70" s="11">
+        <v>1394.17</v>
+      </c>
+      <c r="I70" s="11">
+        <v>1417.31</v>
+      </c>
+      <c r="K70">
+        <v>128.035</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="27"/>
+        <v>23.139999999999873</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="28"/>
+        <v>19.039999999999964</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="29"/>
+        <v>8.8600000000001273</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="30"/>
+        <v>8.3099999999999454</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A71" s="19">
+        <v>44679</v>
+      </c>
+      <c r="B71">
+        <v>1399.7</v>
+      </c>
+      <c r="C71">
+        <v>1406.7</v>
+      </c>
+      <c r="D71">
+        <v>1388</v>
+      </c>
+      <c r="E71">
+        <v>1392</v>
+      </c>
+      <c r="F71" s="11">
+        <v>1400.6</v>
+      </c>
+      <c r="G71" s="11">
+        <v>1407.82</v>
+      </c>
+      <c r="H71" s="11">
+        <v>1392.24</v>
+      </c>
+      <c r="I71" s="11">
+        <v>1400.88</v>
+      </c>
+      <c r="K71">
+        <v>91.674999999999997</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="26"/>
+        <v>18.700000000000045</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="27"/>
+        <v>15.579999999999927</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="28"/>
+        <v>0.28000000000020009</v>
+      </c>
+      <c r="P71">
+        <f t="shared" ref="P71:P75" si="31">M71-N71</f>
+        <v>3.1200000000001182</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="30"/>
+        <v>8.8800000000001091</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A72" s="19">
+        <v>44678</v>
+      </c>
+      <c r="B72">
+        <v>1379</v>
+      </c>
+      <c r="C72">
+        <v>1406</v>
+      </c>
+      <c r="D72">
+        <v>1358.1</v>
+      </c>
+      <c r="E72">
+        <v>1401</v>
+      </c>
+      <c r="F72" s="11">
+        <v>1394.85</v>
+      </c>
+      <c r="G72" s="11">
+        <v>1407.7</v>
+      </c>
+      <c r="H72" s="11">
+        <v>1362.87</v>
+      </c>
+      <c r="I72" s="11">
+        <v>1402.03</v>
+      </c>
+      <c r="K72">
+        <v>108.117</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="26"/>
+        <v>47.900000000000091</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="27"/>
+        <v>44.830000000000155</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="28"/>
+        <v>7.1800000000000637</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="31"/>
+        <v>3.0699999999999363</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="30"/>
+        <v>1.0299999999999727</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A73" s="19">
+        <v>44677</v>
+      </c>
+      <c r="B73">
+        <v>1356.1</v>
+      </c>
+      <c r="C73">
+        <v>1393.2</v>
+      </c>
+      <c r="D73">
+        <v>1327.1</v>
+      </c>
+      <c r="E73">
+        <v>1391</v>
+      </c>
+      <c r="F73" s="11">
+        <v>1347.83</v>
+      </c>
+      <c r="G73" s="11">
+        <v>1397.43</v>
+      </c>
+      <c r="H73" s="11">
+        <v>1318.5</v>
+      </c>
+      <c r="I73" s="11">
+        <v>1396.9</v>
+      </c>
+      <c r="K73">
+        <v>181.77699999999999</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="26"/>
+        <v>66.100000000000136</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="27"/>
+        <v>78.930000000000064</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="28"/>
+        <v>49.070000000000164</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="31"/>
+        <v>-12.829999999999927</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="30"/>
+        <v>5.9000000000000909</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A74" s="164">
+        <v>44676</v>
+      </c>
+      <c r="B74">
+        <v>1442.9</v>
+      </c>
+      <c r="C74">
+        <v>1445.6</v>
+      </c>
+      <c r="D74">
+        <v>1345.3</v>
+      </c>
+      <c r="E74">
+        <v>1353.1</v>
+      </c>
+      <c r="F74" s="11">
+        <v>1444.79</v>
+      </c>
+      <c r="G74" s="11">
+        <v>1445.62</v>
+      </c>
+      <c r="H74" s="11">
+        <v>1356.36</v>
+      </c>
+      <c r="I74" s="11">
+        <v>1366.39</v>
+      </c>
+      <c r="K74">
+        <v>202.42599999999999</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="26"/>
+        <v>100.29999999999995</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="27"/>
+        <v>89.259999999999991</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="28"/>
+        <v>-78.399999999999864</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="31"/>
+        <v>11.039999999999964</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="30"/>
+        <v>13.290000000000191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A75" s="19">
+        <v>44673</v>
+      </c>
+      <c r="B75">
+        <v>1442.3</v>
+      </c>
+      <c r="C75">
+        <v>1459.8</v>
+      </c>
+      <c r="D75">
+        <v>1434.7</v>
+      </c>
+      <c r="E75">
+        <v>1445</v>
+      </c>
+      <c r="F75" s="11">
+        <v>1439.32</v>
+      </c>
+      <c r="G75" s="11">
+        <v>1455.15</v>
+      </c>
+      <c r="H75" s="11">
+        <v>1419.05</v>
+      </c>
+      <c r="I75" s="11">
+        <v>1444.32</v>
+      </c>
+      <c r="K75">
+        <v>150.755</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="26"/>
+        <v>25.099999999999909</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="27"/>
+        <v>36.100000000000136</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="31"/>
+        <v>-11.000000000000227</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="30"/>
+        <v>-0.68000000000006366</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A76" s="19">
+        <v>44672</v>
+      </c>
+      <c r="F76" s="11">
+        <v>1434.77</v>
+      </c>
+      <c r="G76" s="11">
+        <v>1452.41</v>
+      </c>
+      <c r="H76" s="11">
+        <v>1422.7</v>
+      </c>
+      <c r="I76" s="11">
+        <v>1426.87</v>
+      </c>
+      <c r="K76">
+        <v>172.35900000000001</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="27"/>
+        <v>29.710000000000036</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="28"/>
+        <v>-7.9000000000000909</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A77" s="19">
+        <v>44671</v>
+      </c>
+      <c r="F77" s="11">
+        <v>1440.9</v>
+      </c>
+      <c r="G77" s="11">
+        <v>1453.81</v>
+      </c>
+      <c r="H77" s="11">
+        <v>1434.87</v>
+      </c>
+      <c r="I77" s="11">
+        <v>1435.5</v>
+      </c>
+      <c r="K77">
+        <v>150.22200000000001</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="27"/>
+        <v>18.940000000000055</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="28"/>
+        <v>-5.4000000000000909</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A78" s="19">
         <v>44670</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F78" s="11">
         <v>1471.63</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G78" s="11">
         <v>1478.5</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H78" s="11">
         <v>1440.61</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I78" s="11">
         <v>1440.61</v>
       </c>
-      <c r="K63">
+      <c r="K78">
         <v>156.62</v>
       </c>
-      <c r="M63">
-        <f t="shared" si="11"/>
+      <c r="M78">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N63">
-        <f t="shared" si="12"/>
+      <c r="N78">
+        <f t="shared" si="27"/>
         <v>37.8900000000001</v>
       </c>
-      <c r="O63">
-        <f t="shared" si="13"/>
+      <c r="O78">
+        <f t="shared" si="28"/>
         <v>-31.020000000000209</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A64" s="164">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A79" s="164">
         <v>44669</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F79" s="11">
         <v>1493.17</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G79" s="11">
         <v>1493.24</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H79" s="11">
         <v>1466.73</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I79" s="11">
         <v>1468.25</v>
       </c>
-      <c r="K64">
+      <c r="K79">
         <v>194.44200000000001</v>
       </c>
-      <c r="M64">
-        <f t="shared" si="11"/>
+      <c r="M79">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N64">
-        <f t="shared" si="12"/>
+      <c r="N79">
+        <f t="shared" si="27"/>
         <v>26.509999999999991</v>
       </c>
-      <c r="O64">
-        <f t="shared" si="13"/>
+      <c r="O79">
+        <f t="shared" si="28"/>
         <v>-24.920000000000073</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A65" s="19">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A80" s="19">
         <v>44666</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F80" s="11">
         <v>1514.89</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G80" s="11">
         <v>1518.85</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H80" s="11">
         <v>1491.26</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I80" s="11">
         <v>1493.74</v>
       </c>
-      <c r="K65">
+      <c r="K80">
         <v>181.76499999999999</v>
       </c>
-      <c r="M65">
-        <f t="shared" si="11"/>
+      <c r="M80">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N65">
-        <f t="shared" si="12"/>
+      <c r="N80">
+        <f t="shared" si="27"/>
         <v>27.589999999999918</v>
       </c>
-      <c r="O65">
-        <f t="shared" si="13"/>
+      <c r="O80">
+        <f t="shared" si="28"/>
         <v>-21.150000000000091</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A66" s="19">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A81" s="19">
         <v>44665</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F81" s="11">
         <v>1526.49</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G81" s="11">
         <v>1534.28</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H81" s="11">
         <v>1517.07</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I81" s="11">
         <v>1518.01</v>
       </c>
-      <c r="K66">
+      <c r="K81">
         <v>119.60899999999999</v>
       </c>
-      <c r="M66">
-        <f t="shared" si="11"/>
+      <c r="M81">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N66">
-        <f t="shared" si="12"/>
+      <c r="N81">
+        <f t="shared" si="27"/>
         <v>17.210000000000036</v>
       </c>
-      <c r="O66">
-        <f t="shared" si="13"/>
+      <c r="O81">
+        <f t="shared" si="28"/>
         <v>-8.4800000000000182</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A67" s="19">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A82" s="19">
         <v>44664</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F82" s="11">
         <v>1512.37</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G82" s="11">
         <v>1526.44</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H82" s="11">
         <v>1506.45</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I82" s="11">
         <v>1525.39</v>
       </c>
-      <c r="K67">
+      <c r="K82">
         <v>143.87200000000001</v>
       </c>
-      <c r="M67">
-        <f t="shared" si="11"/>
+      <c r="M82">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N67">
-        <f t="shared" si="12"/>
+      <c r="N82">
+        <f t="shared" si="27"/>
         <v>19.990000000000009</v>
       </c>
-      <c r="O67">
-        <f t="shared" si="13"/>
+      <c r="O82">
+        <f t="shared" si="28"/>
         <v>13.020000000000209</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A68" s="19">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A83" s="19">
         <v>44663</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F83" s="11">
         <v>1530.3</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G83" s="11">
         <v>1532.03</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H83" s="11">
         <v>1506.41</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I83" s="11">
         <v>1507.2</v>
       </c>
-      <c r="K68">
+      <c r="K83">
         <v>152.482</v>
       </c>
-      <c r="M68">
-        <f t="shared" si="11"/>
+      <c r="M83">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N68">
-        <f t="shared" si="12"/>
+      <c r="N83">
+        <f t="shared" si="27"/>
         <v>25.619999999999891</v>
       </c>
-      <c r="O68">
-        <f t="shared" si="13"/>
+      <c r="O83">
+        <f t="shared" si="28"/>
         <v>-23.099999999999909</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A69" s="164">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A84" s="164">
         <v>44659</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F84" s="11">
         <v>1541.78</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G84" s="11">
         <v>1547.6</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H84" s="11">
         <v>1524.31</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I84" s="11">
         <v>1524.31</v>
       </c>
-      <c r="K69">
+      <c r="K84">
         <v>156.33600000000001</v>
       </c>
-      <c r="M69">
-        <f t="shared" si="11"/>
+      <c r="M84">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N69">
-        <f t="shared" si="12"/>
+      <c r="N84">
+        <f t="shared" si="27"/>
         <v>23.289999999999964</v>
       </c>
-      <c r="O69">
-        <f t="shared" si="13"/>
+      <c r="O84">
+        <f t="shared" si="28"/>
         <v>-17.470000000000027</v>
       </c>
     </row>

--- a/Relax.xlsx
+++ b/Relax.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KeHoach" sheetId="5" r:id="rId1"/>
@@ -2194,7 +2194,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2367,7 +2367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="1316">
   <si>
     <t>https://www.youtube.com/watch?v=T77wtm-2exE</t>
   </si>
@@ -7252,9 +7252,6 @@
     <t>giữ lệnh từ thứ 6, có cơ hội chốt lời mà ko chốt</t>
   </si>
   <si>
-    <t>Vì tối qua DJ tăng mạnh nên hnay khó có kịch bản VN30 giảm; Ngày đáo hạn PS, coi mấy ảnh diễn trò =&gt; không có trò gì hay ho, 1 phiên đáo hạn diễn ra bình ổn</t>
-  </si>
-  <si>
     <t>Ngày 20-7-22</t>
   </si>
   <si>
@@ -7262,6 +7259,12 @@
   </si>
   <si>
     <t>KEEP</t>
+  </si>
+  <si>
+    <t>Vì tối qua DJ tăng mạnh nên hnay khó có kịch bản VN30 giảm; Ngày đáo hạn PS, coi mấy ảnh diễn trò =&gt; không có trò gì hay ho, 1 phiên đáo hạn diễn ra bình ổn =&gt; xác định sai phiên chốt PS</t>
+  </si>
+  <si>
+    <t>Đứng ngoài - Xác định sai phiên chốt PS, hnay mới đúng</t>
   </si>
 </sst>
 </file>
@@ -11972,7 +11975,7 @@
       </c>
       <c r="N6" s="21">
         <f ca="1">-N9+0*J88+PS!M6*0+N12+J79+J75+J77+5080+J73+J71+J69+J67+J65+J63+J61+J58+J56+J50+J52+J54+J48+J46+J44+J42+J40+8230+J38+J37+J35+J36+J29+J34+J33+J32+J31+J28+J26+J24+1000+J22+J10+J18+J16+J14+J12</f>
-        <v>-45965.15908333275</v>
+        <v>-45979.742416666086</v>
       </c>
       <c r="O6" s="21">
         <f>-O9+1*J88+29000-16000-800-22000-500-2200+7900+9200+4700+1000+500+7900+J137+J135+J133+11000+J129+J131+J127+J125+J123+J121+J119+J117+J115+J113+274+J112-5000+J110+J108+J104+J106+I107+1850+J102+J100+J98+J96+J95+J93+J91+J90+J86</f>
@@ -12009,7 +12012,7 @@
       </c>
       <c r="N7" s="36">
         <f ca="1">SUM(N4:N6)</f>
-        <v>394781.64413781557</v>
+        <v>394767.06080448226</v>
       </c>
       <c r="O7" s="36">
         <f>SUM(O4:O6)</f>
@@ -12115,7 +12118,7 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="43">
         <f ca="1">TODAY()</f>
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>90</v>
@@ -12136,15 +12139,15 @@
       <c r="G10" s="14"/>
       <c r="H10" s="97">
         <f ca="1">Table1[[#This Row],[Result]]/(E11*F11)</f>
-        <v>-0.11537325411715654</v>
+        <v>-0.11546445695226183</v>
       </c>
       <c r="I10" s="69">
         <f ca="1">Table1[[#This Row],[Date]]-A11</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10" s="162">
         <f ca="1">-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E11*F11-Table1[[#This Row],[Commission]]-D11+I11</f>
-        <v>-18448.183333333331</v>
+        <v>-18462.766666666666</v>
       </c>
       <c r="K10" s="121" t="s">
         <v>1272</v>
@@ -12196,7 +12199,7 @@
       <c r="H11" s="97"/>
       <c r="I11" s="67">
         <f ca="1">-105/360*(I10+1)*Table1[[#This Row],[Notes]]</f>
-        <v>-452.08333333333337</v>
+        <v>-466.66666666666669</v>
       </c>
       <c r="J11" s="98">
         <f>Table1[[#This Row],[Volume]]*Table1[[#This Row],[Price]]</f>
@@ -12230,7 +12233,7 @@
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="43">
         <f ca="1">TODAY()</f>
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>90</v>
@@ -12255,7 +12258,7 @@
       </c>
       <c r="I12" s="69">
         <f ca="1">Table1[[#This Row],[Date]]-A13</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J12" s="162">
         <f>-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E13*F13-Table1[[#This Row],[Commission]]-D13+I13</f>
@@ -23509,8 +23512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24138,17 +24141,21 @@
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
         <v>0</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="24">
+        <v>16.8</v>
+      </c>
       <c r="I14" s="152"/>
-      <c r="J14" s="45"/>
+      <c r="J14" s="45" t="s">
+        <v>1315</v>
+      </c>
       <c r="K14" t="s">
         <v>756</v>
       </c>
       <c r="L14" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M14" t="s">
         <v>1312</v>
-      </c>
-      <c r="M14" t="s">
-        <v>1313</v>
       </c>
       <c r="O14" s="140" t="s">
         <v>975</v>
@@ -24188,7 +24195,7 @@
         <v>44762</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C15" s="16">
         <f>13+59+15</f>
@@ -24211,7 +24218,7 @@
       </c>
       <c r="I15" s="152"/>
       <c r="J15" s="45" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="L15" t="s">
         <v>1307</v>
@@ -24234,7 +24241,7 @@
         <v>44761</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C16" s="16">
         <v>20</v>
@@ -24273,7 +24280,7 @@
         <v>44760</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C17" s="16">
         <v>140</v>
@@ -26222,11 +26229,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="11" width="8.7265625" style="167"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -26256,10 +26264,10 @@
       <c r="I1" s="11" t="s">
         <v>1294</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="167" t="s">
         <v>1275</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="167" t="s">
         <v>1276</v>
       </c>
       <c r="L1" t="s">
@@ -26607,36 +26615,65 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="19">
+      <c r="A13" s="159">
         <v>44763</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="B13">
+        <v>1225.3</v>
+      </c>
+      <c r="C13">
+        <v>1242</v>
+      </c>
+      <c r="D13">
+        <v>1225.2</v>
+      </c>
+      <c r="E13">
+        <v>1234.0999999999999</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1227.31</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1240.9100000000001</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1226.8800000000001</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1235.25</v>
+      </c>
+      <c r="J13" s="167">
+        <v>203.851</v>
+      </c>
+      <c r="K13" s="167">
+        <v>127.715</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
       <c r="M13">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>16.799999999999955</v>
       </c>
       <c r="N13">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>14.029999999999973</v>
       </c>
       <c r="O13">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7.9400000000000546</v>
       </c>
       <c r="P13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.7699999999999818</v>
       </c>
       <c r="Q13">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.1500000000000909</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="159">
+      <c r="A14" s="165">
         <v>44762</v>
       </c>
       <c r="B14">
@@ -26663,7 +26700,7 @@
       <c r="I14" s="11">
         <v>1225.6199999999999</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="167">
         <v>189.50299999999999</v>
       </c>
       <c r="K14" s="167">
@@ -26721,10 +26758,10 @@
       <c r="I15" s="11">
         <v>1211.7</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="167">
         <v>196.929</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="167">
         <v>100.593</v>
       </c>
       <c r="L15" s="167">
@@ -26779,10 +26816,10 @@
       <c r="I16" s="11">
         <v>1214.28</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="167">
         <v>178.982</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="167">
         <v>104.039</v>
       </c>
       <c r="L16" s="167">
@@ -26837,10 +26874,10 @@
       <c r="I17" s="11">
         <v>1220.1400000000001</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="167">
         <v>220.851</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="167">
         <v>147.666</v>
       </c>
       <c r="L17" s="167">
@@ -26895,10 +26932,10 @@
       <c r="I18" s="11">
         <v>1221.94</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="167">
         <v>242.459</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="167">
         <v>106.758</v>
       </c>
       <c r="L18" s="167">
@@ -26953,10 +26990,10 @@
       <c r="I19" s="11">
         <v>1216.94</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="167">
         <v>251.96899999999999</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="167">
         <v>117.18</v>
       </c>
       <c r="M19">
@@ -27008,10 +27045,10 @@
       <c r="I20" s="11">
         <v>1219.44</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="167">
         <v>224.334</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="167">
         <v>88.676000000000002</v>
       </c>
       <c r="M20">
@@ -27063,10 +27100,10 @@
       <c r="I21" s="11">
         <v>1209.2</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="167">
         <v>228.673</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="167">
         <v>131.00200000000001</v>
       </c>
       <c r="L21" s="167">
@@ -27121,10 +27158,10 @@
       <c r="I22" s="11">
         <v>1231.54</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="167">
         <v>210.77</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="167">
         <v>115.988</v>
       </c>
       <c r="L22" s="167">
@@ -27179,10 +27216,10 @@
       <c r="I23" s="11">
         <v>1229.23</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="167">
         <v>319.33600000000001</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="167">
         <v>98.638999999999996</v>
       </c>
       <c r="L23">
@@ -27237,10 +27274,10 @@
       <c r="I24" s="11">
         <v>1211.94</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="167">
         <v>399.286</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="167">
         <v>131.18</v>
       </c>
       <c r="L24">
@@ -27295,10 +27332,10 @@
       <c r="I25" s="11">
         <v>1242.05</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="167">
         <v>332.00200000000001</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="167">
         <v>162.03100000000001</v>
       </c>
       <c r="L25">
@@ -27353,10 +27390,10 @@
       <c r="I26" s="11">
         <v>1248.3699999999999</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="167">
         <v>245.64400000000001</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="167">
         <v>112.84</v>
       </c>
       <c r="L26">
@@ -27411,10 +27448,10 @@
       <c r="I27" s="11">
         <v>1252.24</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="167">
         <v>330.35199999999998</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="167">
         <v>118.89100000000001</v>
       </c>
       <c r="L27">
@@ -27469,10 +27506,10 @@
       <c r="I28" s="11">
         <v>1248.92</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="167">
         <v>256.95100000000002</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="167">
         <v>118.014</v>
       </c>
       <c r="L28">
@@ -27527,10 +27564,10 @@
       <c r="I29" s="11">
         <v>1273.4000000000001</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="167">
         <v>289.58300000000003</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="167">
         <v>113.29600000000001</v>
       </c>
       <c r="L29">
@@ -27585,10 +27622,10 @@
       <c r="I30" s="11">
         <v>1273.4100000000001</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="167">
         <v>258.19400000000002</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="167">
         <v>151.571</v>
       </c>
       <c r="L30">
@@ -27643,10 +27680,10 @@
       <c r="I31" s="11">
         <v>1256.67</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="167">
         <v>218.952</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="167">
         <v>110.59699999999999</v>
       </c>
       <c r="L31">
@@ -27701,10 +27738,10 @@
       <c r="I32" s="11">
         <v>1235.47</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="167">
         <v>243.816</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="167">
         <v>90.436999999999998</v>
       </c>
       <c r="L32">
@@ -27759,10 +27796,10 @@
       <c r="I33" s="11">
         <v>1240.58</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="167">
         <v>336.90800000000002</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="167">
         <v>105.24</v>
       </c>
       <c r="L33">
@@ -27817,10 +27854,10 @@
       <c r="I34" s="11">
         <v>1227.18</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="167">
         <v>404.68</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="167">
         <v>142.69499999999999</v>
       </c>
       <c r="L34">
@@ -27875,10 +27912,10 @@
       <c r="I35" s="11">
         <v>1224.54</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="167">
         <v>504.51600000000002</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="167">
         <v>172.80199999999999</v>
       </c>
       <c r="L35">
@@ -27933,10 +27970,10 @@
       <c r="I36" s="11">
         <v>1225.56</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="167">
         <v>405.214</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="167">
         <v>168.768</v>
       </c>
       <c r="L36">
@@ -27991,10 +28028,10 @@
       <c r="I37" s="11">
         <v>1258.03</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="167">
         <v>455.23399999999998</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="167">
         <v>187.3</v>
       </c>
       <c r="L37">
@@ -28049,10 +28086,10 @@
       <c r="I38" s="11">
         <v>1280.3699999999999</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="167">
         <v>284.86799999999999</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="167">
         <v>156.45500000000001</v>
       </c>
       <c r="L38">
@@ -28107,10 +28144,10 @@
       <c r="I39" s="11">
         <v>1253.0899999999999</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="167">
         <v>356.99299999999999</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="167">
         <v>167.43100000000001</v>
       </c>
       <c r="L39">
@@ -28165,10 +28202,10 @@
       <c r="I40" s="11">
         <v>1261.1600000000001</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="167">
         <v>353.74700000000001</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="167">
         <v>145.64099999999999</v>
       </c>
       <c r="L40">
@@ -28223,10 +28260,10 @@
       <c r="I41" s="11">
         <v>1260.2</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="167">
         <v>332.82900000000001</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="167">
         <v>199.02</v>
       </c>
       <c r="L41">
@@ -28282,10 +28319,10 @@
       <c r="I42" s="11">
         <v>1325.69</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="167">
         <v>232.69300000000001</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="167">
         <v>136.58500000000001</v>
       </c>
       <c r="L42">
@@ -28340,10 +28377,10 @@
       <c r="I43" s="11">
         <v>1342.92</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="167">
         <v>264.55900000000003</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="167">
         <v>126.6</v>
       </c>
       <c r="L43">
@@ -28399,10 +28436,10 @@
       <c r="I44" s="11">
         <v>1342.03</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="167">
         <v>267.43</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="167">
         <v>163.072</v>
       </c>
       <c r="L44">
@@ -28458,10 +28495,10 @@
       <c r="I45" s="11">
         <v>1324.37</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="167">
         <v>278.66399999999999</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="167">
         <v>153.98099999999999</v>
       </c>
       <c r="L45">
@@ -28516,10 +28553,10 @@
       <c r="I46" s="11">
         <v>1327.04</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="167">
         <v>224.785</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="167">
         <v>132.834</v>
       </c>
       <c r="L46">
@@ -28575,10 +28612,10 @@
       <c r="I47" s="11">
         <v>1327.4</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="167">
         <v>233.505</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="167">
         <v>100.18</v>
       </c>
       <c r="L47">
@@ -28634,10 +28671,10 @@
       <c r="I48" s="11">
         <v>1325.49</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="167">
         <v>253.048</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="167">
         <v>133.90299999999999</v>
       </c>
       <c r="L48">
@@ -28693,10 +28730,10 @@
       <c r="I49" s="11">
         <v>1335.49</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="167">
         <v>325.93599999999998</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="167">
         <v>127.58199999999999</v>
       </c>
       <c r="L49">
@@ -28752,10 +28789,10 @@
       <c r="I50" s="11">
         <v>1332.59</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="167">
         <v>224.97800000000001</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="167">
         <v>127.916</v>
       </c>
       <c r="M50">
@@ -28807,10 +28844,10 @@
       <c r="I51" s="11">
         <v>1342.87</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="167">
         <v>204.05</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="167">
         <v>121.53100000000001</v>
       </c>
       <c r="L51">
@@ -28866,10 +28903,10 @@
       <c r="I52" s="11">
         <v>1335.68</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="167">
         <v>255.624</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="167">
         <v>139.40600000000001</v>
       </c>
       <c r="L52">
@@ -28925,10 +28962,10 @@
       <c r="I53" s="11">
         <v>1309.5</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="167">
         <v>279.32499999999999</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="167">
         <v>127.93</v>
       </c>
       <c r="L53">
@@ -28984,10 +29021,10 @@
       <c r="I54" s="11">
         <v>1310.7</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="167">
         <v>318.72399999999999</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="167">
         <v>172.69800000000001</v>
       </c>
       <c r="L54">
@@ -29043,10 +29080,10 @@
       <c r="I55" s="11">
         <v>1272.71</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="167">
         <v>389.65800000000002</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="167">
         <v>146.36600000000001</v>
       </c>
       <c r="M55">
@@ -29098,10 +29135,10 @@
       <c r="I56" s="11">
         <v>1255.3499999999999</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="167">
         <v>324.733</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="167">
         <v>139.33099999999999</v>
       </c>
       <c r="M56">
@@ -29153,10 +29190,10 @@
       <c r="I57" s="11">
         <v>1282.51</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="167">
         <v>317.06799999999998</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="167">
         <v>110.1</v>
       </c>
       <c r="M57">
@@ -29208,7 +29245,7 @@
       <c r="I58" s="11">
         <v>1283.55</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="167">
         <v>130.077</v>
       </c>
       <c r="M58">
@@ -29260,7 +29297,7 @@
       <c r="I59" s="11">
         <v>1286.4100000000001</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="167">
         <v>159.93799999999999</v>
       </c>
       <c r="M59">
@@ -29312,7 +29349,7 @@
       <c r="I60" s="11">
         <v>1279.55</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="167">
         <v>161.81700000000001</v>
       </c>
       <c r="M60">
@@ -29364,7 +29401,7 @@
       <c r="I61" s="11">
         <v>1215.08</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="167">
         <v>172.77</v>
       </c>
       <c r="M61">
@@ -29416,7 +29453,7 @@
       <c r="I62" s="11">
         <v>1223.76</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="167">
         <v>237.55500000000001</v>
       </c>
       <c r="M62">
@@ -29468,7 +29505,7 @@
       <c r="I63" s="11">
         <v>1279.76</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="167">
         <v>163.22399999999999</v>
       </c>
       <c r="M63">
@@ -29520,7 +29557,7 @@
       <c r="I64" s="11">
         <v>1349.82</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="167">
         <v>94.774000000000001</v>
       </c>
       <c r="M64">
@@ -29572,7 +29609,7 @@
       <c r="I65" s="11">
         <v>1345.46</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="167">
         <v>157.23400000000001</v>
       </c>
       <c r="M65">
@@ -29624,7 +29661,7 @@
       <c r="I66" s="11">
         <v>1314.04</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="167">
         <v>200.87899999999999</v>
       </c>
       <c r="M66">
@@ -29676,7 +29713,7 @@
       <c r="I67" s="11">
         <v>1373.21</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="167">
         <v>129.90700000000001</v>
       </c>
       <c r="M67">
@@ -29728,7 +29765,7 @@
       <c r="I68" s="11">
         <v>1404.88</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="167">
         <v>122.134</v>
       </c>
       <c r="M68">
@@ -29780,7 +29817,7 @@
       <c r="I69" s="11">
         <v>1389.59</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="167">
         <v>114.19</v>
       </c>
       <c r="M69">
@@ -29832,7 +29869,7 @@
       <c r="I70" s="11">
         <v>1417.31</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="167">
         <v>128.035</v>
       </c>
       <c r="M70">
@@ -29884,7 +29921,7 @@
       <c r="I71" s="11">
         <v>1400.88</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="167">
         <v>91.674999999999997</v>
       </c>
       <c r="M71">
@@ -29936,7 +29973,7 @@
       <c r="I72" s="11">
         <v>1402.03</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="167">
         <v>108.117</v>
       </c>
       <c r="M72">
@@ -29988,7 +30025,7 @@
       <c r="I73" s="11">
         <v>1396.9</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="167">
         <v>181.77699999999999</v>
       </c>
       <c r="M73">
@@ -30040,7 +30077,7 @@
       <c r="I74" s="11">
         <v>1366.39</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="167">
         <v>202.42599999999999</v>
       </c>
       <c r="M74">
@@ -30092,7 +30129,7 @@
       <c r="I75" s="11">
         <v>1444.32</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="167">
         <v>150.755</v>
       </c>
       <c r="M75">
@@ -30132,7 +30169,7 @@
       <c r="I76" s="11">
         <v>1426.87</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="167">
         <v>172.35900000000001</v>
       </c>
       <c r="M76">
@@ -30164,7 +30201,7 @@
       <c r="I77" s="11">
         <v>1435.5</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="167">
         <v>150.22200000000001</v>
       </c>
       <c r="M77">
@@ -30196,7 +30233,7 @@
       <c r="I78" s="11">
         <v>1440.61</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="167">
         <v>156.62</v>
       </c>
       <c r="M78">
@@ -30228,7 +30265,7 @@
       <c r="I79" s="11">
         <v>1468.25</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="167">
         <v>194.44200000000001</v>
       </c>
       <c r="M79">
@@ -30260,7 +30297,7 @@
       <c r="I80" s="11">
         <v>1493.74</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="167">
         <v>181.76499999999999</v>
       </c>
       <c r="M80">
@@ -30292,7 +30329,7 @@
       <c r="I81" s="11">
         <v>1518.01</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="167">
         <v>119.60899999999999</v>
       </c>
       <c r="M81">
@@ -30324,7 +30361,7 @@
       <c r="I82" s="11">
         <v>1525.39</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="167">
         <v>143.87200000000001</v>
       </c>
       <c r="M82">
@@ -30356,7 +30393,7 @@
       <c r="I83" s="11">
         <v>1507.2</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="167">
         <v>152.482</v>
       </c>
       <c r="M83">
@@ -30388,7 +30425,7 @@
       <c r="I84" s="11">
         <v>1524.31</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="167">
         <v>156.33600000000001</v>
       </c>
       <c r="M84">

--- a/Relax.xlsx
+++ b/Relax.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KeHoach" sheetId="5" r:id="rId1"/>
@@ -2367,7 +2367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="1317">
   <si>
     <t>https://www.youtube.com/watch?v=T77wtm-2exE</t>
   </si>
@@ -7265,6 +7265,9 @@
   </si>
   <si>
     <t>Đứng ngoài - Xác định sai phiên chốt PS, hnay mới đúng</t>
+  </si>
+  <si>
+    <t>1 lệnh L 1231; sai lầm vì đã có lời 3 giá mà để lỗ gần 7 giá</t>
   </si>
 </sst>
 </file>
@@ -11742,8 +11745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11826,7 +11829,7 @@
       </c>
       <c r="N2" s="15">
         <f>PS!M2+SUM(D:D)-SUM(O2:Q2)</f>
-        <v>56824.942279999988</v>
+        <v>56974.942279999988</v>
       </c>
       <c r="O2" s="15">
         <v>62924</v>
@@ -11975,7 +11978,7 @@
       </c>
       <c r="N6" s="21">
         <f ca="1">-N9+0*J88+PS!M6*0+N12+J79+J75+J77+5080+J73+J71+J69+J67+J65+J63+J61+J58+J56+J50+J52+J54+J48+J46+J44+J42+J40+8230+J38+J37+J35+J36+J29+J34+J33+J32+J31+J28+J26+J24+1000+J22+J10+J18+J16+J14+J12</f>
-        <v>-45979.742416666086</v>
+        <v>-45994.325749999422</v>
       </c>
       <c r="O6" s="21">
         <f>-O9+1*J88+29000-16000-800-22000-500-2200+7900+9200+4700+1000+500+7900+J137+J135+J133+11000+J129+J131+J127+J125+J123+J121+J119+J117+J115+J113+274+J112-5000+J110+J108+J104+J106+I107+1850+J102+J100+J98+J96+J95+J93+J91+J90+J86</f>
@@ -12012,7 +12015,7 @@
       </c>
       <c r="N7" s="36">
         <f ca="1">SUM(N4:N6)</f>
-        <v>394767.06080448226</v>
+        <v>394752.47747114889</v>
       </c>
       <c r="O7" s="36">
         <f>SUM(O4:O6)</f>
@@ -12118,7 +12121,7 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="43">
         <f ca="1">TODAY()</f>
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>90</v>
@@ -12139,15 +12142,15 @@
       <c r="G10" s="14"/>
       <c r="H10" s="97">
         <f ca="1">Table1[[#This Row],[Result]]/(E11*F11)</f>
-        <v>-0.11546445695226183</v>
+        <v>-0.11555565978736709</v>
       </c>
       <c r="I10" s="69">
         <f ca="1">Table1[[#This Row],[Date]]-A11</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J10" s="162">
         <f ca="1">-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E11*F11-Table1[[#This Row],[Commission]]-D11+I11</f>
-        <v>-18462.766666666666</v>
+        <v>-18477.349999999999</v>
       </c>
       <c r="K10" s="121" t="s">
         <v>1272</v>
@@ -12199,7 +12202,7 @@
       <c r="H11" s="97"/>
       <c r="I11" s="67">
         <f ca="1">-105/360*(I10+1)*Table1[[#This Row],[Notes]]</f>
-        <v>-466.66666666666669</v>
+        <v>-481.25</v>
       </c>
       <c r="J11" s="98">
         <f>Table1[[#This Row],[Volume]]*Table1[[#This Row],[Price]]</f>
@@ -12233,7 +12236,7 @@
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="43">
         <f ca="1">TODAY()</f>
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>90</v>
@@ -12258,7 +12261,7 @@
       </c>
       <c r="I12" s="69">
         <f ca="1">Table1[[#This Row],[Date]]-A13</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J12" s="162">
         <f>-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E13*F13-Table1[[#This Row],[Commission]]-D13+I13</f>
@@ -23512,8 +23515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23604,7 +23607,7 @@
       </c>
       <c r="M2" s="15">
         <f>SUM(Table6[[#All],[Commission]])</f>
-        <v>19464.800000000003</v>
+        <v>19614.800000000003</v>
       </c>
       <c r="P2" t="s">
         <v>1022</v>
@@ -23743,7 +23746,7 @@
       </c>
       <c r="M5" s="21">
         <f>SUM(G:G)-M3-U5</f>
-        <v>3818.7000000003609</v>
+        <v>618.70000000036089</v>
       </c>
       <c r="T5" s="160" t="s">
         <v>1223</v>
@@ -23791,7 +23794,7 @@
       </c>
       <c r="M6" s="21">
         <f>-M3-M2+SUM(Table6[[#All],[Vị thế đóng]])-M7</f>
-        <v>41544.700000000354</v>
+        <v>38344.700000000354</v>
       </c>
       <c r="O6" s="134" t="s">
         <v>987</v>
@@ -23888,7 +23891,7 @@
       </c>
       <c r="M8" s="65">
         <f>ROUNDDOWN((M6/(M4)),3)</f>
-        <v>6.6000000000000003E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="O8" s="140" t="s">
         <v>976</v>
@@ -24079,18 +24082,32 @@
       <c r="A13" s="43">
         <v>44764</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="98"/>
+      <c r="B13" s="14" t="s">
+        <v>969</v>
+      </c>
+      <c r="C13" s="16">
+        <v>150</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1231</v>
+      </c>
+      <c r="E13" s="14">
+        <v>5</v>
+      </c>
+      <c r="F13" s="98">
+        <v>-3050</v>
+      </c>
       <c r="G13" s="153">
         <f>Table6[[#This Row],[Vị thế đóng]]-Table6[[#This Row],[Commission]]</f>
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="H13" s="24"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="45"/>
+      <c r="I13" s="152">
+        <v>5000</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>1316</v>
+      </c>
       <c r="K13" t="s">
         <v>756</v>
       </c>
@@ -26229,7 +26246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Relax.xlsx
+++ b/Relax.xlsx
@@ -1282,7 +1282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M194" authorId="0" shapeId="0">
+    <comment ref="M198" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1408,7 +1408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q241" authorId="0" shapeId="0">
+    <comment ref="Q245" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1444,7 +1444,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q242" authorId="0" shapeId="0">
+    <comment ref="K246" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ngày 15-4 cảm thấy thất vọng vì chốt khi thị trường chưa chạy và bỏ lỡ cơ hội hết lỗ =&gt; tổng thiệt hại do quyết định này ~ 22 triệu =&gt; không nên tự trách mình nữa mà hãy nhìn về phía trước để tỉnh táo đầu tư chứng khoán trong tương lai</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q246" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1468,7 +1492,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="O245" authorId="0" shapeId="0">
+    <comment ref="K249" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+đang tính dành ra khoảng 20M để mua những mã giảm nhiều và cơ bản tốt như MWG, CTG, VGI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O249" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1497,54 +1545,6 @@
 =&gt; Tổng Mua 115 triệu
 =&gt; Về 5k =&gt; 100 triệu
 Ngày 24/3 do biến động thị trường nên điều chỉnh chờ mua với giá 6,09k</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K246" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-ngày 15-4 cảm thấy thất vọng vì chốt khi thị trường chưa chạy và bỏ lỡ cơ hội hết lỗ =&gt; tổng thiệt hại do quyết định này ~ 22 triệu =&gt; không nên tự trách mình nữa mà hãy nhìn về phía trước để tỉnh táo đầu tư chứng khoán trong tương lai</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K249" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-đang tính dành ra khoảng 20M để mua những mã giảm nhiều và cơ bản tốt như MWG, CTG, VGI</t>
         </r>
       </text>
     </comment>
@@ -2367,7 +2367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="1328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="1334">
   <si>
     <t>https://www.youtube.com/watch?v=T77wtm-2exE</t>
   </si>
@@ -6922,9 +6922,6 @@
     <t>Ngày 28-7-22</t>
   </si>
   <si>
-    <t>FOMC họp - công bố lãi suất</t>
-  </si>
-  <si>
     <t>Ngày 18-6-22</t>
   </si>
   <si>
@@ -7301,6 +7298,27 @@
   </si>
   <si>
     <t>Phong tỏa 96,878M; Giá ASM đã chạm trần, lại muốn mua thêm full margin và bán khi tăng tiếp, nhưng cảm nhận rủi ro do châu á đang giảm và còn phiên tối thứ 6 ck Mỹ có thể sẽ phải điều chỉnh sau 2 phiên tăng liên tiếp sau thông tin tăng lãi suất lên 2,5% của Fed =&gt; đợi mua khi kết thúc phiên mà vẫn tăng mạnh nuốt hết được mớ trần đăng bán thì sẽ an toàn hơn, và nếu có mạo hiểm thì cũng chỉ nên mua 10k trong tổng số 20k có thể mua đc thôi, ko nên tất tay ở trường hợp này</t>
+  </si>
+  <si>
+    <t>FOMC họp - công bố lãi suất - tăng 0,75% lên 2,5 như dự kiến tuy nhiên ttck vẫn tăng liền 2 phiên liên tiếp =&gt; ko thể hiểu nổi</t>
+  </si>
+  <si>
+    <t>Ngày 10-8-22</t>
+  </si>
+  <si>
+    <t>CPI của Mỹ - để đánh giá việc nâng lãi suất có kiềm chế đc lạm phát tăng phi mã hay ko</t>
+  </si>
+  <si>
+    <t>Ngày 13-9-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPI của Mỹ  </t>
+  </si>
+  <si>
+    <t>Ngày 22-9-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOMC họp - công bố lãi suất  </t>
   </si>
 </sst>
 </file>
@@ -11779,8 +11797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11863,7 +11881,7 @@
       </c>
       <c r="N2" s="14">
         <f>PS!M2+SUM(D:D)-SUM(O2:Q2)</f>
-        <v>57362.692279999988</v>
+        <v>57355.192279999988</v>
       </c>
       <c r="O2" s="14">
         <v>62924</v>
@@ -12012,7 +12030,7 @@
       </c>
       <c r="N6" s="20">
         <f ca="1">-N9+0*J93+PS!M6*0+N12+J84+J80+J82+5080+J78+J76+J74+J72+J70+J68+J66+J63+J61+J55+J57+J59+J53+J51+J49+J47+J45+8230+J43+J42+J40+J41+J34+J39+J38+J37+J36+J33+J31+J29+1000+J27+J15+J23+J21+J19+J17</f>
-        <v>-9090.1590833327573</v>
+        <v>-11499.325749999422</v>
       </c>
       <c r="O6" s="20">
         <f>-O9+1*J93+29000-16000-800-22000-500-2200+7900+9200+4700+1000+500+7900+J142+J140+J138+11000+J134+J136+J132+J130+J128+J126+J124+J122+J120+J118+274+J117-5000+J115+J113+J109+J111+I112+1850+J107+J105+J103+J101+J100+J98+J96+J95+J91</f>
@@ -12049,7 +12067,7 @@
       </c>
       <c r="N7" s="35">
         <f ca="1">SUM(N4:N6)</f>
-        <v>558556.64413781557</v>
+        <v>556147.47747114894</v>
       </c>
       <c r="O7" s="35">
         <f>SUM(O4:O6)</f>
@@ -12082,7 +12100,7 @@
       </c>
       <c r="N8" s="64">
         <f ca="1">ROUNDDOWN((N6/(N4+N5)),3)</f>
-        <v>-1.6E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="O8" s="64">
         <f>ROUNDDOWN((O6/(O4+O5)),3)</f>
@@ -12223,7 +12241,7 @@
       <c r="I12" s="66"/>
       <c r="J12" s="97"/>
       <c r="K12" s="44" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="L12" t="s">
         <v>755</v>
@@ -12263,7 +12281,7 @@
       <c r="I13" s="66"/>
       <c r="J13" s="160"/>
       <c r="K13" s="48" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="L13" t="s">
         <v>755</v>
@@ -12299,7 +12317,7 @@
       <c r="I14" s="66"/>
       <c r="J14" s="160"/>
       <c r="K14" s="48" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="L14" t="s">
         <v>755</v>
@@ -12330,7 +12348,7 @@
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="42">
         <f ca="1">TODAY()</f>
-        <v>44771</v>
+        <v>44772</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>89</v>
@@ -12340,10 +12358,10 @@
       </c>
       <c r="D15" s="15">
         <f>-F15*E15*0.0025</f>
-        <v>387.5</v>
+        <v>385</v>
       </c>
       <c r="E15" s="13">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F15" s="13">
         <v>-10000</v>
@@ -12351,18 +12369,18 @@
       <c r="G15" s="13"/>
       <c r="H15" s="96">
         <f ca="1">Table1[[#This Row],[Result]]/(E16*F16)</f>
-        <v>-3.8215655618094646E-2</v>
+        <v>-4.0805816135084431E-2</v>
       </c>
       <c r="I15" s="68">
         <f ca="1">Table1[[#This Row],[Date]]-A16</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15" s="161">
         <f ca="1">-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E16*F16-Table1[[#This Row],[Commission]]-D16+I16</f>
-        <v>-6110.6833333333334</v>
+        <v>-6524.85</v>
       </c>
       <c r="K15" s="120" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="L15" t="s">
         <v>755</v>
@@ -12415,15 +12433,13 @@
       <c r="H16" s="96"/>
       <c r="I16" s="66">
         <f ca="1">-105/360*(I15+1)*Table1[[#This Row],[Notes]]</f>
-        <v>-583.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="J16" s="97">
         <f>Table1[[#This Row],[Volume]]*Table1[[#This Row],[Price]]</f>
         <v>159900</v>
       </c>
-      <c r="K16" s="108">
-        <v>50</v>
-      </c>
+      <c r="K16" s="108"/>
       <c r="L16" t="s">
         <v>755</v>
       </c>
@@ -12445,7 +12461,7 @@
     <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="42">
         <f ca="1">TODAY()</f>
-        <v>44771</v>
+        <v>44772</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>89</v>
@@ -12455,10 +12471,10 @@
       </c>
       <c r="D17" s="15">
         <f>-F17*E17*0.0025</f>
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E17" s="13">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F17" s="13">
         <v>-20000</v>
@@ -12466,28 +12482,24 @@
       <c r="G17" s="13"/>
       <c r="H17" s="96">
         <f>Table1[[#This Row],[Result]]/(E18*F18)</f>
-        <v>0.11282432432432432</v>
+        <v>0.10563513513513513</v>
       </c>
       <c r="I17" s="68">
         <f ca="1">Table1[[#This Row],[Date]]-A18</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J17" s="161">
         <f>-Table1[[#This Row],[Price]]*Table1[[#This Row],[Volume]]-E18*F18-Table1[[#This Row],[Commission]]-D18+I18</f>
-        <v>31308.75</v>
+        <v>29313.75</v>
       </c>
       <c r="K17" s="120" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="L17" t="s">
         <v>755</v>
       </c>
-      <c r="M17" s="32" t="s">
-        <v>1200</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>1201</v>
-      </c>
+      <c r="M17" s="32"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="S17" s="132"/>
@@ -12534,10 +12546,10 @@
         <v>755</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>1126</v>
+        <v>1332</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>1194</v>
+        <v>1333</v>
       </c>
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
@@ -12580,13 +12592,17 @@
         <v>-66246.75</v>
       </c>
       <c r="K19" s="120" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L19" t="s">
         <v>755</v>
       </c>
-      <c r="M19" s="32"/>
-      <c r="N19" s="30"/>
+      <c r="M19" s="32" t="s">
+        <v>1330</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>1331</v>
+      </c>
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="S19" s="132"/>
@@ -12623,8 +12639,12 @@
       <c r="L20" t="s">
         <v>755</v>
       </c>
-      <c r="M20" s="32"/>
-      <c r="N20" s="30"/>
+      <c r="M20" s="32" t="s">
+        <v>1328</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>1329</v>
+      </c>
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="S20" s="132"/>
@@ -12664,13 +12684,17 @@
         <v>1708</v>
       </c>
       <c r="K21" s="120" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="L21" t="s">
         <v>755</v>
       </c>
-      <c r="M21" s="32"/>
-      <c r="N21" s="30"/>
+      <c r="M21" s="32" t="s">
+        <v>1200</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>1327</v>
+      </c>
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="S21" s="132"/>
@@ -12708,10 +12732,10 @@
         <v>755</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>1326</v>
+        <v>1126</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>1327</v>
+        <v>1194</v>
       </c>
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
@@ -12752,17 +12776,13 @@
         <v>4000.9549999999999</v>
       </c>
       <c r="K23" s="120" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L23" t="s">
         <v>755</v>
       </c>
-      <c r="M23" s="32" t="s">
-        <v>1302</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>1305</v>
-      </c>
+      <c r="M23" s="32"/>
+      <c r="N23" s="30"/>
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="S23" s="132"/>
@@ -12802,12 +12822,8 @@
       <c r="L24" t="s">
         <v>755</v>
       </c>
-      <c r="M24" s="32" t="s">
-        <v>1298</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>1300</v>
-      </c>
+      <c r="M24" s="32"/>
+      <c r="N24" s="30"/>
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="S24" s="132"/>
@@ -12830,17 +12846,13 @@
       <c r="I25" s="66"/>
       <c r="J25" s="97"/>
       <c r="K25" s="44" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="L25" t="s">
         <v>755</v>
       </c>
-      <c r="M25" s="32" t="s">
-        <v>1268</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>1269</v>
-      </c>
+      <c r="M25" s="32"/>
+      <c r="N25" s="30"/>
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="S25" s="132"/>
@@ -12862,16 +12874,16 @@
       <c r="I26" s="66"/>
       <c r="J26" s="97"/>
       <c r="K26" s="44" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="L26" t="s">
         <v>755</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>1263</v>
+        <v>1325</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>1265</v>
+        <v>1326</v>
       </c>
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
@@ -12918,10 +12930,10 @@
         <v>755</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>1259</v>
+        <v>1301</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>1262</v>
+        <v>1304</v>
       </c>
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
@@ -12963,10 +12975,10 @@
         <v>755</v>
       </c>
       <c r="M28" s="32" t="s">
-        <v>1251</v>
+        <v>1297</v>
       </c>
       <c r="N28" s="30" t="s">
-        <v>1254</v>
+        <v>1299</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
@@ -13014,10 +13026,10 @@
         <v>755</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>1246</v>
+        <v>1267</v>
       </c>
       <c r="N29" s="30" t="s">
-        <v>1249</v>
+        <v>1268</v>
       </c>
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
@@ -13063,10 +13075,10 @@
         <v>755</v>
       </c>
       <c r="M30" s="32" t="s">
-        <v>1242</v>
+        <v>1262</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>1245</v>
+        <v>1264</v>
       </c>
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
@@ -13113,10 +13125,10 @@
         <v>755</v>
       </c>
       <c r="M31" s="32" t="s">
-        <v>1225</v>
+        <v>1258</v>
       </c>
       <c r="N31" s="30" t="s">
-        <v>1227</v>
+        <v>1261</v>
       </c>
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
@@ -13158,10 +13170,10 @@
         <v>755</v>
       </c>
       <c r="M32" s="32" t="s">
-        <v>1211</v>
-      </c>
-      <c r="N32" s="133" t="s">
-        <v>1213</v>
+        <v>1250</v>
+      </c>
+      <c r="N32" s="30" t="s">
+        <v>1253</v>
       </c>
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
@@ -13202,10 +13214,10 @@
         <v>755</v>
       </c>
       <c r="M33" s="32" t="s">
-        <v>1208</v>
+        <v>1245</v>
       </c>
       <c r="N33" s="30" t="s">
-        <v>1210</v>
+        <v>1248</v>
       </c>
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
@@ -13252,10 +13264,10 @@
         <v>755</v>
       </c>
       <c r="M34" s="32" t="s">
-        <v>1125</v>
+        <v>1241</v>
       </c>
       <c r="N34" s="30" t="s">
-        <v>1206</v>
+        <v>1244</v>
       </c>
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
@@ -13300,10 +13312,10 @@
         <v>755</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>1202</v>
+        <v>1224</v>
       </c>
       <c r="N35" s="30" t="s">
-        <v>1203</v>
+        <v>1226</v>
       </c>
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
@@ -13343,10 +13355,10 @@
         <v>755</v>
       </c>
       <c r="M36" s="32" t="s">
-        <v>1196</v>
-      </c>
-      <c r="N36" s="30" t="s">
-        <v>1199</v>
+        <v>1210</v>
+      </c>
+      <c r="N36" s="133" t="s">
+        <v>1212</v>
       </c>
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
@@ -13386,10 +13398,10 @@
         <v>755</v>
       </c>
       <c r="M37" s="32" t="s">
-        <v>1126</v>
+        <v>1207</v>
       </c>
       <c r="N37" s="30" t="s">
-        <v>1195</v>
+        <v>1209</v>
       </c>
       <c r="O37" s="30"/>
       <c r="P37" s="30"/>
@@ -13427,10 +13439,10 @@
         <v>755</v>
       </c>
       <c r="M38" s="32" t="s">
-        <v>1182</v>
+        <v>1125</v>
       </c>
       <c r="N38" s="30" t="s">
-        <v>1185</v>
+        <v>1205</v>
       </c>
       <c r="O38" s="30"/>
       <c r="P38" s="30"/>
@@ -13468,10 +13480,10 @@
         <v>755</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>1178</v>
+        <v>1201</v>
       </c>
       <c r="N39" s="30" t="s">
-        <v>1180</v>
+        <v>1202</v>
       </c>
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
@@ -13509,10 +13521,10 @@
         <v>755</v>
       </c>
       <c r="M40" s="32" t="s">
-        <v>1173</v>
+        <v>1196</v>
       </c>
       <c r="N40" s="30" t="s">
-        <v>1177</v>
+        <v>1199</v>
       </c>
       <c r="O40" s="30"/>
       <c r="P40" s="30"/>
@@ -13551,10 +13563,10 @@
         <v>755</v>
       </c>
       <c r="M41" s="32" t="s">
-        <v>1168</v>
+        <v>1126</v>
       </c>
       <c r="N41" s="30" t="s">
-        <v>1176</v>
+        <v>1195</v>
       </c>
       <c r="O41" s="30"/>
       <c r="P41" s="30"/>
@@ -13593,10 +13605,10 @@
         <v>755</v>
       </c>
       <c r="M42" s="32" t="s">
-        <v>1162</v>
+        <v>1182</v>
       </c>
       <c r="N42" s="30" t="s">
-        <v>1167</v>
+        <v>1185</v>
       </c>
       <c r="O42" s="30"/>
       <c r="P42" s="30"/>
@@ -13635,10 +13647,10 @@
         <v>755</v>
       </c>
       <c r="M43" s="32" t="s">
-        <v>1158</v>
+        <v>1178</v>
       </c>
       <c r="N43" s="30" t="s">
-        <v>1163</v>
+        <v>1180</v>
       </c>
       <c r="O43" s="30"/>
       <c r="P43" s="30"/>
@@ -13659,16 +13671,16 @@
       <c r="I44" s="66"/>
       <c r="J44" s="97"/>
       <c r="K44" s="44" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="L44" t="s">
         <v>755</v>
       </c>
       <c r="M44" s="32" t="s">
-        <v>1155</v>
+        <v>1173</v>
       </c>
       <c r="N44" s="30" t="s">
-        <v>1164</v>
+        <v>1177</v>
       </c>
       <c r="O44" s="30"/>
       <c r="P44" s="30"/>
@@ -13715,10 +13727,10 @@
         <v>755</v>
       </c>
       <c r="M45" s="32" t="s">
-        <v>1151</v>
+        <v>1168</v>
       </c>
       <c r="N45" s="30" t="s">
-        <v>1154</v>
+        <v>1176</v>
       </c>
       <c r="O45" s="30"/>
       <c r="P45" s="30"/>
@@ -13762,10 +13774,10 @@
         <v>755</v>
       </c>
       <c r="M46" s="32" t="s">
-        <v>1143</v>
+        <v>1162</v>
       </c>
       <c r="N46" s="30" t="s">
-        <v>1149</v>
+        <v>1167</v>
       </c>
       <c r="O46" s="30"/>
       <c r="P46" s="30"/>
@@ -13811,10 +13823,10 @@
         <v>755</v>
       </c>
       <c r="M47" s="32" t="s">
-        <v>1139</v>
+        <v>1158</v>
       </c>
       <c r="N47" s="30" t="s">
-        <v>1150</v>
+        <v>1163</v>
       </c>
       <c r="O47" s="30"/>
       <c r="P47" s="30"/>
@@ -13857,10 +13869,10 @@
         <v>755</v>
       </c>
       <c r="M48" s="32" t="s">
-        <v>1137</v>
+        <v>1155</v>
       </c>
       <c r="N48" s="30" t="s">
-        <v>1138</v>
+        <v>1164</v>
       </c>
       <c r="O48" s="30"/>
       <c r="P48" s="30"/>
@@ -13906,10 +13918,10 @@
         <v>755</v>
       </c>
       <c r="M49" s="32" t="s">
-        <v>1131</v>
+        <v>1151</v>
       </c>
       <c r="N49" s="30" t="s">
-        <v>1133</v>
+        <v>1154</v>
       </c>
       <c r="O49" s="30"/>
       <c r="P49" s="30"/>
@@ -13953,10 +13965,10 @@
         <v>755</v>
       </c>
       <c r="M50" s="32" t="s">
-        <v>1129</v>
+        <v>1143</v>
       </c>
       <c r="N50" s="30" t="s">
-        <v>1130</v>
+        <v>1149</v>
       </c>
       <c r="O50" s="30"/>
       <c r="P50" s="30"/>
@@ -14003,10 +14015,10 @@
         <v>755</v>
       </c>
       <c r="M51" s="32" t="s">
-        <v>1122</v>
+        <v>1139</v>
       </c>
       <c r="N51" s="30" t="s">
-        <v>1123</v>
+        <v>1150</v>
       </c>
       <c r="O51" s="30"/>
       <c r="P51" s="30"/>
@@ -14050,10 +14062,10 @@
         <v>755</v>
       </c>
       <c r="M52" s="32" t="s">
-        <v>1116</v>
+        <v>1137</v>
       </c>
       <c r="N52" s="30" t="s">
-        <v>1121</v>
+        <v>1138</v>
       </c>
       <c r="O52" s="30"/>
       <c r="P52" s="30"/>
@@ -14099,10 +14111,10 @@
         <v>755</v>
       </c>
       <c r="M53" s="32" t="s">
-        <v>1060</v>
+        <v>1131</v>
       </c>
       <c r="N53" s="30" t="s">
-        <v>1062</v>
+        <v>1133</v>
       </c>
       <c r="O53" s="30"/>
       <c r="P53" s="30"/>
@@ -14145,10 +14157,10 @@
         <v>755</v>
       </c>
       <c r="M54" s="32" t="s">
-        <v>1058</v>
+        <v>1129</v>
       </c>
       <c r="N54" s="30" t="s">
-        <v>1059</v>
+        <v>1130</v>
       </c>
       <c r="O54" s="30"/>
       <c r="P54" s="30"/>
@@ -14194,10 +14206,10 @@
         <v>755</v>
       </c>
       <c r="M55" s="32" t="s">
-        <v>1056</v>
+        <v>1122</v>
       </c>
       <c r="N55" s="30" t="s">
-        <v>1057</v>
+        <v>1123</v>
       </c>
       <c r="O55" s="30"/>
       <c r="P55" s="30"/>
@@ -14238,10 +14250,10 @@
         <v>755</v>
       </c>
       <c r="M56" s="32" t="s">
-        <v>1054</v>
+        <v>1116</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>1055</v>
+        <v>1121</v>
       </c>
       <c r="O56" s="30"/>
       <c r="P56" s="30"/>
@@ -14287,10 +14299,10 @@
         <v>755</v>
       </c>
       <c r="M57" s="32" t="s">
-        <v>1051</v>
+        <v>1060</v>
       </c>
       <c r="N57" s="30" t="s">
-        <v>1053</v>
+        <v>1062</v>
       </c>
       <c r="O57" s="30"/>
       <c r="P57" s="30"/>
@@ -14330,13 +14342,14 @@
       <c r="L58" t="s">
         <v>755</v>
       </c>
-      <c r="M58" s="5" t="s">
-        <v>1048</v>
-      </c>
-      <c r="N58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="Q58" s="133"/>
+      <c r="M58" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N58" s="30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
       <c r="S58" s="132"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
@@ -14378,12 +14391,14 @@
       <c r="L59" t="s">
         <v>755</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="N59" t="s">
-        <v>1047</v>
-      </c>
+      <c r="M59" s="32" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N59" s="30" t="s">
+        <v>1057</v>
+      </c>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
       <c r="S59" s="132"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
@@ -14422,12 +14437,14 @@
       <c r="L60" t="s">
         <v>755</v>
       </c>
-      <c r="M60" s="5" t="s">
-        <v>1043</v>
-      </c>
-      <c r="N60" t="s">
-        <v>1044</v>
-      </c>
+      <c r="M60" s="32" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N60" s="30" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
       <c r="S60" s="132"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
@@ -14470,14 +14487,14 @@
       <c r="L61" t="s">
         <v>755</v>
       </c>
-      <c r="M61" s="28" t="s">
-        <v>1041</v>
+      <c r="M61" s="32" t="s">
+        <v>1051</v>
       </c>
       <c r="N61" s="30" t="s">
-        <v>1042</v>
+        <v>1053</v>
       </c>
       <c r="O61" s="30"/>
-      <c r="P61" s="134"/>
+      <c r="P61" s="30"/>
       <c r="S61" s="132"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
@@ -14517,14 +14534,13 @@
       <c r="L62" t="s">
         <v>755</v>
       </c>
-      <c r="M62" s="28" t="s">
-        <v>1037</v>
-      </c>
-      <c r="N62" s="30" t="s">
-        <v>1039</v>
-      </c>
-      <c r="O62" s="30"/>
-      <c r="P62" s="134"/>
+      <c r="M62" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="N62" t="s">
+        <v>1052</v>
+      </c>
+      <c r="Q62" s="133"/>
       <c r="S62" s="132"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
@@ -14566,14 +14582,12 @@
       <c r="L63" t="s">
         <v>755</v>
       </c>
-      <c r="M63" s="28" t="s">
-        <v>1034</v>
-      </c>
-      <c r="N63" s="30" t="s">
-        <v>1035</v>
-      </c>
-      <c r="O63" s="30"/>
-      <c r="P63" s="134"/>
+      <c r="M63" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N63" t="s">
+        <v>1047</v>
+      </c>
       <c r="S63" s="132"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
@@ -14610,14 +14624,12 @@
       <c r="L64" t="s">
         <v>755</v>
       </c>
-      <c r="M64" s="28" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N64" s="30" t="s">
-        <v>1033</v>
-      </c>
-      <c r="O64" s="30"/>
-      <c r="P64" s="134"/>
+      <c r="M64" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N64" t="s">
+        <v>1044</v>
+      </c>
       <c r="S64" s="132"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
@@ -14643,13 +14655,14 @@
       <c r="L65" t="s">
         <v>755</v>
       </c>
-      <c r="M65" s="32" t="s">
-        <v>1028</v>
+      <c r="M65" s="28" t="s">
+        <v>1041</v>
       </c>
       <c r="N65" s="30" t="s">
-        <v>1030</v>
-      </c>
-      <c r="P65" s="140"/>
+        <v>1042</v>
+      </c>
+      <c r="O65" s="30"/>
+      <c r="P65" s="134"/>
       <c r="S65" s="132"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
@@ -14692,10 +14705,10 @@
         <v>755</v>
       </c>
       <c r="M66" s="28" t="s">
-        <v>993</v>
+        <v>1037</v>
       </c>
       <c r="N66" s="30" t="s">
-        <v>994</v>
+        <v>1039</v>
       </c>
       <c r="O66" s="30"/>
       <c r="P66" s="134"/>
@@ -14738,10 +14751,10 @@
         <v>755</v>
       </c>
       <c r="M67" s="28" t="s">
-        <v>990</v>
+        <v>1034</v>
       </c>
       <c r="N67" s="30" t="s">
-        <v>992</v>
+        <v>1035</v>
       </c>
       <c r="O67" s="30"/>
       <c r="P67" s="134"/>
@@ -14787,10 +14800,10 @@
         <v>755</v>
       </c>
       <c r="M68" s="28" t="s">
-        <v>983</v>
+        <v>1031</v>
       </c>
       <c r="N68" s="30" t="s">
-        <v>989</v>
+        <v>1033</v>
       </c>
       <c r="O68" s="30"/>
       <c r="P68" s="134"/>
@@ -14832,11 +14845,13 @@
       <c r="L69" t="s">
         <v>755</v>
       </c>
+      <c r="M69" s="32" t="s">
+        <v>1028</v>
+      </c>
       <c r="N69" s="30" t="s">
-        <v>984</v>
-      </c>
-      <c r="O69" s="30"/>
-      <c r="P69" s="134"/>
+        <v>1030</v>
+      </c>
+      <c r="P69" s="140"/>
       <c r="S69" s="132"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
@@ -14879,10 +14894,10 @@
         <v>755</v>
       </c>
       <c r="M70" s="28" t="s">
-        <v>980</v>
+        <v>993</v>
       </c>
       <c r="N70" s="30" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
       <c r="O70" s="30"/>
       <c r="P70" s="134"/>
@@ -14923,10 +14938,10 @@
         <v>755</v>
       </c>
       <c r="M71" s="28" t="s">
-        <v>971</v>
+        <v>990</v>
       </c>
       <c r="N71" s="30" t="s">
-        <v>977</v>
+        <v>992</v>
       </c>
       <c r="O71" s="30"/>
       <c r="P71" s="134"/>
@@ -14971,8 +14986,11 @@
       <c r="L72" t="s">
         <v>755</v>
       </c>
+      <c r="M72" s="28" t="s">
+        <v>983</v>
+      </c>
       <c r="N72" s="30" t="s">
-        <v>973</v>
+        <v>989</v>
       </c>
       <c r="O72" s="30"/>
       <c r="P72" s="134"/>
@@ -15014,11 +15032,8 @@
       <c r="L73" t="s">
         <v>755</v>
       </c>
-      <c r="M73" s="32" t="s">
-        <v>966</v>
-      </c>
       <c r="N73" s="30" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O73" s="30"/>
       <c r="P73" s="134"/>
@@ -15064,9 +15079,11 @@
       <c r="L74" t="s">
         <v>755</v>
       </c>
-      <c r="M74" s="32"/>
-      <c r="N74" t="s">
-        <v>970</v>
+      <c r="M74" s="28" t="s">
+        <v>980</v>
+      </c>
+      <c r="N74" s="30" t="s">
+        <v>982</v>
       </c>
       <c r="O74" s="30"/>
       <c r="P74" s="134"/>
@@ -15110,12 +15127,14 @@
       <c r="L75" t="s">
         <v>755</v>
       </c>
-      <c r="M75" s="32"/>
+      <c r="M75" s="28" t="s">
+        <v>971</v>
+      </c>
       <c r="N75" s="30" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="O75" s="30"/>
-      <c r="P75" s="30"/>
+      <c r="P75" s="134"/>
       <c r="S75" s="2"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
@@ -15148,14 +15167,11 @@
       <c r="L76" t="s">
         <v>755</v>
       </c>
-      <c r="M76" s="32" t="s">
-        <v>963</v>
-      </c>
       <c r="N76" s="30" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="O76" s="30"/>
-      <c r="P76" s="30"/>
+      <c r="P76" s="134"/>
       <c r="S76" s="2"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
@@ -15191,14 +15207,14 @@
       <c r="L77" t="s">
         <v>755</v>
       </c>
-      <c r="M77" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="N77" s="105" t="s">
-        <v>961</v>
-      </c>
-      <c r="O77" s="33"/>
-      <c r="P77" s="30"/>
+      <c r="M77" s="32" t="s">
+        <v>966</v>
+      </c>
+      <c r="N77" s="30" t="s">
+        <v>969</v>
+      </c>
+      <c r="O77" s="30"/>
+      <c r="P77" s="134"/>
       <c r="S77" s="2"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
@@ -15240,14 +15256,12 @@
       <c r="L78" t="s">
         <v>755</v>
       </c>
-      <c r="M78" s="28" t="s">
-        <v>952</v>
-      </c>
-      <c r="N78" s="105" t="s">
-        <v>957</v>
-      </c>
-      <c r="O78" s="33"/>
-      <c r="P78" s="30"/>
+      <c r="M78" s="32"/>
+      <c r="N78" t="s">
+        <v>970</v>
+      </c>
+      <c r="O78" s="30"/>
+      <c r="P78" s="134"/>
       <c r="S78" s="2"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
@@ -15287,13 +15301,11 @@
       <c r="L79" t="s">
         <v>755</v>
       </c>
-      <c r="M79" s="28" t="s">
-        <v>949</v>
-      </c>
-      <c r="N79" s="105" t="s">
-        <v>951</v>
-      </c>
-      <c r="O79" s="33"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="30" t="s">
+        <v>967</v>
+      </c>
+      <c r="O79" s="30"/>
       <c r="P79" s="30"/>
       <c r="S79" s="2"/>
     </row>
@@ -15334,13 +15346,13 @@
       <c r="L80" t="s">
         <v>755</v>
       </c>
-      <c r="M80" s="28" t="s">
-        <v>948</v>
-      </c>
-      <c r="N80" s="105" t="s">
-        <v>950</v>
-      </c>
-      <c r="O80" s="33"/>
+      <c r="M80" s="32" t="s">
+        <v>963</v>
+      </c>
+      <c r="N80" s="30" t="s">
+        <v>965</v>
+      </c>
+      <c r="O80" s="30"/>
       <c r="P80" s="30"/>
       <c r="S80" s="2"/>
     </row>
@@ -15376,10 +15388,10 @@
         <v>755</v>
       </c>
       <c r="M81" s="28" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="N81" s="105" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
       <c r="O81" s="33"/>
       <c r="P81" s="30"/>
@@ -15426,10 +15438,10 @@
         <v>755</v>
       </c>
       <c r="M82" s="28" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="N82" s="105" t="s">
-        <v>944</v>
+        <v>957</v>
       </c>
       <c r="O82" s="33"/>
       <c r="P82" s="30"/>
@@ -15472,10 +15484,10 @@
         <v>755</v>
       </c>
       <c r="M83" s="28" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="N83" s="105" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="O83" s="33"/>
       <c r="P83" s="30"/>
@@ -15521,10 +15533,10 @@
         <v>755</v>
       </c>
       <c r="M84" s="28" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="N84" s="105" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="O84" s="33"/>
       <c r="P84" s="30"/>
@@ -15568,10 +15580,10 @@
         <v>755</v>
       </c>
       <c r="M85" s="28" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
       <c r="N85" s="105" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
       <c r="O85" s="33"/>
       <c r="P85" s="30"/>
@@ -15599,10 +15611,10 @@
         <v>755</v>
       </c>
       <c r="M86" s="28" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
       <c r="N86" s="105" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="O86" s="33"/>
       <c r="P86" s="30"/>
@@ -15630,10 +15642,10 @@
         <v>755</v>
       </c>
       <c r="M87" s="28" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="N87" s="105" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
       <c r="O87" s="33"/>
       <c r="P87" s="30"/>
@@ -15664,10 +15676,10 @@
         <v>755</v>
       </c>
       <c r="M88" s="28" t="s">
-        <v>908</v>
+        <v>939</v>
       </c>
       <c r="N88" s="105" t="s">
-        <v>909</v>
+        <v>940</v>
       </c>
       <c r="O88" s="33"/>
       <c r="P88" s="30"/>
@@ -15695,10 +15707,10 @@
         <v>755</v>
       </c>
       <c r="M89" s="28" t="s">
-        <v>905</v>
+        <v>937</v>
       </c>
       <c r="N89" s="105" t="s">
-        <v>907</v>
+        <v>938</v>
       </c>
       <c r="O89" s="33"/>
       <c r="P89" s="30"/>
@@ -15726,10 +15738,10 @@
         <v>755</v>
       </c>
       <c r="M90" s="28" t="s">
-        <v>902</v>
+        <v>934</v>
       </c>
       <c r="N90" s="105" t="s">
-        <v>903</v>
+        <v>936</v>
       </c>
       <c r="O90" s="33"/>
       <c r="P90" s="30"/>
@@ -15776,10 +15788,10 @@
         <v>755</v>
       </c>
       <c r="M91" s="28" t="s">
-        <v>896</v>
+        <v>929</v>
       </c>
       <c r="N91" s="105" t="s">
-        <v>899</v>
+        <v>931</v>
       </c>
       <c r="O91" s="33"/>
       <c r="P91" s="30"/>
@@ -15824,10 +15836,10 @@
         <v>755</v>
       </c>
       <c r="M92" s="28" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="N92" s="105" t="s">
-        <v>891</v>
+        <v>909</v>
       </c>
       <c r="O92" s="33"/>
       <c r="P92" s="30"/>
@@ -15874,10 +15886,10 @@
         <v>755</v>
       </c>
       <c r="M93" s="28" t="s">
-        <v>887</v>
+        <v>905</v>
       </c>
       <c r="N93" s="105" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="O93" s="33"/>
       <c r="P93" s="30"/>
@@ -15923,10 +15935,10 @@
         <v>755</v>
       </c>
       <c r="M94" s="28" t="s">
-        <v>880</v>
+        <v>902</v>
       </c>
       <c r="N94" s="105" t="s">
-        <v>882</v>
+        <v>903</v>
       </c>
       <c r="O94" s="33"/>
       <c r="P94" s="30"/>
@@ -15970,10 +15982,10 @@
         <v>755</v>
       </c>
       <c r="M95" s="28" t="s">
-        <v>866</v>
+        <v>896</v>
       </c>
       <c r="N95" s="105" t="s">
-        <v>867</v>
+        <v>899</v>
       </c>
       <c r="O95" s="33"/>
       <c r="P95" s="30"/>
@@ -16019,10 +16031,10 @@
         <v>755</v>
       </c>
       <c r="M96" s="28" t="s">
-        <v>864</v>
+        <v>890</v>
       </c>
       <c r="N96" s="105" t="s">
-        <v>865</v>
+        <v>891</v>
       </c>
       <c r="O96" s="33"/>
       <c r="P96" s="30"/>
@@ -16066,10 +16078,10 @@
         <v>755</v>
       </c>
       <c r="M97" s="28" t="s">
-        <v>862</v>
+        <v>887</v>
       </c>
       <c r="N97" s="105" t="s">
-        <v>863</v>
+        <v>888</v>
       </c>
       <c r="O97" s="33"/>
       <c r="P97" s="30"/>
@@ -16116,10 +16128,10 @@
         <v>755</v>
       </c>
       <c r="M98" s="28" t="s">
-        <v>860</v>
+        <v>880</v>
       </c>
       <c r="N98" s="105" t="s">
-        <v>861</v>
+        <v>882</v>
       </c>
       <c r="O98" s="33"/>
       <c r="P98" s="30"/>
@@ -16162,10 +16174,10 @@
         <v>755</v>
       </c>
       <c r="M99" s="28" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="N99" s="105" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="O99" s="33"/>
       <c r="P99" s="30"/>
@@ -16205,10 +16217,10 @@
         <v>755</v>
       </c>
       <c r="M100" s="28" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
       <c r="N100" s="105" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="O100" s="33"/>
       <c r="P100" s="30"/>
@@ -16254,10 +16266,10 @@
         <v>755</v>
       </c>
       <c r="M101" s="28" t="s">
-        <v>843</v>
+        <v>862</v>
       </c>
       <c r="N101" s="105" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
       <c r="O101" s="33"/>
       <c r="P101" s="30"/>
@@ -16295,10 +16307,10 @@
         <v>755</v>
       </c>
       <c r="M102" s="28" t="s">
-        <v>838</v>
+        <v>860</v>
       </c>
       <c r="N102" s="105" t="s">
-        <v>839</v>
+        <v>861</v>
       </c>
       <c r="O102" s="33"/>
       <c r="P102" s="30"/>
@@ -16344,10 +16356,10 @@
         <v>755</v>
       </c>
       <c r="M103" s="28" t="s">
-        <v>836</v>
+        <v>857</v>
       </c>
       <c r="N103" s="105" t="s">
-        <v>837</v>
+        <v>859</v>
       </c>
       <c r="O103" s="33"/>
       <c r="P103" s="30"/>
@@ -16385,10 +16397,10 @@
         <v>755</v>
       </c>
       <c r="M104" s="28" t="s">
-        <v>833</v>
+        <v>855</v>
       </c>
       <c r="N104" s="105" t="s">
-        <v>834</v>
+        <v>856</v>
       </c>
       <c r="O104" s="33"/>
       <c r="P104" s="30"/>
@@ -16434,10 +16446,10 @@
         <v>755</v>
       </c>
       <c r="M105" s="28" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
       <c r="N105" s="105" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
       <c r="O105" s="33"/>
       <c r="P105" s="30"/>
@@ -16475,10 +16487,10 @@
         <v>755</v>
       </c>
       <c r="M106" s="28" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="N106" s="105" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="O106" s="33"/>
       <c r="P106" s="30"/>
@@ -16524,10 +16536,10 @@
         <v>755</v>
       </c>
       <c r="M107" s="28" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="N107" s="105" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="O107" s="33"/>
       <c r="P107" s="30"/>
@@ -16570,10 +16582,10 @@
         <v>755</v>
       </c>
       <c r="M108" s="28" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="N108" s="105" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="O108" s="33"/>
       <c r="P108" s="30"/>
@@ -16619,10 +16631,10 @@
         <v>755</v>
       </c>
       <c r="M109" s="28" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="N109" s="105" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="O109" s="33"/>
       <c r="P109" s="30"/>
@@ -16660,10 +16672,10 @@
         <v>755</v>
       </c>
       <c r="M110" s="28" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="N110" s="105" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="O110" s="33"/>
       <c r="P110" s="30"/>
@@ -16709,10 +16721,10 @@
         <v>755</v>
       </c>
       <c r="M111" s="28" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="N111" s="105" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="O111" s="33"/>
       <c r="P111" s="30"/>
@@ -16753,10 +16765,10 @@
         <v>755</v>
       </c>
       <c r="M112" s="28" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="N112" s="105" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="O112" s="33"/>
       <c r="P112" s="30"/>
@@ -16802,10 +16814,10 @@
         <v>755</v>
       </c>
       <c r="M113" s="28" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="N113" s="105" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="O113" s="33"/>
       <c r="P113" s="30"/>
@@ -16846,10 +16858,10 @@
         <v>755</v>
       </c>
       <c r="M114" s="28" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="N114" s="105" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="O114" s="33"/>
       <c r="P114" s="30"/>
@@ -16895,10 +16907,10 @@
         <v>755</v>
       </c>
       <c r="M115" s="28" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="N115" s="105" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="O115" s="33"/>
       <c r="P115" s="30"/>
@@ -16941,10 +16953,10 @@
         <v>755</v>
       </c>
       <c r="M116" s="28" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="N116" s="105" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="O116" s="33"/>
       <c r="P116" s="30"/>
@@ -16986,10 +16998,10 @@
         <v>755</v>
       </c>
       <c r="M117" s="28" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="N117" s="105" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="O117" s="33"/>
       <c r="P117" s="30"/>
@@ -17036,10 +17048,10 @@
         <v>755</v>
       </c>
       <c r="M118" s="28" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="N118" s="105" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="O118" s="33"/>
       <c r="P118" s="30"/>
@@ -17082,10 +17094,10 @@
         <v>755</v>
       </c>
       <c r="M119" s="28" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="N119" s="105" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="O119" s="33"/>
       <c r="P119" s="30"/>
@@ -17132,10 +17144,10 @@
         <v>755</v>
       </c>
       <c r="M120" s="28" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="N120" s="105" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="O120" s="33"/>
       <c r="P120" s="30"/>
@@ -17175,10 +17187,10 @@
         <v>755</v>
       </c>
       <c r="M121" s="28" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="N121" s="105" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="O121" s="33"/>
       <c r="P121" s="30"/>
@@ -17225,10 +17237,10 @@
         <v>755</v>
       </c>
       <c r="M122" s="28" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="N122" s="105" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="O122" s="33"/>
       <c r="P122" s="30"/>
@@ -17271,10 +17283,10 @@
         <v>755</v>
       </c>
       <c r="M123" s="28" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="N123" s="105" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="O123" s="33"/>
       <c r="P123" s="30"/>
@@ -17320,11 +17332,12 @@
         <v>755</v>
       </c>
       <c r="M124" s="28" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="N124" s="105" t="s">
-        <v>782</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="O124" s="33"/>
       <c r="P124" s="30"/>
       <c r="S124" s="2"/>
     </row>
@@ -17362,10 +17375,10 @@
         <v>755</v>
       </c>
       <c r="M125" s="28" t="s">
-        <v>777</v>
-      </c>
-      <c r="N125" s="33" t="s">
-        <v>778</v>
+        <v>789</v>
+      </c>
+      <c r="N125" s="105" t="s">
+        <v>790</v>
       </c>
       <c r="O125" s="33"/>
       <c r="P125" s="30"/>
@@ -17411,10 +17424,10 @@
         <v>755</v>
       </c>
       <c r="M126" s="28" t="s">
-        <v>773</v>
-      </c>
-      <c r="N126" s="33" t="s">
-        <v>774</v>
+        <v>787</v>
+      </c>
+      <c r="N126" s="105" t="s">
+        <v>788</v>
       </c>
       <c r="O126" s="33"/>
       <c r="P126" s="30"/>
@@ -17457,10 +17470,10 @@
         <v>755</v>
       </c>
       <c r="M127" s="28" t="s">
-        <v>770</v>
-      </c>
-      <c r="N127" s="33" t="s">
-        <v>771</v>
+        <v>784</v>
+      </c>
+      <c r="N127" s="105" t="s">
+        <v>785</v>
       </c>
       <c r="O127" s="33"/>
       <c r="P127" s="30"/>
@@ -17503,12 +17516,11 @@
         <v>755</v>
       </c>
       <c r="M128" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="N128" s="33" t="s">
-        <v>766</v>
-      </c>
-      <c r="O128" s="33"/>
+        <v>781</v>
+      </c>
+      <c r="N128" s="105" t="s">
+        <v>782</v>
+      </c>
       <c r="P128" s="30"/>
       <c r="S128" s="2"/>
     </row>
@@ -17540,10 +17552,10 @@
         <v>755</v>
       </c>
       <c r="M129" s="28" t="s">
-        <v>762</v>
-      </c>
-      <c r="N129" s="105" t="s">
-        <v>763</v>
+        <v>777</v>
+      </c>
+      <c r="N129" s="33" t="s">
+        <v>778</v>
       </c>
       <c r="O129" s="33"/>
       <c r="P129" s="30"/>
@@ -17587,10 +17599,10 @@
         <v>755</v>
       </c>
       <c r="M130" s="28" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="N130" s="33" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="O130" s="33"/>
       <c r="P130" s="30"/>
@@ -17630,11 +17642,11 @@
       <c r="L131" t="s">
         <v>755</v>
       </c>
-      <c r="M131" s="32" t="s">
-        <v>753</v>
+      <c r="M131" s="28" t="s">
+        <v>770</v>
       </c>
       <c r="N131" s="33" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="O131" s="33"/>
       <c r="P131" s="30"/>
@@ -17683,11 +17695,11 @@
       <c r="L132" t="s">
         <v>755</v>
       </c>
-      <c r="M132" s="32" t="s">
-        <v>750</v>
+      <c r="M132" s="28" t="s">
+        <v>765</v>
       </c>
       <c r="N132" s="33" t="s">
-        <v>752</v>
+        <v>766</v>
       </c>
       <c r="O132" s="33"/>
       <c r="P132" s="30"/>
@@ -17727,11 +17739,11 @@
       <c r="L133" t="s">
         <v>755</v>
       </c>
-      <c r="M133" s="32" t="s">
-        <v>749</v>
-      </c>
-      <c r="N133" s="33" t="s">
-        <v>751</v>
+      <c r="M133" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="N133" s="105" t="s">
+        <v>763</v>
       </c>
       <c r="O133" s="33"/>
       <c r="P133" s="30"/>
@@ -17777,11 +17789,11 @@
       <c r="L134" t="s">
         <v>755</v>
       </c>
-      <c r="M134" s="32" t="s">
-        <v>747</v>
+      <c r="M134" s="28" t="s">
+        <v>758</v>
       </c>
       <c r="N134" s="33" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="O134" s="33"/>
       <c r="P134" s="30"/>
@@ -17822,10 +17834,10 @@
         <v>755</v>
       </c>
       <c r="M135" s="32" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="N135" s="33" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="O135" s="33"/>
       <c r="P135" s="30"/>
@@ -17872,10 +17884,10 @@
         <v>755</v>
       </c>
       <c r="M136" s="32" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="N136" s="33" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="O136" s="33"/>
       <c r="P136" s="30"/>
@@ -17919,10 +17931,10 @@
         <v>755</v>
       </c>
       <c r="M137" s="32" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="N137" s="33" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="O137" s="33"/>
       <c r="P137" s="30"/>
@@ -17968,10 +17980,10 @@
         <v>755</v>
       </c>
       <c r="M138" s="32" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="N138" s="33" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="O138" s="33"/>
       <c r="P138" s="30"/>
@@ -18008,10 +18020,10 @@
         <v>755</v>
       </c>
       <c r="M139" s="32" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="N139" s="33" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="O139" s="33"/>
       <c r="P139" s="30"/>
@@ -18061,10 +18073,10 @@
         <v>755</v>
       </c>
       <c r="M140" s="32" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="N140" s="33" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="O140" s="33"/>
       <c r="P140" s="30"/>
@@ -18109,10 +18121,10 @@
         <v>755</v>
       </c>
       <c r="M141" s="32" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="N141" s="33" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="O141" s="33"/>
       <c r="P141" s="30"/>
@@ -18158,10 +18170,10 @@
         <v>755</v>
       </c>
       <c r="M142" s="32" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="N142" s="33" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="O142" s="33"/>
       <c r="P142" s="30"/>
@@ -18200,11 +18212,11 @@
       <c r="L143" t="s">
         <v>755</v>
       </c>
-      <c r="M143" s="31" t="s">
-        <v>720</v>
+      <c r="M143" s="32" t="s">
+        <v>735</v>
       </c>
       <c r="N143" s="33" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="O143" s="33"/>
       <c r="P143" s="30"/>
@@ -18233,11 +18245,11 @@
       <c r="L144" t="s">
         <v>755</v>
       </c>
-      <c r="M144" s="31" t="s">
-        <v>718</v>
-      </c>
-      <c r="N144" s="103" t="s">
-        <v>719</v>
+      <c r="M144" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="N144" s="33" t="s">
+        <v>732</v>
       </c>
       <c r="O144" s="33"/>
       <c r="P144" s="30"/>
@@ -18286,11 +18298,11 @@
       <c r="L145" t="s">
         <v>755</v>
       </c>
-      <c r="M145" s="31" t="s">
-        <v>713</v>
+      <c r="M145" s="32" t="s">
+        <v>727</v>
       </c>
       <c r="N145" s="33" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="O145" s="33"/>
       <c r="P145" s="30"/>
@@ -18330,11 +18342,11 @@
       <c r="L146" t="s">
         <v>755</v>
       </c>
-      <c r="M146" s="31" t="s">
-        <v>709</v>
+      <c r="M146" s="32" t="s">
+        <v>725</v>
       </c>
       <c r="N146" s="33" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="O146" s="33"/>
       <c r="P146" s="30"/>
@@ -18362,10 +18374,10 @@
         <v>755</v>
       </c>
       <c r="M147" s="31" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="N147" s="33" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="O147" s="33"/>
       <c r="P147" s="30"/>
@@ -18409,10 +18421,10 @@
         <v>755</v>
       </c>
       <c r="M148" s="31" t="s">
-        <v>702</v>
-      </c>
-      <c r="N148" s="33" t="s">
-        <v>703</v>
+        <v>718</v>
+      </c>
+      <c r="N148" s="103" t="s">
+        <v>719</v>
       </c>
       <c r="O148" s="33"/>
       <c r="P148" s="30"/>
@@ -18452,10 +18464,10 @@
         <v>755</v>
       </c>
       <c r="M149" s="31" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="N149" s="33" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="O149" s="33"/>
       <c r="P149" s="30"/>
@@ -18504,10 +18516,10 @@
         <v>755</v>
       </c>
       <c r="M150" s="31" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="N150" s="33" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="O150" s="33"/>
       <c r="P150" s="30"/>
@@ -18545,10 +18557,10 @@
         <v>755</v>
       </c>
       <c r="M151" s="31" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="N151" s="33" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="O151" s="33"/>
       <c r="P151" s="30"/>
@@ -18593,10 +18605,10 @@
         <v>755</v>
       </c>
       <c r="M152" s="31" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="N152" s="33" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="O152" s="33"/>
       <c r="P152" s="30"/>
@@ -18636,10 +18648,10 @@
         <v>755</v>
       </c>
       <c r="M153" s="31" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="N153" s="33" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="O153" s="33"/>
       <c r="P153" s="30"/>
@@ -18685,10 +18697,10 @@
         <v>755</v>
       </c>
       <c r="M154" s="31" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="N154" s="33" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="O154" s="33"/>
       <c r="P154" s="30"/>
@@ -18727,10 +18739,10 @@
         <v>755</v>
       </c>
       <c r="M155" s="31" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="N155" s="33" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="O155" s="33"/>
       <c r="P155" s="30"/>
@@ -18776,10 +18788,10 @@
         <v>755</v>
       </c>
       <c r="M156" s="31" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="N156" s="33" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="O156" s="33"/>
       <c r="P156" s="30"/>
@@ -18814,17 +18826,13 @@
         <v>755</v>
       </c>
       <c r="M157" s="31" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="N157" s="33" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="O157" s="33"/>
-      <c r="P157" s="101"/>
-      <c r="Q157">
-        <f>318000-173000</f>
-        <v>145000</v>
-      </c>
+      <c r="P157" s="30"/>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158" s="42">
@@ -18866,21 +18874,13 @@
         <v>755</v>
       </c>
       <c r="M158" s="31" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="N158" s="33" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="O158" s="33"/>
       <c r="P158" s="30"/>
-      <c r="Q158">
-        <f>(O160+P160)*1.006</f>
-        <v>239629.2</v>
-      </c>
-      <c r="R158">
-        <f>Q158/8000</f>
-        <v>29.953650000000003</v>
-      </c>
       <c r="S158" t="s">
         <v>117</v>
       </c>
@@ -18916,21 +18916,13 @@
         <v>755</v>
       </c>
       <c r="M159" s="31" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="N159" s="33" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="O159" s="33"/>
       <c r="P159" s="30"/>
-      <c r="Q159">
-        <f>14.5*8000+60800</f>
-        <v>176800</v>
-      </c>
-      <c r="R159">
-        <f>Q159/8000</f>
-        <v>22.1</v>
-      </c>
       <c r="S159" s="2" t="s">
         <v>120</v>
       </c>
@@ -18975,27 +18967,13 @@
         <v>755</v>
       </c>
       <c r="M160" s="31" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="N160" s="33" t="s">
-        <v>669</v>
-      </c>
-      <c r="O160" s="33">
-        <f>(54.6-39.7)*8000+3000</f>
-        <v>122199.99999999999</v>
-      </c>
-      <c r="P160" s="30">
-        <f>14.5*8000</f>
-        <v>116000</v>
-      </c>
-      <c r="Q160">
-        <f>8000*54.6-42.7*8000</f>
-        <v>95200</v>
-      </c>
-      <c r="R160">
-        <f>ROUNDDOWN(P162*1.1,1)</f>
-        <v>39.6</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="O160" s="33"/>
+      <c r="P160" s="30"/>
       <c r="S160" s="2" t="s">
         <v>121</v>
       </c>
@@ -19038,13 +19016,17 @@
         <v>755</v>
       </c>
       <c r="M161" s="31" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="N161" s="33" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="O161" s="33"/>
-      <c r="P161" s="30"/>
+      <c r="P161" s="101"/>
+      <c r="Q161">
+        <f>318000-173000</f>
+        <v>145000</v>
+      </c>
       <c r="S161" s="2" t="s">
         <v>118</v>
       </c>
@@ -19080,18 +19062,20 @@
         <v>755</v>
       </c>
       <c r="M162" s="31" t="s">
-        <v>662</v>
-      </c>
-      <c r="N162" t="s">
-        <v>663</v>
-      </c>
-      <c r="O162" s="32">
-        <f>14.5*8000+8000*57.6</f>
-        <v>576800</v>
-      </c>
-      <c r="P162" s="33">
-        <f>O162/16000</f>
-        <v>36.049999999999997</v>
+        <v>673</v>
+      </c>
+      <c r="N162" s="33" t="s">
+        <v>674</v>
+      </c>
+      <c r="O162" s="33"/>
+      <c r="P162" s="30"/>
+      <c r="Q162">
+        <f>(O164+P164)*1.006</f>
+        <v>239629.2</v>
+      </c>
+      <c r="R162">
+        <f>Q162/8000</f>
+        <v>29.953650000000003</v>
       </c>
       <c r="S162" s="2" t="s">
         <v>119</v>
@@ -19132,13 +19116,21 @@
         <v>755</v>
       </c>
       <c r="M163" s="31" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="N163" s="33" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="O163" s="33"/>
       <c r="P163" s="30"/>
+      <c r="Q163">
+        <f>14.5*8000+60800</f>
+        <v>176800</v>
+      </c>
+      <c r="R163">
+        <f>Q163/8000</f>
+        <v>22.1</v>
+      </c>
       <c r="S163" s="2" t="s">
         <v>123</v>
       </c>
@@ -19174,13 +19166,27 @@
         <v>755</v>
       </c>
       <c r="M164" s="31" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="N164" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="O164" s="33"/>
-      <c r="P164" s="30"/>
+        <v>669</v>
+      </c>
+      <c r="O164" s="33">
+        <f>(54.6-39.7)*8000+3000</f>
+        <v>122199.99999999999</v>
+      </c>
+      <c r="P164" s="30">
+        <f>14.5*8000</f>
+        <v>116000</v>
+      </c>
+      <c r="Q164">
+        <f>8000*54.6-42.7*8000</f>
+        <v>95200</v>
+      </c>
+      <c r="R164">
+        <f>ROUNDDOWN(P166*1.1,1)</f>
+        <v>39.6</v>
+      </c>
       <c r="S164" s="2" t="s">
         <v>126</v>
       </c>
@@ -19222,10 +19228,10 @@
         <v>755</v>
       </c>
       <c r="M165" s="31" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="N165" s="33" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="O165" s="33"/>
       <c r="P165" s="30"/>
@@ -19273,13 +19279,19 @@
         <v>755</v>
       </c>
       <c r="M166" s="31" t="s">
-        <v>652</v>
-      </c>
-      <c r="N166" s="33" t="s">
-        <v>653</v>
-      </c>
-      <c r="O166" s="33"/>
-      <c r="P166" s="30"/>
+        <v>662</v>
+      </c>
+      <c r="N166" t="s">
+        <v>663</v>
+      </c>
+      <c r="O166" s="32">
+        <f>14.5*8000+8000*57.6</f>
+        <v>576800</v>
+      </c>
+      <c r="P166" s="33">
+        <f>O166/16000</f>
+        <v>36.049999999999997</v>
+      </c>
       <c r="S166" s="25" t="s">
         <v>152</v>
       </c>
@@ -19315,10 +19327,10 @@
         <v>755</v>
       </c>
       <c r="M167" s="31" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="N167" s="33" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="O167" s="33"/>
       <c r="P167" s="30"/>
@@ -19357,10 +19369,10 @@
         <v>755</v>
       </c>
       <c r="M168" s="31" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="N168" s="33" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="O168" s="33"/>
       <c r="P168" s="30"/>
@@ -19396,10 +19408,10 @@
         <v>755</v>
       </c>
       <c r="M169" s="31" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="N169" s="33" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="O169" s="33"/>
       <c r="P169" s="30"/>
@@ -19441,10 +19453,10 @@
         <v>755</v>
       </c>
       <c r="M170" s="31" t="s">
-        <v>643</v>
-      </c>
-      <c r="N170" s="32" t="s">
-        <v>644</v>
+        <v>652</v>
+      </c>
+      <c r="N170" s="33" t="s">
+        <v>653</v>
       </c>
       <c r="O170" s="33"/>
       <c r="P170" s="30"/>
@@ -19489,10 +19501,10 @@
         <v>755</v>
       </c>
       <c r="M171" s="31" t="s">
-        <v>641</v>
-      </c>
-      <c r="N171" s="100" t="s">
-        <v>642</v>
+        <v>650</v>
+      </c>
+      <c r="N171" s="33" t="s">
+        <v>651</v>
       </c>
       <c r="O171" s="33"/>
       <c r="P171" s="30"/>
@@ -19528,10 +19540,10 @@
         <v>755</v>
       </c>
       <c r="M172" s="31" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="N172" s="33" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="O172" s="33"/>
       <c r="P172" s="30"/>
@@ -19565,10 +19577,10 @@
         <v>755</v>
       </c>
       <c r="M173" s="31" t="s">
-        <v>637</v>
-      </c>
-      <c r="N173" s="98" t="s">
-        <v>640</v>
+        <v>645</v>
+      </c>
+      <c r="N173" s="33" t="s">
+        <v>646</v>
       </c>
       <c r="O173" s="33"/>
       <c r="P173" s="30"/>
@@ -19613,10 +19625,10 @@
         <v>755</v>
       </c>
       <c r="M174" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="N174" s="33" t="s">
-        <v>636</v>
+        <v>643</v>
+      </c>
+      <c r="N174" s="32" t="s">
+        <v>644</v>
       </c>
       <c r="O174" s="33"/>
       <c r="P174" s="30"/>
@@ -19652,10 +19664,10 @@
         <v>755</v>
       </c>
       <c r="M175" s="31" t="s">
-        <v>633</v>
-      </c>
-      <c r="N175" s="33" t="s">
-        <v>634</v>
+        <v>641</v>
+      </c>
+      <c r="N175" s="100" t="s">
+        <v>642</v>
       </c>
       <c r="O175" s="33"/>
       <c r="P175" s="30"/>
@@ -19691,10 +19703,10 @@
         <v>755</v>
       </c>
       <c r="M176" s="31" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="N176" s="33" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="O176" s="33"/>
       <c r="P176" s="30"/>
@@ -19723,10 +19735,10 @@
         <v>755</v>
       </c>
       <c r="M177" s="31" t="s">
-        <v>629</v>
-      </c>
-      <c r="N177" s="33" t="s">
-        <v>630</v>
+        <v>637</v>
+      </c>
+      <c r="N177" s="98" t="s">
+        <v>640</v>
       </c>
       <c r="O177" s="33"/>
       <c r="P177" s="30"/>
@@ -19771,10 +19783,10 @@
         <v>755</v>
       </c>
       <c r="M178" s="31" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="N178" s="33" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="O178" s="33"/>
       <c r="P178" s="30"/>
@@ -19810,10 +19822,10 @@
         <v>755</v>
       </c>
       <c r="M179" s="31" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="N179" s="33" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="O179" s="33"/>
       <c r="P179" s="30"/>
@@ -19849,10 +19861,10 @@
         <v>755</v>
       </c>
       <c r="M180" s="31" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="N180" s="33" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="O180" s="33"/>
       <c r="P180" s="30"/>
@@ -19897,10 +19909,10 @@
         <v>755</v>
       </c>
       <c r="M181" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="N181" s="32" t="s">
-        <v>621</v>
+        <v>629</v>
+      </c>
+      <c r="N181" s="33" t="s">
+        <v>630</v>
       </c>
       <c r="O181" s="33"/>
       <c r="P181" s="30"/>
@@ -19936,10 +19948,10 @@
         <v>755</v>
       </c>
       <c r="M182" s="31" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="N182" s="33" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="O182" s="33"/>
       <c r="P182" s="30"/>
@@ -19975,10 +19987,10 @@
         <v>755</v>
       </c>
       <c r="M183" s="31" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="N183" s="33" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="O183" s="33"/>
       <c r="P183" s="30"/>
@@ -20014,10 +20026,10 @@
         <v>755</v>
       </c>
       <c r="M184" s="31" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="N184" s="33" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="O184" s="33"/>
       <c r="P184" s="30"/>
@@ -20046,10 +20058,10 @@
         <v>755</v>
       </c>
       <c r="M185" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="N185" s="33" t="s">
-        <v>442</v>
+        <v>620</v>
+      </c>
+      <c r="N185" s="32" t="s">
+        <v>621</v>
       </c>
       <c r="O185" s="33"/>
       <c r="P185" s="30"/>
@@ -20076,10 +20088,10 @@
         <v>755</v>
       </c>
       <c r="M186" s="31" t="s">
-        <v>438</v>
+        <v>618</v>
       </c>
       <c r="N186" s="33" t="s">
-        <v>439</v>
+        <v>619</v>
       </c>
       <c r="O186" s="33"/>
       <c r="P186" s="30"/>
@@ -20115,10 +20127,10 @@
         <v>755</v>
       </c>
       <c r="M187" s="31" t="s">
-        <v>436</v>
+        <v>616</v>
       </c>
       <c r="N187" s="33" t="s">
-        <v>437</v>
+        <v>617</v>
       </c>
       <c r="O187" s="33"/>
       <c r="P187" s="30"/>
@@ -20154,10 +20166,10 @@
         <v>755</v>
       </c>
       <c r="M188" s="31" t="s">
-        <v>427</v>
+        <v>613</v>
       </c>
       <c r="N188" s="33" t="s">
-        <v>428</v>
+        <v>614</v>
       </c>
       <c r="O188" s="33"/>
       <c r="P188" s="30"/>
@@ -20191,10 +20203,10 @@
         <v>755</v>
       </c>
       <c r="M189" s="31" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="N189" s="33" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="O189" s="33"/>
       <c r="P189" s="30"/>
@@ -20232,10 +20244,10 @@
         <v>755</v>
       </c>
       <c r="M190" s="31" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="N190" s="33" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="O190" s="33"/>
       <c r="P190" s="30"/>
@@ -20273,10 +20285,10 @@
         <v>755</v>
       </c>
       <c r="M191" s="31" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="N191" s="33" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="O191" s="33"/>
       <c r="P191" s="30"/>
@@ -20303,10 +20315,10 @@
         <v>755</v>
       </c>
       <c r="M192" s="31" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="N192" s="33" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="O192" s="33"/>
       <c r="P192" s="30"/>
@@ -20340,10 +20352,10 @@
         <v>755</v>
       </c>
       <c r="M193" s="31" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="N193" s="33" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="O193" s="33"/>
       <c r="P193" s="30"/>
@@ -20369,11 +20381,11 @@
       <c r="L194" t="s">
         <v>755</v>
       </c>
-      <c r="M194" s="63" t="s">
-        <v>414</v>
+      <c r="M194" s="31" t="s">
+        <v>423</v>
       </c>
       <c r="N194" s="33" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="O194" s="33"/>
       <c r="P194" s="30"/>
@@ -20407,10 +20419,10 @@
         <v>755</v>
       </c>
       <c r="M195" s="31" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="N195" s="33" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="O195" s="33"/>
       <c r="P195" s="30"/>
@@ -20449,10 +20461,10 @@
         <v>755</v>
       </c>
       <c r="M196" s="31" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="N196" s="33" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="O196" s="33"/>
       <c r="P196" s="30"/>
@@ -20481,10 +20493,10 @@
         <v>755</v>
       </c>
       <c r="M197" s="31" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="N197" s="33" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="O197" s="33"/>
       <c r="P197" s="30"/>
@@ -20515,11 +20527,11 @@
       <c r="L198" t="s">
         <v>755</v>
       </c>
-      <c r="M198" s="31" t="s">
-        <v>398</v>
+      <c r="M198" s="63" t="s">
+        <v>414</v>
       </c>
       <c r="N198" s="33" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="O198" s="33"/>
       <c r="P198" s="30"/>
@@ -20553,10 +20565,10 @@
         <v>755</v>
       </c>
       <c r="M199" s="31" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="N199" s="33" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="O199" s="33"/>
       <c r="P199" s="30"/>
@@ -20583,10 +20595,10 @@
         <v>755</v>
       </c>
       <c r="M200" s="31" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="N200" s="33" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="O200" s="33"/>
       <c r="P200" s="30"/>
@@ -20624,10 +20636,10 @@
         <v>755</v>
       </c>
       <c r="M201" s="31" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="N201" s="33" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="O201" s="33"/>
       <c r="P201" s="30"/>
@@ -20656,10 +20668,10 @@
         <v>755</v>
       </c>
       <c r="M202" s="31" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="N202" s="33" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="O202" s="33"/>
       <c r="P202" s="30"/>
@@ -20697,10 +20709,10 @@
         <v>755</v>
       </c>
       <c r="M203" s="31" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="N203" s="33" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="O203" s="33"/>
       <c r="P203" s="30"/>
@@ -20733,11 +20745,11 @@
       <c r="L204" t="s">
         <v>755</v>
       </c>
-      <c r="M204" s="61" t="s">
-        <v>382</v>
+      <c r="M204" s="31" t="s">
+        <v>394</v>
       </c>
       <c r="N204" s="33" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="O204" s="33"/>
       <c r="P204" s="30"/>
@@ -20773,10 +20785,10 @@
         <v>755</v>
       </c>
       <c r="M205" s="31" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="N205" s="33" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="O205" s="33"/>
       <c r="P205" s="30"/>
@@ -20814,10 +20826,10 @@
         <v>755</v>
       </c>
       <c r="M206" s="31" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="N206" s="33" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="O206" s="33"/>
       <c r="P206" s="30"/>
@@ -20852,10 +20864,10 @@
         <v>755</v>
       </c>
       <c r="M207" s="31" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="N207" s="33" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="O207" s="33"/>
       <c r="P207" s="30"/>
@@ -20891,11 +20903,11 @@
       <c r="L208" t="s">
         <v>755</v>
       </c>
-      <c r="M208" s="31" t="s">
-        <v>370</v>
+      <c r="M208" s="61" t="s">
+        <v>382</v>
       </c>
       <c r="N208" s="33" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="O208" s="33"/>
       <c r="P208" s="30"/>
@@ -20931,10 +20943,10 @@
         <v>755</v>
       </c>
       <c r="M209" s="31" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="N209" s="33" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="O209" s="33"/>
       <c r="P209" s="30"/>
@@ -20970,10 +20982,10 @@
         <v>755</v>
       </c>
       <c r="M210" s="31" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="N210" s="33" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="O210" s="33"/>
       <c r="P210" s="30"/>
@@ -21011,10 +21023,10 @@
         <v>755</v>
       </c>
       <c r="M211" s="31" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="N211" s="33" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="O211" s="33"/>
       <c r="P211" s="30"/>
@@ -21050,10 +21062,10 @@
         <v>755</v>
       </c>
       <c r="M212" s="31" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="N212" s="33" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="O212" s="33"/>
       <c r="P212" s="30"/>
@@ -21089,10 +21101,10 @@
         <v>755</v>
       </c>
       <c r="M213" s="31" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="N213" s="33" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="O213" s="33"/>
       <c r="P213" s="30"/>
@@ -21128,10 +21140,10 @@
         <v>755</v>
       </c>
       <c r="M214" s="31" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="N214" s="33" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="O214" s="33"/>
       <c r="P214" s="30"/>
@@ -21169,10 +21181,10 @@
         <v>755</v>
       </c>
       <c r="M215" s="31" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="N215" s="33" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="O215" s="33"/>
       <c r="P215" s="30"/>
@@ -21208,10 +21220,10 @@
         <v>755</v>
       </c>
       <c r="M216" s="31" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="N216" s="33" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="O216" s="33"/>
       <c r="P216" s="30"/>
@@ -21247,10 +21259,10 @@
         <v>755</v>
       </c>
       <c r="M217" s="31" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="N217" s="33" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="O217" s="33"/>
       <c r="P217" s="30"/>
@@ -21277,10 +21289,10 @@
         <v>755</v>
       </c>
       <c r="M218" s="31" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="N218" s="33" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="O218" s="33"/>
       <c r="P218" s="30"/>
@@ -21318,10 +21330,10 @@
         <v>755</v>
       </c>
       <c r="M219" s="31" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="N219" s="33" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="O219" s="33"/>
       <c r="P219" s="30"/>
@@ -21360,10 +21372,10 @@
         <v>755</v>
       </c>
       <c r="M220" s="31" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="N220" s="33" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="O220" s="33"/>
       <c r="P220" s="30"/>
@@ -21390,10 +21402,10 @@
         <v>755</v>
       </c>
       <c r="M221" s="31" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="N221" s="33" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="O221" s="33"/>
       <c r="P221" s="30"/>
@@ -21431,10 +21443,10 @@
         <v>755</v>
       </c>
       <c r="M222" s="31" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="N222" s="33" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="O222" s="33"/>
       <c r="P222" s="30"/>
@@ -21470,10 +21482,10 @@
         <v>755</v>
       </c>
       <c r="M223" s="31" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="N223" s="33" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="O223" s="33"/>
       <c r="P223" s="30"/>
@@ -21500,10 +21512,10 @@
         <v>755</v>
       </c>
       <c r="M224" s="31" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="N224" s="33" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="O224" s="33"/>
       <c r="P224" s="30"/>
@@ -21540,10 +21552,10 @@
         <v>755</v>
       </c>
       <c r="M225" s="31" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="N225" s="33" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="O225" s="33"/>
       <c r="P225" s="30"/>
@@ -21579,12 +21591,12 @@
         <v>755</v>
       </c>
       <c r="M226" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="N226" s="32"/>
-      <c r="O226" s="33" t="s">
-        <v>290</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N226" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="O226" s="33"/>
       <c r="P226" s="30"/>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.35">
@@ -21618,12 +21630,12 @@
         <v>755</v>
       </c>
       <c r="M227" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="N227" s="32"/>
-      <c r="O227" s="33" t="s">
-        <v>259</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N227" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="O227" s="33"/>
       <c r="P227" s="30"/>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.35">
@@ -21657,12 +21669,12 @@
         <v>755</v>
       </c>
       <c r="M228" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="N228" s="32"/>
-      <c r="O228" s="33" t="s">
-        <v>255</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N228" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="O228" s="33"/>
       <c r="P228" s="30"/>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.35">
@@ -21694,12 +21706,12 @@
         <v>755</v>
       </c>
       <c r="M229" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N229" s="32"/>
-      <c r="O229" s="33" t="s">
-        <v>251</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N229" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="O229" s="33"/>
       <c r="P229" s="30"/>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.35">
@@ -21731,11 +21743,11 @@
         <v>755</v>
       </c>
       <c r="M230" s="31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="N230" s="32"/>
       <c r="O230" s="33" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="P230" s="30"/>
     </row>
@@ -21768,11 +21780,11 @@
         <v>755</v>
       </c>
       <c r="M231" s="31" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="N231" s="32"/>
       <c r="O231" s="33" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="P231" s="30"/>
     </row>
@@ -21807,11 +21819,11 @@
         <v>755</v>
       </c>
       <c r="M232" s="31" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="N232" s="32"/>
       <c r="O232" s="33" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P232" s="30"/>
     </row>
@@ -21846,11 +21858,11 @@
         <v>755</v>
       </c>
       <c r="M233" s="31" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="N233" s="32"/>
       <c r="O233" s="33" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="P233" s="30"/>
     </row>
@@ -21885,11 +21897,11 @@
         <v>755</v>
       </c>
       <c r="M234" s="31" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="N234" s="32"/>
       <c r="O234" s="33" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="P234" s="30"/>
     </row>
@@ -21926,11 +21938,11 @@
         <v>755</v>
       </c>
       <c r="M235" s="31" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="N235" s="32"/>
       <c r="O235" s="33" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="P235" s="30"/>
     </row>
@@ -21959,11 +21971,11 @@
         <v>755</v>
       </c>
       <c r="M236" s="31" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="N236" s="32"/>
       <c r="O236" s="33" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="P236" s="30"/>
     </row>
@@ -21991,11 +22003,11 @@
         <v>755</v>
       </c>
       <c r="M237" s="31" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="N237" s="32"/>
       <c r="O237" s="33" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="P237" s="30"/>
     </row>
@@ -22023,11 +22035,11 @@
         <v>755</v>
       </c>
       <c r="M238" s="31" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="N238" s="32"/>
       <c r="O238" s="33" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="P238" s="30"/>
     </row>
@@ -22062,11 +22074,11 @@
         <v>755</v>
       </c>
       <c r="M239" s="31" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="N239" s="32"/>
       <c r="O239" s="33" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="P239" s="30"/>
     </row>
@@ -22101,11 +22113,11 @@
         <v>755</v>
       </c>
       <c r="M240" s="31" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="N240" s="32"/>
       <c r="O240" s="33" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="P240" s="30"/>
     </row>
@@ -22129,17 +22141,13 @@
         <v>755</v>
       </c>
       <c r="M241" s="31" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="N241" s="32"/>
       <c r="O241" s="33" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="P241" s="30"/>
-      <c r="Q241">
-        <f>20000*5</f>
-        <v>100000</v>
-      </c>
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A242" s="42">
@@ -22161,17 +22169,13 @@
         <v>755</v>
       </c>
       <c r="M242" s="31" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="N242" s="32"/>
       <c r="O242" s="33" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="P242" s="30"/>
-      <c r="Q242">
-        <f>20000*5</f>
-        <v>100000</v>
-      </c>
       <c r="S242" s="132"/>
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.35">
@@ -22204,11 +22208,12 @@
       <c r="L243" t="s">
         <v>755</v>
       </c>
-      <c r="M243" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="O243" t="s">
-        <v>164</v>
+      <c r="M243" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="N243" s="32"/>
+      <c r="O243" s="33" t="s">
+        <v>201</v>
       </c>
       <c r="P243" s="30"/>
       <c r="S243" s="132"/>
@@ -22243,13 +22248,14 @@
       <c r="L244" t="s">
         <v>755</v>
       </c>
-      <c r="M244" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="O244">
-        <f>5000*6+5000*5.7+5000*5.3+5000*5</f>
-        <v>110000</v>
-      </c>
+      <c r="M244" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="N244" s="32"/>
+      <c r="O244" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="P244" s="30"/>
       <c r="S244" s="2"/>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.35">
@@ -22271,12 +22277,17 @@
       <c r="L245" t="s">
         <v>755</v>
       </c>
-      <c r="M245" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="O245">
-        <f>5000*6.5+5000*6+5000*5.5+5000*5</f>
-        <v>115000</v>
+      <c r="M245" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="N245" s="32"/>
+      <c r="O245" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="P245" s="30"/>
+      <c r="Q245">
+        <f>20000*5</f>
+        <v>100000</v>
       </c>
       <c r="S245" s="2"/>
     </row>
@@ -22310,6 +22321,18 @@
       <c r="L246" t="s">
         <v>755</v>
       </c>
+      <c r="M246" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="N246" s="32"/>
+      <c r="O246" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="P246" s="30"/>
+      <c r="Q246">
+        <f>20000*5</f>
+        <v>100000</v>
+      </c>
       <c r="S246" s="2"/>
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.35">
@@ -22344,11 +22367,12 @@
       <c r="L247" t="s">
         <v>755</v>
       </c>
-      <c r="M247" s="110" t="s">
-        <v>840</v>
-      </c>
-      <c r="N247" s="30"/>
-      <c r="O247" s="30"/>
+      <c r="M247" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="O247" t="s">
+        <v>164</v>
+      </c>
       <c r="P247" s="30"/>
       <c r="S247" s="2"/>
     </row>
@@ -22384,12 +22408,13 @@
       <c r="L248" t="s">
         <v>755</v>
       </c>
-      <c r="M248" s="31"/>
-      <c r="N248" t="s">
-        <v>841</v>
-      </c>
-      <c r="O248" s="30"/>
-      <c r="P248" s="30"/>
+      <c r="M248" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="O248">
+        <f>5000*6+5000*5.7+5000*5.3+5000*5</f>
+        <v>110000</v>
+      </c>
       <c r="S248" s="2"/>
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.35">
@@ -22424,12 +22449,13 @@
       <c r="L249" t="s">
         <v>755</v>
       </c>
-      <c r="M249" s="31"/>
-      <c r="N249" s="30" t="s">
-        <v>868</v>
-      </c>
-      <c r="O249" s="30"/>
-      <c r="P249" s="30"/>
+      <c r="M249" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="O249">
+        <f>5000*6.5+5000*6+5000*5.5+5000*5</f>
+        <v>115000</v>
+      </c>
       <c r="S249" s="2"/>
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.35">
@@ -22451,9 +22477,6 @@
       <c r="L250" t="s">
         <v>755</v>
       </c>
-      <c r="N250" s="30"/>
-      <c r="O250" s="30"/>
-      <c r="P250" s="30"/>
       <c r="S250" s="2"/>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.35">
@@ -22475,11 +22498,11 @@
       <c r="L251" t="s">
         <v>755</v>
       </c>
-      <c r="M251" s="31" t="s">
-        <v>754</v>
-      </c>
-      <c r="N251" s="32"/>
-      <c r="O251" s="33"/>
+      <c r="M251" s="110" t="s">
+        <v>840</v>
+      </c>
+      <c r="N251" s="30"/>
+      <c r="O251" s="30"/>
       <c r="P251" s="30"/>
       <c r="S251" s="2"/>
     </row>
@@ -22502,13 +22525,11 @@
       <c r="L252" t="s">
         <v>755</v>
       </c>
-      <c r="M252" s="109" t="s">
-        <v>814</v>
-      </c>
-      <c r="N252" s="32" t="s">
-        <v>710</v>
-      </c>
-      <c r="O252" s="33"/>
+      <c r="M252" s="31"/>
+      <c r="N252" t="s">
+        <v>841</v>
+      </c>
+      <c r="O252" s="30"/>
       <c r="P252" s="30"/>
       <c r="S252" s="2"/>
     </row>
@@ -22531,13 +22552,11 @@
       <c r="L253" t="s">
         <v>755</v>
       </c>
-      <c r="M253" t="s">
-        <v>755</v>
-      </c>
-      <c r="N253" s="32" t="s">
-        <v>723</v>
-      </c>
-      <c r="O253" s="33"/>
+      <c r="M253" s="31"/>
+      <c r="N253" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="O253" s="30"/>
       <c r="P253" s="30"/>
       <c r="S253" s="2"/>
     </row>
@@ -22560,13 +22579,8 @@
       <c r="L254" t="s">
         <v>755</v>
       </c>
-      <c r="M254" s="33" t="s">
-        <v>755</v>
-      </c>
-      <c r="N254" s="33" t="s">
-        <v>769</v>
-      </c>
-      <c r="O254" s="33"/>
+      <c r="N254" s="30"/>
+      <c r="O254" s="30"/>
       <c r="P254" s="30"/>
       <c r="S254" s="2"/>
     </row>
@@ -22600,19 +22614,12 @@
       <c r="L255" t="s">
         <v>755</v>
       </c>
-      <c r="M255" s="28" t="s">
-        <v>755</v>
-      </c>
-      <c r="N255" s="32" t="s">
-        <v>729</v>
-      </c>
-      <c r="O255" s="33">
-        <v>46.5</v>
-      </c>
-      <c r="P255" s="30">
-        <f>((O255-1.2)/1.05*2+13.5)/3</f>
-        <v>33.261904761904759</v>
-      </c>
+      <c r="M255" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="N255" s="32"/>
+      <c r="O255" s="33"/>
+      <c r="P255" s="30"/>
       <c r="S255" s="2"/>
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.35">
@@ -22650,10 +22657,12 @@
       <c r="L256" t="s">
         <v>755</v>
       </c>
-      <c r="M256" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="N256" s="32"/>
+      <c r="M256" s="109" t="s">
+        <v>814</v>
+      </c>
+      <c r="N256" s="32" t="s">
+        <v>710</v>
+      </c>
       <c r="O256" s="33"/>
       <c r="P256" s="30"/>
       <c r="S256" s="2"/>
@@ -22678,11 +22687,11 @@
       <c r="K257" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="M257" s="28" t="s">
+      <c r="M257" t="s">
         <v>755</v>
       </c>
-      <c r="N257" s="111" t="s">
-        <v>869</v>
+      <c r="N257" s="32" t="s">
+        <v>723</v>
       </c>
       <c r="O257" s="33"/>
       <c r="P257" s="30"/>
@@ -22715,11 +22724,11 @@
       <c r="K258" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="M258" s="28" t="s">
+      <c r="M258" s="33" t="s">
         <v>755</v>
       </c>
-      <c r="N258" s="111" t="s">
-        <v>870</v>
+      <c r="N258" s="33" t="s">
+        <v>769</v>
       </c>
       <c r="O258" s="33"/>
       <c r="P258" s="30"/>
@@ -22755,11 +22764,18 @@
         <v>138</v>
       </c>
       <c r="M259" s="28" t="s">
-        <v>772</v>
-      </c>
-      <c r="N259" s="33"/>
-      <c r="O259" s="33"/>
-      <c r="P259" s="30"/>
+        <v>755</v>
+      </c>
+      <c r="N259" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="O259" s="33">
+        <v>46.5</v>
+      </c>
+      <c r="P259" s="30">
+        <f>((O259-1.2)/1.05*2+13.5)/3</f>
+        <v>33.261904761904759</v>
+      </c>
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A260" s="42">
@@ -22779,10 +22795,10 @@
       <c r="K260" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="M260" s="28"/>
-      <c r="N260" s="33" t="s">
-        <v>767</v>
-      </c>
+      <c r="M260" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="N260" s="32"/>
       <c r="O260" s="33"/>
       <c r="P260" s="30"/>
     </row>
@@ -22813,14 +22829,13 @@
       <c r="K261" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="M261" s="28"/>
-      <c r="N261" s="105" t="s">
-        <v>768</v>
-      </c>
-      <c r="O261" s="33">
-        <f>(2*48.7+1*14)/3</f>
-        <v>37.133333333333333</v>
-      </c>
+      <c r="M261" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="N261" s="111" t="s">
+        <v>869</v>
+      </c>
+      <c r="O261" s="33"/>
       <c r="P261" s="30"/>
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.35">
@@ -22842,9 +22857,11 @@
       <c r="J262" s="23"/>
       <c r="K262" s="44"/>
       <c r="M262" s="28" t="s">
-        <v>804</v>
-      </c>
-      <c r="N262" s="105"/>
+        <v>755</v>
+      </c>
+      <c r="N262" s="111" t="s">
+        <v>870</v>
+      </c>
       <c r="O262" s="33"/>
       <c r="P262" s="30"/>
     </row>
@@ -22877,9 +22894,12 @@
       <c r="K263" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="N263" s="105" t="s">
-        <v>803</v>
-      </c>
+      <c r="M263" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="N263" s="33"/>
+      <c r="O263" s="33"/>
+      <c r="P263" s="30"/>
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A264" s="42">
@@ -22899,6 +22919,12 @@
       <c r="I264" s="66"/>
       <c r="J264" s="23"/>
       <c r="K264" s="44"/>
+      <c r="M264" s="28"/>
+      <c r="N264" s="33" t="s">
+        <v>767</v>
+      </c>
+      <c r="O264" s="33"/>
+      <c r="P264" s="30"/>
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A265" s="42">
@@ -22929,6 +22955,15 @@
       <c r="K265" s="44" t="s">
         <v>124</v>
       </c>
+      <c r="M265" s="28"/>
+      <c r="N265" s="105" t="s">
+        <v>768</v>
+      </c>
+      <c r="O265" s="33">
+        <f>(2*48.7+1*14)/3</f>
+        <v>37.133333333333333</v>
+      </c>
+      <c r="P265" s="30"/>
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A266" s="42">
@@ -22957,6 +22992,12 @@
       <c r="K266" s="44" t="s">
         <v>122</v>
       </c>
+      <c r="M266" s="28" t="s">
+        <v>804</v>
+      </c>
+      <c r="N266" s="105"/>
+      <c r="O266" s="33"/>
+      <c r="P266" s="30"/>
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A267" s="42">
@@ -22987,6 +23028,9 @@
       <c r="J267" s="23"/>
       <c r="K267" s="44" t="s">
         <v>116</v>
+      </c>
+      <c r="N267" s="105" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.35">
@@ -23763,7 +23807,7 @@
         <v>1022</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="U3" s="11">
         <f>M4/5+U4</f>
@@ -23814,7 +23858,7 @@
         <v>1023</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="U4" s="11">
         <f>U5-V5</f>
@@ -23852,14 +23896,14 @@
         <v>755</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="M5" s="20">
         <f>SUM(G:G)-M3-U5</f>
         <v>-1225.2999999996391</v>
       </c>
       <c r="T5" s="159" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="U5" s="159">
         <f>SUM(U7:U14)</f>
@@ -23914,16 +23958,16 @@
         <v>143</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="X6" s="135" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="Y6" s="135" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AA6" t="s">
         <v>1109</v>
@@ -23953,14 +23997,14 @@
         <v>755</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="M7" s="20"/>
       <c r="O7" s="139" t="s">
         <v>974</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
@@ -24007,7 +24051,7 @@
         <v>975</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
@@ -24040,7 +24084,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="151"/>
       <c r="J9" s="44" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="K9" t="s">
         <v>755</v>
@@ -24055,7 +24099,7 @@
         <v>976</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
@@ -24088,7 +24132,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="151"/>
       <c r="J10" s="44" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="K10" t="s">
         <v>755</v>
@@ -24099,7 +24143,7 @@
         <v>978</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
@@ -24146,7 +24190,7 @@
         <v>2000</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="K11" t="s">
         <v>755</v>
@@ -24155,7 +24199,7 @@
         <v>979</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
@@ -24188,13 +24232,13 @@
       <c r="H12" s="23"/>
       <c r="I12" s="151"/>
       <c r="J12" s="44" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="K12" t="s">
         <v>755</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
@@ -24240,7 +24284,7 @@
         <v>5000</v>
       </c>
       <c r="J13" s="44" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="K13" t="s">
         <v>755</v>
@@ -24249,7 +24293,7 @@
         <v>1200</v>
       </c>
       <c r="M13" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="O13" s="133" t="s">
         <v>987</v>
@@ -24303,16 +24347,16 @@
       </c>
       <c r="I14" s="151"/>
       <c r="J14" s="44" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="K14" t="s">
         <v>755</v>
       </c>
       <c r="L14" t="s">
+        <v>1309</v>
+      </c>
+      <c r="M14" t="s">
         <v>1310</v>
-      </c>
-      <c r="M14" t="s">
-        <v>1311</v>
       </c>
       <c r="O14" s="139" t="s">
         <v>974</v>
@@ -24352,7 +24396,7 @@
         <v>44762</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C15" s="15">
         <f>13+59+15</f>
@@ -24375,13 +24419,13 @@
       </c>
       <c r="I15" s="151"/>
       <c r="J15" s="44" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="L15" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="M15" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="O15" s="139" t="s">
         <v>1025</v>
@@ -24398,7 +24442,7 @@
         <v>44761</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C16" s="15">
         <v>20</v>
@@ -24420,10 +24464,10 @@
       <c r="I16" s="151"/>
       <c r="J16" s="44"/>
       <c r="L16" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="M16" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AA16" t="s">
         <v>1099</v>
@@ -24437,7 +24481,7 @@
         <v>44760</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C17" s="15">
         <v>140</v>
@@ -24459,13 +24503,13 @@
       </c>
       <c r="I17" s="151"/>
       <c r="J17" s="44" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="L17" t="s">
+        <v>1294</v>
+      </c>
+      <c r="M17" t="s">
         <v>1295</v>
-      </c>
-      <c r="M17" t="s">
-        <v>1296</v>
       </c>
       <c r="AA17" t="s">
         <v>1098</v>
@@ -24502,13 +24546,13 @@
         <v>10000</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="L18" t="s">
+        <v>1276</v>
+      </c>
+      <c r="M18" t="s">
         <v>1277</v>
-      </c>
-      <c r="M18" t="s">
-        <v>1278</v>
       </c>
       <c r="AA18" t="s">
         <v>1097</v>
@@ -24547,13 +24591,13 @@
         <v>5000</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="L19" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="M19" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="11" t="s">
@@ -24590,13 +24634,13 @@
       </c>
       <c r="I20" s="151"/>
       <c r="J20" s="44" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="L20" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="M20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="P20" s="12" t="s">
         <v>953</v>
@@ -24636,13 +24680,13 @@
       </c>
       <c r="I21" s="151"/>
       <c r="J21" s="44" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="L21" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M21" t="s">
         <v>1259</v>
-      </c>
-      <c r="M21" t="s">
-        <v>1260</v>
       </c>
       <c r="P21" s="136" t="s">
         <v>956</v>
@@ -24695,13 +24739,13 @@
         <v>20000</v>
       </c>
       <c r="J22" s="44" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="L22" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="M22" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="AA22" t="s">
         <v>1093</v>
@@ -24715,7 +24759,7 @@
         <v>44750</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C23" s="15">
         <v>600</v>
@@ -24740,13 +24784,13 @@
         <v>5500</v>
       </c>
       <c r="J23" s="44" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="L23" t="s">
+        <v>1250</v>
+      </c>
+      <c r="M23" t="s">
         <v>1251</v>
-      </c>
-      <c r="M23" t="s">
-        <v>1252</v>
       </c>
       <c r="AA23" t="s">
         <v>1092</v>
@@ -24760,7 +24804,7 @@
         <v>44749</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C24" s="15">
         <v>900</v>
@@ -24785,13 +24829,13 @@
         <v>10000</v>
       </c>
       <c r="J24" s="44" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L24" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="M24" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AA24" t="s">
         <v>1091</v>
@@ -24830,13 +24874,13 @@
         <v>25000</v>
       </c>
       <c r="J25" s="44" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="L25" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M25" t="s">
         <v>1242</v>
-      </c>
-      <c r="M25" t="s">
-        <v>1243</v>
       </c>
       <c r="P25" s="113" t="s">
         <v>871</v>
@@ -24888,13 +24932,13 @@
         <v>5000</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L26" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M26" t="s">
         <v>1236</v>
-      </c>
-      <c r="M26" t="s">
-        <v>1237</v>
       </c>
       <c r="Q26" s="112" t="s">
         <v>1027</v>
@@ -24945,13 +24989,13 @@
         <v>5000</v>
       </c>
       <c r="J27" s="44" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L27" t="s">
+        <v>1229</v>
+      </c>
+      <c r="M27" t="s">
         <v>1230</v>
-      </c>
-      <c r="M27" t="s">
-        <v>1231</v>
       </c>
       <c r="Q27" s="11" t="s">
         <v>193</v>
@@ -25002,13 +25046,13 @@
         <v>3000</v>
       </c>
       <c r="J28" s="44" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="L28" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="M28" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Q28" s="11" t="s">
         <v>194</v>
@@ -25065,13 +25109,13 @@
         <v>5000</v>
       </c>
       <c r="J29" s="44" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="L29" t="s">
+        <v>1210</v>
+      </c>
+      <c r="M29" t="s">
         <v>1211</v>
-      </c>
-      <c r="M29" t="s">
-        <v>1212</v>
       </c>
       <c r="Q29" s="11" t="s">
         <v>872</v>
@@ -25114,13 +25158,13 @@
       </c>
       <c r="I30" s="151"/>
       <c r="J30" s="44" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="L30" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M30" t="s">
         <v>1208</v>
-      </c>
-      <c r="M30" t="s">
-        <v>1209</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>873</v>
@@ -25164,13 +25208,13 @@
       </c>
       <c r="I31" s="151"/>
       <c r="J31" s="44" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="L31" t="s">
         <v>1125</v>
       </c>
       <c r="M31" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q31" s="11" t="s">
         <v>877</v>
@@ -25227,7 +25271,7 @@
         <v>5000</v>
       </c>
       <c r="J32" s="44" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="L32" t="s">
         <v>1196</v>
@@ -25277,7 +25321,7 @@
         <v>10000</v>
       </c>
       <c r="J33" s="44" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="L33" t="s">
         <v>1126</v>
@@ -25336,7 +25380,7 @@
         <v>10000</v>
       </c>
       <c r="J34" s="44" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="L34" t="s">
         <v>1187</v>
@@ -25381,7 +25425,7 @@
         <v>10000</v>
       </c>
       <c r="J35" s="44" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L35" t="s">
         <v>1182</v>
@@ -25434,7 +25478,7 @@
         <v>5000</v>
       </c>
       <c r="J36" s="44" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="L36" t="s">
         <v>1178</v>
@@ -25473,7 +25517,7 @@
         <v>5000</v>
       </c>
       <c r="J37" s="44" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="L37" t="s">
         <v>1173</v>
@@ -26400,52 +26444,52 @@
         <v>191</v>
       </c>
       <c r="B1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C1" t="s">
         <v>1286</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1287</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1288</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="10" t="s">
         <v>1289</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>1290</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>1291</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>1292</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>1293</v>
-      </c>
       <c r="J1" s="166" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K1" s="166" t="s">
         <v>1274</v>
       </c>
-      <c r="K1" s="166" t="s">
-        <v>1275</v>
-      </c>
       <c r="L1" s="166" t="s">
+        <v>1282</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Q1" t="s">
         <v>1283</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>1285</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>1282</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>1281</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -30667,7 +30711,7 @@
         <v>44768</v>
       </c>
       <c r="B8" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -30675,13 +30719,13 @@
         <v>44768</v>
       </c>
       <c r="B9" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C9">
         <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -30689,14 +30733,14 @@
         <v>44768</v>
       </c>
       <c r="B10" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C10">
         <f>29+25</f>
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
